--- a/data/EnemyTemplates.xlsx
+++ b/data/EnemyTemplates.xlsx
@@ -654,9 +654,6 @@
     <t>HARD (Max 15 STR, Max 1 DEF)</t>
   </si>
   <si>
-    <t>EXTREME (Max 18 STR, Max 2 DEF)</t>
-  </si>
-  <si>
     <t>OLD NORMAL (Max 11 STR, 0 DEF)</t>
   </si>
   <si>
@@ -664,6 +661,9 @@
   </si>
   <si>
     <t>NORMAL (Max 8 STR, 0 DEF)</t>
+  </si>
+  <si>
+    <t>EXTREME (Max 17 STR, Max 2 DEF)</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1213,10 @@
   <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3:W112"/>
+      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1245,19 +1245,19 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
       <c r="N1" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
@@ -1269,7 +1269,7 @@
       <c r="T1" s="36"/>
       <c r="U1" s="36"/>
       <c r="V1" s="36" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="W1" s="36"/>
       <c r="X1" s="36"/>
@@ -1437,7 +1437,7 @@
         <v>00</v>
       </c>
       <c r="W3" s="4" t="str">
-        <f>IF($C3="00",$C3,DEC2HEX(MAX(ROUND(HEX2DEC($C3)*41/90+2,0),3),2))</f>
+        <f>IF($C3="00",$C3,DEC2HEX(MAX(ROUND(HEX2DEC($C3)*6/15+3,0),2),2))</f>
         <v>00</v>
       </c>
       <c r="X3" s="4" t="str">
@@ -1534,8 +1534,8 @@
         <v>06</v>
       </c>
       <c r="W4" s="4" t="str">
-        <f t="shared" ref="W4:W67" si="17">IF($C4="00",$C4,DEC2HEX(MAX(ROUND(HEX2DEC($C4)*41/90+2,0),3),2))</f>
-        <v>03</v>
+        <f t="shared" ref="W4:W67" si="17">IF($C4="00",$C4,DEC2HEX(MAX(ROUND(HEX2DEC($C4)*6/15+3,0),2),2))</f>
+        <v>04</v>
       </c>
       <c r="X4" s="4" t="str">
         <f t="shared" ref="X4:X67" si="18">IF(OR($D4="7F",$D4="FF"),$D4,DEC2HEX(ROUND(HEX2DEC($D4)*6/65,0),2))</f>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="W6" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="X6" s="4" t="str">
         <f t="shared" si="18"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="W7" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="X7" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="W10" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="X10" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="W11" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="X11" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="W12" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="X12" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="W13" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="X13" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="W14" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="X14" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="W15" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="X15" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="W16" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>05</v>
       </c>
       <c r="X16" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="W17" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="X17" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="W18" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="X18" s="4" t="str">
         <f t="shared" si="18"/>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="W19" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="X19" s="4" t="str">
         <f t="shared" si="18"/>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="W20" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>05</v>
       </c>
       <c r="X20" s="4" t="str">
         <f t="shared" si="18"/>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="W23" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>05</v>
+        <v>06</v>
       </c>
       <c r="X23" s="4" t="str">
         <f t="shared" si="18"/>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="W27" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="X27" s="4" t="str">
         <f t="shared" si="18"/>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="W28" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>05</v>
+        <v>06</v>
       </c>
       <c r="X28" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="W30" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="X30" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="W32" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="X32" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="W36" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="X36" s="4" t="str">
         <f t="shared" si="18"/>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="W43" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>08</v>
+        <v>09</v>
       </c>
       <c r="X43" s="4" t="str">
         <f t="shared" si="18"/>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="W45" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>08</v>
+        <v>09</v>
       </c>
       <c r="X45" s="4" t="str">
         <f t="shared" si="18"/>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="W46" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>08</v>
+        <v>09</v>
       </c>
       <c r="X46" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="W50" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>08</v>
+        <v>09</v>
       </c>
       <c r="X50" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="W57" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>0B</v>
       </c>
       <c r="X57" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="W59" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="X59" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="W60" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="X60" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="W61" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="X61" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7362,7 +7362,7 @@
       </c>
       <c r="W62" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>08</v>
+        <v>09</v>
       </c>
       <c r="X62" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="W67" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="X67" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7967,8 +7967,8 @@
         <v>06</v>
       </c>
       <c r="W68" s="4" t="str">
-        <f t="shared" ref="W68:W112" si="37">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*41/90+2,0),3),2))</f>
-        <v>06</v>
+        <f t="shared" ref="W68:W112" si="37">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*6/15+3,0),2),2))</f>
+        <v>07</v>
       </c>
       <c r="X68" s="4" t="str">
         <f t="shared" ref="X68:X112" si="38">IF(OR($D68="7F",$D68="FF"),$D68,DEC2HEX(ROUND(HEX2DEC($D68)*6/65,0),2))</f>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="W70" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0E</v>
+        <v>0D</v>
       </c>
       <c r="X70" s="4" t="str">
         <f t="shared" si="38"/>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="W78" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="X78" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="W80" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0E</v>
+        <v>0D</v>
       </c>
       <c r="X80" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9586,7 +9586,7 @@
       </c>
       <c r="W84" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0C</v>
+        <v>0B</v>
       </c>
       <c r="X84" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="W85" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="X85" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="W86" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="X86" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9883,7 +9883,7 @@
       </c>
       <c r="W87" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X87" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="W88" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X88" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10080,7 +10080,7 @@
       </c>
       <c r="W89" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X89" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="W90" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X90" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="W91" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X91" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="W92" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>08</v>
+        <v>09</v>
       </c>
       <c r="X92" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="W93" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X93" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="W94" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X94" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="W95" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X95" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10759,7 +10759,7 @@
       </c>
       <c r="W96" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X96" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10856,7 +10856,7 @@
       </c>
       <c r="W97" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X97" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="W98" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X98" s="4" t="str">
         <f t="shared" si="38"/>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="W99" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X99" s="4" t="str">
         <f t="shared" si="38"/>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="W100" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X100" s="4" t="str">
         <f t="shared" si="38"/>
@@ -11250,7 +11250,7 @@
       </c>
       <c r="W101" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X101" s="4" t="str">
         <f t="shared" si="38"/>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="W102" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X102" s="4" t="str">
         <f t="shared" si="38"/>
@@ -11456,7 +11456,7 @@
       </c>
       <c r="W103" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>05</v>
+        <v>06</v>
       </c>
       <c r="X103" s="4" t="str">
         <f t="shared" si="38"/>
@@ -11941,7 +11941,7 @@
       </c>
       <c r="W108" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X108" s="4" t="str">
         <f t="shared" si="38"/>

--- a/data/EnemyTemplates.xlsx
+++ b/data/EnemyTemplates.xlsx
@@ -654,9 +654,6 @@
     <t>HARD (Max 15 STR, Max 1 DEF)</t>
   </si>
   <si>
-    <t>OLD NORMAL (Max 11 STR, 0 DEF)</t>
-  </si>
-  <si>
     <t>EASY (Max 4 STR, 0 DEF, 2/3 HP)</t>
   </si>
   <si>
@@ -664,6 +661,9 @@
   </si>
   <si>
     <t>EXTREME (Max 17 STR, Max 2 DEF)</t>
+  </si>
+  <si>
+    <t>OHKO (Inf STR, Max 2 DEF)</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,12 +724,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -891,22 +885,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1213,10 +1192,10 @@
   <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3:Y112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1226,8 +1205,8 @@
     <col min="7" max="9" width="9" style="4"/>
     <col min="10" max="10" width="9" style="26"/>
     <col min="11" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="9" style="34"/>
-    <col min="15" max="17" width="9" style="35"/>
+    <col min="14" max="14" width="9" style="26"/>
+    <col min="15" max="17" width="9" style="4"/>
     <col min="18" max="18" width="9" style="26"/>
     <col min="19" max="21" width="9" style="4"/>
     <col min="22" max="22" width="9" style="26"/>
@@ -1238,42 +1217,42 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="28"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36" t="s">
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="29" t="s">
@@ -1315,16 +1294,16 @@
       <c r="M2" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="29" t="s">
         <v>189</v>
       </c>
       <c r="R2" s="30" t="s">
@@ -1400,19 +1379,19 @@
         <f>$E3</f>
         <v>00</v>
       </c>
-      <c r="N3" s="34" t="str">
+      <c r="N3" s="26" t="str">
         <f>$B3</f>
         <v>00</v>
       </c>
-      <c r="O3" s="35" t="str">
-        <f>IF($C3="00",$C3,DEC2HEX(MAX(ROUND(HEX2DEC($C3)*57/180,0),1),2))</f>
-        <v>00</v>
-      </c>
-      <c r="P3" s="35" t="str">
-        <f>IF(OR($D3="7F",$D3="FF"),$D3,"00")</f>
-        <v>00</v>
-      </c>
-      <c r="Q3" s="35" t="str">
+      <c r="O3" s="4" t="str">
+        <f>IF($C3="00",$C3,DEC2HEX(MAX(ROUND(HEX2DEC($C3)*6/15+1,0),2),2))</f>
+        <v>00</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f>IF(OR($D3="7F",$D3="FF"),$D3,DEC2HEX(ROUND(HEX2DEC($D3)*7/125,0),2))</f>
+        <v>00</v>
+      </c>
+      <c r="Q3" s="4" t="str">
         <f>$E3</f>
         <v>00</v>
       </c>
@@ -1421,11 +1400,11 @@
         <v>00</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f>IF($C3="00",$C3,DEC2HEX(MAX(ROUND(HEX2DEC($C3)*6/15+1,0),2),2))</f>
+        <f>IF($C3="00",$C3,DEC2HEX(MAX(ROUND(HEX2DEC($C3)*6/15+3,0),2),2))</f>
         <v>00</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f>IF(OR($D3="7F",$D3="FF"),$D3,DEC2HEX(ROUND(HEX2DEC($D3)*7/125,0),2))</f>
+        <f>IF(OR($D3="7F",$D3="FF"),$D3,DEC2HEX(ROUND(HEX2DEC($D3)*6/65,0),2))</f>
         <v>00</v>
       </c>
       <c r="U3" s="4" t="str">
@@ -1437,7 +1416,7 @@
         <v>00</v>
       </c>
       <c r="W3" s="4" t="str">
-        <f>IF($C3="00",$C3,DEC2HEX(MAX(ROUND(HEX2DEC($C3)*6/15+3,0),2),2))</f>
+        <f>IF($C3="00",$C3,"7F")</f>
         <v>00</v>
       </c>
       <c r="X3" s="4" t="str">
@@ -1497,19 +1476,19 @@
         <f t="shared" ref="M4:M67" si="7">$E4</f>
         <v>02</v>
       </c>
-      <c r="N4" s="34" t="str">
+      <c r="N4" s="26" t="str">
         <f t="shared" ref="N4:N67" si="8">$B4</f>
         <v>06</v>
       </c>
-      <c r="O4" s="35" t="str">
-        <f t="shared" ref="O4:O67" si="9">IF($C4="00",$C4,DEC2HEX(MAX(ROUND(HEX2DEC($C4)*57/180,0),1),2))</f>
-        <v>01</v>
-      </c>
-      <c r="P4" s="35" t="str">
-        <f t="shared" ref="P4:P67" si="10">IF(OR($D4="7F",$D4="FF"),$D4,"00")</f>
-        <v>00</v>
-      </c>
-      <c r="Q4" s="35" t="str">
+      <c r="O4" s="4" t="str">
+        <f t="shared" ref="O4:O67" si="9">IF($C4="00",$C4,DEC2HEX(MAX(ROUND(HEX2DEC($C4)*6/15+1,0),2),2))</f>
+        <v>02</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f t="shared" ref="P4:P67" si="10">IF(OR($D4="7F",$D4="FF"),$D4,DEC2HEX(ROUND(HEX2DEC($D4)*7/125,0),2))</f>
+        <v>00</v>
+      </c>
+      <c r="Q4" s="4" t="str">
         <f t="shared" ref="Q4:Q67" si="11">$E4</f>
         <v>02</v>
       </c>
@@ -1518,11 +1497,11 @@
         <v>06</v>
       </c>
       <c r="S4" s="4" t="str">
-        <f t="shared" ref="S4:S67" si="13">IF($C4="00",$C4,DEC2HEX(MAX(ROUND(HEX2DEC($C4)*6/15+1,0),2),2))</f>
-        <v>02</v>
+        <f t="shared" ref="S4:S67" si="13">IF($C4="00",$C4,DEC2HEX(MAX(ROUND(HEX2DEC($C4)*6/15+3,0),2),2))</f>
+        <v>04</v>
       </c>
       <c r="T4" s="4" t="str">
-        <f t="shared" ref="T4:T67" si="14">IF(OR($D4="7F",$D4="FF"),$D4,DEC2HEX(ROUND(HEX2DEC($D4)*7/125,0),2))</f>
+        <f t="shared" ref="T4:T67" si="14">IF(OR($D4="7F",$D4="FF"),$D4,DEC2HEX(ROUND(HEX2DEC($D4)*6/65,0),2))</f>
         <v>00</v>
       </c>
       <c r="U4" s="4" t="str">
@@ -1534,8 +1513,8 @@
         <v>06</v>
       </c>
       <c r="W4" s="4" t="str">
-        <f t="shared" ref="W4:W67" si="17">IF($C4="00",$C4,DEC2HEX(MAX(ROUND(HEX2DEC($C4)*6/15+3,0),2),2))</f>
-        <v>04</v>
+        <f t="shared" ref="W4:W67" si="17">IF($C4="00",$C4,"7F")</f>
+        <v>7F</v>
       </c>
       <c r="X4" s="4" t="str">
         <f t="shared" ref="X4:X67" si="18">IF(OR($D4="7F",$D4="FF"),$D4,DEC2HEX(ROUND(HEX2DEC($D4)*6/65,0),2))</f>
@@ -1600,19 +1579,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N5" s="34" t="str">
+      <c r="N5" s="26" t="str">
         <f t="shared" si="8"/>
         <v>05</v>
       </c>
-      <c r="O5" s="35" t="str">
+      <c r="O5" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P5" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P5" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q5" s="35" t="str">
+      <c r="Q5" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -1622,7 +1601,7 @@
       </c>
       <c r="S5" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="T5" s="4" t="str">
         <f t="shared" si="14"/>
@@ -1638,7 +1617,7 @@
       </c>
       <c r="W5" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>7F</v>
       </c>
       <c r="X5" s="4" t="str">
         <f t="shared" si="18"/>
@@ -1703,19 +1682,19 @@
         <f t="shared" si="7"/>
         <v>03</v>
       </c>
-      <c r="N6" s="34" t="str">
+      <c r="N6" s="26" t="str">
         <f t="shared" si="8"/>
         <v>0A</v>
       </c>
-      <c r="O6" s="35" t="str">
+      <c r="O6" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P6" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P6" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q6" s="35" t="str">
+      <c r="Q6" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03</v>
       </c>
@@ -1725,7 +1704,7 @@
       </c>
       <c r="S6" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="T6" s="4" t="str">
         <f t="shared" si="14"/>
@@ -1741,7 +1720,7 @@
       </c>
       <c r="W6" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>7F</v>
       </c>
       <c r="X6" s="4" t="str">
         <f t="shared" si="18"/>
@@ -1806,19 +1785,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N7" s="34" t="str">
+      <c r="N7" s="26" t="str">
         <f t="shared" si="8"/>
         <v>03</v>
       </c>
-      <c r="O7" s="35" t="str">
+      <c r="O7" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P7" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P7" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q7" s="35" t="str">
+      <c r="Q7" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -1828,7 +1807,7 @@
       </c>
       <c r="S7" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="T7" s="4" t="str">
         <f t="shared" si="14"/>
@@ -1844,7 +1823,7 @@
       </c>
       <c r="W7" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>7F</v>
       </c>
       <c r="X7" s="4" t="str">
         <f t="shared" si="18"/>
@@ -1909,19 +1888,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N8" s="34" t="str">
+      <c r="N8" s="26" t="str">
         <f t="shared" si="8"/>
         <v>03</v>
       </c>
-      <c r="O8" s="35" t="str">
+      <c r="O8" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P8" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P8" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q8" s="35" t="str">
+      <c r="Q8" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -1931,7 +1910,7 @@
       </c>
       <c r="S8" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="T8" s="4" t="str">
         <f t="shared" si="14"/>
@@ -1947,7 +1926,7 @@
       </c>
       <c r="W8" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>7F</v>
       </c>
       <c r="X8" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2012,19 +1991,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N9" s="34" t="str">
+      <c r="N9" s="26" t="str">
         <f t="shared" si="8"/>
         <v>7F</v>
       </c>
-      <c r="O9" s="35" t="str">
+      <c r="O9" s="4" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="P9" s="35" t="str">
+      <c r="P9" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q9" s="35" t="str">
+      <c r="Q9" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -2109,19 +2088,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N10" s="34" t="str">
+      <c r="N10" s="26" t="str">
         <f t="shared" si="8"/>
         <v>08</v>
       </c>
-      <c r="O10" s="35" t="str">
+      <c r="O10" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P10" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P10" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
-      </c>
-      <c r="Q10" s="35" t="str">
+        <v>04</v>
+      </c>
+      <c r="Q10" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -2131,11 +2110,11 @@
       </c>
       <c r="S10" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="T10" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>04</v>
+        <v>06</v>
       </c>
       <c r="U10" s="4" t="str">
         <f t="shared" si="15"/>
@@ -2147,7 +2126,7 @@
       </c>
       <c r="W10" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>7F</v>
       </c>
       <c r="X10" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2206,19 +2185,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N11" s="34" t="str">
+      <c r="N11" s="26" t="str">
         <f t="shared" si="8"/>
         <v>03</v>
       </c>
-      <c r="O11" s="35" t="str">
+      <c r="O11" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P11" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P11" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
-      </c>
-      <c r="Q11" s="35" t="str">
+        <v>03</v>
+      </c>
+      <c r="Q11" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -2228,11 +2207,11 @@
       </c>
       <c r="S11" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="T11" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>03</v>
+        <v>05</v>
       </c>
       <c r="U11" s="4" t="str">
         <f t="shared" si="15"/>
@@ -2244,7 +2223,7 @@
       </c>
       <c r="W11" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>7F</v>
       </c>
       <c r="X11" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2303,19 +2282,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N12" s="34" t="str">
+      <c r="N12" s="26" t="str">
         <f t="shared" si="8"/>
         <v>06</v>
       </c>
-      <c r="O12" s="35" t="str">
+      <c r="O12" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P12" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P12" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
-      </c>
-      <c r="Q12" s="35" t="str">
+        <v>03</v>
+      </c>
+      <c r="Q12" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -2325,11 +2304,11 @@
       </c>
       <c r="S12" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="T12" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="U12" s="4" t="str">
         <f t="shared" si="15"/>
@@ -2341,7 +2320,7 @@
       </c>
       <c r="W12" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>7F</v>
       </c>
       <c r="X12" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2400,19 +2379,19 @@
         <f t="shared" si="7"/>
         <v>02</v>
       </c>
-      <c r="N13" s="34" t="str">
+      <c r="N13" s="26" t="str">
         <f t="shared" si="8"/>
         <v>08</v>
       </c>
-      <c r="O13" s="35" t="str">
+      <c r="O13" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P13" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P13" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q13" s="35" t="str">
+      <c r="Q13" s="4" t="str">
         <f t="shared" si="11"/>
         <v>02</v>
       </c>
@@ -2422,7 +2401,7 @@
       </c>
       <c r="S13" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="T13" s="4" t="str">
         <f t="shared" si="14"/>
@@ -2438,7 +2417,7 @@
       </c>
       <c r="W13" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>7F</v>
       </c>
       <c r="X13" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2503,19 +2482,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N14" s="34" t="str">
+      <c r="N14" s="26" t="str">
         <f t="shared" si="8"/>
         <v>06</v>
       </c>
-      <c r="O14" s="35" t="str">
+      <c r="O14" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P14" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P14" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q14" s="35" t="str">
+      <c r="Q14" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -2525,7 +2504,7 @@
       </c>
       <c r="S14" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="T14" s="4" t="str">
         <f t="shared" si="14"/>
@@ -2541,7 +2520,7 @@
       </c>
       <c r="W14" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>7F</v>
       </c>
       <c r="X14" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2606,19 +2585,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N15" s="34" t="str">
+      <c r="N15" s="26" t="str">
         <f t="shared" si="8"/>
         <v>09</v>
       </c>
-      <c r="O15" s="35" t="str">
+      <c r="O15" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P15" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P15" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q15" s="35" t="str">
+      <c r="Q15" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -2628,7 +2607,7 @@
       </c>
       <c r="S15" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="T15" s="4" t="str">
         <f t="shared" si="14"/>
@@ -2644,7 +2623,7 @@
       </c>
       <c r="W15" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>7F</v>
       </c>
       <c r="X15" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2709,19 +2688,19 @@
         <f t="shared" si="7"/>
         <v>02</v>
       </c>
-      <c r="N16" s="34" t="str">
+      <c r="N16" s="26" t="str">
         <f t="shared" si="8"/>
         <v>0B</v>
       </c>
-      <c r="O16" s="35" t="str">
+      <c r="O16" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P16" s="35" t="str">
+        <v>03</v>
+      </c>
+      <c r="P16" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q16" s="35" t="str">
+      <c r="Q16" s="4" t="str">
         <f t="shared" si="11"/>
         <v>02</v>
       </c>
@@ -2731,7 +2710,7 @@
       </c>
       <c r="S16" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>03</v>
+        <v>05</v>
       </c>
       <c r="T16" s="4" t="str">
         <f t="shared" si="14"/>
@@ -2747,7 +2726,7 @@
       </c>
       <c r="W16" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>05</v>
+        <v>7F</v>
       </c>
       <c r="X16" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2812,19 +2791,19 @@
         <f t="shared" si="7"/>
         <v>03</v>
       </c>
-      <c r="N17" s="34" t="str">
+      <c r="N17" s="26" t="str">
         <f t="shared" si="8"/>
         <v>08</v>
       </c>
-      <c r="O17" s="35" t="str">
+      <c r="O17" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P17" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P17" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q17" s="35" t="str">
+      <c r="Q17" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03</v>
       </c>
@@ -2834,7 +2813,7 @@
       </c>
       <c r="S17" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="T17" s="4" t="str">
         <f t="shared" si="14"/>
@@ -2850,7 +2829,7 @@
       </c>
       <c r="W17" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>7F</v>
       </c>
       <c r="X17" s="4" t="str">
         <f t="shared" si="18"/>
@@ -2915,19 +2894,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N18" s="34" t="str">
+      <c r="N18" s="26" t="str">
         <f t="shared" si="8"/>
         <v>06</v>
       </c>
-      <c r="O18" s="35" t="str">
+      <c r="O18" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P18" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P18" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q18" s="35" t="str">
+      <c r="Q18" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -2937,7 +2916,7 @@
       </c>
       <c r="S18" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="T18" s="4" t="str">
         <f t="shared" si="14"/>
@@ -2953,7 +2932,7 @@
       </c>
       <c r="W18" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>7F</v>
       </c>
       <c r="X18" s="4" t="str">
         <f t="shared" si="18"/>
@@ -3018,19 +2997,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N19" s="34" t="str">
+      <c r="N19" s="26" t="str">
         <f t="shared" si="8"/>
         <v>0E</v>
       </c>
-      <c r="O19" s="35" t="str">
+      <c r="O19" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P19" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P19" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q19" s="35" t="str">
+      <c r="Q19" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -3040,7 +3019,7 @@
       </c>
       <c r="S19" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="T19" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3056,7 +3035,7 @@
       </c>
       <c r="W19" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>7F</v>
       </c>
       <c r="X19" s="4" t="str">
         <f t="shared" si="18"/>
@@ -3121,19 +3100,19 @@
         <f t="shared" si="7"/>
         <v>03</v>
       </c>
-      <c r="N20" s="34" t="str">
+      <c r="N20" s="26" t="str">
         <f t="shared" si="8"/>
         <v>0A</v>
       </c>
-      <c r="O20" s="35" t="str">
+      <c r="O20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>02</v>
-      </c>
-      <c r="P20" s="35" t="str">
+        <v>03</v>
+      </c>
+      <c r="P20" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q20" s="35" t="str">
+      <c r="Q20" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03</v>
       </c>
@@ -3143,7 +3122,7 @@
       </c>
       <c r="S20" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>03</v>
+        <v>05</v>
       </c>
       <c r="T20" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3159,7 +3138,7 @@
       </c>
       <c r="W20" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>05</v>
+        <v>7F</v>
       </c>
       <c r="X20" s="4" t="str">
         <f t="shared" si="18"/>
@@ -3218,19 +3197,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N21" s="34" t="str">
+      <c r="N21" s="26" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="O21" s="35" t="str">
+      <c r="O21" s="4" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="P21" s="35" t="str">
+      <c r="P21" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q21" s="35" t="str">
+      <c r="Q21" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -3315,19 +3294,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N22" s="34" t="str">
+      <c r="N22" s="26" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="O22" s="35" t="str">
+      <c r="O22" s="4" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="P22" s="35" t="str">
+      <c r="P22" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q22" s="35" t="str">
+      <c r="Q22" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -3412,19 +3391,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N23" s="34" t="str">
+      <c r="N23" s="26" t="str">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="O23" s="35" t="str">
+      <c r="O23" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>02</v>
-      </c>
-      <c r="P23" s="35" t="str">
+        <v>04</v>
+      </c>
+      <c r="P23" s="4" t="str">
         <f t="shared" si="10"/>
         <v>7F</v>
       </c>
-      <c r="Q23" s="35" t="str">
+      <c r="Q23" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -3434,7 +3413,7 @@
       </c>
       <c r="S23" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>04</v>
+        <v>06</v>
       </c>
       <c r="T23" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3450,7 +3429,7 @@
       </c>
       <c r="W23" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>06</v>
+        <v>7F</v>
       </c>
       <c r="X23" s="4" t="str">
         <f t="shared" si="18"/>
@@ -3512,19 +3491,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N24" s="34" t="str">
+      <c r="N24" s="26" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="O24" s="35" t="str">
+      <c r="O24" s="4" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="P24" s="35" t="str">
+      <c r="P24" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q24" s="35" t="str">
+      <c r="Q24" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -3609,19 +3588,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N25" s="34" t="str">
+      <c r="N25" s="26" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="O25" s="35" t="str">
+      <c r="O25" s="4" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="P25" s="35" t="str">
+      <c r="P25" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q25" s="35" t="str">
+      <c r="Q25" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -3706,19 +3685,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N26" s="34" t="str">
+      <c r="N26" s="26" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="O26" s="35" t="str">
+      <c r="O26" s="4" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="P26" s="35" t="str">
+      <c r="P26" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q26" s="35" t="str">
+      <c r="Q26" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -3803,19 +3782,19 @@
         <f t="shared" si="7"/>
         <v>02</v>
       </c>
-      <c r="N27" s="34" t="str">
+      <c r="N27" s="26" t="str">
         <f t="shared" si="8"/>
         <v>0A</v>
       </c>
-      <c r="O27" s="35" t="str">
+      <c r="O27" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>03</v>
-      </c>
-      <c r="P27" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P27" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q27" s="35" t="str">
+      <c r="Q27" s="4" t="str">
         <f t="shared" si="11"/>
         <v>02</v>
       </c>
@@ -3825,7 +3804,7 @@
       </c>
       <c r="S27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T27" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3841,7 +3820,7 @@
       </c>
       <c r="W27" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X27" s="4" t="str">
         <f t="shared" si="18"/>
@@ -3906,19 +3885,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N28" s="34" t="str">
+      <c r="N28" s="26" t="str">
         <f t="shared" si="8"/>
         <v>05</v>
       </c>
-      <c r="O28" s="35" t="str">
+      <c r="O28" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>02</v>
-      </c>
-      <c r="P28" s="35" t="str">
+        <v>04</v>
+      </c>
+      <c r="P28" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q28" s="35" t="str">
+      <c r="Q28" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -3928,7 +3907,7 @@
       </c>
       <c r="S28" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>04</v>
+        <v>06</v>
       </c>
       <c r="T28" s="4" t="str">
         <f t="shared" si="14"/>
@@ -3944,7 +3923,7 @@
       </c>
       <c r="W28" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>06</v>
+        <v>7F</v>
       </c>
       <c r="X28" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4009,19 +3988,19 @@
         <f t="shared" si="7"/>
         <v>03</v>
       </c>
-      <c r="N29" s="34" t="str">
+      <c r="N29" s="26" t="str">
         <f t="shared" si="8"/>
         <v>05</v>
       </c>
-      <c r="O29" s="35" t="str">
+      <c r="O29" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>03</v>
-      </c>
-      <c r="P29" s="35" t="str">
+        <v>04</v>
+      </c>
+      <c r="P29" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q29" s="35" t="str">
+      <c r="Q29" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03</v>
       </c>
@@ -4031,7 +4010,7 @@
       </c>
       <c r="S29" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>04</v>
+        <v>06</v>
       </c>
       <c r="T29" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4047,7 +4026,7 @@
       </c>
       <c r="W29" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>06</v>
+        <v>7F</v>
       </c>
       <c r="X29" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4112,19 +4091,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N30" s="34" t="str">
+      <c r="N30" s="26" t="str">
         <f t="shared" si="8"/>
         <v>0C</v>
       </c>
-      <c r="O30" s="35" t="str">
+      <c r="O30" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>03</v>
-      </c>
-      <c r="P30" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P30" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q30" s="35" t="str">
+      <c r="Q30" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -4134,7 +4113,7 @@
       </c>
       <c r="S30" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T30" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4150,7 +4129,7 @@
       </c>
       <c r="W30" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X30" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4215,19 +4194,19 @@
         <f t="shared" si="7"/>
         <v>02</v>
       </c>
-      <c r="N31" s="34" t="str">
+      <c r="N31" s="26" t="str">
         <f t="shared" si="8"/>
         <v>0C</v>
       </c>
-      <c r="O31" s="35" t="str">
+      <c r="O31" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>03</v>
-      </c>
-      <c r="P31" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P31" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q31" s="35" t="str">
+      <c r="Q31" s="4" t="str">
         <f t="shared" si="11"/>
         <v>02</v>
       </c>
@@ -4237,7 +4216,7 @@
       </c>
       <c r="S31" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T31" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4253,7 +4232,7 @@
       </c>
       <c r="W31" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X31" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4318,19 +4297,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N32" s="34" t="str">
+      <c r="N32" s="26" t="str">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="O32" s="35" t="str">
+      <c r="O32" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>03</v>
-      </c>
-      <c r="P32" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P32" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q32" s="35" t="str">
+      <c r="Q32" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -4340,7 +4319,7 @@
       </c>
       <c r="S32" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T32" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4356,7 +4335,7 @@
       </c>
       <c r="W32" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X32" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4421,19 +4400,19 @@
         <f t="shared" si="7"/>
         <v>03</v>
       </c>
-      <c r="N33" s="34" t="str">
+      <c r="N33" s="26" t="str">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O33" s="35" t="str">
+      <c r="O33" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>03</v>
-      </c>
-      <c r="P33" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P33" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q33" s="35" t="str">
+      <c r="Q33" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03</v>
       </c>
@@ -4443,7 +4422,7 @@
       </c>
       <c r="S33" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T33" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4459,7 +4438,7 @@
       </c>
       <c r="W33" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X33" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4524,19 +4503,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N34" s="34" t="str">
+      <c r="N34" s="26" t="str">
         <f t="shared" si="8"/>
         <v>05</v>
       </c>
-      <c r="O34" s="35" t="str">
+      <c r="O34" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P34" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P34" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q34" s="35" t="str">
+      <c r="Q34" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -4546,7 +4525,7 @@
       </c>
       <c r="S34" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="T34" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4562,7 +4541,7 @@
       </c>
       <c r="W34" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>7F</v>
       </c>
       <c r="X34" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4621,19 +4600,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N35" s="34" t="str">
+      <c r="N35" s="26" t="str">
         <f t="shared" si="8"/>
         <v>05</v>
       </c>
-      <c r="O35" s="35" t="str">
+      <c r="O35" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>01</v>
-      </c>
-      <c r="P35" s="35" t="str">
+        <v>02</v>
+      </c>
+      <c r="P35" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q35" s="35" t="str">
+      <c r="Q35" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -4643,7 +4622,7 @@
       </c>
       <c r="S35" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="T35" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4659,7 +4638,7 @@
       </c>
       <c r="W35" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>7F</v>
       </c>
       <c r="X35" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4718,19 +4697,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N36" s="34" t="str">
+      <c r="N36" s="26" t="str">
         <f t="shared" si="8"/>
         <v>FF</v>
       </c>
-      <c r="O36" s="35" t="str">
+      <c r="O36" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>03</v>
-      </c>
-      <c r="P36" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P36" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q36" s="35" t="str">
+      <c r="Q36" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -4740,7 +4719,7 @@
       </c>
       <c r="S36" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T36" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4756,7 +4735,7 @@
       </c>
       <c r="W36" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X36" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4815,19 +4794,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N37" s="34" t="str">
+      <c r="N37" s="26" t="str">
         <f t="shared" si="8"/>
         <v>FF</v>
       </c>
-      <c r="O37" s="35" t="str">
+      <c r="O37" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>03</v>
-      </c>
-      <c r="P37" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P37" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q37" s="35" t="str">
+      <c r="Q37" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -4837,7 +4816,7 @@
       </c>
       <c r="S37" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T37" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4853,7 +4832,7 @@
       </c>
       <c r="W37" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X37" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4912,19 +4891,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N38" s="34" t="str">
+      <c r="N38" s="26" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="O38" s="35" t="str">
+      <c r="O38" s="4" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="P38" s="35" t="str">
+      <c r="P38" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q38" s="35" t="str">
+      <c r="Q38" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -5009,19 +4988,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N39" s="34" t="str">
+      <c r="N39" s="26" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="O39" s="35" t="str">
+      <c r="O39" s="4" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="P39" s="35" t="str">
+      <c r="P39" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q39" s="35" t="str">
+      <c r="Q39" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -5106,19 +5085,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N40" s="34" t="str">
+      <c r="N40" s="26" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="O40" s="35" t="str">
+      <c r="O40" s="4" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="P40" s="35" t="str">
+      <c r="P40" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q40" s="35" t="str">
+      <c r="Q40" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -5203,19 +5182,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N41" s="34" t="str">
+      <c r="N41" s="26" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="O41" s="35" t="str">
+      <c r="O41" s="4" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="P41" s="35" t="str">
+      <c r="P41" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q41" s="35" t="str">
+      <c r="Q41" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -5300,19 +5279,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N42" s="34" t="str">
+      <c r="N42" s="26" t="str">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="O42" s="35" t="str">
+      <c r="O42" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>05</v>
-      </c>
-      <c r="P42" s="35" t="str">
+        <v>07</v>
+      </c>
+      <c r="P42" s="4" t="str">
         <f t="shared" si="10"/>
         <v>7F</v>
       </c>
-      <c r="Q42" s="35" t="str">
+      <c r="Q42" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -5322,7 +5301,7 @@
       </c>
       <c r="S42" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="T42" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5338,7 +5317,7 @@
       </c>
       <c r="W42" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>09</v>
+        <v>7F</v>
       </c>
       <c r="X42" s="4" t="str">
         <f t="shared" si="18"/>
@@ -5400,19 +5379,19 @@
         <f t="shared" si="7"/>
         <v>02</v>
       </c>
-      <c r="N43" s="34" t="str">
+      <c r="N43" s="26" t="str">
         <f t="shared" si="8"/>
         <v>1A</v>
       </c>
-      <c r="O43" s="35" t="str">
+      <c r="O43" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>04</v>
-      </c>
-      <c r="P43" s="35" t="str">
+        <v>07</v>
+      </c>
+      <c r="P43" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q43" s="35" t="str">
+      <c r="Q43" s="4" t="str">
         <f t="shared" si="11"/>
         <v>02</v>
       </c>
@@ -5422,11 +5401,11 @@
       </c>
       <c r="S43" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="T43" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U43" s="4" t="str">
         <f t="shared" si="15"/>
@@ -5438,7 +5417,7 @@
       </c>
       <c r="W43" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>09</v>
+        <v>7F</v>
       </c>
       <c r="X43" s="4" t="str">
         <f t="shared" si="18"/>
@@ -5503,19 +5482,19 @@
         <f t="shared" si="7"/>
         <v>03</v>
       </c>
-      <c r="N44" s="34" t="str">
+      <c r="N44" s="26" t="str">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="O44" s="35" t="str">
+      <c r="O44" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>04</v>
-      </c>
-      <c r="P44" s="35" t="str">
+        <v>06</v>
+      </c>
+      <c r="P44" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q44" s="35" t="str">
+      <c r="Q44" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03</v>
       </c>
@@ -5525,7 +5504,7 @@
       </c>
       <c r="S44" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>06</v>
+        <v>08</v>
       </c>
       <c r="T44" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5541,7 +5520,7 @@
       </c>
       <c r="W44" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>08</v>
+        <v>7F</v>
       </c>
       <c r="X44" s="4" t="str">
         <f t="shared" si="18"/>
@@ -5606,19 +5585,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N45" s="34" t="str">
+      <c r="N45" s="26" t="str">
         <f t="shared" si="8"/>
         <v>0C</v>
       </c>
-      <c r="O45" s="35" t="str">
+      <c r="O45" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>04</v>
-      </c>
-      <c r="P45" s="35" t="str">
+        <v>07</v>
+      </c>
+      <c r="P45" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q45" s="35" t="str">
+      <c r="Q45" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -5628,7 +5607,7 @@
       </c>
       <c r="S45" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="T45" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5644,7 +5623,7 @@
       </c>
       <c r="W45" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>09</v>
+        <v>7F</v>
       </c>
       <c r="X45" s="4" t="str">
         <f t="shared" si="18"/>
@@ -5709,19 +5688,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N46" s="34" t="str">
+      <c r="N46" s="26" t="str">
         <f t="shared" si="8"/>
         <v>08</v>
       </c>
-      <c r="O46" s="35" t="str">
+      <c r="O46" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>04</v>
-      </c>
-      <c r="P46" s="35" t="str">
+        <v>07</v>
+      </c>
+      <c r="P46" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q46" s="35" t="str">
+      <c r="Q46" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -5731,7 +5710,7 @@
       </c>
       <c r="S46" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="T46" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5747,7 +5726,7 @@
       </c>
       <c r="W46" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>09</v>
+        <v>7F</v>
       </c>
       <c r="X46" s="4" t="str">
         <f t="shared" si="18"/>
@@ -5812,19 +5791,19 @@
         <f t="shared" si="7"/>
         <v>02</v>
       </c>
-      <c r="N47" s="34" t="str">
+      <c r="N47" s="26" t="str">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O47" s="35" t="str">
+      <c r="O47" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>06</v>
-      </c>
-      <c r="P47" s="35" t="str">
+        <v>08</v>
+      </c>
+      <c r="P47" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q47" s="35" t="str">
+      <c r="Q47" s="4" t="str">
         <f t="shared" si="11"/>
         <v>02</v>
       </c>
@@ -5834,11 +5813,11 @@
       </c>
       <c r="S47" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>08</v>
+        <v>0A</v>
       </c>
       <c r="T47" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U47" s="4" t="str">
         <f t="shared" si="15"/>
@@ -5850,7 +5829,7 @@
       </c>
       <c r="W47" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0A</v>
+        <v>7F</v>
       </c>
       <c r="X47" s="4" t="str">
         <f t="shared" si="18"/>
@@ -5915,19 +5894,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N48" s="34" t="str">
+      <c r="N48" s="26" t="str">
         <f t="shared" si="8"/>
         <v>05</v>
       </c>
-      <c r="O48" s="35" t="str">
+      <c r="O48" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>05</v>
-      </c>
-      <c r="P48" s="35" t="str">
+        <v>07</v>
+      </c>
+      <c r="P48" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
-      </c>
-      <c r="Q48" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q48" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -5937,7 +5916,7 @@
       </c>
       <c r="S48" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="T48" s="4" t="str">
         <f t="shared" si="14"/>
@@ -5953,7 +5932,7 @@
       </c>
       <c r="W48" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>09</v>
+        <v>7F</v>
       </c>
       <c r="X48" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6018,19 +5997,19 @@
         <f t="shared" si="7"/>
         <v>03</v>
       </c>
-      <c r="N49" s="34" t="str">
+      <c r="N49" s="26" t="str">
         <f t="shared" si="8"/>
         <v>0A</v>
       </c>
-      <c r="O49" s="35" t="str">
+      <c r="O49" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>06</v>
-      </c>
-      <c r="P49" s="35" t="str">
+        <v>08</v>
+      </c>
+      <c r="P49" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
-      </c>
-      <c r="Q49" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q49" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03</v>
       </c>
@@ -6040,7 +6019,7 @@
       </c>
       <c r="S49" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>08</v>
+        <v>0A</v>
       </c>
       <c r="T49" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6056,7 +6035,7 @@
       </c>
       <c r="W49" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0A</v>
+        <v>7F</v>
       </c>
       <c r="X49" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6121,19 +6100,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N50" s="34" t="str">
+      <c r="N50" s="26" t="str">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="O50" s="35" t="str">
+      <c r="O50" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>04</v>
-      </c>
-      <c r="P50" s="35" t="str">
+        <v>07</v>
+      </c>
+      <c r="P50" s="4" t="str">
         <f t="shared" si="10"/>
         <v>7F</v>
       </c>
-      <c r="Q50" s="35" t="str">
+      <c r="Q50" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -6143,7 +6122,7 @@
       </c>
       <c r="S50" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="T50" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6159,7 +6138,7 @@
       </c>
       <c r="W50" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>09</v>
+        <v>7F</v>
       </c>
       <c r="X50" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6218,19 +6197,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N51" s="34" t="str">
+      <c r="N51" s="26" t="str">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="O51" s="35" t="str">
+      <c r="O51" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>05</v>
-      </c>
-      <c r="P51" s="35" t="str">
+        <v>07</v>
+      </c>
+      <c r="P51" s="4" t="str">
         <f t="shared" si="10"/>
         <v>7F</v>
       </c>
-      <c r="Q51" s="35" t="str">
+      <c r="Q51" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -6240,7 +6219,7 @@
       </c>
       <c r="S51" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="T51" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6256,7 +6235,7 @@
       </c>
       <c r="W51" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>09</v>
+        <v>7F</v>
       </c>
       <c r="X51" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6318,19 +6297,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N52" s="34" t="str">
+      <c r="N52" s="26" t="str">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="O52" s="35" t="str">
+      <c r="O52" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>07</v>
-      </c>
-      <c r="P52" s="35" t="str">
+        <v>0A</v>
+      </c>
+      <c r="P52" s="4" t="str">
         <f t="shared" si="10"/>
         <v>7F</v>
       </c>
-      <c r="Q52" s="35" t="str">
+      <c r="Q52" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -6340,7 +6319,7 @@
       </c>
       <c r="S52" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>0A</v>
+        <v>0C</v>
       </c>
       <c r="T52" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6356,7 +6335,7 @@
       </c>
       <c r="W52" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>7F</v>
       </c>
       <c r="X52" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6418,19 +6397,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N53" s="34" t="str">
+      <c r="N53" s="26" t="str">
         <f t="shared" si="8"/>
         <v>0F</v>
       </c>
-      <c r="O53" s="35" t="str">
+      <c r="O53" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>05</v>
-      </c>
-      <c r="P53" s="35" t="str">
+        <v>07</v>
+      </c>
+      <c r="P53" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
-      </c>
-      <c r="Q53" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q53" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -6440,7 +6419,7 @@
       </c>
       <c r="S53" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="T53" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6456,7 +6435,7 @@
       </c>
       <c r="W53" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>09</v>
+        <v>7F</v>
       </c>
       <c r="X53" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6521,19 +6500,19 @@
         <f t="shared" si="7"/>
         <v>02</v>
       </c>
-      <c r="N54" s="34" t="str">
+      <c r="N54" s="26" t="str">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="O54" s="35" t="str">
+      <c r="O54" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>06</v>
-      </c>
-      <c r="P54" s="35" t="str">
+        <v>08</v>
+      </c>
+      <c r="P54" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
-      </c>
-      <c r="Q54" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q54" s="4" t="str">
         <f t="shared" si="11"/>
         <v>02</v>
       </c>
@@ -6543,7 +6522,7 @@
       </c>
       <c r="S54" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>08</v>
+        <v>0A</v>
       </c>
       <c r="T54" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6559,7 +6538,7 @@
       </c>
       <c r="W54" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0A</v>
+        <v>7F</v>
       </c>
       <c r="X54" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6624,19 +6603,19 @@
         <f t="shared" si="7"/>
         <v>03</v>
       </c>
-      <c r="N55" s="34" t="str">
+      <c r="N55" s="26" t="str">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="O55" s="35" t="str">
+      <c r="O55" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>06</v>
-      </c>
-      <c r="P55" s="35" t="str">
+        <v>09</v>
+      </c>
+      <c r="P55" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q55" s="35" t="str">
+      <c r="Q55" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03</v>
       </c>
@@ -6646,11 +6625,11 @@
       </c>
       <c r="S55" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>09</v>
+        <v>0B</v>
       </c>
       <c r="T55" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U55" s="4" t="str">
         <f t="shared" si="15"/>
@@ -6662,7 +6641,7 @@
       </c>
       <c r="W55" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0B</v>
+        <v>7F</v>
       </c>
       <c r="X55" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6727,19 +6706,19 @@
         <f t="shared" si="7"/>
         <v>02</v>
       </c>
-      <c r="N56" s="34" t="str">
+      <c r="N56" s="26" t="str">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="O56" s="35" t="str">
+      <c r="O56" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>05</v>
-      </c>
-      <c r="P56" s="35" t="str">
+        <v>07</v>
+      </c>
+      <c r="P56" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q56" s="35" t="str">
+      <c r="Q56" s="4" t="str">
         <f t="shared" si="11"/>
         <v>02</v>
       </c>
@@ -6749,11 +6728,11 @@
       </c>
       <c r="S56" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="T56" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U56" s="4" t="str">
         <f t="shared" si="15"/>
@@ -6765,7 +6744,7 @@
       </c>
       <c r="W56" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>09</v>
+        <v>7F</v>
       </c>
       <c r="X56" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6830,19 +6809,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N57" s="34" t="str">
+      <c r="N57" s="26" t="str">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="O57" s="35" t="str">
+      <c r="O57" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>07</v>
-      </c>
-      <c r="P57" s="35" t="str">
+        <v>09</v>
+      </c>
+      <c r="P57" s="4" t="str">
         <f t="shared" si="10"/>
         <v>7F</v>
       </c>
-      <c r="Q57" s="35" t="str">
+      <c r="Q57" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -6852,7 +6831,7 @@
       </c>
       <c r="S57" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>09</v>
+        <v>0B</v>
       </c>
       <c r="T57" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6868,7 +6847,7 @@
       </c>
       <c r="W57" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0B</v>
+        <v>7F</v>
       </c>
       <c r="X57" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6930,19 +6909,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N58" s="34" t="str">
+      <c r="N58" s="26" t="str">
         <f t="shared" si="8"/>
         <v>03</v>
       </c>
-      <c r="O58" s="35" t="str">
+      <c r="O58" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>05</v>
-      </c>
-      <c r="P58" s="35" t="str">
+        <v>08</v>
+      </c>
+      <c r="P58" s="4" t="str">
         <f t="shared" si="10"/>
         <v>7F</v>
       </c>
-      <c r="Q58" s="35" t="str">
+      <c r="Q58" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -6952,7 +6931,7 @@
       </c>
       <c r="S58" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>08</v>
+        <v>0A</v>
       </c>
       <c r="T58" s="4" t="str">
         <f t="shared" si="14"/>
@@ -6968,7 +6947,7 @@
       </c>
       <c r="W58" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0A</v>
+        <v>7F</v>
       </c>
       <c r="X58" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7027,19 +7006,19 @@
         <f t="shared" si="7"/>
         <v>03</v>
       </c>
-      <c r="N59" s="34" t="str">
+      <c r="N59" s="26" t="str">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O59" s="35" t="str">
+      <c r="O59" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>03</v>
-      </c>
-      <c r="P59" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P59" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q59" s="35" t="str">
+      <c r="Q59" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03</v>
       </c>
@@ -7049,11 +7028,11 @@
       </c>
       <c r="S59" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T59" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U59" s="4" t="str">
         <f t="shared" si="15"/>
@@ -7065,7 +7044,7 @@
       </c>
       <c r="W59" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X59" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7124,19 +7103,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N60" s="34" t="str">
+      <c r="N60" s="26" t="str">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O60" s="35" t="str">
+      <c r="O60" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>03</v>
-      </c>
-      <c r="P60" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P60" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q60" s="35" t="str">
+      <c r="Q60" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -7146,11 +7125,11 @@
       </c>
       <c r="S60" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T60" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U60" s="4" t="str">
         <f t="shared" si="15"/>
@@ -7162,7 +7141,7 @@
       </c>
       <c r="W60" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X60" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7221,19 +7200,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N61" s="34" t="str">
+      <c r="N61" s="26" t="str">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="O61" s="35" t="str">
+      <c r="O61" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>03</v>
-      </c>
-      <c r="P61" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P61" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q61" s="35" t="str">
+      <c r="Q61" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -7243,11 +7222,11 @@
       </c>
       <c r="S61" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T61" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U61" s="4" t="str">
         <f t="shared" si="15"/>
@@ -7259,7 +7238,7 @@
       </c>
       <c r="W61" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X61" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7324,19 +7303,19 @@
         <f t="shared" si="7"/>
         <v>00</v>
       </c>
-      <c r="N62" s="34" t="str">
+      <c r="N62" s="26" t="str">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="O62" s="35" t="str">
+      <c r="O62" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>04</v>
-      </c>
-      <c r="P62" s="35" t="str">
+        <v>07</v>
+      </c>
+      <c r="P62" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q62" s="35" t="str">
+      <c r="Q62" s="4" t="str">
         <f t="shared" si="11"/>
         <v>00</v>
       </c>
@@ -7346,11 +7325,11 @@
       </c>
       <c r="S62" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="T62" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U62" s="4" t="str">
         <f t="shared" si="15"/>
@@ -7362,7 +7341,7 @@
       </c>
       <c r="W62" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>09</v>
+        <v>7F</v>
       </c>
       <c r="X62" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7421,19 +7400,19 @@
         <f t="shared" si="7"/>
         <v>02</v>
       </c>
-      <c r="N63" s="34" t="str">
+      <c r="N63" s="26" t="str">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="O63" s="35" t="str">
+      <c r="O63" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>06</v>
-      </c>
-      <c r="P63" s="35" t="str">
+        <v>08</v>
+      </c>
+      <c r="P63" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
-      </c>
-      <c r="Q63" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q63" s="4" t="str">
         <f t="shared" si="11"/>
         <v>02</v>
       </c>
@@ -7443,7 +7422,7 @@
       </c>
       <c r="S63" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>08</v>
+        <v>0A</v>
       </c>
       <c r="T63" s="4" t="str">
         <f t="shared" si="14"/>
@@ -7459,7 +7438,7 @@
       </c>
       <c r="W63" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0A</v>
+        <v>7F</v>
       </c>
       <c r="X63" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7524,19 +7503,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N64" s="34" t="str">
+      <c r="N64" s="26" t="str">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="O64" s="35" t="str">
+      <c r="O64" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>06</v>
-      </c>
-      <c r="P64" s="35" t="str">
+        <v>09</v>
+      </c>
+      <c r="P64" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
-      </c>
-      <c r="Q64" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q64" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -7546,7 +7525,7 @@
       </c>
       <c r="S64" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>09</v>
+        <v>0B</v>
       </c>
       <c r="T64" s="4" t="str">
         <f t="shared" si="14"/>
@@ -7562,7 +7541,7 @@
       </c>
       <c r="W64" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0B</v>
+        <v>7F</v>
       </c>
       <c r="X64" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7627,19 +7606,19 @@
         <f t="shared" si="7"/>
         <v>01</v>
       </c>
-      <c r="N65" s="34" t="str">
+      <c r="N65" s="26" t="str">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="O65" s="35" t="str">
+      <c r="O65" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>06</v>
-      </c>
-      <c r="P65" s="35" t="str">
+        <v>08</v>
+      </c>
+      <c r="P65" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
-      </c>
-      <c r="Q65" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q65" s="4" t="str">
         <f t="shared" si="11"/>
         <v>01</v>
       </c>
@@ -7649,7 +7628,7 @@
       </c>
       <c r="S65" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>08</v>
+        <v>0A</v>
       </c>
       <c r="T65" s="4" t="str">
         <f t="shared" si="14"/>
@@ -7665,7 +7644,7 @@
       </c>
       <c r="W65" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0A</v>
+        <v>7F</v>
       </c>
       <c r="X65" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7730,19 +7709,19 @@
         <f t="shared" si="7"/>
         <v>03</v>
       </c>
-      <c r="N66" s="34" t="str">
+      <c r="N66" s="26" t="str">
         <f t="shared" si="8"/>
         <v>0F</v>
       </c>
-      <c r="O66" s="35" t="str">
+      <c r="O66" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>06</v>
-      </c>
-      <c r="P66" s="35" t="str">
+        <v>09</v>
+      </c>
+      <c r="P66" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
-      </c>
-      <c r="Q66" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q66" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03</v>
       </c>
@@ -7752,7 +7731,7 @@
       </c>
       <c r="S66" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>09</v>
+        <v>0B</v>
       </c>
       <c r="T66" s="4" t="str">
         <f t="shared" si="14"/>
@@ -7768,7 +7747,7 @@
       </c>
       <c r="W66" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0B</v>
+        <v>7F</v>
       </c>
       <c r="X66" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7833,19 +7812,19 @@
         <f t="shared" si="7"/>
         <v>02</v>
       </c>
-      <c r="N67" s="34" t="str">
+      <c r="N67" s="26" t="str">
         <f t="shared" si="8"/>
         <v>0C</v>
       </c>
-      <c r="O67" s="35" t="str">
+      <c r="O67" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>03</v>
-      </c>
-      <c r="P67" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P67" s="4" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
-      <c r="Q67" s="35" t="str">
+      <c r="Q67" s="4" t="str">
         <f t="shared" si="11"/>
         <v>02</v>
       </c>
@@ -7855,11 +7834,11 @@
       </c>
       <c r="S67" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T67" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U67" s="4" t="str">
         <f t="shared" si="15"/>
@@ -7871,7 +7850,7 @@
       </c>
       <c r="W67" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X67" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7930,19 +7909,19 @@
         <f t="shared" ref="M68:M112" si="27">$E68</f>
         <v>01</v>
       </c>
-      <c r="N68" s="34" t="str">
+      <c r="N68" s="26" t="str">
         <f t="shared" ref="N68:N112" si="28">$B68</f>
         <v>06</v>
       </c>
-      <c r="O68" s="35" t="str">
-        <f t="shared" ref="O68:O112" si="29">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*57/180,0),1),2))</f>
-        <v>03</v>
-      </c>
-      <c r="P68" s="35" t="str">
-        <f t="shared" ref="P68:P112" si="30">IF(OR($D68="7F",$D68="FF"),$D68,"00")</f>
-        <v>00</v>
-      </c>
-      <c r="Q68" s="35" t="str">
+      <c r="O68" s="4" t="str">
+        <f t="shared" ref="O68:O112" si="29">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*6/15+1,0),2),2))</f>
+        <v>05</v>
+      </c>
+      <c r="P68" s="4" t="str">
+        <f t="shared" ref="P68:P112" si="30">IF(OR($D68="7F",$D68="FF"),$D68,DEC2HEX(ROUND(HEX2DEC($D68)*7/125,0),2))</f>
+        <v>00</v>
+      </c>
+      <c r="Q68" s="4" t="str">
         <f t="shared" ref="Q68:Q112" si="31">$E68</f>
         <v>01</v>
       </c>
@@ -7951,11 +7930,11 @@
         <v>06</v>
       </c>
       <c r="S68" s="4" t="str">
-        <f t="shared" ref="S68:S112" si="33">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*6/15+1,0),2),2))</f>
-        <v>05</v>
+        <f t="shared" ref="S68:S112" si="33">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*6/15+3,0),2),2))</f>
+        <v>07</v>
       </c>
       <c r="T68" s="4" t="str">
-        <f t="shared" ref="T68:T112" si="34">IF(OR($D68="7F",$D68="FF"),$D68,DEC2HEX(ROUND(HEX2DEC($D68)*7/125,0),2))</f>
+        <f t="shared" ref="T68:T112" si="34">IF(OR($D68="7F",$D68="FF"),$D68,DEC2HEX(ROUND(HEX2DEC($D68)*6/65,0),2))</f>
         <v>00</v>
       </c>
       <c r="U68" s="4" t="str">
@@ -7967,8 +7946,8 @@
         <v>06</v>
       </c>
       <c r="W68" s="4" t="str">
-        <f t="shared" ref="W68:W112" si="37">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*6/15+3,0),2),2))</f>
-        <v>07</v>
+        <f t="shared" ref="W68:W112" si="37">IF($C68="00",$C68,"7F")</f>
+        <v>7F</v>
       </c>
       <c r="X68" s="4" t="str">
         <f t="shared" ref="X68:X112" si="38">IF(OR($D68="7F",$D68="FF"),$D68,DEC2HEX(ROUND(HEX2DEC($D68)*6/65,0),2))</f>
@@ -8027,19 +8006,19 @@
         <f t="shared" si="27"/>
         <v>02</v>
       </c>
-      <c r="N69" s="34" t="str">
+      <c r="N69" s="26" t="str">
         <f t="shared" si="28"/>
         <v>19</v>
       </c>
-      <c r="O69" s="35" t="str">
+      <c r="O69" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>07</v>
-      </c>
-      <c r="P69" s="35" t="str">
+        <v>0A</v>
+      </c>
+      <c r="P69" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q69" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q69" s="4" t="str">
         <f t="shared" si="31"/>
         <v>02</v>
       </c>
@@ -8049,7 +8028,7 @@
       </c>
       <c r="S69" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0A</v>
+        <v>0C</v>
       </c>
       <c r="T69" s="4" t="str">
         <f t="shared" si="34"/>
@@ -8065,7 +8044,7 @@
       </c>
       <c r="W69" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0C</v>
+        <v>7F</v>
       </c>
       <c r="X69" s="4" t="str">
         <f t="shared" si="38"/>
@@ -8130,19 +8109,19 @@
         <f t="shared" si="27"/>
         <v>01</v>
       </c>
-      <c r="N70" s="34" t="str">
+      <c r="N70" s="26" t="str">
         <f t="shared" si="28"/>
         <v>14</v>
       </c>
-      <c r="O70" s="35" t="str">
+      <c r="O70" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>08</v>
-      </c>
-      <c r="P70" s="35" t="str">
+        <v>0B</v>
+      </c>
+      <c r="P70" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q70" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q70" s="4" t="str">
         <f t="shared" si="31"/>
         <v>01</v>
       </c>
@@ -8152,7 +8131,7 @@
       </c>
       <c r="S70" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0B</v>
+        <v>0D</v>
       </c>
       <c r="T70" s="4" t="str">
         <f t="shared" si="34"/>
@@ -8168,7 +8147,7 @@
       </c>
       <c r="W70" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0D</v>
+        <v>7F</v>
       </c>
       <c r="X70" s="4" t="str">
         <f t="shared" si="38"/>
@@ -8233,19 +8212,19 @@
         <f t="shared" si="27"/>
         <v>03</v>
       </c>
-      <c r="N71" s="34" t="str">
+      <c r="N71" s="26" t="str">
         <f t="shared" si="28"/>
         <v>1E</v>
       </c>
-      <c r="O71" s="35" t="str">
+      <c r="O71" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>07</v>
-      </c>
-      <c r="P71" s="35" t="str">
+        <v>0A</v>
+      </c>
+      <c r="P71" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q71" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q71" s="4" t="str">
         <f t="shared" si="31"/>
         <v>03</v>
       </c>
@@ -8255,7 +8234,7 @@
       </c>
       <c r="S71" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0A</v>
+        <v>0C</v>
       </c>
       <c r="T71" s="4" t="str">
         <f t="shared" si="34"/>
@@ -8271,7 +8250,7 @@
       </c>
       <c r="W71" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0C</v>
+        <v>7F</v>
       </c>
       <c r="X71" s="4" t="str">
         <f t="shared" si="38"/>
@@ -8336,19 +8315,19 @@
         <f t="shared" si="27"/>
         <v>02</v>
       </c>
-      <c r="N72" s="34" t="str">
+      <c r="N72" s="26" t="str">
         <f t="shared" si="28"/>
         <v>1C</v>
       </c>
-      <c r="O72" s="35" t="str">
+      <c r="O72" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>08</v>
-      </c>
-      <c r="P72" s="35" t="str">
+        <v>0B</v>
+      </c>
+      <c r="P72" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q72" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q72" s="4" t="str">
         <f t="shared" si="31"/>
         <v>02</v>
       </c>
@@ -8358,7 +8337,7 @@
       </c>
       <c r="S72" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0B</v>
+        <v>0D</v>
       </c>
       <c r="T72" s="4" t="str">
         <f t="shared" si="34"/>
@@ -8374,7 +8353,7 @@
       </c>
       <c r="W72" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0D</v>
+        <v>7F</v>
       </c>
       <c r="X72" s="4" t="str">
         <f t="shared" si="38"/>
@@ -8439,19 +8418,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N73" s="34" t="str">
+      <c r="N73" s="26" t="str">
         <f t="shared" si="28"/>
         <v>14</v>
       </c>
-      <c r="O73" s="35" t="str">
+      <c r="O73" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>07</v>
-      </c>
-      <c r="P73" s="35" t="str">
+        <v>0A</v>
+      </c>
+      <c r="P73" s="4" t="str">
         <f t="shared" si="30"/>
         <v>FF</v>
       </c>
-      <c r="Q73" s="35" t="str">
+      <c r="Q73" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -8461,7 +8440,7 @@
       </c>
       <c r="S73" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0A</v>
+        <v>0C</v>
       </c>
       <c r="T73" s="4" t="str">
         <f t="shared" si="34"/>
@@ -8477,7 +8456,7 @@
       </c>
       <c r="W73" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0C</v>
+        <v>7F</v>
       </c>
       <c r="X73" s="4" t="str">
         <f t="shared" si="38"/>
@@ -8542,19 +8521,19 @@
         <f t="shared" si="27"/>
         <v>03</v>
       </c>
-      <c r="N74" s="34" t="str">
+      <c r="N74" s="26" t="str">
         <f t="shared" si="28"/>
         <v>14</v>
       </c>
-      <c r="O74" s="35" t="str">
+      <c r="O74" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>07</v>
-      </c>
-      <c r="P74" s="35" t="str">
+        <v>0A</v>
+      </c>
+      <c r="P74" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q74" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q74" s="4" t="str">
         <f t="shared" si="31"/>
         <v>03</v>
       </c>
@@ -8564,7 +8543,7 @@
       </c>
       <c r="S74" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0A</v>
+        <v>0C</v>
       </c>
       <c r="T74" s="4" t="str">
         <f t="shared" si="34"/>
@@ -8580,7 +8559,7 @@
       </c>
       <c r="W74" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0C</v>
+        <v>7F</v>
       </c>
       <c r="X74" s="4" t="str">
         <f t="shared" si="38"/>
@@ -8639,19 +8618,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N75" s="34" t="str">
+      <c r="N75" s="26" t="str">
         <f t="shared" si="28"/>
         <v>0A</v>
       </c>
-      <c r="O75" s="35" t="str">
+      <c r="O75" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>07</v>
-      </c>
-      <c r="P75" s="35" t="str">
+        <v>0A</v>
+      </c>
+      <c r="P75" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q75" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q75" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -8661,7 +8640,7 @@
       </c>
       <c r="S75" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0A</v>
+        <v>0C</v>
       </c>
       <c r="T75" s="4" t="str">
         <f t="shared" si="34"/>
@@ -8677,7 +8656,7 @@
       </c>
       <c r="W75" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0C</v>
+        <v>7F</v>
       </c>
       <c r="X75" s="4" t="str">
         <f t="shared" si="38"/>
@@ -8736,19 +8715,19 @@
         <f t="shared" si="27"/>
         <v>02</v>
       </c>
-      <c r="N76" s="34" t="str">
+      <c r="N76" s="26" t="str">
         <f t="shared" si="28"/>
         <v>0F</v>
       </c>
-      <c r="O76" s="35" t="str">
+      <c r="O76" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>07</v>
-      </c>
-      <c r="P76" s="35" t="str">
+        <v>0A</v>
+      </c>
+      <c r="P76" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q76" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q76" s="4" t="str">
         <f t="shared" si="31"/>
         <v>02</v>
       </c>
@@ -8758,7 +8737,7 @@
       </c>
       <c r="S76" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0A</v>
+        <v>0C</v>
       </c>
       <c r="T76" s="4" t="str">
         <f t="shared" si="34"/>
@@ -8774,7 +8753,7 @@
       </c>
       <c r="W76" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0C</v>
+        <v>7F</v>
       </c>
       <c r="X76" s="4" t="str">
         <f t="shared" si="38"/>
@@ -8839,19 +8818,19 @@
         <f t="shared" si="27"/>
         <v>01</v>
       </c>
-      <c r="N77" s="34" t="str">
+      <c r="N77" s="26" t="str">
         <f t="shared" si="28"/>
         <v>08</v>
       </c>
-      <c r="O77" s="35" t="str">
+      <c r="O77" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>07</v>
-      </c>
-      <c r="P77" s="35" t="str">
+        <v>0A</v>
+      </c>
+      <c r="P77" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q77" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q77" s="4" t="str">
         <f t="shared" si="31"/>
         <v>01</v>
       </c>
@@ -8861,7 +8840,7 @@
       </c>
       <c r="S77" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0A</v>
+        <v>0C</v>
       </c>
       <c r="T77" s="4" t="str">
         <f t="shared" si="34"/>
@@ -8877,7 +8856,7 @@
       </c>
       <c r="W77" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0C</v>
+        <v>7F</v>
       </c>
       <c r="X77" s="4" t="str">
         <f t="shared" si="38"/>
@@ -8939,19 +8918,19 @@
         <f t="shared" si="27"/>
         <v>01</v>
       </c>
-      <c r="N78" s="34" t="str">
+      <c r="N78" s="26" t="str">
         <f t="shared" si="28"/>
         <v>06</v>
       </c>
-      <c r="O78" s="35" t="str">
+      <c r="O78" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>03</v>
-      </c>
-      <c r="P78" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P78" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q78" s="35" t="str">
+      <c r="Q78" s="4" t="str">
         <f t="shared" si="31"/>
         <v>01</v>
       </c>
@@ -8961,7 +8940,7 @@
       </c>
       <c r="S78" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T78" s="4" t="str">
         <f t="shared" si="34"/>
@@ -8977,7 +8956,7 @@
       </c>
       <c r="W78" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X78" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9036,19 +9015,19 @@
         <f t="shared" si="27"/>
         <v>02</v>
       </c>
-      <c r="N79" s="34" t="str">
+      <c r="N79" s="26" t="str">
         <f t="shared" si="28"/>
         <v>0C</v>
       </c>
-      <c r="O79" s="35" t="str">
+      <c r="O79" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>07</v>
-      </c>
-      <c r="P79" s="35" t="str">
+        <v>0A</v>
+      </c>
+      <c r="P79" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q79" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q79" s="4" t="str">
         <f t="shared" si="31"/>
         <v>02</v>
       </c>
@@ -9058,7 +9037,7 @@
       </c>
       <c r="S79" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0A</v>
+        <v>0C</v>
       </c>
       <c r="T79" s="4" t="str">
         <f t="shared" si="34"/>
@@ -9074,7 +9053,7 @@
       </c>
       <c r="W79" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0C</v>
+        <v>7F</v>
       </c>
       <c r="X79" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9139,19 +9118,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N80" s="34" t="str">
+      <c r="N80" s="26" t="str">
         <f t="shared" si="28"/>
         <v>1C</v>
       </c>
-      <c r="O80" s="35" t="str">
+      <c r="O80" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>08</v>
-      </c>
-      <c r="P80" s="35" t="str">
+        <v>0B</v>
+      </c>
+      <c r="P80" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q80" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q80" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -9161,7 +9140,7 @@
       </c>
       <c r="S80" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0B</v>
+        <v>0D</v>
       </c>
       <c r="T80" s="4" t="str">
         <f t="shared" si="34"/>
@@ -9177,7 +9156,7 @@
       </c>
       <c r="W80" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0D</v>
+        <v>7F</v>
       </c>
       <c r="X80" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9242,19 +9221,19 @@
         <f t="shared" si="27"/>
         <v>03</v>
       </c>
-      <c r="N81" s="34" t="str">
+      <c r="N81" s="26" t="str">
         <f t="shared" si="28"/>
         <v>1E</v>
       </c>
-      <c r="O81" s="35" t="str">
+      <c r="O81" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>08</v>
-      </c>
-      <c r="P81" s="35" t="str">
+        <v>0B</v>
+      </c>
+      <c r="P81" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q81" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q81" s="4" t="str">
         <f t="shared" si="31"/>
         <v>03</v>
       </c>
@@ -9264,7 +9243,7 @@
       </c>
       <c r="S81" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0B</v>
+        <v>0D</v>
       </c>
       <c r="T81" s="4" t="str">
         <f t="shared" si="34"/>
@@ -9280,7 +9259,7 @@
       </c>
       <c r="W81" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0D</v>
+        <v>7F</v>
       </c>
       <c r="X81" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9345,19 +9324,19 @@
         <f t="shared" si="27"/>
         <v>02</v>
       </c>
-      <c r="N82" s="34" t="str">
+      <c r="N82" s="26" t="str">
         <f t="shared" si="28"/>
         <v>14</v>
       </c>
-      <c r="O82" s="35" t="str">
+      <c r="O82" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>07</v>
-      </c>
-      <c r="P82" s="35" t="str">
+        <v>0A</v>
+      </c>
+      <c r="P82" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q82" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q82" s="4" t="str">
         <f t="shared" si="31"/>
         <v>02</v>
       </c>
@@ -9367,7 +9346,7 @@
       </c>
       <c r="S82" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0A</v>
+        <v>0C</v>
       </c>
       <c r="T82" s="4" t="str">
         <f t="shared" si="34"/>
@@ -9383,7 +9362,7 @@
       </c>
       <c r="W82" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0C</v>
+        <v>7F</v>
       </c>
       <c r="X82" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9448,19 +9427,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N83" s="34" t="str">
+      <c r="N83" s="26" t="str">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="O83" s="35" t="str">
+      <c r="O83" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P83" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P83" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q83" s="35" t="str">
+      <c r="Q83" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -9470,7 +9449,7 @@
       </c>
       <c r="S83" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T83" s="4" t="str">
         <f t="shared" si="34"/>
@@ -9486,7 +9465,7 @@
       </c>
       <c r="W83" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X83" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9548,19 +9527,19 @@
         <f t="shared" si="27"/>
         <v>02</v>
       </c>
-      <c r="N84" s="34" t="str">
+      <c r="N84" s="26" t="str">
         <f t="shared" si="28"/>
         <v>19</v>
       </c>
-      <c r="O84" s="35" t="str">
+      <c r="O84" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>07</v>
-      </c>
-      <c r="P84" s="35" t="str">
+        <v>09</v>
+      </c>
+      <c r="P84" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q84" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q84" s="4" t="str">
         <f t="shared" si="31"/>
         <v>02</v>
       </c>
@@ -9570,11 +9549,11 @@
       </c>
       <c r="S84" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>09</v>
+        <v>0B</v>
       </c>
       <c r="T84" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="U84" s="4" t="str">
         <f t="shared" si="35"/>
@@ -9586,7 +9565,7 @@
       </c>
       <c r="W84" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0B</v>
+        <v>7F</v>
       </c>
       <c r="X84" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9651,19 +9630,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N85" s="34" t="str">
+      <c r="N85" s="26" t="str">
         <f t="shared" si="28"/>
         <v>08</v>
       </c>
-      <c r="O85" s="35" t="str">
+      <c r="O85" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>03</v>
-      </c>
-      <c r="P85" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P85" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q85" s="35" t="str">
+      <c r="Q85" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -9673,11 +9652,11 @@
       </c>
       <c r="S85" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T85" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U85" s="4" t="str">
         <f t="shared" si="35"/>
@@ -9689,7 +9668,7 @@
       </c>
       <c r="W85" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X85" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9748,19 +9727,19 @@
         <f t="shared" si="27"/>
         <v>01</v>
       </c>
-      <c r="N86" s="34" t="str">
+      <c r="N86" s="26" t="str">
         <f t="shared" si="28"/>
         <v>05</v>
       </c>
-      <c r="O86" s="35" t="str">
+      <c r="O86" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>03</v>
-      </c>
-      <c r="P86" s="35" t="str">
+        <v>05</v>
+      </c>
+      <c r="P86" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q86" s="35" t="str">
+      <c r="Q86" s="4" t="str">
         <f t="shared" si="31"/>
         <v>01</v>
       </c>
@@ -9770,7 +9749,7 @@
       </c>
       <c r="S86" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="T86" s="4" t="str">
         <f t="shared" si="34"/>
@@ -9786,7 +9765,7 @@
       </c>
       <c r="W86" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>07</v>
+        <v>7F</v>
       </c>
       <c r="X86" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9845,19 +9824,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N87" s="34" t="str">
+      <c r="N87" s="26" t="str">
         <f t="shared" si="28"/>
         <v>14</v>
       </c>
-      <c r="O87" s="35" t="str">
+      <c r="O87" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P87" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P87" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q87" s="35" t="str">
+      <c r="Q87" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -9867,7 +9846,7 @@
       </c>
       <c r="S87" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T87" s="4" t="str">
         <f t="shared" si="34"/>
@@ -9883,7 +9862,7 @@
       </c>
       <c r="W87" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X87" s="4" t="str">
         <f t="shared" si="38"/>
@@ -9945,19 +9924,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N88" s="34" t="str">
+      <c r="N88" s="26" t="str">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="O88" s="35" t="str">
+      <c r="O88" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P88" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P88" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q88" s="35" t="str">
+      <c r="Q88" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -9967,7 +9946,7 @@
       </c>
       <c r="S88" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T88" s="4" t="str">
         <f t="shared" si="34"/>
@@ -9983,7 +9962,7 @@
       </c>
       <c r="W88" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X88" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10042,19 +10021,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N89" s="34" t="str">
+      <c r="N89" s="26" t="str">
         <f t="shared" si="28"/>
         <v>0A</v>
       </c>
-      <c r="O89" s="35" t="str">
+      <c r="O89" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0C</v>
-      </c>
-      <c r="P89" s="35" t="str">
+        <v>10</v>
+      </c>
+      <c r="P89" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q89" s="35" t="str">
+      <c r="Q89" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -10064,7 +10043,7 @@
       </c>
       <c r="S89" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T89" s="4" t="str">
         <f t="shared" si="34"/>
@@ -10080,7 +10059,7 @@
       </c>
       <c r="W89" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>7F</v>
       </c>
       <c r="X89" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10139,19 +10118,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N90" s="34" t="str">
+      <c r="N90" s="26" t="str">
         <f t="shared" si="28"/>
         <v>01</v>
       </c>
-      <c r="O90" s="35" t="str">
+      <c r="O90" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P90" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P90" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q90" s="35" t="str">
+      <c r="Q90" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -10161,7 +10140,7 @@
       </c>
       <c r="S90" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T90" s="4" t="str">
         <f t="shared" si="34"/>
@@ -10177,7 +10156,7 @@
       </c>
       <c r="W90" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X90" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10236,19 +10215,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N91" s="34" t="str">
+      <c r="N91" s="26" t="str">
         <f t="shared" si="28"/>
         <v>14</v>
       </c>
-      <c r="O91" s="35" t="str">
+      <c r="O91" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0E</v>
-      </c>
-      <c r="P91" s="35" t="str">
+        <v>12</v>
+      </c>
+      <c r="P91" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q91" s="35" t="str">
+      <c r="Q91" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -10258,7 +10237,7 @@
       </c>
       <c r="S91" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T91" s="4" t="str">
         <f t="shared" si="34"/>
@@ -10274,7 +10253,7 @@
       </c>
       <c r="W91" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>14</v>
+        <v>7F</v>
       </c>
       <c r="X91" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10333,19 +10312,19 @@
         <f t="shared" si="27"/>
         <v>02</v>
       </c>
-      <c r="N92" s="34" t="str">
+      <c r="N92" s="26" t="str">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="O92" s="35" t="str">
+      <c r="O92" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>04</v>
-      </c>
-      <c r="P92" s="35" t="str">
+        <v>07</v>
+      </c>
+      <c r="P92" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q92" s="35" t="str">
+      <c r="Q92" s="4" t="str">
         <f t="shared" si="31"/>
         <v>02</v>
       </c>
@@ -10355,11 +10334,11 @@
       </c>
       <c r="S92" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="T92" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U92" s="4" t="str">
         <f t="shared" si="35"/>
@@ -10371,7 +10350,7 @@
       </c>
       <c r="W92" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>09</v>
+        <v>7F</v>
       </c>
       <c r="X92" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10430,19 +10409,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N93" s="34" t="str">
+      <c r="N93" s="26" t="str">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="O93" s="35" t="str">
+      <c r="O93" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P93" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P93" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q93" s="35" t="str">
+      <c r="Q93" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -10452,7 +10431,7 @@
       </c>
       <c r="S93" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T93" s="4" t="str">
         <f t="shared" si="34"/>
@@ -10468,7 +10447,7 @@
       </c>
       <c r="W93" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X93" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10527,19 +10506,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N94" s="34" t="str">
+      <c r="N94" s="26" t="str">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="O94" s="35" t="str">
+      <c r="O94" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P94" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P94" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q94" s="35" t="str">
+      <c r="Q94" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -10549,7 +10528,7 @@
       </c>
       <c r="S94" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T94" s="4" t="str">
         <f t="shared" si="34"/>
@@ -10565,7 +10544,7 @@
       </c>
       <c r="W94" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X94" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10624,19 +10603,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N95" s="34" t="str">
+      <c r="N95" s="26" t="str">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="O95" s="35" t="str">
+      <c r="O95" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P95" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P95" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q95" s="35" t="str">
+      <c r="Q95" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -10646,7 +10625,7 @@
       </c>
       <c r="S95" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T95" s="4" t="str">
         <f t="shared" si="34"/>
@@ -10662,7 +10641,7 @@
       </c>
       <c r="W95" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X95" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10721,19 +10700,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N96" s="34" t="str">
+      <c r="N96" s="26" t="str">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="O96" s="35" t="str">
+      <c r="O96" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P96" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P96" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q96" s="35" t="str">
+      <c r="Q96" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -10743,7 +10722,7 @@
       </c>
       <c r="S96" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T96" s="4" t="str">
         <f t="shared" si="34"/>
@@ -10759,7 +10738,7 @@
       </c>
       <c r="W96" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X96" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10818,19 +10797,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N97" s="34" t="str">
+      <c r="N97" s="26" t="str">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="O97" s="35" t="str">
+      <c r="O97" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P97" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P97" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q97" s="35" t="str">
+      <c r="Q97" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -10840,7 +10819,7 @@
       </c>
       <c r="S97" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T97" s="4" t="str">
         <f t="shared" si="34"/>
@@ -10856,7 +10835,7 @@
       </c>
       <c r="W97" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X97" s="4" t="str">
         <f t="shared" si="38"/>
@@ -10915,19 +10894,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N98" s="34" t="str">
+      <c r="N98" s="26" t="str">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="O98" s="35" t="str">
+      <c r="O98" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P98" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P98" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q98" s="35" t="str">
+      <c r="Q98" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -10937,7 +10916,7 @@
       </c>
       <c r="S98" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T98" s="4" t="str">
         <f t="shared" si="34"/>
@@ -10953,7 +10932,7 @@
       </c>
       <c r="W98" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X98" s="4" t="str">
         <f t="shared" si="38"/>
@@ -11012,19 +10991,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N99" s="34" t="str">
+      <c r="N99" s="26" t="str">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="O99" s="35" t="str">
+      <c r="O99" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P99" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P99" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q99" s="35" t="str">
+      <c r="Q99" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -11034,7 +11013,7 @@
       </c>
       <c r="S99" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T99" s="4" t="str">
         <f t="shared" si="34"/>
@@ -11050,7 +11029,7 @@
       </c>
       <c r="W99" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X99" s="4" t="str">
         <f t="shared" si="38"/>
@@ -11109,19 +11088,19 @@
         <f t="shared" si="27"/>
         <v>02</v>
       </c>
-      <c r="N100" s="34" t="str">
+      <c r="N100" s="26" t="str">
         <f t="shared" si="28"/>
         <v>14</v>
       </c>
-      <c r="O100" s="35" t="str">
+      <c r="O100" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P100" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P100" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q100" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q100" s="4" t="str">
         <f t="shared" si="31"/>
         <v>02</v>
       </c>
@@ -11131,11 +11110,11 @@
       </c>
       <c r="S100" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T100" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="U100" s="4" t="str">
         <f t="shared" si="35"/>
@@ -11147,7 +11126,7 @@
       </c>
       <c r="W100" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X100" s="4" t="str">
         <f t="shared" si="38"/>
@@ -11212,19 +11191,19 @@
         <f t="shared" si="27"/>
         <v>02</v>
       </c>
-      <c r="N101" s="34" t="str">
+      <c r="N101" s="26" t="str">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="O101" s="35" t="str">
+      <c r="O101" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P101" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q101" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q101" s="4" t="str">
         <f t="shared" si="31"/>
         <v>02</v>
       </c>
@@ -11234,11 +11213,11 @@
       </c>
       <c r="S101" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T101" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="U101" s="4" t="str">
         <f t="shared" si="35"/>
@@ -11250,7 +11229,7 @@
       </c>
       <c r="W101" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X101" s="4" t="str">
         <f t="shared" si="38"/>
@@ -11315,19 +11294,19 @@
         <f t="shared" si="27"/>
         <v>02</v>
       </c>
-      <c r="N102" s="34" t="str">
+      <c r="N102" s="26" t="str">
         <f t="shared" si="28"/>
         <v>1E</v>
       </c>
-      <c r="O102" s="35" t="str">
+      <c r="O102" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P102" s="35" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P102" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q102" s="35" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q102" s="4" t="str">
         <f t="shared" si="31"/>
         <v>02</v>
       </c>
@@ -11337,11 +11316,11 @@
       </c>
       <c r="S102" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0F</v>
+        <v>11</v>
       </c>
       <c r="T102" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="U102" s="4" t="str">
         <f t="shared" si="35"/>
@@ -11353,7 +11332,7 @@
       </c>
       <c r="W102" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>7F</v>
       </c>
       <c r="X102" s="4" t="str">
         <f t="shared" si="38"/>
@@ -11418,19 +11397,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N103" s="34" t="str">
+      <c r="N103" s="26" t="str">
         <f t="shared" si="28"/>
         <v>0A</v>
       </c>
-      <c r="O103" s="35" t="str">
+      <c r="O103" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>02</v>
-      </c>
-      <c r="P103" s="35" t="str">
+        <v>04</v>
+      </c>
+      <c r="P103" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q103" s="35" t="str">
+      <c r="Q103" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -11440,11 +11419,11 @@
       </c>
       <c r="S103" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>04</v>
+        <v>06</v>
       </c>
       <c r="T103" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U103" s="4" t="str">
         <f t="shared" si="35"/>
@@ -11456,7 +11435,7 @@
       </c>
       <c r="W103" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>06</v>
+        <v>7F</v>
       </c>
       <c r="X103" s="4" t="str">
         <f t="shared" si="38"/>
@@ -11515,19 +11494,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N104" s="34" t="str">
+      <c r="N104" s="26" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="O104" s="35" t="str">
+      <c r="O104" s="4" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="P104" s="35" t="str">
+      <c r="P104" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q104" s="35" t="str">
+      <c r="Q104" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -11612,19 +11591,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N105" s="34" t="str">
+      <c r="N105" s="26" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="O105" s="35" t="str">
+      <c r="O105" s="4" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="P105" s="35" t="str">
+      <c r="P105" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q105" s="35" t="str">
+      <c r="Q105" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -11709,19 +11688,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N106" s="34" t="str">
+      <c r="N106" s="26" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="O106" s="35" t="str">
+      <c r="O106" s="4" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="P106" s="35" t="str">
+      <c r="P106" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q106" s="35" t="str">
+      <c r="Q106" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -11806,19 +11785,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N107" s="34" t="str">
+      <c r="N107" s="26" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="O107" s="35" t="str">
+      <c r="O107" s="4" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="P107" s="35" t="str">
+      <c r="P107" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q107" s="35" t="str">
+      <c r="Q107" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -11903,19 +11882,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N108" s="34" t="str">
+      <c r="N108" s="26" t="str">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="O108" s="35" t="str">
+      <c r="O108" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0D</v>
-      </c>
-      <c r="P108" s="35" t="str">
+        <v>11</v>
+      </c>
+      <c r="P108" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q108" s="35" t="str">
+      <c r="Q108" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -11925,7 +11904,7 @@
       </c>
       <c r="S108" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T108" s="4" t="str">
         <f t="shared" si="34"/>
@@ -11941,7 +11920,7 @@
       </c>
       <c r="W108" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>13</v>
+        <v>7F</v>
       </c>
       <c r="X108" s="4" t="str">
         <f t="shared" si="38"/>
@@ -12000,19 +11979,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N109" s="34" t="str">
+      <c r="N109" s="26" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="O109" s="35" t="str">
+      <c r="O109" s="4" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="P109" s="35" t="str">
+      <c r="P109" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q109" s="35" t="str">
+      <c r="Q109" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -12097,19 +12076,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N110" s="34" t="str">
+      <c r="N110" s="26" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="O110" s="35" t="str">
+      <c r="O110" s="4" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="P110" s="35" t="str">
+      <c r="P110" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q110" s="35" t="str">
+      <c r="Q110" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -12194,19 +12173,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N111" s="34" t="str">
+      <c r="N111" s="26" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="O111" s="35" t="str">
+      <c r="O111" s="4" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="P111" s="35" t="str">
+      <c r="P111" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q111" s="35" t="str">
+      <c r="Q111" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -12291,19 +12270,19 @@
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N112" s="34" t="str">
+      <c r="N112" s="26" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="O112" s="35" t="str">
+      <c r="O112" s="4" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="P112" s="35" t="str">
+      <c r="P112" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q112" s="35" t="str">
+      <c r="Q112" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -12342,11 +12321,11 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="V1:Y1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
     <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/EnemyTemplates.xlsx
+++ b/data/EnemyTemplates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="215">
   <si>
     <t>IDX</t>
   </si>
@@ -661,9 +661,6 @@
   </si>
   <si>
     <t>EXTREME (Max 17 STR, Max 2 DEF)</t>
-  </si>
-  <si>
-    <t>OHKO (Inf STR, Max 2 DEF)</t>
   </si>
 </sst>
 </file>
@@ -1189,13 +1186,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:W112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3:Y112"/>
+      <selection pane="bottomRight" activeCell="V2" sqref="V1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1209,13 +1206,11 @@
     <col min="15" max="17" width="9" style="4"/>
     <col min="18" max="18" width="9" style="26"/>
     <col min="19" max="21" width="9" style="4"/>
-    <col min="22" max="22" width="9" style="26"/>
-    <col min="23" max="25" width="9" style="4"/>
-    <col min="26" max="26" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:23">
       <c r="A1" s="28"/>
       <c r="B1" s="32" t="s">
         <v>208</v>
@@ -1247,14 +1242,8 @@
       <c r="S1" s="32"/>
       <c r="T1" s="32"/>
       <c r="U1" s="32"/>
-      <c r="V1" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-    </row>
-    <row r="2" spans="1:27">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -1318,20 +1307,8 @@
       <c r="U2" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="V2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="25" t="s">
         <v>190</v>
       </c>
@@ -1411,24 +1388,8 @@
         <f>$E3</f>
         <v>00</v>
       </c>
-      <c r="V3" s="26" t="str">
-        <f>$B3</f>
-        <v>00</v>
-      </c>
-      <c r="W3" s="4" t="str">
-        <f>IF($C3="00",$C3,"7F")</f>
-        <v>00</v>
-      </c>
-      <c r="X3" s="4" t="str">
-        <f>IF(OR($D3="7F",$D3="FF"),$D3,DEC2HEX(ROUND(HEX2DEC($D3)*6/65,0),2))</f>
-        <v>00</v>
-      </c>
-      <c r="Y3" s="4" t="str">
-        <f>$E3</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="25" t="s">
         <v>191</v>
       </c>
@@ -1508,30 +1469,14 @@
         <f t="shared" ref="U4:U67" si="15">$E4</f>
         <v>02</v>
       </c>
-      <c r="V4" s="26" t="str">
-        <f t="shared" ref="V4:V67" si="16">$B4</f>
-        <v>06</v>
-      </c>
-      <c r="W4" s="4" t="str">
-        <f t="shared" ref="W4:W67" si="17">IF($C4="00",$C4,"7F")</f>
-        <v>7F</v>
-      </c>
-      <c r="X4" s="4" t="str">
-        <f t="shared" ref="X4:X67" si="18">IF(OR($D4="7F",$D4="FF"),$D4,DEC2HEX(ROUND(HEX2DEC($D4)*6/65,0),2))</f>
-        <v>00</v>
-      </c>
-      <c r="Y4" s="4" t="str">
-        <f t="shared" ref="Y4:Y67" si="19">$E4</f>
-        <v>02</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="V4" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:23">
       <c r="A5" s="25" t="s">
         <v>193</v>
       </c>
@@ -1611,30 +1556,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V5" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>05</v>
-      </c>
-      <c r="W5" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X5" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y5" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="V5" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="W5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:23">
       <c r="A6" s="25" t="s">
         <v>195</v>
       </c>
@@ -1714,30 +1643,14 @@
         <f t="shared" si="15"/>
         <v>03</v>
       </c>
-      <c r="V6" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>0A</v>
-      </c>
-      <c r="W6" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X6" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y6" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>03</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="V6" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="W6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:23">
       <c r="A7" s="25" t="s">
         <v>197</v>
       </c>
@@ -1817,30 +1730,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V7" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>03</v>
-      </c>
-      <c r="W7" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X7" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y7" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="V7" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="W7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:23">
       <c r="A8" s="25" t="s">
         <v>194</v>
       </c>
@@ -1920,30 +1817,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V8" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>03</v>
-      </c>
-      <c r="W8" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X8" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y8" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z8" t="s">
+      <c r="V8" t="s">
         <v>21</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="W8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:23">
       <c r="A9" s="25" t="s">
         <v>192</v>
       </c>
@@ -2023,24 +1904,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V9" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>7F</v>
-      </c>
-      <c r="W9" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>00</v>
-      </c>
-      <c r="X9" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y9" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="25" t="s">
         <v>199</v>
       </c>
@@ -2120,24 +1985,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V10" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>08</v>
-      </c>
-      <c r="W10" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X10" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>06</v>
-      </c>
-      <c r="Y10" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="25" t="s">
         <v>200</v>
       </c>
@@ -2217,24 +2066,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V11" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>03</v>
-      </c>
-      <c r="W11" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X11" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>05</v>
-      </c>
-      <c r="Y11" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="25" t="s">
         <v>201</v>
       </c>
@@ -2314,24 +2147,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V12" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>06</v>
-      </c>
-      <c r="W12" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X12" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>04</v>
-      </c>
-      <c r="Y12" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="25" t="s">
         <v>196</v>
       </c>
@@ -2411,30 +2228,14 @@
         <f t="shared" si="15"/>
         <v>02</v>
       </c>
-      <c r="V13" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>08</v>
-      </c>
-      <c r="W13" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X13" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y13" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>02</v>
-      </c>
-      <c r="Z13" t="s">
+      <c r="V13" t="s">
         <v>24</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="W13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:23">
       <c r="A14" s="25" t="s">
         <v>202</v>
       </c>
@@ -2514,30 +2315,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V14" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>06</v>
-      </c>
-      <c r="W14" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X14" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y14" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z14" t="s">
+      <c r="V14" t="s">
         <v>28</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="W14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:23">
       <c r="A15" s="25" t="s">
         <v>203</v>
       </c>
@@ -2617,30 +2402,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V15" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>09</v>
-      </c>
-      <c r="W15" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X15" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y15" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z15" t="s">
+      <c r="V15" t="s">
         <v>31</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="W15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:23">
       <c r="A16" s="25" t="s">
         <v>204</v>
       </c>
@@ -2720,30 +2489,14 @@
         <f t="shared" si="15"/>
         <v>02</v>
       </c>
-      <c r="V16" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>0B</v>
-      </c>
-      <c r="W16" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X16" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y16" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>02</v>
-      </c>
-      <c r="Z16" t="s">
+      <c r="V16" t="s">
         <v>34</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="W16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:23">
       <c r="A17" s="25" t="s">
         <v>205</v>
       </c>
@@ -2823,30 +2576,14 @@
         <f t="shared" si="15"/>
         <v>03</v>
       </c>
-      <c r="V17" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>08</v>
-      </c>
-      <c r="W17" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>03</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="V17" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="W17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:23">
       <c r="A18" s="25" t="s">
         <v>206</v>
       </c>
@@ -2926,30 +2663,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V18" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>06</v>
-      </c>
-      <c r="W18" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X18" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y18" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z18" t="s">
+      <c r="V18" t="s">
         <v>40</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="W18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:23">
       <c r="A19" s="25" t="s">
         <v>42</v>
       </c>
@@ -3029,30 +2750,14 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V19" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>0E</v>
-      </c>
-      <c r="W19" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X19" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y19" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-      <c r="Z19" t="s">
+      <c r="V19" t="s">
         <v>43</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="W19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:23">
       <c r="A20" s="25" t="s">
         <v>60</v>
       </c>
@@ -3132,24 +2837,8 @@
         <f t="shared" si="15"/>
         <v>03</v>
       </c>
-      <c r="V20" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>0A</v>
-      </c>
-      <c r="W20" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X20" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y20" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="25" t="s">
         <v>10</v>
       </c>
@@ -3229,24 +2918,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V21" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>00</v>
-      </c>
-      <c r="W21" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>00</v>
-      </c>
-      <c r="X21" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y21" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="25" t="s">
         <v>13</v>
       </c>
@@ -3326,24 +2999,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V22" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>00</v>
-      </c>
-      <c r="W22" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>00</v>
-      </c>
-      <c r="X22" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y22" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="25" t="s">
         <v>125</v>
       </c>
@@ -3423,27 +3080,11 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V23" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>28</v>
-      </c>
-      <c r="W23" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X23" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>7F</v>
-      </c>
-      <c r="Y23" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-      <c r="Z23" t="s">
+      <c r="V23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:23">
       <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
@@ -3523,24 +3164,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V24" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>00</v>
-      </c>
-      <c r="W24" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>00</v>
-      </c>
-      <c r="X24" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y24" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="25" t="s">
         <v>19</v>
       </c>
@@ -3620,24 +3245,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V25" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>00</v>
-      </c>
-      <c r="W25" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>00</v>
-      </c>
-      <c r="X25" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y25" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="25" t="s">
         <v>22</v>
       </c>
@@ -3717,24 +3326,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V26" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>00</v>
-      </c>
-      <c r="W26" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>00</v>
-      </c>
-      <c r="X26" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y26" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="25" t="s">
         <v>45</v>
       </c>
@@ -3814,30 +3407,14 @@
         <f t="shared" si="15"/>
         <v>02</v>
       </c>
-      <c r="V27" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>0A</v>
-      </c>
-      <c r="W27" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X27" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y27" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>02</v>
-      </c>
-      <c r="Z27" t="s">
+      <c r="V27" t="s">
         <v>46</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="W27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:23">
       <c r="A28" s="25" t="s">
         <v>49</v>
       </c>
@@ -3917,30 +3494,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V28" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>05</v>
-      </c>
-      <c r="W28" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X28" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y28" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z28" t="s">
+      <c r="V28" t="s">
         <v>50</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="W28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:23">
       <c r="A29" s="25" t="s">
         <v>52</v>
       </c>
@@ -4020,30 +3581,14 @@
         <f t="shared" si="15"/>
         <v>03</v>
       </c>
-      <c r="V29" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>05</v>
-      </c>
-      <c r="W29" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X29" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y29" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>03</v>
-      </c>
-      <c r="Z29" t="s">
+      <c r="V29" t="s">
         <v>53</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="W29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:23">
       <c r="A30" s="25" t="s">
         <v>55</v>
       </c>
@@ -4123,30 +3668,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V30" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>0C</v>
-      </c>
-      <c r="W30" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X30" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y30" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z30" t="s">
+      <c r="V30" t="s">
         <v>56</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="W30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:23">
       <c r="A31" s="25" t="s">
         <v>59</v>
       </c>
@@ -4226,30 +3755,14 @@
         <f t="shared" si="15"/>
         <v>02</v>
       </c>
-      <c r="V31" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>0C</v>
-      </c>
-      <c r="W31" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X31" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y31" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>02</v>
-      </c>
-      <c r="Z31" t="s">
+      <c r="V31" t="s">
         <v>61</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="W31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:23">
       <c r="A32" s="25" t="s">
         <v>63</v>
       </c>
@@ -4329,30 +3842,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V32" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="W32" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X32" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y32" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z32" t="s">
+      <c r="V32" t="s">
         <v>64</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="W32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:23">
       <c r="A33" s="25" t="s">
         <v>65</v>
       </c>
@@ -4432,30 +3929,14 @@
         <f t="shared" si="15"/>
         <v>03</v>
       </c>
-      <c r="V33" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="W33" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X33" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y33" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>03</v>
-      </c>
-      <c r="Z33" t="s">
+      <c r="V33" t="s">
         <v>66</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="W33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:23">
       <c r="A34" s="25" t="s">
         <v>72</v>
       </c>
@@ -4535,24 +4016,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V34" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>05</v>
-      </c>
-      <c r="W34" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X34" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y34" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="25" t="s">
         <v>75</v>
       </c>
@@ -4632,24 +4097,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V35" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>05</v>
-      </c>
-      <c r="W35" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X35" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y35" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="25" t="s">
         <v>150</v>
       </c>
@@ -4729,24 +4178,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V36" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>FF</v>
-      </c>
-      <c r="W36" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X36" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y36" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="25" t="s">
         <v>151</v>
       </c>
@@ -4826,24 +4259,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V37" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>FF</v>
-      </c>
-      <c r="W37" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X37" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y37" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="25" t="s">
         <v>26</v>
       </c>
@@ -4923,24 +4340,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V38" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>00</v>
-      </c>
-      <c r="W38" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>00</v>
-      </c>
-      <c r="X38" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y38" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="25" t="s">
         <v>29</v>
       </c>
@@ -5020,24 +4421,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V39" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>00</v>
-      </c>
-      <c r="W39" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>00</v>
-      </c>
-      <c r="X39" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y39" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="25" t="s">
         <v>32</v>
       </c>
@@ -5117,24 +4502,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V40" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>00</v>
-      </c>
-      <c r="W40" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>00</v>
-      </c>
-      <c r="X40" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y40" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="25" t="s">
         <v>35</v>
       </c>
@@ -5214,24 +4583,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V41" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>00</v>
-      </c>
-      <c r="W41" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>00</v>
-      </c>
-      <c r="X41" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y41" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="25" t="s">
         <v>156</v>
       </c>
@@ -5311,27 +4664,11 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V42" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>28</v>
-      </c>
-      <c r="W42" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X42" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>7F</v>
-      </c>
-      <c r="Y42" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-      <c r="Z42" t="s">
+      <c r="V42" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:23">
       <c r="A43" s="25" t="s">
         <v>68</v>
       </c>
@@ -5411,30 +4748,14 @@
         <f t="shared" si="15"/>
         <v>02</v>
       </c>
-      <c r="V43" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>1A</v>
-      </c>
-      <c r="W43" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X43" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y43" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>02</v>
-      </c>
-      <c r="Z43" t="s">
+      <c r="V43" t="s">
         <v>70</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="W43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:23">
       <c r="A44" s="25" t="s">
         <v>73</v>
       </c>
@@ -5514,30 +4835,14 @@
         <f t="shared" si="15"/>
         <v>03</v>
       </c>
-      <c r="V44" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>16</v>
-      </c>
-      <c r="W44" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X44" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y44" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>03</v>
-      </c>
-      <c r="Z44" t="s">
+      <c r="V44" t="s">
         <v>74</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="W44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:23">
       <c r="A45" s="25" t="s">
         <v>76</v>
       </c>
@@ -5617,30 +4922,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V45" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>0C</v>
-      </c>
-      <c r="W45" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X45" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y45" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z45" t="s">
+      <c r="V45" t="s">
         <v>77</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="W45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:23">
       <c r="A46" s="25" t="s">
         <v>80</v>
       </c>
@@ -5720,30 +5009,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V46" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>08</v>
-      </c>
-      <c r="W46" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X46" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>00</v>
-      </c>
-      <c r="Y46" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z46" t="s">
+      <c r="V46" t="s">
         <v>81</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="W46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:23">
       <c r="A47" s="25" t="s">
         <v>82</v>
       </c>
@@ -5823,30 +5096,14 @@
         <f t="shared" si="15"/>
         <v>02</v>
       </c>
-      <c r="V47" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="W47" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X47" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y47" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>02</v>
-      </c>
-      <c r="Z47" t="s">
+      <c r="V47" t="s">
         <v>84</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="W47" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:23">
       <c r="A48" s="25" t="s">
         <v>87</v>
       </c>
@@ -5926,30 +5183,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V48" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>05</v>
-      </c>
-      <c r="W48" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X48" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y48" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z48" t="s">
+      <c r="V48" t="s">
         <v>88</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="W48" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:23">
       <c r="A49" s="25" t="s">
         <v>89</v>
       </c>
@@ -6029,30 +5270,14 @@
         <f t="shared" si="15"/>
         <v>03</v>
       </c>
-      <c r="V49" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>0A</v>
-      </c>
-      <c r="W49" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X49" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y49" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>03</v>
-      </c>
-      <c r="Z49" t="s">
+      <c r="V49" t="s">
         <v>90</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="W49" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:23">
       <c r="A50" s="25" t="s">
         <v>154</v>
       </c>
@@ -6132,24 +5357,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V50" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>28</v>
-      </c>
-      <c r="W50" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X50" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>7F</v>
-      </c>
-      <c r="Y50" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="25" t="s">
         <v>158</v>
       </c>
@@ -6229,27 +5438,11 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V51" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>28</v>
-      </c>
-      <c r="W51" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X51" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>7F</v>
-      </c>
-      <c r="Y51" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-      <c r="Z51" s="31" t="s">
+      <c r="V51" s="31" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:23">
       <c r="A52" s="25" t="s">
         <v>165</v>
       </c>
@@ -6329,27 +5522,11 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V52" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>32</v>
-      </c>
-      <c r="W52" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X52" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>7F</v>
-      </c>
-      <c r="Y52" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-      <c r="Z52" s="31" t="s">
+      <c r="V52" s="31" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:23">
       <c r="A53" s="25" t="s">
         <v>92</v>
       </c>
@@ -6429,30 +5606,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V53" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>0F</v>
-      </c>
-      <c r="W53" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X53" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y53" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z53" t="s">
+      <c r="V53" t="s">
         <v>93</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="W53" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:23">
       <c r="A54" s="25" t="s">
         <v>95</v>
       </c>
@@ -6532,30 +5693,14 @@
         <f t="shared" si="15"/>
         <v>02</v>
       </c>
-      <c r="V54" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>19</v>
-      </c>
-      <c r="W54" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X54" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y54" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>02</v>
-      </c>
-      <c r="Z54" t="s">
+      <c r="V54" t="s">
         <v>96</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="W54" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:23">
       <c r="A55" s="25" t="s">
         <v>102</v>
       </c>
@@ -6635,30 +5780,14 @@
         <f t="shared" si="15"/>
         <v>03</v>
       </c>
-      <c r="V55" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>16</v>
-      </c>
-      <c r="W55" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X55" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y55" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>03</v>
-      </c>
-      <c r="Z55" t="s">
+      <c r="V55" t="s">
         <v>103</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="W55" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:23">
       <c r="A56" s="25" t="s">
         <v>104</v>
       </c>
@@ -6738,30 +5867,14 @@
         <f t="shared" si="15"/>
         <v>02</v>
       </c>
-      <c r="V56" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>16</v>
-      </c>
-      <c r="W56" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X56" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y56" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>02</v>
-      </c>
-      <c r="Z56" t="s">
+      <c r="V56" t="s">
         <v>105</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="W56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:23">
       <c r="A57" s="25" t="s">
         <v>160</v>
       </c>
@@ -6841,27 +5954,11 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V57" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>28</v>
-      </c>
-      <c r="W57" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X57" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>7F</v>
-      </c>
-      <c r="Y57" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-      <c r="Z57" s="31" t="s">
+      <c r="V57" s="31" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:23">
       <c r="A58" s="25" t="s">
         <v>159</v>
       </c>
@@ -6941,24 +6038,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V58" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>03</v>
-      </c>
-      <c r="W58" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X58" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>7F</v>
-      </c>
-      <c r="Y58" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="25" t="s">
         <v>145</v>
       </c>
@@ -7038,24 +6119,8 @@
         <f t="shared" si="15"/>
         <v>03</v>
       </c>
-      <c r="V59" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="W59" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X59" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y59" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="25" t="s">
         <v>147</v>
       </c>
@@ -7135,24 +6200,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V60" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="W60" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X60" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y60" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="25" t="s">
         <v>83</v>
       </c>
@@ -7232,30 +6281,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V61" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="W61" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X61" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y61" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z61" t="s">
+      <c r="V61" t="s">
         <v>106</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="W61" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:23">
       <c r="A62" s="25" t="s">
         <v>152</v>
       </c>
@@ -7335,24 +6368,8 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="V62" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="W62" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X62" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y62" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="25" t="s">
         <v>108</v>
       </c>
@@ -7432,30 +6449,14 @@
         <f t="shared" si="15"/>
         <v>02</v>
       </c>
-      <c r="V63" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="W63" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X63" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y63" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>02</v>
-      </c>
-      <c r="Z63" t="s">
+      <c r="V63" t="s">
         <v>109</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="W63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:23">
       <c r="A64" s="25" t="s">
         <v>111</v>
       </c>
@@ -7535,30 +6536,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V64" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="W64" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X64" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y64" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z64" t="s">
+      <c r="V64" t="s">
         <v>112</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="W64" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:23">
       <c r="A65" s="25" t="s">
         <v>113</v>
       </c>
@@ -7638,30 +6623,14 @@
         <f t="shared" si="15"/>
         <v>01</v>
       </c>
-      <c r="V65" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="W65" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X65" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y65" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>01</v>
-      </c>
-      <c r="Z65" t="s">
+      <c r="V65" t="s">
         <v>114</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="W65" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:23">
       <c r="A66" s="25" t="s">
         <v>115</v>
       </c>
@@ -7741,30 +6710,14 @@
         <f t="shared" si="15"/>
         <v>03</v>
       </c>
-      <c r="V66" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>0F</v>
-      </c>
-      <c r="W66" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X66" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y66" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>03</v>
-      </c>
-      <c r="Z66" t="s">
+      <c r="V66" t="s">
         <v>116</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="W66" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:23">
       <c r="A67" s="25" t="s">
         <v>149</v>
       </c>
@@ -7844,4094 +6797,3422 @@
         <f t="shared" si="15"/>
         <v>02</v>
       </c>
-      <c r="V67" s="26" t="str">
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F68" s="26" t="str">
+        <f t="shared" ref="F68:F112" si="16">IF(OR($B68="28",$B68="00"),$B68,DEC2HEX(MAX(ROUND(HEX2DEC($B68)*2/3,0),1),2))</f>
+        <v>04</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" ref="G68:G112" si="17">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)/3,0),1),2))</f>
+        <v>03</v>
+      </c>
+      <c r="H68" s="4" t="str">
+        <f t="shared" ref="H68:H112" si="18">IF(OR($D68="7F",$D68="FF"),$D68,"00")</f>
+        <v>00</v>
+      </c>
+      <c r="I68" s="4" t="str">
+        <f t="shared" ref="I68:I112" si="19">$E68</f>
+        <v>01</v>
+      </c>
+      <c r="J68" s="26" t="str">
+        <f t="shared" ref="J68:J112" si="20">$B68</f>
+        <v>06</v>
+      </c>
+      <c r="K68" s="4" t="str">
+        <f t="shared" ref="K68:K112" si="21">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*7/30,0),1),2))</f>
+        <v>02</v>
+      </c>
+      <c r="L68" s="4" t="str">
+        <f t="shared" ref="L68:L112" si="22">IF(OR($D68="7F",$D68="FF"),$D68,"00")</f>
+        <v>00</v>
+      </c>
+      <c r="M68" s="4" t="str">
+        <f t="shared" ref="M68:M112" si="23">$E68</f>
+        <v>01</v>
+      </c>
+      <c r="N68" s="26" t="str">
+        <f t="shared" ref="N68:N112" si="24">$B68</f>
+        <v>06</v>
+      </c>
+      <c r="O68" s="4" t="str">
+        <f t="shared" ref="O68:O112" si="25">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*6/15+1,0),2),2))</f>
+        <v>05</v>
+      </c>
+      <c r="P68" s="4" t="str">
+        <f t="shared" ref="P68:P112" si="26">IF(OR($D68="7F",$D68="FF"),$D68,DEC2HEX(ROUND(HEX2DEC($D68)*7/125,0),2))</f>
+        <v>00</v>
+      </c>
+      <c r="Q68" s="4" t="str">
+        <f t="shared" ref="Q68:Q112" si="27">$E68</f>
+        <v>01</v>
+      </c>
+      <c r="R68" s="26" t="str">
+        <f t="shared" ref="R68:R112" si="28">$B68</f>
+        <v>06</v>
+      </c>
+      <c r="S68" s="4" t="str">
+        <f t="shared" ref="S68:S112" si="29">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*6/15+3,0),2),2))</f>
+        <v>07</v>
+      </c>
+      <c r="T68" s="4" t="str">
+        <f t="shared" ref="T68:T112" si="30">IF(OR($D68="7F",$D68="FF"),$D68,DEC2HEX(ROUND(HEX2DEC($D68)*6/65,0),2))</f>
+        <v>00</v>
+      </c>
+      <c r="U68" s="4" t="str">
+        <f t="shared" ref="U68:U112" si="31">$E68</f>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F69" s="26" t="str">
         <f t="shared" si="16"/>
-        <v>0C</v>
-      </c>
-      <c r="W67" s="4" t="str">
+        <v>11</v>
+      </c>
+      <c r="G69" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>7F</v>
-      </c>
-      <c r="X67" s="4" t="str">
+        <v>07</v>
+      </c>
+      <c r="H69" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>01</v>
-      </c>
-      <c r="Y67" s="4" t="str">
+        <v>00</v>
+      </c>
+      <c r="I69" s="4" t="str">
         <f t="shared" si="19"/>
         <v>02</v>
       </c>
-    </row>
-    <row r="68" spans="1:27">
-      <c r="A68" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F68" s="26" t="str">
-        <f t="shared" ref="F68:F112" si="20">IF(OR($B68="28",$B68="00"),$B68,DEC2HEX(MAX(ROUND(HEX2DEC($B68)*2/3,0),1),2))</f>
-        <v>04</v>
-      </c>
-      <c r="G68" s="4" t="str">
-        <f t="shared" ref="G68:G112" si="21">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)/3,0),1),2))</f>
-        <v>03</v>
-      </c>
-      <c r="H68" s="4" t="str">
-        <f t="shared" ref="H68:H112" si="22">IF(OR($D68="7F",$D68="FF"),$D68,"00")</f>
-        <v>00</v>
-      </c>
-      <c r="I68" s="4" t="str">
-        <f t="shared" ref="I68:I112" si="23">$E68</f>
-        <v>01</v>
-      </c>
-      <c r="J68" s="26" t="str">
-        <f t="shared" ref="J68:J112" si="24">$B68</f>
-        <v>06</v>
-      </c>
-      <c r="K68" s="4" t="str">
-        <f t="shared" ref="K68:K112" si="25">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*7/30,0),1),2))</f>
-        <v>02</v>
-      </c>
-      <c r="L68" s="4" t="str">
-        <f t="shared" ref="L68:L112" si="26">IF(OR($D68="7F",$D68="FF"),$D68,"00")</f>
-        <v>00</v>
-      </c>
-      <c r="M68" s="4" t="str">
-        <f t="shared" ref="M68:M112" si="27">$E68</f>
-        <v>01</v>
-      </c>
-      <c r="N68" s="26" t="str">
-        <f t="shared" ref="N68:N112" si="28">$B68</f>
-        <v>06</v>
-      </c>
-      <c r="O68" s="4" t="str">
-        <f t="shared" ref="O68:O112" si="29">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*6/15+1,0),2),2))</f>
+      <c r="J69" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="K69" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>05</v>
       </c>
-      <c r="P68" s="4" t="str">
-        <f t="shared" ref="P68:P112" si="30">IF(OR($D68="7F",$D68="FF"),$D68,DEC2HEX(ROUND(HEX2DEC($D68)*7/125,0),2))</f>
-        <v>00</v>
-      </c>
-      <c r="Q68" s="4" t="str">
-        <f t="shared" ref="Q68:Q112" si="31">$E68</f>
-        <v>01</v>
-      </c>
-      <c r="R68" s="26" t="str">
-        <f t="shared" ref="R68:R112" si="32">$B68</f>
-        <v>06</v>
-      </c>
-      <c r="S68" s="4" t="str">
-        <f t="shared" ref="S68:S112" si="33">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*6/15+3,0),2),2))</f>
-        <v>07</v>
-      </c>
-      <c r="T68" s="4" t="str">
-        <f t="shared" ref="T68:T112" si="34">IF(OR($D68="7F",$D68="FF"),$D68,DEC2HEX(ROUND(HEX2DEC($D68)*6/65,0),2))</f>
-        <v>00</v>
-      </c>
-      <c r="U68" s="4" t="str">
-        <f t="shared" ref="U68:U112" si="35">$E68</f>
-        <v>01</v>
-      </c>
-      <c r="V68" s="26" t="str">
-        <f t="shared" ref="V68:V112" si="36">$B68</f>
-        <v>06</v>
-      </c>
-      <c r="W68" s="4" t="str">
-        <f t="shared" ref="W68:W112" si="37">IF($C68="00",$C68,"7F")</f>
-        <v>7F</v>
-      </c>
-      <c r="X68" s="4" t="str">
-        <f t="shared" ref="X68:X112" si="38">IF(OR($D68="7F",$D68="FF"),$D68,DEC2HEX(ROUND(HEX2DEC($D68)*6/65,0),2))</f>
-        <v>00</v>
-      </c>
-      <c r="Y68" s="4" t="str">
-        <f t="shared" ref="Y68:Y112" si="39">$E68</f>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
-      <c r="A69" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F69" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="G69" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>07</v>
-      </c>
-      <c r="H69" s="4" t="str">
+      <c r="L69" s="4" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="I69" s="4" t="str">
+      <c r="M69" s="4" t="str">
         <f t="shared" si="23"/>
         <v>02</v>
       </c>
-      <c r="J69" s="26" t="str">
+      <c r="N69" s="26" t="str">
         <f t="shared" si="24"/>
         <v>19</v>
       </c>
-      <c r="K69" s="4" t="str">
+      <c r="O69" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0A</v>
+      </c>
+      <c r="P69" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q69" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>02</v>
+      </c>
+      <c r="R69" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>19</v>
+      </c>
+      <c r="S69" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0C</v>
+      </c>
+      <c r="T69" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>01</v>
+      </c>
+      <c r="U69" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>02</v>
+      </c>
+      <c r="V69" t="s">
+        <v>118</v>
+      </c>
+      <c r="W69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F70" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>0D</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>09</v>
+      </c>
+      <c r="H70" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I70" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>01</v>
+      </c>
+      <c r="J70" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="K70" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>06</v>
+      </c>
+      <c r="L70" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M70" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>01</v>
+      </c>
+      <c r="N70" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="O70" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0B</v>
+      </c>
+      <c r="P70" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q70" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>01</v>
+      </c>
+      <c r="R70" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="S70" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0D</v>
+      </c>
+      <c r="T70" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>01</v>
+      </c>
+      <c r="U70" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>01</v>
+      </c>
+      <c r="V70" t="s">
+        <v>120</v>
+      </c>
+      <c r="W70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F71" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>07</v>
+      </c>
+      <c r="H71" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I71" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>03</v>
+      </c>
+      <c r="J71" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>1E</v>
+      </c>
+      <c r="K71" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>05</v>
+      </c>
+      <c r="L71" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M71" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>03</v>
+      </c>
+      <c r="N71" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>1E</v>
+      </c>
+      <c r="O71" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0A</v>
+      </c>
+      <c r="P71" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q71" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>03</v>
+      </c>
+      <c r="R71" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>1E</v>
+      </c>
+      <c r="S71" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0C</v>
+      </c>
+      <c r="T71" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>01</v>
+      </c>
+      <c r="U71" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>03</v>
+      </c>
+      <c r="V71" t="s">
+        <v>106</v>
+      </c>
+      <c r="W71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>08</v>
+      </c>
+      <c r="H72" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I72" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>02</v>
+      </c>
+      <c r="J72" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>1C</v>
+      </c>
+      <c r="K72" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>06</v>
+      </c>
+      <c r="L72" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M72" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>02</v>
+      </c>
+      <c r="N72" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>1C</v>
+      </c>
+      <c r="O72" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0B</v>
+      </c>
+      <c r="P72" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q72" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>02</v>
+      </c>
+      <c r="R72" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>1C</v>
+      </c>
+      <c r="S72" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0D</v>
+      </c>
+      <c r="T72" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>01</v>
+      </c>
+      <c r="U72" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>02</v>
+      </c>
+      <c r="V72" t="s">
+        <v>124</v>
+      </c>
+      <c r="W72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F73" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>0D</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>07</v>
+      </c>
+      <c r="H73" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>FF</v>
+      </c>
+      <c r="I73" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J73" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="K73" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>05</v>
+      </c>
+      <c r="L73" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>FF</v>
+      </c>
+      <c r="M73" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N73" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="O73" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0A</v>
+      </c>
+      <c r="P73" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>FF</v>
+      </c>
+      <c r="Q73" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R73" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="S73" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0C</v>
+      </c>
+      <c r="T73" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>FF</v>
+      </c>
+      <c r="U73" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+      <c r="V73" t="s">
+        <v>129</v>
+      </c>
+      <c r="W73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F74" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>0D</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>08</v>
+      </c>
+      <c r="H74" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I74" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>03</v>
+      </c>
+      <c r="J74" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="K74" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>05</v>
+      </c>
+      <c r="L74" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M74" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>03</v>
+      </c>
+      <c r="N74" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="O74" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0A</v>
+      </c>
+      <c r="P74" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q74" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>03</v>
+      </c>
+      <c r="R74" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="S74" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0C</v>
+      </c>
+      <c r="T74" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>01</v>
+      </c>
+      <c r="U74" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F75" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>07</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>07</v>
+      </c>
+      <c r="H75" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I75" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J75" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>0A</v>
+      </c>
+      <c r="K75" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>05</v>
+      </c>
+      <c r="L75" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M75" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N75" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>0A</v>
+      </c>
+      <c r="O75" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0A</v>
+      </c>
+      <c r="P75" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q75" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R75" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>0A</v>
+      </c>
+      <c r="S75" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0C</v>
+      </c>
+      <c r="T75" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>01</v>
+      </c>
+      <c r="U75" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F76" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>0A</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>08</v>
+      </c>
+      <c r="H76" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I76" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>02</v>
+      </c>
+      <c r="J76" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>0F</v>
+      </c>
+      <c r="K76" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>05</v>
+      </c>
+      <c r="L76" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M76" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>02</v>
+      </c>
+      <c r="N76" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>0F</v>
+      </c>
+      <c r="O76" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0A</v>
+      </c>
+      <c r="P76" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q76" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>02</v>
+      </c>
+      <c r="R76" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>0F</v>
+      </c>
+      <c r="S76" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0C</v>
+      </c>
+      <c r="T76" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>01</v>
+      </c>
+      <c r="U76" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>02</v>
+      </c>
+      <c r="V76" t="s">
+        <v>166</v>
+      </c>
+      <c r="W76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>05</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>07</v>
+      </c>
+      <c r="H77" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I77" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>01</v>
+      </c>
+      <c r="J77" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>08</v>
+      </c>
+      <c r="K77" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>05</v>
+      </c>
+      <c r="L77" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M77" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>01</v>
+      </c>
+      <c r="N77" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>08</v>
+      </c>
+      <c r="O77" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0A</v>
+      </c>
+      <c r="P77" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q77" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>01</v>
+      </c>
+      <c r="R77" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>08</v>
+      </c>
+      <c r="S77" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0C</v>
+      </c>
+      <c r="T77" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>01</v>
+      </c>
+      <c r="U77" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>01</v>
+      </c>
+      <c r="V77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F78" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>04</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>03</v>
+      </c>
+      <c r="H78" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I78" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>01</v>
+      </c>
+      <c r="J78" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>06</v>
+      </c>
+      <c r="K78" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>02</v>
+      </c>
+      <c r="L78" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M78" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>01</v>
+      </c>
+      <c r="N78" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>06</v>
+      </c>
+      <c r="O78" s="4" t="str">
         <f t="shared" si="25"/>
         <v>05</v>
       </c>
-      <c r="L69" s="4" t="str">
+      <c r="P78" s="4" t="str">
         <f t="shared" si="26"/>
         <v>00</v>
       </c>
-      <c r="M69" s="4" t="str">
+      <c r="Q78" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>01</v>
+      </c>
+      <c r="R78" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>06</v>
+      </c>
+      <c r="S78" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>07</v>
+      </c>
+      <c r="T78" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>00</v>
+      </c>
+      <c r="U78" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F79" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>08</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>08</v>
+      </c>
+      <c r="H79" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I79" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>02</v>
+      </c>
+      <c r="J79" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>0C</v>
+      </c>
+      <c r="K79" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>05</v>
+      </c>
+      <c r="L79" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>02</v>
+      </c>
+      <c r="N79" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>0C</v>
+      </c>
+      <c r="O79" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0A</v>
+      </c>
+      <c r="P79" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q79" s="4" t="str">
         <f t="shared" si="27"/>
         <v>02</v>
       </c>
-      <c r="N69" s="26" t="str">
+      <c r="R79" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>0C</v>
+      </c>
+      <c r="S79" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0C</v>
+      </c>
+      <c r="T79" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>01</v>
+      </c>
+      <c r="U79" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>02</v>
+      </c>
+      <c r="V79" t="s">
+        <v>134</v>
+      </c>
+      <c r="W79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F80" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>09</v>
+      </c>
+      <c r="H80" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I80" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J80" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>1C</v>
+      </c>
+      <c r="K80" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>06</v>
+      </c>
+      <c r="L80" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M80" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N80" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>1C</v>
+      </c>
+      <c r="O80" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0B</v>
+      </c>
+      <c r="P80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q80" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R80" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>1C</v>
+      </c>
+      <c r="S80" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0D</v>
+      </c>
+      <c r="T80" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>01</v>
+      </c>
+      <c r="U80" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+      <c r="V80" t="s">
+        <v>187</v>
+      </c>
+      <c r="W80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F81" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>08</v>
+      </c>
+      <c r="H81" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I81" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>03</v>
+      </c>
+      <c r="J81" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>1E</v>
+      </c>
+      <c r="K81" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>06</v>
+      </c>
+      <c r="L81" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M81" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>03</v>
+      </c>
+      <c r="N81" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>1E</v>
+      </c>
+      <c r="O81" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0B</v>
+      </c>
+      <c r="P81" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q81" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>03</v>
+      </c>
+      <c r="R81" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>1E</v>
+      </c>
+      <c r="S81" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0D</v>
+      </c>
+      <c r="T81" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>01</v>
+      </c>
+      <c r="U81" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>03</v>
+      </c>
+      <c r="V81" t="s">
+        <v>137</v>
+      </c>
+      <c r="W81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F82" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>0D</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>08</v>
+      </c>
+      <c r="H82" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I82" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>02</v>
+      </c>
+      <c r="J82" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="K82" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>05</v>
+      </c>
+      <c r="L82" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M82" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>02</v>
+      </c>
+      <c r="N82" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="O82" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0A</v>
+      </c>
+      <c r="P82" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q82" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>02</v>
+      </c>
+      <c r="R82" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="S82" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0C</v>
+      </c>
+      <c r="T82" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>01</v>
+      </c>
+      <c r="U82" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>02</v>
+      </c>
+      <c r="V82" t="s">
+        <v>140</v>
+      </c>
+      <c r="W82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F83" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0B</v>
+      </c>
+      <c r="H83" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>7F</v>
+      </c>
+      <c r="I83" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J83" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="K83" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="L83" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>7F</v>
+      </c>
+      <c r="M83" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N83" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="O83" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0F</v>
+      </c>
+      <c r="P83" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>7F</v>
+      </c>
+      <c r="Q83" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R83" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="S83" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="T83" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="U83" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+      <c r="V83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F84" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>07</v>
+      </c>
+      <c r="H84" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I84" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>02</v>
+      </c>
+      <c r="J84" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="K84" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>05</v>
+      </c>
+      <c r="L84" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M84" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>02</v>
+      </c>
+      <c r="N84" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>19</v>
+      </c>
+      <c r="O84" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>09</v>
+      </c>
+      <c r="P84" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q84" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>02</v>
+      </c>
+      <c r="R84" s="26" t="str">
         <f t="shared" si="28"/>
         <v>19</v>
       </c>
-      <c r="O69" s="4" t="str">
+      <c r="S84" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0A</v>
-      </c>
-      <c r="P69" s="4" t="str">
+        <v>0B</v>
+      </c>
+      <c r="T84" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q69" s="4" t="str">
+        <v>02</v>
+      </c>
+      <c r="U84" s="4" t="str">
         <f t="shared" si="31"/>
         <v>02</v>
       </c>
-      <c r="R69" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>19</v>
-      </c>
-      <c r="S69" s="4" t="str">
-        <f t="shared" si="33"/>
+      <c r="V84" t="s">
+        <v>143</v>
+      </c>
+      <c r="W84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F85" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>05</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>03</v>
+      </c>
+      <c r="H85" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I85" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J85" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>08</v>
+      </c>
+      <c r="K85" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>02</v>
+      </c>
+      <c r="L85" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M85" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N85" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>08</v>
+      </c>
+      <c r="O85" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>05</v>
+      </c>
+      <c r="P85" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>00</v>
+      </c>
+      <c r="Q85" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R85" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>08</v>
+      </c>
+      <c r="S85" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>07</v>
+      </c>
+      <c r="T85" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>01</v>
+      </c>
+      <c r="U85" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F86" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>03</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>03</v>
+      </c>
+      <c r="H86" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I86" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>01</v>
+      </c>
+      <c r="J86" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>05</v>
+      </c>
+      <c r="K86" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>02</v>
+      </c>
+      <c r="L86" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M86" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>01</v>
+      </c>
+      <c r="N86" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>05</v>
+      </c>
+      <c r="O86" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>05</v>
+      </c>
+      <c r="P86" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>00</v>
+      </c>
+      <c r="Q86" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>01</v>
+      </c>
+      <c r="R86" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>05</v>
+      </c>
+      <c r="S86" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>07</v>
+      </c>
+      <c r="T86" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>00</v>
+      </c>
+      <c r="U86" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F87" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>0D</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f t="shared" si="17"/>
         <v>0C</v>
       </c>
-      <c r="T69" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U69" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>02</v>
-      </c>
-      <c r="V69" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>19</v>
-      </c>
-      <c r="W69" s="4" t="str">
-        <f t="shared" si="37"/>
+      <c r="H87" s="4" t="str">
+        <f t="shared" si="18"/>
         <v>7F</v>
       </c>
-      <c r="X69" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y69" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>02</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
-      <c r="A70" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F70" s="26" t="str">
+      <c r="I87" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J87" s="26" t="str">
         <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="K87" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="L87" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>7F</v>
+      </c>
+      <c r="M87" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N87" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="O87" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0F</v>
+      </c>
+      <c r="P87" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>7F</v>
+      </c>
+      <c r="Q87" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R87" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="S87" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="T87" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="U87" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+      <c r="V87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F88" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0C</v>
+      </c>
+      <c r="H88" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>7F</v>
+      </c>
+      <c r="I88" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J88" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="K88" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="L88" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>7F</v>
+      </c>
+      <c r="M88" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N88" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="O88" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0F</v>
+      </c>
+      <c r="P88" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>7F</v>
+      </c>
+      <c r="Q88" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R88" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="S88" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="T88" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="U88" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F89" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>07</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" si="17"/>
         <v>0D</v>
       </c>
-      <c r="G70" s="4" t="str">
+      <c r="H89" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>7F</v>
+      </c>
+      <c r="I89" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J89" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>0A</v>
+      </c>
+      <c r="K89" s="4" t="str">
         <f t="shared" si="21"/>
         <v>09</v>
       </c>
-      <c r="H70" s="4" t="str">
+      <c r="L89" s="4" t="str">
         <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I70" s="4" t="str">
+        <v>7F</v>
+      </c>
+      <c r="M89" s="4" t="str">
         <f t="shared" si="23"/>
-        <v>01</v>
-      </c>
-      <c r="J70" s="26" t="str">
+        <v>00</v>
+      </c>
+      <c r="N89" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>0A</v>
+      </c>
+      <c r="O89" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="P89" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>7F</v>
+      </c>
+      <c r="Q89" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R89" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>0A</v>
+      </c>
+      <c r="S89" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="T89" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="U89" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F90" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>01</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0C</v>
+      </c>
+      <c r="H90" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>7F</v>
+      </c>
+      <c r="I90" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J90" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>01</v>
+      </c>
+      <c r="K90" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="L90" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>7F</v>
+      </c>
+      <c r="M90" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N90" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>01</v>
+      </c>
+      <c r="O90" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0F</v>
+      </c>
+      <c r="P90" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>7F</v>
+      </c>
+      <c r="Q90" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R90" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>01</v>
+      </c>
+      <c r="S90" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="T90" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="U90" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F91" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>0D</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0E</v>
+      </c>
+      <c r="H91" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>7F</v>
+      </c>
+      <c r="I91" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J91" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="K91" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>0A</v>
+      </c>
+      <c r="L91" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>7F</v>
+      </c>
+      <c r="M91" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N91" s="26" t="str">
         <f t="shared" si="24"/>
         <v>14</v>
       </c>
-      <c r="K70" s="4" t="str">
+      <c r="O91" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>06</v>
-      </c>
-      <c r="L70" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="P91" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M70" s="4" t="str">
+        <v>7F</v>
+      </c>
+      <c r="Q91" s="4" t="str">
         <f t="shared" si="27"/>
-        <v>01</v>
-      </c>
-      <c r="N70" s="26" t="str">
+        <v>00</v>
+      </c>
+      <c r="R91" s="26" t="str">
         <f t="shared" si="28"/>
         <v>14</v>
       </c>
-      <c r="O70" s="4" t="str">
+      <c r="S91" s="4" t="str">
         <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="T91" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="U91" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="26" t="str">
+        <f t="shared" si="16"/>
         <v>0B</v>
       </c>
-      <c r="P70" s="4" t="str">
+      <c r="G92" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>05</v>
+      </c>
+      <c r="H92" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I92" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>02</v>
+      </c>
+      <c r="J92" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="K92" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>03</v>
+      </c>
+      <c r="L92" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M92" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>02</v>
+      </c>
+      <c r="N92" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="O92" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>07</v>
+      </c>
+      <c r="P92" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>00</v>
+      </c>
+      <c r="Q92" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>02</v>
+      </c>
+      <c r="R92" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="S92" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>09</v>
+      </c>
+      <c r="T92" s="4" t="str">
         <f t="shared" si="30"/>
         <v>01</v>
       </c>
-      <c r="Q70" s="4" t="str">
+      <c r="U92" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>01</v>
-      </c>
-      <c r="R70" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>14</v>
-      </c>
-      <c r="S70" s="4" t="str">
-        <f t="shared" si="33"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F93" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0C</v>
+      </c>
+      <c r="H93" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>7F</v>
+      </c>
+      <c r="I93" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J93" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="K93" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="L93" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>7F</v>
+      </c>
+      <c r="M93" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N93" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="O93" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0F</v>
+      </c>
+      <c r="P93" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>7F</v>
+      </c>
+      <c r="Q93" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R93" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="S93" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="T93" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="U93" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F94" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0C</v>
+      </c>
+      <c r="H94" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>7F</v>
+      </c>
+      <c r="I94" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J94" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="K94" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="L94" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>7F</v>
+      </c>
+      <c r="M94" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N94" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="O94" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0F</v>
+      </c>
+      <c r="P94" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>7F</v>
+      </c>
+      <c r="Q94" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R94" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="S94" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="T94" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="U94" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F95" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0C</v>
+      </c>
+      <c r="H95" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>7F</v>
+      </c>
+      <c r="I95" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J95" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="K95" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="L95" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>7F</v>
+      </c>
+      <c r="M95" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N95" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="O95" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0F</v>
+      </c>
+      <c r="P95" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>7F</v>
+      </c>
+      <c r="Q95" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R95" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="S95" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="T95" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="U95" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0C</v>
+      </c>
+      <c r="H96" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>7F</v>
+      </c>
+      <c r="I96" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J96" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="K96" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="L96" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>7F</v>
+      </c>
+      <c r="M96" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N96" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="O96" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0F</v>
+      </c>
+      <c r="P96" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>7F</v>
+      </c>
+      <c r="Q96" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R96" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="S96" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="T96" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="U96" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
+      <c r="A97" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="G97" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0C</v>
+      </c>
+      <c r="H97" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>7F</v>
+      </c>
+      <c r="I97" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J97" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="K97" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="L97" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>7F</v>
+      </c>
+      <c r="M97" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N97" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="O97" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0F</v>
+      </c>
+      <c r="P97" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>7F</v>
+      </c>
+      <c r="Q97" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R97" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="S97" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="T97" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="U97" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
+      <c r="A98" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0C</v>
+      </c>
+      <c r="H98" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>7F</v>
+      </c>
+      <c r="I98" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J98" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="K98" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="L98" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>7F</v>
+      </c>
+      <c r="M98" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N98" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="O98" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0F</v>
+      </c>
+      <c r="P98" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>7F</v>
+      </c>
+      <c r="Q98" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R98" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="S98" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="T98" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="U98" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
+      <c r="A99" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0C</v>
+      </c>
+      <c r="H99" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>7F</v>
+      </c>
+      <c r="I99" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J99" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="K99" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="L99" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>7F</v>
+      </c>
+      <c r="M99" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N99" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="O99" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0F</v>
+      </c>
+      <c r="P99" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>7F</v>
+      </c>
+      <c r="Q99" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R99" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="S99" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="T99" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="U99" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
+      <c r="A100" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F100" s="26" t="str">
+        <f t="shared" si="16"/>
         <v>0D</v>
       </c>
-      <c r="T70" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U70" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>01</v>
-      </c>
-      <c r="V70" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>14</v>
-      </c>
-      <c r="W70" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X70" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y70" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>01</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
-      <c r="A71" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F71" s="26" t="str">
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0C</v>
+      </c>
+      <c r="H100" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I100" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>02</v>
+      </c>
+      <c r="J100" s="26" t="str">
         <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="G71" s="4" t="str">
+      <c r="K100" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>07</v>
-      </c>
-      <c r="H71" s="4" t="str">
+        <v>08</v>
+      </c>
+      <c r="L100" s="4" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="I71" s="4" t="str">
+      <c r="M100" s="4" t="str">
         <f t="shared" si="23"/>
-        <v>03</v>
-      </c>
-      <c r="J71" s="26" t="str">
+        <v>02</v>
+      </c>
+      <c r="N100" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="O100" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0F</v>
+      </c>
+      <c r="P100" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q100" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>02</v>
+      </c>
+      <c r="R100" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="S100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="T100" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>02</v>
+      </c>
+      <c r="U100" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>02</v>
+      </c>
+      <c r="V100" t="s">
+        <v>46</v>
+      </c>
+      <c r="W100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
+      <c r="A101" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F101" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>0B</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0C</v>
+      </c>
+      <c r="H101" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I101" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>02</v>
+      </c>
+      <c r="J101" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="K101" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="L101" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M101" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>02</v>
+      </c>
+      <c r="N101" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="O101" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0F</v>
+      </c>
+      <c r="P101" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="Q101" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>02</v>
+      </c>
+      <c r="R101" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="S101" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="T101" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>02</v>
+      </c>
+      <c r="U101" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>02</v>
+      </c>
+      <c r="V101" t="s">
+        <v>50</v>
+      </c>
+      <c r="W101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
+      <c r="A102" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F102" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0C</v>
+      </c>
+      <c r="H102" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I102" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>02</v>
+      </c>
+      <c r="J102" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>1E</v>
+      </c>
+      <c r="K102" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="L102" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M102" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>02</v>
+      </c>
+      <c r="N102" s="26" t="str">
         <f t="shared" si="24"/>
         <v>1E</v>
       </c>
-      <c r="K71" s="4" t="str">
+      <c r="O102" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>05</v>
-      </c>
-      <c r="L71" s="4" t="str">
+        <v>0F</v>
+      </c>
+      <c r="P102" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M71" s="4" t="str">
+        <v>01</v>
+      </c>
+      <c r="Q102" s="4" t="str">
         <f t="shared" si="27"/>
-        <v>03</v>
-      </c>
-      <c r="N71" s="26" t="str">
+        <v>02</v>
+      </c>
+      <c r="R102" s="26" t="str">
         <f t="shared" si="28"/>
         <v>1E</v>
       </c>
-      <c r="O71" s="4" t="str">
+      <c r="S102" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0A</v>
-      </c>
-      <c r="P71" s="4" t="str">
+        <v>11</v>
+      </c>
+      <c r="T102" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q71" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>03</v>
-      </c>
-      <c r="R71" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>1E</v>
-      </c>
-      <c r="S71" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0C</v>
-      </c>
-      <c r="T71" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U71" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>03</v>
-      </c>
-      <c r="V71" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>1E</v>
-      </c>
-      <c r="W71" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X71" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y71" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>03</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
-      <c r="A72" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="G72" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>08</v>
-      </c>
-      <c r="H72" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I72" s="4" t="str">
-        <f t="shared" si="23"/>
         <v>02</v>
       </c>
-      <c r="J72" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>1C</v>
-      </c>
-      <c r="K72" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>06</v>
-      </c>
-      <c r="L72" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M72" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>02</v>
-      </c>
-      <c r="N72" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>1C</v>
-      </c>
-      <c r="O72" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P72" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q72" s="4" t="str">
+      <c r="U102" s="4" t="str">
         <f t="shared" si="31"/>
         <v>02</v>
       </c>
-      <c r="R72" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>1C</v>
-      </c>
-      <c r="S72" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0D</v>
-      </c>
-      <c r="T72" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U72" s="4" t="str">
-        <f t="shared" si="35"/>
+      <c r="V102" t="s">
+        <v>53</v>
+      </c>
+      <c r="W102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
+      <c r="A103" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F103" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>07</v>
+      </c>
+      <c r="G103" s="4" t="str">
+        <f t="shared" si="17"/>
         <v>02</v>
       </c>
-      <c r="V72" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>1C</v>
-      </c>
-      <c r="W72" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X72" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y72" s="4" t="str">
-        <f t="shared" si="39"/>
+      <c r="H103" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I103" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J103" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>0A</v>
+      </c>
+      <c r="K103" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>02</v>
       </c>
-      <c r="Z72" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
-      <c r="A73" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F73" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>0D</v>
-      </c>
-      <c r="G73" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>07</v>
-      </c>
-      <c r="H73" s="4" t="str">
+      <c r="L103" s="4" t="str">
         <f t="shared" si="22"/>
-        <v>FF</v>
-      </c>
-      <c r="I73" s="4" t="str">
+        <v>00</v>
+      </c>
+      <c r="M103" s="4" t="str">
         <f t="shared" si="23"/>
         <v>00</v>
       </c>
-      <c r="J73" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>14</v>
-      </c>
-      <c r="K73" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>05</v>
-      </c>
-      <c r="L73" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>FF</v>
-      </c>
-      <c r="M73" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N73" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>14</v>
-      </c>
-      <c r="O73" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0A</v>
-      </c>
-      <c r="P73" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>FF</v>
-      </c>
-      <c r="Q73" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R73" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>14</v>
-      </c>
-      <c r="S73" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0C</v>
-      </c>
-      <c r="T73" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>FF</v>
-      </c>
-      <c r="U73" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V73" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>14</v>
-      </c>
-      <c r="W73" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X73" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>FF</v>
-      </c>
-      <c r="Y73" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27">
-      <c r="A74" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F74" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>0D</v>
-      </c>
-      <c r="G74" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>08</v>
-      </c>
-      <c r="H74" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I74" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>03</v>
-      </c>
-      <c r="J74" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>14</v>
-      </c>
-      <c r="K74" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>05</v>
-      </c>
-      <c r="L74" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M74" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>03</v>
-      </c>
-      <c r="N74" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>14</v>
-      </c>
-      <c r="O74" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0A</v>
-      </c>
-      <c r="P74" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q74" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>03</v>
-      </c>
-      <c r="R74" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>14</v>
-      </c>
-      <c r="S74" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0C</v>
-      </c>
-      <c r="T74" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U74" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>03</v>
-      </c>
-      <c r="V74" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>14</v>
-      </c>
-      <c r="W74" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X74" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y74" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
-      <c r="A75" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F75" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>07</v>
-      </c>
-      <c r="G75" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>07</v>
-      </c>
-      <c r="H75" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I75" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J75" s="26" t="str">
+      <c r="N103" s="26" t="str">
         <f t="shared" si="24"/>
         <v>0A</v>
       </c>
-      <c r="K75" s="4" t="str">
+      <c r="O103" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>05</v>
-      </c>
-      <c r="L75" s="4" t="str">
+        <v>04</v>
+      </c>
+      <c r="P103" s="4" t="str">
         <f t="shared" si="26"/>
         <v>00</v>
       </c>
-      <c r="M75" s="4" t="str">
+      <c r="Q103" s="4" t="str">
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N75" s="26" t="str">
+      <c r="R103" s="26" t="str">
         <f t="shared" si="28"/>
         <v>0A</v>
       </c>
-      <c r="O75" s="4" t="str">
+      <c r="S103" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0A</v>
-      </c>
-      <c r="P75" s="4" t="str">
+        <v>06</v>
+      </c>
+      <c r="T103" s="4" t="str">
         <f t="shared" si="30"/>
         <v>01</v>
       </c>
-      <c r="Q75" s="4" t="str">
+      <c r="U103" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="R75" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>0A</v>
-      </c>
-      <c r="S75" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0C</v>
-      </c>
-      <c r="T75" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U75" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V75" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>0A</v>
-      </c>
-      <c r="W75" s="4" t="str">
-        <f t="shared" si="37"/>
+    </row>
+    <row r="104" spans="1:23">
+      <c r="A104" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F104" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>00</v>
+      </c>
+      <c r="H104" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I104" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J104" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+      <c r="K104" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>00</v>
+      </c>
+      <c r="L104" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M104" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N104" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="O104" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+      <c r="P104" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>00</v>
+      </c>
+      <c r="Q104" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R104" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>00</v>
+      </c>
+      <c r="S104" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>00</v>
+      </c>
+      <c r="T104" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>00</v>
+      </c>
+      <c r="U104" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="A105" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F105" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="G105" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>00</v>
+      </c>
+      <c r="H105" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I105" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J105" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+      <c r="K105" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>00</v>
+      </c>
+      <c r="L105" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M105" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N105" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="O105" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+      <c r="P105" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>00</v>
+      </c>
+      <c r="Q105" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R105" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>00</v>
+      </c>
+      <c r="S105" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>00</v>
+      </c>
+      <c r="T105" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>00</v>
+      </c>
+      <c r="U105" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
+      <c r="A106" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F106" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="G106" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>00</v>
+      </c>
+      <c r="H106" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I106" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J106" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+      <c r="K106" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>00</v>
+      </c>
+      <c r="L106" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M106" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N106" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="O106" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+      <c r="P106" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>00</v>
+      </c>
+      <c r="Q106" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R106" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>00</v>
+      </c>
+      <c r="S106" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>00</v>
+      </c>
+      <c r="T106" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>00</v>
+      </c>
+      <c r="U106" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F107" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="G107" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>00</v>
+      </c>
+      <c r="H107" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I107" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J107" s="26" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+      <c r="K107" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>00</v>
+      </c>
+      <c r="L107" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="M107" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="N107" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="O107" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+      <c r="P107" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>00</v>
+      </c>
+      <c r="Q107" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+      <c r="R107" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v>00</v>
+      </c>
+      <c r="S107" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>00</v>
+      </c>
+      <c r="T107" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>00</v>
+      </c>
+      <c r="U107" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F108" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0D</v>
+      </c>
+      <c r="H108" s="4" t="str">
+        <f t="shared" si="18"/>
         <v>7F</v>
       </c>
-      <c r="X75" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y75" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27">
-      <c r="A76" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F76" s="26" t="str">
+      <c r="I108" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J108" s="26" t="str">
         <f t="shared" si="20"/>
-        <v>0A</v>
-      </c>
-      <c r="G76" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>08</v>
-      </c>
-      <c r="H76" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I76" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>02</v>
-      </c>
-      <c r="J76" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>0F</v>
-      </c>
-      <c r="K76" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>05</v>
-      </c>
-      <c r="L76" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M76" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>02</v>
-      </c>
-      <c r="N76" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>0F</v>
-      </c>
-      <c r="O76" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0A</v>
-      </c>
-      <c r="P76" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q76" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>02</v>
-      </c>
-      <c r="R76" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>0F</v>
-      </c>
-      <c r="S76" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0C</v>
-      </c>
-      <c r="T76" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U76" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>02</v>
-      </c>
-      <c r="V76" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>0F</v>
-      </c>
-      <c r="W76" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X76" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y76" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>02</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
-      <c r="A77" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F77" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>05</v>
-      </c>
-      <c r="G77" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>07</v>
-      </c>
-      <c r="H77" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I77" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>01</v>
-      </c>
-      <c r="J77" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>08</v>
-      </c>
-      <c r="K77" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>05</v>
-      </c>
-      <c r="L77" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M77" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>01</v>
-      </c>
-      <c r="N77" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>08</v>
-      </c>
-      <c r="O77" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0A</v>
-      </c>
-      <c r="P77" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q77" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>01</v>
-      </c>
-      <c r="R77" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>08</v>
-      </c>
-      <c r="S77" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0C</v>
-      </c>
-      <c r="T77" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U77" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>01</v>
-      </c>
-      <c r="V77" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>08</v>
-      </c>
-      <c r="W77" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X77" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y77" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>01</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27">
-      <c r="A78" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F78" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G78" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>03</v>
-      </c>
-      <c r="H78" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I78" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>01</v>
-      </c>
-      <c r="J78" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>06</v>
-      </c>
-      <c r="K78" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>02</v>
-      </c>
-      <c r="L78" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M78" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>01</v>
-      </c>
-      <c r="N78" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>06</v>
-      </c>
-      <c r="O78" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>05</v>
-      </c>
-      <c r="P78" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q78" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>01</v>
-      </c>
-      <c r="R78" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>06</v>
-      </c>
-      <c r="S78" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>07</v>
-      </c>
-      <c r="T78" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>00</v>
-      </c>
-      <c r="U78" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>01</v>
-      </c>
-      <c r="V78" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>06</v>
-      </c>
-      <c r="W78" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X78" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>00</v>
-      </c>
-      <c r="Y78" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27">
-      <c r="A79" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F79" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>08</v>
-      </c>
-      <c r="G79" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>08</v>
-      </c>
-      <c r="H79" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I79" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>02</v>
-      </c>
-      <c r="J79" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>0C</v>
-      </c>
-      <c r="K79" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>05</v>
-      </c>
-      <c r="L79" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M79" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>02</v>
-      </c>
-      <c r="N79" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>0C</v>
-      </c>
-      <c r="O79" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0A</v>
-      </c>
-      <c r="P79" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q79" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>02</v>
-      </c>
-      <c r="R79" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>0C</v>
-      </c>
-      <c r="S79" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0C</v>
-      </c>
-      <c r="T79" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U79" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>02</v>
-      </c>
-      <c r="V79" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>0C</v>
-      </c>
-      <c r="W79" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X79" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y79" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>02</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27">
-      <c r="A80" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F80" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="G80" s="4" t="str">
+        <v>28</v>
+      </c>
+      <c r="K108" s="4" t="str">
         <f t="shared" si="21"/>
         <v>09</v>
       </c>
-      <c r="H80" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I80" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J80" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>1C</v>
-      </c>
-      <c r="K80" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>06</v>
-      </c>
-      <c r="L80" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M80" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N80" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>1C</v>
-      </c>
-      <c r="O80" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P80" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q80" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R80" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>1C</v>
-      </c>
-      <c r="S80" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0D</v>
-      </c>
-      <c r="T80" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U80" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V80" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>1C</v>
-      </c>
-      <c r="W80" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X80" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y80" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27">
-      <c r="A81" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F81" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="G81" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>08</v>
-      </c>
-      <c r="H81" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I81" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>03</v>
-      </c>
-      <c r="J81" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>1E</v>
-      </c>
-      <c r="K81" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>06</v>
-      </c>
-      <c r="L81" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M81" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>03</v>
-      </c>
-      <c r="N81" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>1E</v>
-      </c>
-      <c r="O81" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0B</v>
-      </c>
-      <c r="P81" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q81" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>03</v>
-      </c>
-      <c r="R81" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>1E</v>
-      </c>
-      <c r="S81" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0D</v>
-      </c>
-      <c r="T81" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U81" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>03</v>
-      </c>
-      <c r="V81" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>1E</v>
-      </c>
-      <c r="W81" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X81" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y81" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>03</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27">
-      <c r="A82" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F82" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>0D</v>
-      </c>
-      <c r="G82" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>08</v>
-      </c>
-      <c r="H82" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I82" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>02</v>
-      </c>
-      <c r="J82" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>14</v>
-      </c>
-      <c r="K82" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>05</v>
-      </c>
-      <c r="L82" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M82" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>02</v>
-      </c>
-      <c r="N82" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>14</v>
-      </c>
-      <c r="O82" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0A</v>
-      </c>
-      <c r="P82" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q82" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>02</v>
-      </c>
-      <c r="R82" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>14</v>
-      </c>
-      <c r="S82" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0C</v>
-      </c>
-      <c r="T82" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U82" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>02</v>
-      </c>
-      <c r="V82" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>14</v>
-      </c>
-      <c r="W82" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X82" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y82" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>02</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27">
-      <c r="A83" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F83" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="G83" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0B</v>
-      </c>
-      <c r="H83" s="4" t="str">
+      <c r="L108" s="4" t="str">
         <f t="shared" si="22"/>
         <v>7F</v>
       </c>
-      <c r="I83" s="4" t="str">
+      <c r="M108" s="4" t="str">
         <f t="shared" si="23"/>
         <v>00</v>
       </c>
-      <c r="J83" s="26" t="str">
+      <c r="N108" s="26" t="str">
         <f t="shared" si="24"/>
         <v>28</v>
       </c>
-      <c r="K83" s="4" t="str">
+      <c r="O108" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L83" s="4" t="str">
+        <v>11</v>
+      </c>
+      <c r="P108" s="4" t="str">
         <f t="shared" si="26"/>
         <v>7F</v>
       </c>
-      <c r="M83" s="4" t="str">
+      <c r="Q108" s="4" t="str">
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N83" s="26" t="str">
+      <c r="R108" s="26" t="str">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="O83" s="4" t="str">
+      <c r="S108" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P83" s="4" t="str">
+        <v>13</v>
+      </c>
+      <c r="T108" s="4" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Q83" s="4" t="str">
+      <c r="U108" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="R83" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>28</v>
-      </c>
-      <c r="S83" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T83" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U83" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V83" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>28</v>
-      </c>
-      <c r="W83" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X83" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y83" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27">
-      <c r="A84" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F84" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="G84" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>07</v>
-      </c>
-      <c r="H84" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I84" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>02</v>
-      </c>
-      <c r="J84" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>19</v>
-      </c>
-      <c r="K84" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>05</v>
-      </c>
-      <c r="L84" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M84" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>02</v>
-      </c>
-      <c r="N84" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>19</v>
-      </c>
-      <c r="O84" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>09</v>
-      </c>
-      <c r="P84" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q84" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>02</v>
-      </c>
-      <c r="R84" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>19</v>
-      </c>
-      <c r="S84" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0B</v>
-      </c>
-      <c r="T84" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>02</v>
-      </c>
-      <c r="U84" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>02</v>
-      </c>
-      <c r="V84" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>19</v>
-      </c>
-      <c r="W84" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X84" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>02</v>
-      </c>
-      <c r="Y84" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>02</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27">
-      <c r="A85" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F85" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>05</v>
-      </c>
-      <c r="G85" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>03</v>
-      </c>
-      <c r="H85" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I85" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J85" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>08</v>
-      </c>
-      <c r="K85" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>02</v>
-      </c>
-      <c r="L85" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M85" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N85" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>08</v>
-      </c>
-      <c r="O85" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>05</v>
-      </c>
-      <c r="P85" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q85" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R85" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>08</v>
-      </c>
-      <c r="S85" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>07</v>
-      </c>
-      <c r="T85" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U85" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V85" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>08</v>
-      </c>
-      <c r="W85" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X85" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y85" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27">
-      <c r="A86" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F86" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>03</v>
-      </c>
-      <c r="G86" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>03</v>
-      </c>
-      <c r="H86" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I86" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>01</v>
-      </c>
-      <c r="J86" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>05</v>
-      </c>
-      <c r="K86" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>02</v>
-      </c>
-      <c r="L86" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M86" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>01</v>
-      </c>
-      <c r="N86" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>05</v>
-      </c>
-      <c r="O86" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>05</v>
-      </c>
-      <c r="P86" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q86" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>01</v>
-      </c>
-      <c r="R86" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>05</v>
-      </c>
-      <c r="S86" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>07</v>
-      </c>
-      <c r="T86" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>00</v>
-      </c>
-      <c r="U86" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>01</v>
-      </c>
-      <c r="V86" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>05</v>
-      </c>
-      <c r="W86" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X86" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>00</v>
-      </c>
-      <c r="Y86" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27">
-      <c r="A87" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F87" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>0D</v>
-      </c>
-      <c r="G87" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0C</v>
-      </c>
-      <c r="H87" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>7F</v>
-      </c>
-      <c r="I87" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J87" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>14</v>
-      </c>
-      <c r="K87" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L87" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>7F</v>
-      </c>
-      <c r="M87" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N87" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>14</v>
-      </c>
-      <c r="O87" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P87" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Q87" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R87" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>14</v>
-      </c>
-      <c r="S87" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T87" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U87" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V87" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>14</v>
-      </c>
-      <c r="W87" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X87" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y87" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27">
-      <c r="A88" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F88" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="G88" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0C</v>
-      </c>
-      <c r="H88" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>7F</v>
-      </c>
-      <c r="I88" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J88" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>28</v>
-      </c>
-      <c r="K88" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L88" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>7F</v>
-      </c>
-      <c r="M88" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N88" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>28</v>
-      </c>
-      <c r="O88" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P88" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Q88" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R88" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>28</v>
-      </c>
-      <c r="S88" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T88" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U88" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V88" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>28</v>
-      </c>
-      <c r="W88" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X88" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y88" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27">
-      <c r="A89" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F89" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>07</v>
-      </c>
-      <c r="G89" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0D</v>
-      </c>
-      <c r="H89" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>7F</v>
-      </c>
-      <c r="I89" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J89" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>0A</v>
-      </c>
-      <c r="K89" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>09</v>
-      </c>
-      <c r="L89" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>7F</v>
-      </c>
-      <c r="M89" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N89" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>0A</v>
-      </c>
-      <c r="O89" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>10</v>
-      </c>
-      <c r="P89" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Q89" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R89" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>0A</v>
-      </c>
-      <c r="S89" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>12</v>
-      </c>
-      <c r="T89" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U89" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V89" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>0A</v>
-      </c>
-      <c r="W89" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X89" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y89" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27">
-      <c r="A90" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F90" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>01</v>
-      </c>
-      <c r="G90" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0C</v>
-      </c>
-      <c r="H90" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>7F</v>
-      </c>
-      <c r="I90" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J90" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>01</v>
-      </c>
-      <c r="K90" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L90" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>7F</v>
-      </c>
-      <c r="M90" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N90" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>01</v>
-      </c>
-      <c r="O90" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P90" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Q90" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R90" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>01</v>
-      </c>
-      <c r="S90" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T90" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U90" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V90" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>01</v>
-      </c>
-      <c r="W90" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X90" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y90" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27">
-      <c r="A91" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F91" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>0D</v>
-      </c>
-      <c r="G91" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0E</v>
-      </c>
-      <c r="H91" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>7F</v>
-      </c>
-      <c r="I91" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J91" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>14</v>
-      </c>
-      <c r="K91" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>0A</v>
-      </c>
-      <c r="L91" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>7F</v>
-      </c>
-      <c r="M91" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N91" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>14</v>
-      </c>
-      <c r="O91" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="P91" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Q91" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R91" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>14</v>
-      </c>
-      <c r="S91" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>14</v>
-      </c>
-      <c r="T91" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U91" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V91" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>14</v>
-      </c>
-      <c r="W91" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X91" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y91" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27">
-      <c r="A92" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F92" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>0B</v>
-      </c>
-      <c r="G92" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>05</v>
-      </c>
-      <c r="H92" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I92" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>02</v>
-      </c>
-      <c r="J92" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>10</v>
-      </c>
-      <c r="K92" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>03</v>
-      </c>
-      <c r="L92" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M92" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>02</v>
-      </c>
-      <c r="N92" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>10</v>
-      </c>
-      <c r="O92" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>07</v>
-      </c>
-      <c r="P92" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q92" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>02</v>
-      </c>
-      <c r="R92" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>10</v>
-      </c>
-      <c r="S92" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>09</v>
-      </c>
-      <c r="T92" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U92" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>02</v>
-      </c>
-      <c r="V92" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>10</v>
-      </c>
-      <c r="W92" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X92" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y92" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27">
-      <c r="A93" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F93" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="G93" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0C</v>
-      </c>
-      <c r="H93" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>7F</v>
-      </c>
-      <c r="I93" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J93" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>28</v>
-      </c>
-      <c r="K93" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L93" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>7F</v>
-      </c>
-      <c r="M93" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N93" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>28</v>
-      </c>
-      <c r="O93" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P93" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Q93" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R93" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>28</v>
-      </c>
-      <c r="S93" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T93" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U93" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V93" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>28</v>
-      </c>
-      <c r="W93" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X93" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y93" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27">
-      <c r="A94" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F94" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="G94" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0C</v>
-      </c>
-      <c r="H94" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>7F</v>
-      </c>
-      <c r="I94" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J94" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>28</v>
-      </c>
-      <c r="K94" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L94" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>7F</v>
-      </c>
-      <c r="M94" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N94" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>28</v>
-      </c>
-      <c r="O94" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Q94" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R94" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>28</v>
-      </c>
-      <c r="S94" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T94" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U94" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V94" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>28</v>
-      </c>
-      <c r="W94" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X94" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y94" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27">
-      <c r="A95" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F95" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="G95" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0C</v>
-      </c>
-      <c r="H95" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>7F</v>
-      </c>
-      <c r="I95" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J95" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>28</v>
-      </c>
-      <c r="K95" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L95" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>7F</v>
-      </c>
-      <c r="M95" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N95" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>28</v>
-      </c>
-      <c r="O95" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P95" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Q95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R95" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>28</v>
-      </c>
-      <c r="S95" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T95" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U95" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V95" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>28</v>
-      </c>
-      <c r="W95" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X95" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y95" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27">
-      <c r="A96" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F96" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="G96" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0C</v>
-      </c>
-      <c r="H96" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>7F</v>
-      </c>
-      <c r="I96" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J96" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>28</v>
-      </c>
-      <c r="K96" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L96" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>7F</v>
-      </c>
-      <c r="M96" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N96" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>28</v>
-      </c>
-      <c r="O96" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P96" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Q96" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R96" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>28</v>
-      </c>
-      <c r="S96" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T96" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U96" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V96" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>28</v>
-      </c>
-      <c r="W96" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X96" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y96" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27">
-      <c r="A97" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F97" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="G97" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0C</v>
-      </c>
-      <c r="H97" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>7F</v>
-      </c>
-      <c r="I97" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J97" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>28</v>
-      </c>
-      <c r="K97" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L97" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>7F</v>
-      </c>
-      <c r="M97" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N97" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>28</v>
-      </c>
-      <c r="O97" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P97" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Q97" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R97" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>28</v>
-      </c>
-      <c r="S97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T97" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U97" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V97" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>28</v>
-      </c>
-      <c r="W97" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X97" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y97" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27">
-      <c r="A98" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F98" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="G98" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0C</v>
-      </c>
-      <c r="H98" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>7F</v>
-      </c>
-      <c r="I98" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J98" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>28</v>
-      </c>
-      <c r="K98" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L98" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>7F</v>
-      </c>
-      <c r="M98" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N98" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>28</v>
-      </c>
-      <c r="O98" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P98" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Q98" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R98" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>28</v>
-      </c>
-      <c r="S98" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T98" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U98" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V98" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>28</v>
-      </c>
-      <c r="W98" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X98" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y98" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27">
-      <c r="A99" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F99" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="G99" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0C</v>
-      </c>
-      <c r="H99" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>7F</v>
-      </c>
-      <c r="I99" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J99" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>28</v>
-      </c>
-      <c r="K99" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L99" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>7F</v>
-      </c>
-      <c r="M99" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N99" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>28</v>
-      </c>
-      <c r="O99" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P99" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Q99" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R99" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>28</v>
-      </c>
-      <c r="S99" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T99" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V99" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>28</v>
-      </c>
-      <c r="W99" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X99" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y99" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27">
-      <c r="A100" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F100" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>0D</v>
-      </c>
-      <c r="G100" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0C</v>
-      </c>
-      <c r="H100" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I100" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>02</v>
-      </c>
-      <c r="J100" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>14</v>
-      </c>
-      <c r="K100" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L100" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M100" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>02</v>
-      </c>
-      <c r="N100" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>14</v>
-      </c>
-      <c r="O100" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P100" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q100" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>02</v>
-      </c>
-      <c r="R100" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>14</v>
-      </c>
-      <c r="S100" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T100" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>02</v>
-      </c>
-      <c r="U100" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>02</v>
-      </c>
-      <c r="V100" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>14</v>
-      </c>
-      <c r="W100" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X100" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>02</v>
-      </c>
-      <c r="Y100" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>02</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27">
-      <c r="A101" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F101" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>0B</v>
-      </c>
-      <c r="G101" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0C</v>
-      </c>
-      <c r="H101" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I101" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>02</v>
-      </c>
-      <c r="J101" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>10</v>
-      </c>
-      <c r="K101" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L101" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M101" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>02</v>
-      </c>
-      <c r="N101" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>10</v>
-      </c>
-      <c r="O101" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P101" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q101" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>02</v>
-      </c>
-      <c r="R101" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>10</v>
-      </c>
-      <c r="S101" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T101" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>02</v>
-      </c>
-      <c r="U101" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>02</v>
-      </c>
-      <c r="V101" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>10</v>
-      </c>
-      <c r="W101" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X101" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>02</v>
-      </c>
-      <c r="Y101" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>02</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA101" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27">
-      <c r="A102" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F102" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="G102" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0C</v>
-      </c>
-      <c r="H102" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I102" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>02</v>
-      </c>
-      <c r="J102" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>1E</v>
-      </c>
-      <c r="K102" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>08</v>
-      </c>
-      <c r="L102" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M102" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>02</v>
-      </c>
-      <c r="N102" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>1E</v>
-      </c>
-      <c r="O102" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0F</v>
-      </c>
-      <c r="P102" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>01</v>
-      </c>
-      <c r="Q102" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>02</v>
-      </c>
-      <c r="R102" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>1E</v>
-      </c>
-      <c r="S102" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="T102" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>02</v>
-      </c>
-      <c r="U102" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>02</v>
-      </c>
-      <c r="V102" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>1E</v>
-      </c>
-      <c r="W102" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X102" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>02</v>
-      </c>
-      <c r="Y102" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>02</v>
-      </c>
-      <c r="Z102" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA102" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27">
-      <c r="A103" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F103" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>07</v>
-      </c>
-      <c r="G103" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>02</v>
-      </c>
-      <c r="H103" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I103" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J103" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>0A</v>
-      </c>
-      <c r="K103" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>02</v>
-      </c>
-      <c r="L103" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M103" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N103" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>0A</v>
-      </c>
-      <c r="O103" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>04</v>
-      </c>
-      <c r="P103" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q103" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R103" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>0A</v>
-      </c>
-      <c r="S103" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>06</v>
-      </c>
-      <c r="T103" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>01</v>
-      </c>
-      <c r="U103" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V103" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>0A</v>
-      </c>
-      <c r="W103" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X103" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>01</v>
-      </c>
-      <c r="Y103" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27">
-      <c r="A104" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F104" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>00</v>
-      </c>
-      <c r="G104" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="H104" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I104" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J104" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>00</v>
-      </c>
-      <c r="K104" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>00</v>
-      </c>
-      <c r="L104" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M104" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N104" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>00</v>
-      </c>
-      <c r="O104" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>00</v>
-      </c>
-      <c r="P104" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q104" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R104" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>00</v>
-      </c>
-      <c r="S104" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>00</v>
-      </c>
-      <c r="T104" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>00</v>
-      </c>
-      <c r="U104" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V104" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>00</v>
-      </c>
-      <c r="W104" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>00</v>
-      </c>
-      <c r="X104" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>00</v>
-      </c>
-      <c r="Y104" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27">
-      <c r="A105" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F105" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>00</v>
-      </c>
-      <c r="G105" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="H105" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I105" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J105" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>00</v>
-      </c>
-      <c r="K105" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>00</v>
-      </c>
-      <c r="L105" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M105" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N105" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>00</v>
-      </c>
-      <c r="O105" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>00</v>
-      </c>
-      <c r="P105" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q105" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R105" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>00</v>
-      </c>
-      <c r="S105" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>00</v>
-      </c>
-      <c r="T105" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>00</v>
-      </c>
-      <c r="U105" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V105" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>00</v>
-      </c>
-      <c r="W105" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>00</v>
-      </c>
-      <c r="X105" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>00</v>
-      </c>
-      <c r="Y105" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27">
-      <c r="A106" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F106" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>00</v>
-      </c>
-      <c r="G106" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="H106" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I106" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J106" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>00</v>
-      </c>
-      <c r="K106" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>00</v>
-      </c>
-      <c r="L106" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M106" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N106" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>00</v>
-      </c>
-      <c r="O106" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>00</v>
-      </c>
-      <c r="P106" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q106" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R106" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>00</v>
-      </c>
-      <c r="S106" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>00</v>
-      </c>
-      <c r="T106" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>00</v>
-      </c>
-      <c r="U106" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V106" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>00</v>
-      </c>
-      <c r="W106" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>00</v>
-      </c>
-      <c r="X106" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>00</v>
-      </c>
-      <c r="Y106" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27">
-      <c r="A107" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F107" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>00</v>
-      </c>
-      <c r="G107" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>00</v>
-      </c>
-      <c r="H107" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="I107" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J107" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>00</v>
-      </c>
-      <c r="K107" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>00</v>
-      </c>
-      <c r="L107" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>00</v>
-      </c>
-      <c r="M107" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N107" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>00</v>
-      </c>
-      <c r="O107" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>00</v>
-      </c>
-      <c r="P107" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>00</v>
-      </c>
-      <c r="Q107" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R107" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>00</v>
-      </c>
-      <c r="S107" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>00</v>
-      </c>
-      <c r="T107" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>00</v>
-      </c>
-      <c r="U107" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V107" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>00</v>
-      </c>
-      <c r="W107" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>00</v>
-      </c>
-      <c r="X107" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>00</v>
-      </c>
-      <c r="Y107" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27">
-      <c r="A108" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F108" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="G108" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0D</v>
-      </c>
-      <c r="H108" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>7F</v>
-      </c>
-      <c r="I108" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>00</v>
-      </c>
-      <c r="J108" s="26" t="str">
-        <f t="shared" si="24"/>
-        <v>28</v>
-      </c>
-      <c r="K108" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>09</v>
-      </c>
-      <c r="L108" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>7F</v>
-      </c>
-      <c r="M108" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>00</v>
-      </c>
-      <c r="N108" s="26" t="str">
-        <f t="shared" si="28"/>
-        <v>28</v>
-      </c>
-      <c r="O108" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>11</v>
-      </c>
-      <c r="P108" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Q108" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="R108" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>28</v>
-      </c>
-      <c r="S108" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>13</v>
-      </c>
-      <c r="T108" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>7F</v>
-      </c>
-      <c r="U108" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V108" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>28</v>
-      </c>
-      <c r="W108" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>7F</v>
-      </c>
-      <c r="X108" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>7F</v>
-      </c>
-      <c r="Y108" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27">
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" s="25" t="s">
         <v>51</v>
       </c>
@@ -11948,87 +10229,71 @@
         <v>190</v>
       </c>
       <c r="F109" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="G109" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>00</v>
+      </c>
+      <c r="H109" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I109" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J109" s="26" t="str">
         <f t="shared" si="20"/>
         <v>00</v>
       </c>
-      <c r="G109" s="4" t="str">
+      <c r="K109" s="4" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="H109" s="4" t="str">
+      <c r="L109" s="4" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="I109" s="4" t="str">
+      <c r="M109" s="4" t="str">
         <f t="shared" si="23"/>
         <v>00</v>
       </c>
-      <c r="J109" s="26" t="str">
+      <c r="N109" s="26" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="K109" s="4" t="str">
+      <c r="O109" s="4" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="L109" s="4" t="str">
+      <c r="P109" s="4" t="str">
         <f t="shared" si="26"/>
         <v>00</v>
       </c>
-      <c r="M109" s="4" t="str">
+      <c r="Q109" s="4" t="str">
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N109" s="26" t="str">
+      <c r="R109" s="26" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="O109" s="4" t="str">
+      <c r="S109" s="4" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="P109" s="4" t="str">
+      <c r="T109" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q109" s="4" t="str">
+      <c r="U109" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="R109" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>00</v>
-      </c>
-      <c r="S109" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>00</v>
-      </c>
-      <c r="T109" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>00</v>
-      </c>
-      <c r="U109" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V109" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>00</v>
-      </c>
-      <c r="W109" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>00</v>
-      </c>
-      <c r="X109" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>00</v>
-      </c>
-      <c r="Y109" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27">
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" s="25" t="s">
         <v>54</v>
       </c>
@@ -12045,87 +10310,71 @@
         <v>190</v>
       </c>
       <c r="F110" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>00</v>
+      </c>
+      <c r="H110" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I110" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J110" s="26" t="str">
         <f t="shared" si="20"/>
         <v>00</v>
       </c>
-      <c r="G110" s="4" t="str">
+      <c r="K110" s="4" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="H110" s="4" t="str">
+      <c r="L110" s="4" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="I110" s="4" t="str">
+      <c r="M110" s="4" t="str">
         <f t="shared" si="23"/>
         <v>00</v>
       </c>
-      <c r="J110" s="26" t="str">
+      <c r="N110" s="26" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="K110" s="4" t="str">
+      <c r="O110" s="4" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="L110" s="4" t="str">
+      <c r="P110" s="4" t="str">
         <f t="shared" si="26"/>
         <v>00</v>
       </c>
-      <c r="M110" s="4" t="str">
+      <c r="Q110" s="4" t="str">
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N110" s="26" t="str">
+      <c r="R110" s="26" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="O110" s="4" t="str">
+      <c r="S110" s="4" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="P110" s="4" t="str">
+      <c r="T110" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q110" s="4" t="str">
+      <c r="U110" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="R110" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>00</v>
-      </c>
-      <c r="S110" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>00</v>
-      </c>
-      <c r="T110" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>00</v>
-      </c>
-      <c r="U110" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V110" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>00</v>
-      </c>
-      <c r="W110" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>00</v>
-      </c>
-      <c r="X110" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>00</v>
-      </c>
-      <c r="Y110" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27">
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" s="25" t="s">
         <v>58</v>
       </c>
@@ -12142,87 +10391,71 @@
         <v>190</v>
       </c>
       <c r="F111" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="G111" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>00</v>
+      </c>
+      <c r="H111" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I111" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J111" s="26" t="str">
         <f t="shared" si="20"/>
         <v>00</v>
       </c>
-      <c r="G111" s="4" t="str">
+      <c r="K111" s="4" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="H111" s="4" t="str">
+      <c r="L111" s="4" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="I111" s="4" t="str">
+      <c r="M111" s="4" t="str">
         <f t="shared" si="23"/>
         <v>00</v>
       </c>
-      <c r="J111" s="26" t="str">
+      <c r="N111" s="26" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="K111" s="4" t="str">
+      <c r="O111" s="4" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="L111" s="4" t="str">
+      <c r="P111" s="4" t="str">
         <f t="shared" si="26"/>
         <v>00</v>
       </c>
-      <c r="M111" s="4" t="str">
+      <c r="Q111" s="4" t="str">
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N111" s="26" t="str">
+      <c r="R111" s="26" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="O111" s="4" t="str">
+      <c r="S111" s="4" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="P111" s="4" t="str">
+      <c r="T111" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q111" s="4" t="str">
+      <c r="U111" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="R111" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>00</v>
-      </c>
-      <c r="S111" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>00</v>
-      </c>
-      <c r="T111" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>00</v>
-      </c>
-      <c r="U111" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V111" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>00</v>
-      </c>
-      <c r="W111" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>00</v>
-      </c>
-      <c r="X111" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>00</v>
-      </c>
-      <c r="Y111" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27">
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" s="25" t="s">
         <v>62</v>
       </c>
@@ -12239,89 +10472,72 @@
         <v>190</v>
       </c>
       <c r="F112" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v>00</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>00</v>
+      </c>
+      <c r="H112" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="I112" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+      <c r="J112" s="26" t="str">
         <f t="shared" si="20"/>
         <v>00</v>
       </c>
-      <c r="G112" s="4" t="str">
+      <c r="K112" s="4" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="H112" s="4" t="str">
+      <c r="L112" s="4" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="I112" s="4" t="str">
+      <c r="M112" s="4" t="str">
         <f t="shared" si="23"/>
         <v>00</v>
       </c>
-      <c r="J112" s="26" t="str">
+      <c r="N112" s="26" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="K112" s="4" t="str">
+      <c r="O112" s="4" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="L112" s="4" t="str">
+      <c r="P112" s="4" t="str">
         <f t="shared" si="26"/>
         <v>00</v>
       </c>
-      <c r="M112" s="4" t="str">
+      <c r="Q112" s="4" t="str">
         <f t="shared" si="27"/>
         <v>00</v>
       </c>
-      <c r="N112" s="26" t="str">
+      <c r="R112" s="26" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="O112" s="4" t="str">
+      <c r="S112" s="4" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="P112" s="4" t="str">
+      <c r="T112" s="4" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Q112" s="4" t="str">
+      <c r="U112" s="4" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="R112" s="26" t="str">
-        <f t="shared" si="32"/>
-        <v>00</v>
-      </c>
-      <c r="S112" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>00</v>
-      </c>
-      <c r="T112" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>00</v>
-      </c>
-      <c r="U112" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>00</v>
-      </c>
-      <c r="V112" s="26" t="str">
-        <f t="shared" si="36"/>
-        <v>00</v>
-      </c>
-      <c r="W112" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>00</v>
-      </c>
-      <c r="X112" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>00</v>
-      </c>
-      <c r="Y112" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="V1:Y1"/>
+  <mergeCells count="5">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>

--- a/data/EnemyTemplates.xlsx
+++ b/data/EnemyTemplates.xlsx
@@ -1189,10 +1189,10 @@
   <dimension ref="A1:W112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V2" sqref="V1:Y1048576"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3:G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1329,7 +1329,7 @@
         <v>00</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f>IF($C3="00",$C3,DEC2HEX(MAX(ROUND(HEX2DEC($C3)/3,0),1),2))</f>
+        <f>IF($C3="00",$C3,DEC2HEX(MAX(ROUND(HEX2DEC($C3)/9,0),1),2))</f>
         <v>00</v>
       </c>
       <c r="H3" s="4" t="str">
@@ -1410,7 +1410,7 @@
         <v>04</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G67" si="1">IF($C4="00",$C4,DEC2HEX(MAX(ROUND(HEX2DEC($C4)/3,0),1),2))</f>
+        <f t="shared" ref="G4:G67" si="1">IF($C4="00",$C4,DEC2HEX(MAX(ROUND(HEX2DEC($C4)/9,0),1),2))</f>
         <v>01</v>
       </c>
       <c r="H4" s="4" t="str">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="G33" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="H42" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="H43" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>04</v>
+        <v>01</v>
       </c>
       <c r="H44" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="H45" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="H46" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="H47" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="H48" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="H49" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="H50" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="H51" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>07</v>
+        <v>02</v>
       </c>
       <c r="H52" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="H53" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="H54" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="H55" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="H56" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>07</v>
+        <v>02</v>
       </c>
       <c r="H57" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="H58" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H59" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H60" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="G61" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H61" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="H62" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="H63" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="H64" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="G65" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="H65" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>07</v>
+        <v>02</v>
       </c>
       <c r="H66" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H67" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6819,8 +6819,8 @@
         <v>04</v>
       </c>
       <c r="G68" s="4" t="str">
-        <f t="shared" ref="G68:G112" si="17">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)/3,0),1),2))</f>
-        <v>03</v>
+        <f t="shared" ref="G68:G112" si="17">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)/9,0),1),2))</f>
+        <v>01</v>
       </c>
       <c r="H68" s="4" t="str">
         <f t="shared" ref="H68:H112" si="18">IF(OR($D68="7F",$D68="FF"),$D68,"00")</f>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>02</v>
       </c>
       <c r="H69" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>09</v>
+        <v>03</v>
       </c>
       <c r="H70" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="G71" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>02</v>
       </c>
       <c r="H71" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="G72" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>08</v>
+        <v>03</v>
       </c>
       <c r="H72" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="G73" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>02</v>
       </c>
       <c r="H73" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="G74" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>08</v>
+        <v>03</v>
       </c>
       <c r="H74" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="G75" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>02</v>
       </c>
       <c r="H75" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="G76" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>08</v>
+        <v>03</v>
       </c>
       <c r="H76" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="G77" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>02</v>
       </c>
       <c r="H77" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="G78" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H78" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="G79" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>08</v>
+        <v>03</v>
       </c>
       <c r="H79" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="G80" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>09</v>
+        <v>03</v>
       </c>
       <c r="H80" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="G81" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>08</v>
+        <v>03</v>
       </c>
       <c r="H81" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="G82" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>08</v>
+        <v>03</v>
       </c>
       <c r="H82" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="G83" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0B</v>
+        <v>04</v>
       </c>
       <c r="H83" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="G84" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>07</v>
+        <v>02</v>
       </c>
       <c r="H84" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="G85" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H85" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="G86" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>01</v>
       </c>
       <c r="H86" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="G87" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>04</v>
       </c>
       <c r="H87" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="G88" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>04</v>
       </c>
       <c r="H88" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="G89" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0D</v>
+        <v>04</v>
       </c>
       <c r="H89" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="G90" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>04</v>
       </c>
       <c r="H90" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="G91" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0E</v>
+        <v>05</v>
       </c>
       <c r="H91" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="G92" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="H92" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="G93" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>04</v>
       </c>
       <c r="H93" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="G94" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>04</v>
       </c>
       <c r="H94" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="G95" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>04</v>
       </c>
       <c r="H95" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="G96" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>04</v>
       </c>
       <c r="H96" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="G97" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>04</v>
       </c>
       <c r="H97" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="G98" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>04</v>
       </c>
       <c r="H98" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="G99" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>04</v>
       </c>
       <c r="H99" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9487,7 +9487,7 @@
       </c>
       <c r="G100" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>04</v>
       </c>
       <c r="H100" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>04</v>
       </c>
       <c r="H101" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="G102" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0C</v>
+        <v>04</v>
       </c>
       <c r="H102" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="G103" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="H103" s="4" t="str">
         <f t="shared" si="18"/>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="G108" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>0D</v>
+        <v>04</v>
       </c>
       <c r="H108" s="4" t="str">
         <f t="shared" si="18"/>

--- a/data/EnemyTemplates.xlsx
+++ b/data/EnemyTemplates.xlsx
@@ -1192,7 +1192,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:G112"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1329,7 +1329,7 @@
         <v>00</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f>IF($C3="00",$C3,DEC2HEX(MAX(ROUND(HEX2DEC($C3)/9,0),1),2))</f>
+        <f>IF($C3="00",$C3,DEC2HEX(MAX(ROUND(HEX2DEC($C3)*7/30,0),1),2))</f>
         <v>00</v>
       </c>
       <c r="H3" s="4" t="str">
@@ -1410,7 +1410,7 @@
         <v>04</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G67" si="1">IF($C4="00",$C4,DEC2HEX(MAX(ROUND(HEX2DEC($C4)/9,0),1),2))</f>
+        <f t="shared" ref="G4:G67" si="1">IF($C4="00",$C4,DEC2HEX(MAX(ROUND(HEX2DEC($C4)*7/30,0),1),2))</f>
         <v>01</v>
       </c>
       <c r="H4" s="4" t="str">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="G33" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="H42" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="H43" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>03</v>
       </c>
       <c r="H44" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="H45" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="H46" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="H47" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="H48" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="H49" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="H50" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="H51" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>05</v>
       </c>
       <c r="H52" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="H53" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="H54" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="H55" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="H56" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>05</v>
       </c>
       <c r="H57" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="H58" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H59" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H60" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="G61" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H61" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="H62" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="H63" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="H64" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="G65" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="H65" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
+        <v>05</v>
       </c>
       <c r="H66" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H67" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6819,8 +6819,8 @@
         <v>04</v>
       </c>
       <c r="G68" s="4" t="str">
-        <f t="shared" ref="G68:G112" si="17">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)/9,0),1),2))</f>
-        <v>01</v>
+        <f t="shared" ref="G68:G112" si="17">IF($C68="00",$C68,DEC2HEX(MAX(ROUND(HEX2DEC($C68)*7/30,0),1),2))</f>
+        <v>02</v>
       </c>
       <c r="H68" s="4" t="str">
         <f t="shared" ref="H68:H112" si="18">IF(OR($D68="7F",$D68="FF"),$D68,"00")</f>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>02</v>
+        <v>05</v>
       </c>
       <c r="H69" s="4" t="str">
         <f t="shared" si="18"/>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>06</v>
       </c>
       <c r="H70" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="G71" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>02</v>
+        <v>05</v>
       </c>
       <c r="H71" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="G72" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>06</v>
       </c>
       <c r="H72" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="G73" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>02</v>
+        <v>05</v>
       </c>
       <c r="H73" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="G74" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>05</v>
       </c>
       <c r="H74" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="G75" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>02</v>
+        <v>05</v>
       </c>
       <c r="H75" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="G76" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>05</v>
       </c>
       <c r="H76" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="G77" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>02</v>
+        <v>05</v>
       </c>
       <c r="H77" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="G78" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H78" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="G79" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>05</v>
       </c>
       <c r="H79" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="G80" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>06</v>
       </c>
       <c r="H80" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="G81" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>06</v>
       </c>
       <c r="H81" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="G82" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>03</v>
+        <v>05</v>
       </c>
       <c r="H82" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="G83" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H83" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="G84" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>02</v>
+        <v>05</v>
       </c>
       <c r="H84" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="G85" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H85" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="G86" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H86" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="G87" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H87" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="G88" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H88" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="G89" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>09</v>
       </c>
       <c r="H89" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="G90" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H90" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="G91" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>05</v>
+        <v>0A</v>
       </c>
       <c r="H91" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="G92" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="H92" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="G93" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H93" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="G94" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H94" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="G95" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H95" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="G96" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H96" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="G97" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H97" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="G98" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H98" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="G99" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H99" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9487,7 +9487,7 @@
       </c>
       <c r="G100" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H100" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H101" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="G102" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="H102" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="G103" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>01</v>
+        <v>02</v>
       </c>
       <c r="H103" s="4" t="str">
         <f t="shared" si="18"/>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="G108" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>04</v>
+        <v>09</v>
       </c>
       <c r="H108" s="4" t="str">
         <f t="shared" si="18"/>

--- a/data/EnemyTemplates.xlsx
+++ b/data/EnemyTemplates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sscott\Documents\Misc\NES\Illusion of Gaia Randomizer\IoGR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80422E22-DD8B-4E4B-9560-80DFE0B2735D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5E4910-249E-44AE-B1BC-2FAAE835F6ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,9 +942,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,9 +953,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -970,6 +964,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1313,15 +1313,15 @@
   <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V87" sqref="V87"/>
+      <selection pane="bottomRight" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9" style="42"/>
+    <col min="2" max="2" width="9" style="40"/>
     <col min="3" max="5" width="9" style="2"/>
     <col min="6" max="6" width="9" style="27"/>
     <col min="10" max="10" width="9" style="26"/>
@@ -1338,57 +1338,57 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="28"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="32" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="38" t="s">
         <v>189</v>
       </c>
       <c r="F2" s="30" t="s">
@@ -1456,7 +1456,7 @@
       <c r="A3" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1549,7 +1549,7 @@
       <c r="A4" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>192</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1648,7 +1648,7 @@
       <c r="A5" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>194</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1747,7 +1747,7 @@
       <c r="A6" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>196</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1846,7 +1846,7 @@
       <c r="A7" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="39" t="s">
         <v>195</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1945,7 +1945,7 @@
       <c r="A8" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>195</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2044,7 +2044,7 @@
       <c r="A9" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>198</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2137,7 +2137,7 @@
       <c r="A10" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2230,7 +2230,7 @@
       <c r="A11" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>195</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2323,7 +2323,7 @@
       <c r="A12" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="39" t="s">
         <v>192</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2416,7 +2416,7 @@
       <c r="A13" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2515,7 +2515,7 @@
       <c r="A14" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>192</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -2614,7 +2614,7 @@
       <c r="A15" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="39" t="s">
         <v>201</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2713,7 +2713,7 @@
       <c r="A16" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>202</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2812,7 +2812,7 @@
       <c r="A17" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2911,7 +2911,7 @@
       <c r="A18" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>192</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -3010,7 +3010,7 @@
       <c r="A19" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>205</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3109,7 +3109,7 @@
       <c r="A20" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="39" t="s">
         <v>196</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -3202,7 +3202,7 @@
       <c r="A21" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3295,7 +3295,7 @@
       <c r="A22" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -3388,7 +3388,7 @@
       <c r="A23" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -3484,7 +3484,7 @@
       <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -3577,7 +3577,7 @@
       <c r="A25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -3670,7 +3670,7 @@
       <c r="A26" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -3763,7 +3763,7 @@
       <c r="A27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="39" t="s">
         <v>196</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -3862,7 +3862,7 @@
       <c r="A28" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="39" t="s">
         <v>194</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -3961,7 +3961,7 @@
       <c r="A29" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="39" t="s">
         <v>194</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -4060,7 +4060,7 @@
       <c r="A30" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="39" t="s">
         <v>203</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -4159,7 +4159,7 @@
       <c r="A31" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="39" t="s">
         <v>203</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -4258,7 +4258,7 @@
       <c r="A32" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -4357,7 +4357,7 @@
       <c r="A33" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -4456,7 +4456,7 @@
       <c r="A34" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="39" t="s">
         <v>194</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -4549,7 +4549,7 @@
       <c r="A35" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>194</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -4642,7 +4642,7 @@
       <c r="A36" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="39" t="s">
         <v>207</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -4735,7 +4735,7 @@
       <c r="A37" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="39" t="s">
         <v>207</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -4828,7 +4828,7 @@
       <c r="A38" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -4921,7 +4921,7 @@
       <c r="A39" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -5014,7 +5014,7 @@
       <c r="A40" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -5107,7 +5107,7 @@
       <c r="A41" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -5200,7 +5200,7 @@
       <c r="A42" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -5296,7 +5296,7 @@
       <c r="A43" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="39" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -5395,7 +5395,7 @@
       <c r="A44" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -5494,7 +5494,7 @@
       <c r="A45" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="39" t="s">
         <v>203</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -5593,7 +5593,7 @@
       <c r="A46" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -5692,7 +5692,7 @@
       <c r="A47" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -5791,7 +5791,7 @@
       <c r="A48" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="39" t="s">
         <v>194</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -5890,7 +5890,7 @@
       <c r="A49" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="39" t="s">
         <v>196</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -5989,7 +5989,7 @@
       <c r="A50" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -6082,7 +6082,7 @@
       <c r="A51" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -6178,7 +6178,7 @@
       <c r="A52" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="39" t="s">
         <v>92</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -6274,7 +6274,7 @@
       <c r="A53" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -6373,7 +6373,7 @@
       <c r="A54" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -6472,7 +6472,7 @@
       <c r="A55" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -6571,7 +6571,7 @@
       <c r="A56" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -6670,7 +6670,7 @@
       <c r="A57" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C57" s="7" t="s">
@@ -6766,7 +6766,7 @@
       <c r="A58" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="39" t="s">
         <v>195</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -6859,7 +6859,7 @@
       <c r="A59" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -6952,7 +6952,7 @@
       <c r="A60" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -7045,7 +7045,7 @@
       <c r="A61" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -7144,7 +7144,7 @@
       <c r="A62" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -7237,7 +7237,7 @@
       <c r="A63" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -7336,7 +7336,7 @@
       <c r="A64" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -7435,7 +7435,7 @@
       <c r="A65" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -7534,7 +7534,7 @@
       <c r="A66" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="39" t="s">
         <v>206</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -7633,7 +7633,7 @@
       <c r="A67" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="39" t="s">
         <v>203</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -7662,7 +7662,7 @@
         <v>08</v>
       </c>
       <c r="K67" s="4" t="str">
-        <f t="shared" ref="K67:K112" si="16">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*0.21,0),1),2))</f>
+        <f t="shared" ref="K67:K89" si="16">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*0.21,0),1),2))</f>
         <v>02</v>
       </c>
       <c r="L67" s="4" t="str">
@@ -7694,7 +7694,7 @@
         <v>0C</v>
       </c>
       <c r="S67" s="4" t="str">
-        <f t="shared" ref="S67:S112" si="18">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*0.23,0),1)+1,2))</f>
+        <f t="shared" ref="S67:S86" si="18">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*0.23,0),1)+1,2))</f>
         <v>03</v>
       </c>
       <c r="T67" s="4" t="str">
@@ -7710,7 +7710,7 @@
         <v>0C</v>
       </c>
       <c r="W67" s="4" t="str">
-        <f t="shared" ref="W67:W112" si="19">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*0.18,0),1)+3,2))</f>
+        <f t="shared" ref="W67:W87" si="19">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*0.18,0),1)+3,2))</f>
         <v>05</v>
       </c>
       <c r="X67" s="4" t="str">
@@ -7726,7 +7726,7 @@
       <c r="A68" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="39" t="s">
         <v>192</v>
       </c>
       <c r="C68" s="7" t="s">
@@ -7819,7 +7819,7 @@
       <c r="A69" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -7918,7 +7918,7 @@
       <c r="A70" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -8017,7 +8017,7 @@
       <c r="A71" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C71" s="7" t="s">
@@ -8116,7 +8116,7 @@
       <c r="A72" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="39" t="s">
         <v>59</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -8215,7 +8215,7 @@
       <c r="A73" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -8314,7 +8314,7 @@
       <c r="A74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C74" s="7" t="s">
@@ -8407,7 +8407,7 @@
       <c r="A75" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="39" t="s">
         <v>196</v>
       </c>
       <c r="C75" s="7" t="s">
@@ -8500,7 +8500,7 @@
       <c r="A76" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="39" t="s">
         <v>206</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -8599,7 +8599,7 @@
       <c r="A77" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -8695,7 +8695,7 @@
       <c r="A78" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="39" t="s">
         <v>192</v>
       </c>
       <c r="C78" s="7" t="s">
@@ -8788,7 +8788,7 @@
       <c r="A79" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="39" t="s">
         <v>203</v>
       </c>
       <c r="C79" s="7" t="s">
@@ -8887,7 +8887,7 @@
       <c r="A80" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="39" t="s">
         <v>59</v>
       </c>
       <c r="C80" s="7" t="s">
@@ -8986,7 +8986,7 @@
       <c r="A81" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C81" s="7" t="s">
@@ -9085,7 +9085,7 @@
       <c r="A82" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -9184,7 +9184,7 @@
       <c r="A83" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="7" t="s">
@@ -9280,7 +9280,7 @@
       <c r="A84" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C84" s="7" t="s">
@@ -9379,7 +9379,7 @@
       <c r="A85" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C85" s="7" t="s">
@@ -9472,7 +9472,7 @@
       <c r="A86" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="39" t="s">
         <v>194</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -9561,11 +9561,11 @@
         <v>01</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="37" customFormat="1">
-      <c r="A87" s="33" t="s">
+    <row r="87" spans="1:27" s="36" customFormat="1">
+      <c r="A87" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C87" s="7" t="s">
@@ -9577,94 +9577,94 @@
       <c r="E87" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F87" s="34" t="s">
+      <c r="F87" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G87" s="35" t="s">
+      <c r="G87" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H87" s="35" t="s">
+      <c r="H87" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I87" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="J87" s="34" t="str">
+      <c r="I87" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J87" s="33" t="str">
         <f t="shared" si="20"/>
         <v>0D</v>
       </c>
-      <c r="K87" s="35" t="str">
+      <c r="K87" s="34" t="str">
         <f t="shared" si="16"/>
         <v>08</v>
       </c>
-      <c r="L87" s="35" t="str">
+      <c r="L87" s="34" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M87" s="35" t="str">
+      <c r="M87" s="34" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N87" s="34" t="str">
+      <c r="N87" s="33" t="str">
         <f t="shared" si="23"/>
         <v>14</v>
       </c>
-      <c r="O87" s="35" t="str">
+      <c r="O87" s="34" t="str">
         <f t="shared" si="17"/>
         <v>08</v>
       </c>
-      <c r="P87" s="35" t="str">
+      <c r="P87" s="34" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q87" s="35" t="str">
+      <c r="Q87" s="34" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R87" s="34" t="str">
+      <c r="R87" s="33" t="str">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
-      <c r="S87" s="35" t="str">
+      <c r="S87" s="34" t="str">
         <f>IF($G87="00",$G87,DEC2HEX(MAX(ROUND(HEX2DEC($G87)*0.23,0),1)+1,2))</f>
         <v>09</v>
       </c>
-      <c r="T87" s="35" t="str">
+      <c r="T87" s="34" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U87" s="35" t="str">
+      <c r="U87" s="34" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V87" s="34" t="str">
+      <c r="V87" s="33" t="str">
         <f t="shared" si="29"/>
         <v>14</v>
       </c>
-      <c r="W87" s="35" t="str">
+      <c r="W87" s="34" t="str">
         <f t="shared" si="19"/>
         <v>09</v>
       </c>
-      <c r="X87" s="35" t="str">
+      <c r="X87" s="34" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y87" s="35" t="str">
+      <c r="Y87" s="34" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z87" s="36" t="s">
+      <c r="Z87" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="AA87" s="37" t="s">
+      <c r="AA87" s="36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:27" s="37" customFormat="1">
-      <c r="A88" s="33" t="s">
+    <row r="88" spans="1:27" s="36" customFormat="1">
+      <c r="A88" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -9676,94 +9676,94 @@
       <c r="E88" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F88" s="34" t="s">
+      <c r="F88" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G88" s="35" t="s">
+      <c r="G88" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H88" s="35" t="s">
+      <c r="H88" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I88" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="J88" s="34" t="str">
+      <c r="I88" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J88" s="33" t="str">
         <f t="shared" si="20"/>
         <v>28</v>
       </c>
-      <c r="K88" s="35" t="str">
+      <c r="K88" s="34" t="str">
         <f t="shared" si="16"/>
         <v>07</v>
       </c>
-      <c r="L88" s="35" t="str">
+      <c r="L88" s="34" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M88" s="35" t="str">
+      <c r="M88" s="34" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N88" s="34" t="str">
+      <c r="N88" s="33" t="str">
         <f t="shared" si="23"/>
         <v>28</v>
       </c>
-      <c r="O88" s="35" t="str">
+      <c r="O88" s="34" t="str">
         <f t="shared" si="17"/>
         <v>07</v>
       </c>
-      <c r="P88" s="35" t="str">
+      <c r="P88" s="34" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q88" s="35" t="str">
+      <c r="Q88" s="34" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R88" s="34" t="str">
+      <c r="R88" s="33" t="str">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="S88" s="35" t="str">
+      <c r="S88" s="34" t="str">
         <f t="shared" ref="S88:S112" si="32">IF($G88="00",$G88,DEC2HEX(MAX(ROUND(HEX2DEC($G88)*0.23,0),1)+1,2))</f>
         <v>09</v>
       </c>
-      <c r="T88" s="35" t="str">
+      <c r="T88" s="34" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U88" s="35" t="str">
+      <c r="U88" s="34" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V88" s="34" t="str">
+      <c r="V88" s="33" t="str">
         <f t="shared" si="29"/>
         <v>28</v>
       </c>
-      <c r="W88" s="35" t="str">
+      <c r="W88" s="34" t="str">
         <f>IF($G88="00",$G88,DEC2HEX(MAX(ROUND(HEX2DEC($G88)*0.18,0),1)+3,2))</f>
         <v>09</v>
       </c>
-      <c r="X88" s="35" t="str">
+      <c r="X88" s="34" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y88" s="35" t="str">
+      <c r="Y88" s="34" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z88" s="37" t="s">
+      <c r="Z88" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="AA88" s="37" t="s">
+      <c r="AA88" s="36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:27" s="37" customFormat="1">
-      <c r="A89" s="33" t="s">
+    <row r="89" spans="1:27" s="36" customFormat="1">
+      <c r="A89" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="39" t="s">
         <v>196</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -9775,94 +9775,94 @@
       <c r="E89" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F89" s="34" t="s">
+      <c r="F89" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="G89" s="35" t="s">
+      <c r="G89" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H89" s="35" t="s">
+      <c r="H89" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I89" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="J89" s="34" t="str">
+      <c r="I89" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J89" s="33" t="str">
         <f t="shared" si="20"/>
         <v>07</v>
       </c>
-      <c r="K89" s="35" t="str">
+      <c r="K89" s="34" t="str">
         <f t="shared" si="16"/>
         <v>08</v>
       </c>
-      <c r="L89" s="35" t="str">
+      <c r="L89" s="34" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M89" s="35" t="str">
+      <c r="M89" s="34" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N89" s="34" t="str">
+      <c r="N89" s="33" t="str">
         <f t="shared" si="23"/>
         <v>0A</v>
       </c>
-      <c r="O89" s="35" t="str">
+      <c r="O89" s="34" t="str">
         <f t="shared" si="17"/>
         <v>08</v>
       </c>
-      <c r="P89" s="35" t="str">
+      <c r="P89" s="34" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q89" s="35" t="str">
+      <c r="Q89" s="34" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R89" s="34" t="str">
+      <c r="R89" s="33" t="str">
         <f t="shared" si="26"/>
         <v>0A</v>
       </c>
-      <c r="S89" s="35" t="str">
+      <c r="S89" s="34" t="str">
         <f t="shared" si="32"/>
         <v>0A</v>
       </c>
-      <c r="T89" s="35" t="str">
+      <c r="T89" s="34" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U89" s="35" t="str">
+      <c r="U89" s="34" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V89" s="34" t="str">
+      <c r="V89" s="33" t="str">
         <f t="shared" si="29"/>
         <v>0A</v>
       </c>
-      <c r="W89" s="35" t="str">
+      <c r="W89" s="34" t="str">
         <f t="shared" ref="W89:W112" si="33">IF($G89="00",$G89,DEC2HEX(MAX(ROUND(HEX2DEC($G89)*0.18,0),1)+3,2))</f>
         <v>0A</v>
       </c>
-      <c r="X89" s="35" t="str">
+      <c r="X89" s="34" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y89" s="35" t="str">
+      <c r="Y89" s="34" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z89" s="36" t="s">
+      <c r="Z89" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="AA89" s="37" t="s">
+      <c r="AA89" s="36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="1:27" s="37" customFormat="1">
-      <c r="A90" s="33" t="s">
+    <row r="90" spans="1:27" s="36" customFormat="1">
+      <c r="A90" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="39" t="s">
         <v>191</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -9874,94 +9874,94 @@
       <c r="E90" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="34" t="s">
+      <c r="F90" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="G90" s="35" t="s">
+      <c r="G90" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H90" s="35" t="s">
+      <c r="H90" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I90" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="J90" s="34" t="str">
+      <c r="I90" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J90" s="33" t="str">
         <f t="shared" si="20"/>
         <v>01</v>
       </c>
-      <c r="K90" s="35" t="str">
+      <c r="K90" s="34" t="str">
         <f>IF($G90="00",$G90,DEC2HEX(MAX(ROUND(HEX2DEC($G90)*0.21,0),1),2))</f>
         <v>07</v>
       </c>
-      <c r="L90" s="35" t="str">
+      <c r="L90" s="34" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M90" s="35" t="str">
+      <c r="M90" s="34" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N90" s="34" t="str">
+      <c r="N90" s="33" t="str">
         <f t="shared" si="23"/>
         <v>01</v>
       </c>
-      <c r="O90" s="35" t="str">
+      <c r="O90" s="34" t="str">
         <f t="shared" si="17"/>
         <v>07</v>
       </c>
-      <c r="P90" s="35" t="str">
+      <c r="P90" s="34" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q90" s="35" t="str">
+      <c r="Q90" s="34" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R90" s="34" t="str">
+      <c r="R90" s="33" t="str">
         <f t="shared" si="26"/>
         <v>01</v>
       </c>
-      <c r="S90" s="35" t="str">
+      <c r="S90" s="34" t="str">
         <f t="shared" si="32"/>
         <v>09</v>
       </c>
-      <c r="T90" s="35" t="str">
+      <c r="T90" s="34" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U90" s="35" t="str">
+      <c r="U90" s="34" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V90" s="34" t="str">
+      <c r="V90" s="33" t="str">
         <f t="shared" si="29"/>
         <v>01</v>
       </c>
-      <c r="W90" s="35" t="str">
+      <c r="W90" s="34" t="str">
         <f t="shared" si="33"/>
         <v>09</v>
       </c>
-      <c r="X90" s="35" t="str">
+      <c r="X90" s="34" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y90" s="35" t="str">
+      <c r="Y90" s="34" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z90" s="36" t="s">
+      <c r="Z90" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AA90" s="37" t="s">
+      <c r="AA90" s="36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:27" s="37" customFormat="1">
-      <c r="A91" s="33" t="s">
+    <row r="91" spans="1:27" s="36" customFormat="1">
+      <c r="A91" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -9973,86 +9973,86 @@
       <c r="E91" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F91" s="34" t="s">
+      <c r="F91" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G91" s="35" t="s">
+      <c r="G91" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="H91" s="35" t="s">
+      <c r="H91" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I91" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="J91" s="34" t="str">
+      <c r="I91" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J91" s="33" t="str">
         <f t="shared" si="20"/>
         <v>0D</v>
       </c>
-      <c r="K91" s="35" t="str">
+      <c r="K91" s="34" t="str">
         <f t="shared" ref="K91:K112" si="34">IF($G91="00",$G91,DEC2HEX(MAX(ROUND(HEX2DEC($G91)*0.21,0),1),2))</f>
         <v>09</v>
       </c>
-      <c r="L91" s="35" t="str">
+      <c r="L91" s="34" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M91" s="35" t="str">
+      <c r="M91" s="34" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N91" s="34" t="str">
+      <c r="N91" s="33" t="str">
         <f t="shared" si="23"/>
         <v>14</v>
       </c>
-      <c r="O91" s="35" t="str">
+      <c r="O91" s="34" t="str">
         <f t="shared" si="17"/>
         <v>09</v>
       </c>
-      <c r="P91" s="35" t="str">
+      <c r="P91" s="34" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q91" s="35" t="str">
+      <c r="Q91" s="34" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R91" s="34" t="str">
+      <c r="R91" s="33" t="str">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
-      <c r="S91" s="35" t="str">
+      <c r="S91" s="34" t="str">
         <f t="shared" si="32"/>
         <v>0B</v>
       </c>
-      <c r="T91" s="35" t="str">
+      <c r="T91" s="34" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U91" s="35" t="str">
+      <c r="U91" s="34" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V91" s="34" t="str">
+      <c r="V91" s="33" t="str">
         <f t="shared" si="29"/>
         <v>14</v>
       </c>
-      <c r="W91" s="35" t="str">
+      <c r="W91" s="34" t="str">
         <f t="shared" si="33"/>
         <v>0B</v>
       </c>
-      <c r="X91" s="35" t="str">
+      <c r="X91" s="34" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y91" s="35" t="str">
+      <c r="Y91" s="34" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z91" s="36" t="s">
+      <c r="Z91" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="AA91" s="37" t="s">
+      <c r="AA91" s="36" t="s">
         <v>211</v>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       <c r="A92" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -10153,7 +10153,7 @@
       <c r="A93" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B93" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -10246,7 +10246,7 @@
       <c r="A94" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="7" t="s">
@@ -10339,7 +10339,7 @@
       <c r="A95" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -10432,7 +10432,7 @@
       <c r="A96" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C96" s="7" t="s">
@@ -10525,7 +10525,7 @@
       <c r="A97" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B97" s="41" t="s">
+      <c r="B97" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C97" s="7" t="s">
@@ -10618,7 +10618,7 @@
       <c r="A98" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C98" s="7" t="s">
@@ -10711,7 +10711,7 @@
       <c r="A99" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C99" s="7" t="s">
@@ -10804,7 +10804,7 @@
       <c r="A100" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="39" t="s">
         <v>125</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -10903,7 +10903,7 @@
       <c r="A101" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C101" s="7" t="s">
@@ -11002,7 +11002,7 @@
       <c r="A102" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -11101,7 +11101,7 @@
       <c r="A103" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="39" t="s">
         <v>196</v>
       </c>
       <c r="C103" s="7" t="s">
@@ -11190,11 +11190,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="104" spans="1:27" s="37" customFormat="1">
-      <c r="A104" s="33" t="s">
+    <row r="104" spans="1:27" s="36" customFormat="1">
+      <c r="A104" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -11206,383 +11206,383 @@
       <c r="E104" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F104" s="34" t="s">
+      <c r="F104" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="G104" s="35" t="s">
+      <c r="G104" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H104" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="I104" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J104" s="33" t="str">
+        <f t="shared" si="20"/>
+        <v>01</v>
+      </c>
+      <c r="K104" s="34" t="str">
+        <f t="shared" si="34"/>
+        <v>06</v>
+      </c>
+      <c r="L104" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>7F</v>
+      </c>
+      <c r="M104" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="N104" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>01</v>
+      </c>
+      <c r="O104" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>06</v>
+      </c>
+      <c r="P104" s="34" t="str">
+        <f t="shared" si="24"/>
+        <v>7F</v>
+      </c>
+      <c r="Q104" s="34" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+      <c r="R104" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>01</v>
+      </c>
+      <c r="S104" s="34" t="str">
+        <f t="shared" si="32"/>
+        <v>08</v>
+      </c>
+      <c r="T104" s="34" t="str">
+        <f t="shared" si="27"/>
+        <v>7F</v>
+      </c>
+      <c r="U104" s="34" t="str">
+        <f t="shared" si="28"/>
+        <v>00</v>
+      </c>
+      <c r="V104" s="33" t="str">
+        <f t="shared" si="29"/>
+        <v>01</v>
+      </c>
+      <c r="W104" s="34" t="str">
+        <f t="shared" si="33"/>
+        <v>08</v>
+      </c>
+      <c r="X104" s="34" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="Y104" s="34" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+      <c r="Z104" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA104" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" s="36" customFormat="1">
+      <c r="A105" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F105" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G105" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="I105" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J105" s="33" t="str">
+        <f t="shared" si="20"/>
+        <v>07</v>
+      </c>
+      <c r="K105" s="34" t="str">
+        <f t="shared" si="34"/>
+        <v>08</v>
+      </c>
+      <c r="L105" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>7F</v>
+      </c>
+      <c r="M105" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="N105" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>0A</v>
+      </c>
+      <c r="O105" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>08</v>
+      </c>
+      <c r="P105" s="34" t="str">
+        <f t="shared" si="24"/>
+        <v>7F</v>
+      </c>
+      <c r="Q105" s="34" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+      <c r="R105" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>0A</v>
+      </c>
+      <c r="S105" s="34" t="str">
+        <f t="shared" si="32"/>
+        <v>0A</v>
+      </c>
+      <c r="T105" s="34" t="str">
+        <f t="shared" si="27"/>
+        <v>7F</v>
+      </c>
+      <c r="U105" s="34" t="str">
+        <f t="shared" si="28"/>
+        <v>00</v>
+      </c>
+      <c r="V105" s="33" t="str">
+        <f t="shared" si="29"/>
+        <v>0A</v>
+      </c>
+      <c r="W105" s="34" t="str">
+        <f t="shared" si="33"/>
+        <v>0A</v>
+      </c>
+      <c r="X105" s="34" t="str">
+        <f t="shared" si="30"/>
+        <v>7F</v>
+      </c>
+      <c r="Y105" s="34" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+      <c r="Z105" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA105" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" s="36" customFormat="1">
+      <c r="A106" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F106" s="33">
+        <v>14</v>
+      </c>
+      <c r="G106" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H104" s="35" t="s">
+      <c r="H106" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="I104" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="J104" s="34" t="str">
+      <c r="I106" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J106" s="33" t="str">
         <f t="shared" si="20"/>
-        <v>01</v>
-      </c>
-      <c r="K104" s="35" t="str">
+        <v>0D</v>
+      </c>
+      <c r="K106" s="34" t="str">
         <f t="shared" si="34"/>
         <v>07</v>
       </c>
-      <c r="L104" s="35" t="str">
+      <c r="L106" s="34" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M104" s="35" t="str">
+      <c r="M106" s="34" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N104" s="34" t="str">
+      <c r="N106" s="33">
         <f t="shared" si="23"/>
-        <v>01</v>
-      </c>
-      <c r="O104" s="35" t="str">
+        <v>14</v>
+      </c>
+      <c r="O106" s="34" t="str">
         <f t="shared" si="17"/>
         <v>07</v>
       </c>
-      <c r="P104" s="35" t="str">
+      <c r="P106" s="34" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q104" s="35" t="str">
+      <c r="Q106" s="34" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R104" s="34" t="str">
+      <c r="R106" s="33">
         <f t="shared" si="26"/>
-        <v>01</v>
-      </c>
-      <c r="S104" s="35" t="str">
+        <v>14</v>
+      </c>
+      <c r="S106" s="34" t="str">
         <f t="shared" si="32"/>
         <v>09</v>
       </c>
-      <c r="T104" s="35" t="str">
+      <c r="T106" s="34" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U104" s="35" t="str">
+      <c r="U106" s="34" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V104" s="34" t="str">
+      <c r="V106" s="33">
         <f t="shared" si="29"/>
-        <v>01</v>
-      </c>
-      <c r="W104" s="35" t="str">
+        <v>14</v>
+      </c>
+      <c r="W106" s="34" t="str">
         <f t="shared" si="33"/>
         <v>09</v>
       </c>
-      <c r="X104" s="35" t="str">
+      <c r="X106" s="34" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y104" s="35" t="str">
+      <c r="Y106" s="34" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z104" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA104" s="37" t="s">
+      <c r="Z106" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA106" s="36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:27" s="37" customFormat="1">
-      <c r="A105" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B105" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F105" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="G105" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H105" s="35" t="s">
+    <row r="107" spans="1:27" s="36" customFormat="1">
+      <c r="A107" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G107" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H107" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="I105" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="J105" s="34" t="str">
+      <c r="I107" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J107" s="33" t="str">
         <f t="shared" si="20"/>
-        <v>07</v>
-      </c>
-      <c r="K105" s="35" t="str">
+        <v>28</v>
+      </c>
+      <c r="K107" s="34" t="str">
         <f t="shared" si="34"/>
-        <v>08</v>
-      </c>
-      <c r="L105" s="35" t="str">
+        <v>06</v>
+      </c>
+      <c r="L107" s="34" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M105" s="35" t="str">
+      <c r="M107" s="34" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N105" s="34" t="str">
+      <c r="N107" s="33" t="str">
         <f t="shared" si="23"/>
-        <v>0A</v>
-      </c>
-      <c r="O105" s="35" t="str">
+        <v>28</v>
+      </c>
+      <c r="O107" s="34" t="str">
         <f t="shared" si="17"/>
-        <v>08</v>
-      </c>
-      <c r="P105" s="35" t="str">
+        <v>06</v>
+      </c>
+      <c r="P107" s="34" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q105" s="35" t="str">
+      <c r="Q107" s="34" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R105" s="34" t="str">
+      <c r="R107" s="33" t="str">
         <f t="shared" si="26"/>
-        <v>0A</v>
-      </c>
-      <c r="S105" s="35" t="str">
+        <v>28</v>
+      </c>
+      <c r="S107" s="34" t="str">
         <f t="shared" si="32"/>
-        <v>0A</v>
-      </c>
-      <c r="T105" s="35" t="str">
+        <v>08</v>
+      </c>
+      <c r="T107" s="34" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U105" s="35" t="str">
+      <c r="U107" s="34" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V105" s="34" t="str">
+      <c r="V107" s="33" t="str">
         <f t="shared" si="29"/>
-        <v>0A</v>
-      </c>
-      <c r="W105" s="35" t="str">
+        <v>28</v>
+      </c>
+      <c r="W107" s="34" t="str">
         <f t="shared" si="33"/>
-        <v>0A</v>
-      </c>
-      <c r="X105" s="35" t="str">
+        <v>08</v>
+      </c>
+      <c r="X107" s="34" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y105" s="35" t="str">
+      <c r="Y107" s="34" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z105" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA105" s="37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" s="37" customFormat="1">
-      <c r="A106" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B106" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F106" s="34">
-        <v>14</v>
-      </c>
-      <c r="G106" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="I106" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="J106" s="34" t="str">
-        <f t="shared" si="20"/>
-        <v>0D</v>
-      </c>
-      <c r="K106" s="35" t="str">
-        <f t="shared" si="34"/>
-        <v>07</v>
-      </c>
-      <c r="L106" s="35" t="str">
-        <f t="shared" si="21"/>
-        <v>7F</v>
-      </c>
-      <c r="M106" s="35" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="N106" s="34">
-        <f t="shared" si="23"/>
-        <v>14</v>
-      </c>
-      <c r="O106" s="35" t="str">
-        <f t="shared" si="17"/>
-        <v>07</v>
-      </c>
-      <c r="P106" s="35" t="str">
-        <f t="shared" si="24"/>
-        <v>7F</v>
-      </c>
-      <c r="Q106" s="35" t="str">
-        <f t="shared" si="25"/>
-        <v>00</v>
-      </c>
-      <c r="R106" s="34">
-        <f t="shared" si="26"/>
-        <v>14</v>
-      </c>
-      <c r="S106" s="35" t="str">
-        <f t="shared" si="32"/>
-        <v>09</v>
-      </c>
-      <c r="T106" s="35" t="str">
-        <f t="shared" si="27"/>
-        <v>7F</v>
-      </c>
-      <c r="U106" s="35" t="str">
-        <f t="shared" si="28"/>
-        <v>00</v>
-      </c>
-      <c r="V106" s="34">
-        <f t="shared" si="29"/>
-        <v>14</v>
-      </c>
-      <c r="W106" s="35" t="str">
-        <f t="shared" si="33"/>
-        <v>09</v>
-      </c>
-      <c r="X106" s="35" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Y106" s="35" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="Z106" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA106" s="37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" s="37" customFormat="1">
-      <c r="A107" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B107" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F107" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G107" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="I107" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="J107" s="34" t="str">
-        <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="K107" s="35" t="str">
-        <f t="shared" si="34"/>
-        <v>07</v>
-      </c>
-      <c r="L107" s="35" t="str">
-        <f t="shared" si="21"/>
-        <v>7F</v>
-      </c>
-      <c r="M107" s="35" t="str">
-        <f t="shared" si="22"/>
-        <v>00</v>
-      </c>
-      <c r="N107" s="34" t="str">
-        <f t="shared" si="23"/>
-        <v>28</v>
-      </c>
-      <c r="O107" s="35" t="str">
-        <f t="shared" si="17"/>
-        <v>07</v>
-      </c>
-      <c r="P107" s="35" t="str">
-        <f t="shared" si="24"/>
-        <v>7F</v>
-      </c>
-      <c r="Q107" s="35" t="str">
-        <f t="shared" si="25"/>
-        <v>00</v>
-      </c>
-      <c r="R107" s="34" t="str">
-        <f t="shared" si="26"/>
-        <v>28</v>
-      </c>
-      <c r="S107" s="35" t="str">
-        <f t="shared" si="32"/>
-        <v>09</v>
-      </c>
-      <c r="T107" s="35" t="str">
-        <f t="shared" si="27"/>
-        <v>7F</v>
-      </c>
-      <c r="U107" s="35" t="str">
-        <f t="shared" si="28"/>
-        <v>00</v>
-      </c>
-      <c r="V107" s="34" t="str">
-        <f t="shared" si="29"/>
-        <v>28</v>
-      </c>
-      <c r="W107" s="35" t="str">
-        <f t="shared" si="33"/>
-        <v>09</v>
-      </c>
-      <c r="X107" s="35" t="str">
-        <f t="shared" si="30"/>
-        <v>7F</v>
-      </c>
-      <c r="Y107" s="35" t="str">
-        <f t="shared" si="31"/>
-        <v>00</v>
-      </c>
-      <c r="Z107" s="36" t="s">
+      <c r="Z107" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="AA107" s="37" t="s">
+      <c r="AA107" s="36" t="s">
         <v>211</v>
       </c>
     </row>
@@ -11590,7 +11590,7 @@
       <c r="A108" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="39" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="7" t="s">
@@ -11683,7 +11683,7 @@
       <c r="A109" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B109" s="41" t="s">
+      <c r="B109" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -11776,7 +11776,7 @@
       <c r="A110" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B110" s="41" t="s">
+      <c r="B110" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C110" s="7" t="s">
@@ -11869,7 +11869,7 @@
       <c r="A111" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B111" s="41" t="s">
+      <c r="B111" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C111" s="7" t="s">
@@ -11962,7 +11962,7 @@
       <c r="A112" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C112" s="7" t="s">

--- a/data/EnemyTemplates.xlsx
+++ b/data/EnemyTemplates.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sscott\Documents\Misc\NES\Illusion of Gaia Randomizer\IoGR\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBBC408-2F98-491E-8CF3-2562D74280E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28575" windowHeight="12225"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StatTable" sheetId="2" r:id="rId1"/>
     <sheet name="Templates" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -699,14 +713,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,152 +745,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,7 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,194 +777,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1176,253 +854,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1473,12 +909,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1511,80 +941,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1871,20 +1263,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U96" sqref="U96"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3:M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1900,131 +1291,131 @@
     <col min="19" max="21" width="9" style="4"/>
     <col min="22" max="22" width="9" style="22"/>
     <col min="23" max="25" width="9" style="4"/>
-    <col min="26" max="26" width="27.8571428571429" customWidth="1"/>
-    <col min="27" max="27" width="19.5714285714286" customWidth="1"/>
+    <col min="26" max="26" width="27.85546875" customWidth="1"/>
+    <col min="27" max="27" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:27">
       <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="26" t="s">
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="1:27">
+      <c r="A3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2048,11 +1439,12 @@
       <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="22">
-        <v>0</v>
+      <c r="J3" s="22" t="str">
+        <f t="shared" ref="J3:J67" si="0">IF(OR($F3="28",$F3="00"),$F3,DEC2HEX(MAX(ROUND(HEX2DEC($F3)*2/3,0),1),2))</f>
+        <v>00</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K66" si="0">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*7/30,0),1),2))</f>
+        <f t="shared" ref="K3:K66" si="1">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*7/30,0),1),2))</f>
         <v>00</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -2066,7 +1458,7 @@
         <v>00</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O66" si="1">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*7/30,0),1),2))</f>
+        <f t="shared" ref="O3:O66" si="2">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*7/30,0),1),2))</f>
         <v>00</v>
       </c>
       <c r="P3" s="4" t="str">
@@ -2082,7 +1474,7 @@
         <v>00</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S66" si="2">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*6/15+1,0),2),2))</f>
+        <f t="shared" ref="S3:S66" si="3">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*6/15+1,0),2),2))</f>
         <v>00</v>
       </c>
       <c r="T3" s="4" t="str">
@@ -2098,7 +1490,7 @@
         <v>00</v>
       </c>
       <c r="W3" s="4" t="str">
-        <f t="shared" ref="W3:W66" si="3">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*6/15+3,0),2),2))</f>
+        <f t="shared" ref="W3:W66" si="4">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*6/15+3,0),2),2))</f>
         <v>00</v>
       </c>
       <c r="X3" s="4" t="str">
@@ -2111,10 +1503,10 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2139,11 +1531,11 @@
         <v>14</v>
       </c>
       <c r="J4" s="22" t="str">
-        <f t="shared" ref="J4:J67" si="4">IF(OR($F4="28",$F4="00"),$F4,DEC2HEX(MAX(ROUND(HEX2DEC($F4)*2/3,0),1),2))</f>
+        <f t="shared" si="0"/>
         <v>04</v>
       </c>
       <c r="K4" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L4" s="4" t="str">
@@ -2159,7 +1551,7 @@
         <v>06</v>
       </c>
       <c r="O4" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P4" s="4" t="str">
@@ -2175,7 +1567,7 @@
         <v>06</v>
       </c>
       <c r="S4" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T4" s="4" t="str">
@@ -2191,7 +1583,7 @@
         <v>06</v>
       </c>
       <c r="W4" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="X4" s="4" t="str">
@@ -2210,10 +1602,10 @@
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2238,11 +1630,11 @@
         <v>12</v>
       </c>
       <c r="J5" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>03</v>
       </c>
       <c r="K5" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L5" s="4" t="str">
@@ -2258,7 +1650,7 @@
         <v>05</v>
       </c>
       <c r="O5" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P5" s="4" t="str">
@@ -2274,7 +1666,7 @@
         <v>05</v>
       </c>
       <c r="S5" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T5" s="4" t="str">
@@ -2290,7 +1682,7 @@
         <v>05</v>
       </c>
       <c r="W5" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
       <c r="X5" s="4" t="str">
@@ -2309,10 +1701,10 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2337,11 +1729,11 @@
         <v>19</v>
       </c>
       <c r="J6" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>07</v>
       </c>
       <c r="K6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L6" s="4" t="str">
@@ -2357,7 +1749,7 @@
         <v>0A</v>
       </c>
       <c r="O6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P6" s="4" t="str">
@@ -2373,7 +1765,7 @@
         <v>0A</v>
       </c>
       <c r="S6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T6" s="4" t="str">
@@ -2389,7 +1781,7 @@
         <v>0A</v>
       </c>
       <c r="W6" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="X6" s="4" t="str">
@@ -2408,10 +1800,10 @@
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2436,11 +1828,11 @@
         <v>12</v>
       </c>
       <c r="J7" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="K7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L7" s="4" t="str">
@@ -2456,7 +1848,7 @@
         <v>03</v>
       </c>
       <c r="O7" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P7" s="4" t="str">
@@ -2472,7 +1864,7 @@
         <v>03</v>
       </c>
       <c r="S7" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T7" s="4" t="str">
@@ -2488,7 +1880,7 @@
         <v>03</v>
       </c>
       <c r="W7" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="X7" s="4" t="str">
@@ -2507,10 +1899,10 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2535,11 +1927,11 @@
         <v>12</v>
       </c>
       <c r="J8" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="K8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L8" s="4" t="str">
@@ -2555,7 +1947,7 @@
         <v>03</v>
       </c>
       <c r="O8" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P8" s="4" t="str">
@@ -2571,7 +1963,7 @@
         <v>03</v>
       </c>
       <c r="S8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T8" s="4" t="str">
@@ -2587,7 +1979,7 @@
         <v>03</v>
       </c>
       <c r="W8" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
       <c r="X8" s="4" t="str">
@@ -2605,11 +1997,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:27">
+      <c r="A9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2634,11 +2026,11 @@
         <v>11</v>
       </c>
       <c r="J9" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="K9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="L9" s="4" t="str">
@@ -2654,7 +2046,7 @@
         <v>7F</v>
       </c>
       <c r="O9" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P9" s="4" t="str">
@@ -2670,7 +2062,7 @@
         <v>7F</v>
       </c>
       <c r="S9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T9" s="4" t="str">
@@ -2686,7 +2078,7 @@
         <v>7F</v>
       </c>
       <c r="W9" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="X9" s="4" t="str">
@@ -2698,11 +2090,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:27">
+      <c r="A10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2727,11 +2119,11 @@
         <v>11</v>
       </c>
       <c r="J10" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>05</v>
       </c>
       <c r="K10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L10" s="4" t="str">
@@ -2747,7 +2139,7 @@
         <v>08</v>
       </c>
       <c r="O10" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P10" s="4" t="str">
@@ -2763,7 +2155,7 @@
         <v>08</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T10" s="4" t="str">
@@ -2779,7 +2171,7 @@
         <v>08</v>
       </c>
       <c r="W10" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="X10" s="4" t="str">
@@ -2791,11 +2183,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:27">
+      <c r="A11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2820,11 +2212,11 @@
         <v>11</v>
       </c>
       <c r="J11" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="K11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L11" s="4" t="str">
@@ -2840,7 +2232,7 @@
         <v>03</v>
       </c>
       <c r="O11" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P11" s="4" t="str">
@@ -2856,7 +2248,7 @@
         <v>03</v>
       </c>
       <c r="S11" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T11" s="4" t="str">
@@ -2872,7 +2264,7 @@
         <v>03</v>
       </c>
       <c r="W11" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="X11" s="4" t="str">
@@ -2884,11 +2276,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:27">
+      <c r="A12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2913,11 +2305,11 @@
         <v>11</v>
       </c>
       <c r="J12" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>04</v>
       </c>
       <c r="K12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L12" s="4" t="str">
@@ -2933,7 +2325,7 @@
         <v>06</v>
       </c>
       <c r="O12" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P12" s="4" t="str">
@@ -2949,7 +2341,7 @@
         <v>06</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T12" s="4" t="str">
@@ -2965,7 +2357,7 @@
         <v>06</v>
       </c>
       <c r="W12" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="X12" s="4" t="str">
@@ -2978,10 +2370,10 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -3006,11 +2398,11 @@
         <v>14</v>
       </c>
       <c r="J13" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>05</v>
       </c>
       <c r="K13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L13" s="4" t="str">
@@ -3026,7 +2418,7 @@
         <v>08</v>
       </c>
       <c r="O13" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P13" s="4" t="str">
@@ -3042,7 +2434,7 @@
         <v>08</v>
       </c>
       <c r="S13" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T13" s="4" t="str">
@@ -3058,7 +2450,7 @@
         <v>08</v>
       </c>
       <c r="W13" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="X13" s="4" t="str">
@@ -3077,10 +2469,10 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -3105,11 +2497,11 @@
         <v>12</v>
       </c>
       <c r="J14" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>04</v>
       </c>
       <c r="K14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L14" s="4" t="str">
@@ -3125,7 +2517,7 @@
         <v>06</v>
       </c>
       <c r="O14" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P14" s="4" t="str">
@@ -3141,7 +2533,7 @@
         <v>06</v>
       </c>
       <c r="S14" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T14" s="4" t="str">
@@ -3157,7 +2549,7 @@
         <v>06</v>
       </c>
       <c r="W14" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="X14" s="4" t="str">
@@ -3176,10 +2568,10 @@
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -3204,11 +2596,11 @@
         <v>12</v>
       </c>
       <c r="J15" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>06</v>
       </c>
       <c r="K15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L15" s="4" t="str">
@@ -3224,7 +2616,7 @@
         <v>09</v>
       </c>
       <c r="O15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P15" s="4" t="str">
@@ -3240,7 +2632,7 @@
         <v>09</v>
       </c>
       <c r="S15" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T15" s="4" t="str">
@@ -3256,7 +2648,7 @@
         <v>09</v>
       </c>
       <c r="W15" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="X15" s="4" t="str">
@@ -3275,10 +2667,10 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3303,11 +2695,11 @@
         <v>14</v>
       </c>
       <c r="J16" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>07</v>
       </c>
       <c r="K16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L16" s="4" t="str">
@@ -3323,7 +2715,7 @@
         <v>0B</v>
       </c>
       <c r="O16" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P16" s="4" t="str">
@@ -3339,7 +2731,7 @@
         <v>0B</v>
       </c>
       <c r="S16" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>03</v>
       </c>
       <c r="T16" s="4" t="str">
@@ -3355,7 +2747,7 @@
         <v>0B</v>
       </c>
       <c r="W16" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>05</v>
       </c>
       <c r="X16" s="4" t="str">
@@ -3374,10 +2766,10 @@
       </c>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -3402,11 +2794,11 @@
         <v>19</v>
       </c>
       <c r="J17" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>05</v>
       </c>
       <c r="K17" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L17" s="4" t="str">
@@ -3422,7 +2814,7 @@
         <v>08</v>
       </c>
       <c r="O17" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P17" s="4" t="str">
@@ -3438,7 +2830,7 @@
         <v>08</v>
       </c>
       <c r="S17" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T17" s="4" t="str">
@@ -3454,7 +2846,7 @@
         <v>08</v>
       </c>
       <c r="W17" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="X17" s="4" t="str">
@@ -3473,10 +2865,10 @@
       </c>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -3501,11 +2893,11 @@
         <v>12</v>
       </c>
       <c r="J18" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>04</v>
       </c>
       <c r="K18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L18" s="4" t="str">
@@ -3521,7 +2913,7 @@
         <v>06</v>
       </c>
       <c r="O18" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P18" s="4" t="str">
@@ -3537,7 +2929,7 @@
         <v>06</v>
       </c>
       <c r="S18" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T18" s="4" t="str">
@@ -3553,7 +2945,7 @@
         <v>06</v>
       </c>
       <c r="W18" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="X18" s="4" t="str">
@@ -3572,10 +2964,10 @@
       </c>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="29" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3600,11 +2992,11 @@
         <v>11</v>
       </c>
       <c r="J19" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>09</v>
       </c>
       <c r="K19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L19" s="4" t="str">
@@ -3620,7 +3012,7 @@
         <v>0E</v>
       </c>
       <c r="O19" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P19" s="4" t="str">
@@ -3636,7 +3028,7 @@
         <v>0E</v>
       </c>
       <c r="S19" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T19" s="4" t="str">
@@ -3652,7 +3044,7 @@
         <v>0E</v>
       </c>
       <c r="W19" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="X19" s="4" t="str">
@@ -3670,11 +3062,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:27">
+      <c r="A20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -3699,11 +3091,11 @@
         <v>19</v>
       </c>
       <c r="J20" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>07</v>
       </c>
       <c r="K20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L20" s="4" t="str">
@@ -3719,7 +3111,7 @@
         <v>0A</v>
       </c>
       <c r="O20" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P20" s="4" t="str">
@@ -3735,7 +3127,7 @@
         <v>0A</v>
       </c>
       <c r="S20" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>03</v>
       </c>
       <c r="T20" s="4" t="str">
@@ -3751,7 +3143,7 @@
         <v>0A</v>
       </c>
       <c r="W20" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>05</v>
       </c>
       <c r="X20" s="4" t="str">
@@ -3763,11 +3155,11 @@
         <v>03</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:27">
+      <c r="A21" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3792,11 +3184,11 @@
         <v>11</v>
       </c>
       <c r="J21" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="K21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="L21" s="4" t="str">
@@ -3812,7 +3204,7 @@
         <v>00</v>
       </c>
       <c r="O21" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P21" s="4" t="str">
@@ -3828,7 +3220,7 @@
         <v>00</v>
       </c>
       <c r="S21" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T21" s="4" t="str">
@@ -3844,7 +3236,7 @@
         <v>00</v>
       </c>
       <c r="W21" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="X21" s="4" t="str">
@@ -3856,11 +3248,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:27">
+      <c r="A22" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -3885,11 +3277,11 @@
         <v>11</v>
       </c>
       <c r="J22" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="K22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="L22" s="4" t="str">
@@ -3905,7 +3297,7 @@
         <v>00</v>
       </c>
       <c r="O22" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P22" s="4" t="str">
@@ -3921,7 +3313,7 @@
         <v>00</v>
       </c>
       <c r="S22" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T22" s="4" t="str">
@@ -3937,7 +3329,7 @@
         <v>00</v>
       </c>
       <c r="W22" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="X22" s="4" t="str">
@@ -3949,11 +3341,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:27">
+      <c r="A23" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -3978,11 +3370,11 @@
         <v>11</v>
       </c>
       <c r="J23" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="K23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="L23" s="4" t="str">
@@ -3998,7 +3390,7 @@
         <v>28</v>
       </c>
       <c r="O23" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P23" s="4" t="str">
@@ -4014,7 +3406,7 @@
         <v>28</v>
       </c>
       <c r="S23" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>04</v>
       </c>
       <c r="T23" s="4" t="str">
@@ -4030,7 +3422,7 @@
         <v>28</v>
       </c>
       <c r="W23" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="X23" s="4" t="str">
@@ -4045,11 +3437,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:27">
+      <c r="A24" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -4074,11 +3466,11 @@
         <v>11</v>
       </c>
       <c r="J24" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="K24" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="L24" s="4" t="str">
@@ -4094,7 +3486,7 @@
         <v>00</v>
       </c>
       <c r="O24" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P24" s="4" t="str">
@@ -4110,7 +3502,7 @@
         <v>00</v>
       </c>
       <c r="S24" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T24" s="4" t="str">
@@ -4126,7 +3518,7 @@
         <v>00</v>
       </c>
       <c r="W24" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="X24" s="4" t="str">
@@ -4138,11 +3530,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:27">
+      <c r="A25" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -4167,11 +3559,11 @@
         <v>11</v>
       </c>
       <c r="J25" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="K25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="L25" s="4" t="str">
@@ -4187,7 +3579,7 @@
         <v>00</v>
       </c>
       <c r="O25" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P25" s="4" t="str">
@@ -4203,7 +3595,7 @@
         <v>00</v>
       </c>
       <c r="S25" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T25" s="4" t="str">
@@ -4219,7 +3611,7 @@
         <v>00</v>
       </c>
       <c r="W25" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="X25" s="4" t="str">
@@ -4231,11 +3623,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:27">
+      <c r="A26" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -4260,11 +3652,11 @@
         <v>11</v>
       </c>
       <c r="J26" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="K26" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="L26" s="4" t="str">
@@ -4280,7 +3672,7 @@
         <v>00</v>
       </c>
       <c r="O26" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P26" s="4" t="str">
@@ -4296,7 +3688,7 @@
         <v>00</v>
       </c>
       <c r="S26" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T26" s="4" t="str">
@@ -4312,7 +3704,7 @@
         <v>00</v>
       </c>
       <c r="W26" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="X26" s="4" t="str">
@@ -4325,10 +3717,10 @@
       </c>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -4353,11 +3745,11 @@
         <v>14</v>
       </c>
       <c r="J27" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>07</v>
       </c>
       <c r="K27" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="L27" s="4" t="str">
@@ -4373,7 +3765,7 @@
         <v>0A</v>
       </c>
       <c r="O27" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P27" s="4" t="str">
@@ -4389,7 +3781,7 @@
         <v>0A</v>
       </c>
       <c r="S27" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="T27" s="4" t="str">
@@ -4405,7 +3797,7 @@
         <v>0A</v>
       </c>
       <c r="W27" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="X27" s="4" t="str">
@@ -4424,10 +3816,10 @@
       </c>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -4452,11 +3844,11 @@
         <v>12</v>
       </c>
       <c r="J28" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>03</v>
       </c>
       <c r="K28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="L28" s="4" t="str">
@@ -4472,7 +3864,7 @@
         <v>05</v>
       </c>
       <c r="O28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P28" s="4" t="str">
@@ -4488,7 +3880,7 @@
         <v>05</v>
       </c>
       <c r="S28" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>04</v>
       </c>
       <c r="T28" s="4" t="str">
@@ -4504,7 +3896,7 @@
         <v>05</v>
       </c>
       <c r="W28" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="X28" s="4" t="str">
@@ -4523,10 +3915,10 @@
       </c>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -4551,11 +3943,11 @@
         <v>19</v>
       </c>
       <c r="J29" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>03</v>
       </c>
       <c r="K29" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="L29" s="4" t="str">
@@ -4571,7 +3963,7 @@
         <v>05</v>
       </c>
       <c r="O29" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P29" s="4" t="str">
@@ -4587,7 +3979,7 @@
         <v>05</v>
       </c>
       <c r="S29" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>04</v>
       </c>
       <c r="T29" s="4" t="str">
@@ -4603,7 +3995,7 @@
         <v>05</v>
       </c>
       <c r="W29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="X29" s="4" t="str">
@@ -4622,10 +4014,10 @@
       </c>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -4650,11 +4042,11 @@
         <v>12</v>
       </c>
       <c r="J30" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>08</v>
       </c>
       <c r="K30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="L30" s="4" t="str">
@@ -4670,7 +4062,7 @@
         <v>0C</v>
       </c>
       <c r="O30" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P30" s="4" t="str">
@@ -4686,7 +4078,7 @@
         <v>0C</v>
       </c>
       <c r="S30" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="T30" s="4" t="str">
@@ -4702,7 +4094,7 @@
         <v>0C</v>
       </c>
       <c r="W30" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="X30" s="4" t="str">
@@ -4721,10 +4113,10 @@
       </c>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -4749,11 +4141,11 @@
         <v>14</v>
       </c>
       <c r="J31" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>08</v>
       </c>
       <c r="K31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="L31" s="4" t="str">
@@ -4769,7 +4161,7 @@
         <v>0C</v>
       </c>
       <c r="O31" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P31" s="4" t="str">
@@ -4785,7 +4177,7 @@
         <v>0C</v>
       </c>
       <c r="S31" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="T31" s="4" t="str">
@@ -4801,7 +4193,7 @@
         <v>0C</v>
       </c>
       <c r="W31" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="X31" s="4" t="str">
@@ -4820,10 +4212,10 @@
       </c>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -4848,11 +4240,11 @@
         <v>12</v>
       </c>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0B</v>
       </c>
       <c r="K32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="L32" s="4" t="str">
@@ -4868,7 +4260,7 @@
         <v>10</v>
       </c>
       <c r="O32" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P32" s="4" t="str">
@@ -4884,7 +4276,7 @@
         <v>10</v>
       </c>
       <c r="S32" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="T32" s="4" t="str">
@@ -4900,7 +4292,7 @@
         <v>10</v>
       </c>
       <c r="W32" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="X32" s="4" t="str">
@@ -4919,10 +4311,10 @@
       </c>
     </row>
     <row r="33" spans="1:27">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -4947,11 +4339,11 @@
         <v>19</v>
       </c>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0D</v>
       </c>
       <c r="K33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="L33" s="4" t="str">
@@ -4967,7 +4359,7 @@
         <v>14</v>
       </c>
       <c r="O33" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P33" s="4" t="str">
@@ -4983,7 +4375,7 @@
         <v>14</v>
       </c>
       <c r="S33" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="T33" s="4" t="str">
@@ -4999,7 +4391,7 @@
         <v>14</v>
       </c>
       <c r="W33" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="X33" s="4" t="str">
@@ -5017,11 +4409,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
-      <c r="A34" s="30" t="s">
+    <row r="34" spans="1:27">
+      <c r="A34" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -5046,11 +4438,11 @@
         <v>11</v>
       </c>
       <c r="J34" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>03</v>
       </c>
       <c r="K34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L34" s="4" t="str">
@@ -5066,7 +4458,7 @@
         <v>05</v>
       </c>
       <c r="O34" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P34" s="4" t="str">
@@ -5082,7 +4474,7 @@
         <v>05</v>
       </c>
       <c r="S34" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T34" s="4" t="str">
@@ -5098,7 +4490,7 @@
         <v>05</v>
       </c>
       <c r="W34" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
       <c r="X34" s="4" t="str">
@@ -5110,11 +4502,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:27">
+      <c r="A35" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -5139,11 +4531,11 @@
         <v>11</v>
       </c>
       <c r="J35" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>03</v>
       </c>
       <c r="K35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="L35" s="4" t="str">
@@ -5159,7 +4551,7 @@
         <v>05</v>
       </c>
       <c r="O35" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P35" s="4" t="str">
@@ -5175,7 +4567,7 @@
         <v>05</v>
       </c>
       <c r="S35" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="T35" s="4" t="str">
@@ -5191,7 +4583,7 @@
         <v>05</v>
       </c>
       <c r="W35" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
       <c r="X35" s="4" t="str">
@@ -5203,11 +4595,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:27">
+      <c r="A36" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="29" t="s">
         <v>74</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -5232,11 +4624,11 @@
         <v>11</v>
       </c>
       <c r="J36" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>AA</v>
       </c>
       <c r="K36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="L36" s="4" t="str">
@@ -5252,7 +4644,7 @@
         <v>FF</v>
       </c>
       <c r="O36" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P36" s="4" t="str">
@@ -5268,7 +4660,7 @@
         <v>FF</v>
       </c>
       <c r="S36" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="T36" s="4" t="str">
@@ -5284,7 +4676,7 @@
         <v>FF</v>
       </c>
       <c r="W36" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="X36" s="4" t="str">
@@ -5296,11 +4688,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
-      <c r="A37" s="30" t="s">
+    <row r="37" spans="1:27">
+      <c r="A37" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="29" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -5325,11 +4717,11 @@
         <v>11</v>
       </c>
       <c r="J37" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>AA</v>
       </c>
       <c r="K37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="L37" s="4" t="str">
@@ -5345,7 +4737,7 @@
         <v>FF</v>
       </c>
       <c r="O37" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P37" s="4" t="str">
@@ -5361,7 +4753,7 @@
         <v>FF</v>
       </c>
       <c r="S37" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="T37" s="4" t="str">
@@ -5377,7 +4769,7 @@
         <v>FF</v>
       </c>
       <c r="W37" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="X37" s="4" t="str">
@@ -5389,11 +4781,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
-      <c r="A38" s="30" t="s">
+    <row r="38" spans="1:27">
+      <c r="A38" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -5418,11 +4810,11 @@
         <v>11</v>
       </c>
       <c r="J38" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="K38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="L38" s="4" t="str">
@@ -5438,7 +4830,7 @@
         <v>00</v>
       </c>
       <c r="O38" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P38" s="4" t="str">
@@ -5454,7 +4846,7 @@
         <v>00</v>
       </c>
       <c r="S38" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T38" s="4" t="str">
@@ -5470,7 +4862,7 @@
         <v>00</v>
       </c>
       <c r="W38" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="X38" s="4" t="str">
@@ -5482,11 +4874,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
-      <c r="A39" s="30" t="s">
+    <row r="39" spans="1:27">
+      <c r="A39" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -5511,11 +4903,11 @@
         <v>11</v>
       </c>
       <c r="J39" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="K39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="L39" s="4" t="str">
@@ -5531,7 +4923,7 @@
         <v>00</v>
       </c>
       <c r="O39" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P39" s="4" t="str">
@@ -5547,7 +4939,7 @@
         <v>00</v>
       </c>
       <c r="S39" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T39" s="4" t="str">
@@ -5563,7 +4955,7 @@
         <v>00</v>
       </c>
       <c r="W39" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="X39" s="4" t="str">
@@ -5575,11 +4967,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:27">
+      <c r="A40" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -5604,11 +4996,11 @@
         <v>11</v>
       </c>
       <c r="J40" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="K40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="L40" s="4" t="str">
@@ -5624,7 +5016,7 @@
         <v>00</v>
       </c>
       <c r="O40" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P40" s="4" t="str">
@@ -5640,7 +5032,7 @@
         <v>00</v>
       </c>
       <c r="S40" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T40" s="4" t="str">
@@ -5656,7 +5048,7 @@
         <v>00</v>
       </c>
       <c r="W40" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="X40" s="4" t="str">
@@ -5668,11 +5060,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
-      <c r="A41" s="30" t="s">
+    <row r="41" spans="1:27">
+      <c r="A41" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -5697,11 +5089,11 @@
         <v>11</v>
       </c>
       <c r="J41" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="K41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="L41" s="4" t="str">
@@ -5717,7 +5109,7 @@
         <v>00</v>
       </c>
       <c r="O41" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P41" s="4" t="str">
@@ -5733,7 +5125,7 @@
         <v>00</v>
       </c>
       <c r="S41" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="T41" s="4" t="str">
@@ -5749,7 +5141,7 @@
         <v>00</v>
       </c>
       <c r="W41" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="X41" s="4" t="str">
@@ -5761,11 +5153,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="30" t="s">
+    <row r="42" spans="1:27">
+      <c r="A42" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -5790,11 +5182,11 @@
         <v>11</v>
       </c>
       <c r="J42" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="K42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="L42" s="4" t="str">
@@ -5810,7 +5202,7 @@
         <v>28</v>
       </c>
       <c r="O42" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P42" s="4" t="str">
@@ -5826,7 +5218,7 @@
         <v>28</v>
       </c>
       <c r="S42" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="T42" s="4" t="str">
@@ -5842,7 +5234,7 @@
         <v>28</v>
       </c>
       <c r="W42" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="X42" s="4" t="str">
@@ -5858,10 +5250,10 @@
       </c>
     </row>
     <row r="43" spans="1:27">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="29" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -5886,11 +5278,11 @@
         <v>14</v>
       </c>
       <c r="J43" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="K43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>03</v>
       </c>
       <c r="L43" s="4" t="str">
@@ -5906,7 +5298,7 @@
         <v>1A</v>
       </c>
       <c r="O43" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="P43" s="4" t="str">
@@ -5922,7 +5314,7 @@
         <v>1A</v>
       </c>
       <c r="S43" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="T43" s="4" t="str">
@@ -5938,7 +5330,7 @@
         <v>1A</v>
       </c>
       <c r="W43" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="X43" s="4" t="str">
@@ -5957,10 +5349,10 @@
       </c>
     </row>
     <row r="44" spans="1:27">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -5985,11 +5377,11 @@
         <v>19</v>
       </c>
       <c r="J44" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0F</v>
       </c>
       <c r="K44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>03</v>
       </c>
       <c r="L44" s="4" t="str">
@@ -6005,7 +5397,7 @@
         <v>16</v>
       </c>
       <c r="O44" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="P44" s="4" t="str">
@@ -6021,7 +5413,7 @@
         <v>16</v>
       </c>
       <c r="S44" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>06</v>
       </c>
       <c r="T44" s="4" t="str">
@@ -6037,7 +5429,7 @@
         <v>16</v>
       </c>
       <c r="W44" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>08</v>
       </c>
       <c r="X44" s="4" t="str">
@@ -6056,10 +5448,10 @@
       </c>
     </row>
     <row r="45" spans="1:27">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -6084,11 +5476,11 @@
         <v>12</v>
       </c>
       <c r="J45" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>08</v>
       </c>
       <c r="K45" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>03</v>
       </c>
       <c r="L45" s="4" t="str">
@@ -6104,7 +5496,7 @@
         <v>0C</v>
       </c>
       <c r="O45" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="P45" s="4" t="str">
@@ -6120,7 +5512,7 @@
         <v>0C</v>
       </c>
       <c r="S45" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="T45" s="4" t="str">
@@ -6136,7 +5528,7 @@
         <v>0C</v>
       </c>
       <c r="W45" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="X45" s="4" t="str">
@@ -6155,10 +5547,10 @@
       </c>
     </row>
     <row r="46" spans="1:27">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -6183,11 +5575,11 @@
         <v>12</v>
       </c>
       <c r="J46" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>05</v>
       </c>
       <c r="K46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>03</v>
       </c>
       <c r="L46" s="4" t="str">
@@ -6203,7 +5595,7 @@
         <v>08</v>
       </c>
       <c r="O46" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="P46" s="4" t="str">
@@ -6219,7 +5611,7 @@
         <v>08</v>
       </c>
       <c r="S46" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="T46" s="4" t="str">
@@ -6235,7 +5627,7 @@
         <v>08</v>
       </c>
       <c r="W46" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="X46" s="4" t="str">
@@ -6254,10 +5646,10 @@
       </c>
     </row>
     <row r="47" spans="1:27">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -6282,11 +5674,11 @@
         <v>14</v>
       </c>
       <c r="J47" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0D</v>
       </c>
       <c r="K47" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="L47" s="4" t="str">
@@ -6302,7 +5694,7 @@
         <v>14</v>
       </c>
       <c r="O47" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P47" s="4" t="str">
@@ -6318,7 +5710,7 @@
         <v>14</v>
       </c>
       <c r="S47" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>08</v>
       </c>
       <c r="T47" s="4" t="str">
@@ -6334,7 +5726,7 @@
         <v>14</v>
       </c>
       <c r="W47" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0A</v>
       </c>
       <c r="X47" s="4" t="str">
@@ -6353,10 +5745,10 @@
       </c>
     </row>
     <row r="48" spans="1:27">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -6381,11 +5773,11 @@
         <v>12</v>
       </c>
       <c r="J48" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>03</v>
       </c>
       <c r="K48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="L48" s="4" t="str">
@@ -6401,7 +5793,7 @@
         <v>05</v>
       </c>
       <c r="O48" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P48" s="4" t="str">
@@ -6417,7 +5809,7 @@
         <v>05</v>
       </c>
       <c r="S48" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="T48" s="4" t="str">
@@ -6433,7 +5825,7 @@
         <v>05</v>
       </c>
       <c r="W48" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="X48" s="4" t="str">
@@ -6452,10 +5844,10 @@
       </c>
     </row>
     <row r="49" spans="1:27">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -6480,11 +5872,11 @@
         <v>19</v>
       </c>
       <c r="J49" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>07</v>
       </c>
       <c r="K49" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="L49" s="4" t="str">
@@ -6500,7 +5892,7 @@
         <v>0A</v>
       </c>
       <c r="O49" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P49" s="4" t="str">
@@ -6516,7 +5908,7 @@
         <v>0A</v>
       </c>
       <c r="S49" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>08</v>
       </c>
       <c r="T49" s="4" t="str">
@@ -6532,7 +5924,7 @@
         <v>0A</v>
       </c>
       <c r="W49" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0A</v>
       </c>
       <c r="X49" s="4" t="str">
@@ -6550,11 +5942,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
-      <c r="A50" s="30" t="s">
+    <row r="50" spans="1:27">
+      <c r="A50" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -6579,11 +5971,11 @@
         <v>11</v>
       </c>
       <c r="J50" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="K50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>03</v>
       </c>
       <c r="L50" s="4" t="str">
@@ -6599,7 +5991,7 @@
         <v>28</v>
       </c>
       <c r="O50" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="P50" s="4" t="str">
@@ -6615,7 +6007,7 @@
         <v>28</v>
       </c>
       <c r="S50" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="T50" s="4" t="str">
@@ -6631,7 +6023,7 @@
         <v>28</v>
       </c>
       <c r="W50" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="X50" s="4" t="str">
@@ -6643,11 +6035,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="30" t="s">
+    <row r="51" spans="1:27">
+      <c r="A51" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -6672,11 +6064,11 @@
         <v>11</v>
       </c>
       <c r="J51" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="K51" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="L51" s="4" t="str">
@@ -6692,7 +6084,7 @@
         <v>28</v>
       </c>
       <c r="O51" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P51" s="4" t="str">
@@ -6708,7 +6100,7 @@
         <v>28</v>
       </c>
       <c r="S51" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="T51" s="4" t="str">
@@ -6724,7 +6116,7 @@
         <v>28</v>
       </c>
       <c r="W51" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="X51" s="4" t="str">
@@ -6735,15 +6127,15 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="Z51" s="32" t="s">
+      <c r="Z51" s="30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="30" t="s">
+    <row r="52" spans="1:27">
+      <c r="A52" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="29" t="s">
         <v>100</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -6768,11 +6160,11 @@
         <v>11</v>
       </c>
       <c r="J52" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="K52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="L52" s="4" t="str">
@@ -6788,7 +6180,7 @@
         <v>32</v>
       </c>
       <c r="O52" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>05</v>
       </c>
       <c r="P52" s="4" t="str">
@@ -6804,7 +6196,7 @@
         <v>32</v>
       </c>
       <c r="S52" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0A</v>
       </c>
       <c r="T52" s="4" t="str">
@@ -6820,7 +6212,7 @@
         <v>32</v>
       </c>
       <c r="W52" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0C</v>
       </c>
       <c r="X52" s="4" t="str">
@@ -6831,15 +6223,15 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="Z52" s="32" t="s">
+      <c r="Z52" s="30" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:27">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -6864,11 +6256,11 @@
         <v>12</v>
       </c>
       <c r="J53" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0A</v>
       </c>
       <c r="K53" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="L53" s="4" t="str">
@@ -6884,7 +6276,7 @@
         <v>0F</v>
       </c>
       <c r="O53" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P53" s="4" t="str">
@@ -6900,7 +6292,7 @@
         <v>0F</v>
       </c>
       <c r="S53" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="T53" s="4" t="str">
@@ -6916,7 +6308,7 @@
         <v>0F</v>
       </c>
       <c r="W53" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="X53" s="4" t="str">
@@ -6935,10 +6327,10 @@
       </c>
     </row>
     <row r="54" spans="1:27">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -6963,11 +6355,11 @@
         <v>14</v>
       </c>
       <c r="J54" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="K54" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="L54" s="4" t="str">
@@ -6983,7 +6375,7 @@
         <v>19</v>
       </c>
       <c r="O54" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P54" s="4" t="str">
@@ -6999,7 +6391,7 @@
         <v>19</v>
       </c>
       <c r="S54" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>08</v>
       </c>
       <c r="T54" s="4" t="str">
@@ -7015,7 +6407,7 @@
         <v>19</v>
       </c>
       <c r="W54" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0A</v>
       </c>
       <c r="X54" s="4" t="str">
@@ -7034,10 +6426,10 @@
       </c>
     </row>
     <row r="55" spans="1:27">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -7062,11 +6454,11 @@
         <v>19</v>
       </c>
       <c r="J55" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0F</v>
       </c>
       <c r="K55" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="L55" s="4" t="str">
@@ -7082,7 +6474,7 @@
         <v>16</v>
       </c>
       <c r="O55" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P55" s="4" t="str">
@@ -7098,7 +6490,7 @@
         <v>16</v>
       </c>
       <c r="S55" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>09</v>
       </c>
       <c r="T55" s="4" t="str">
@@ -7114,7 +6506,7 @@
         <v>16</v>
       </c>
       <c r="W55" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0B</v>
       </c>
       <c r="X55" s="4" t="str">
@@ -7133,10 +6525,10 @@
       </c>
     </row>
     <row r="56" spans="1:27">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -7161,11 +6553,11 @@
         <v>14</v>
       </c>
       <c r="J56" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0F</v>
       </c>
       <c r="K56" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="L56" s="4" t="str">
@@ -7181,7 +6573,7 @@
         <v>16</v>
       </c>
       <c r="O56" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P56" s="4" t="str">
@@ -7197,7 +6589,7 @@
         <v>16</v>
       </c>
       <c r="S56" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="T56" s="4" t="str">
@@ -7213,7 +6605,7 @@
         <v>16</v>
       </c>
       <c r="W56" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="X56" s="4" t="str">
@@ -7231,11 +6623,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="30" t="s">
+    <row r="57" spans="1:27">
+      <c r="A57" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="7" t="s">
@@ -7260,11 +6652,11 @@
         <v>11</v>
       </c>
       <c r="J57" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="K57" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="L57" s="4" t="str">
@@ -7280,7 +6672,7 @@
         <v>28</v>
       </c>
       <c r="O57" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>05</v>
       </c>
       <c r="P57" s="4" t="str">
@@ -7296,7 +6688,7 @@
         <v>28</v>
       </c>
       <c r="S57" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>09</v>
       </c>
       <c r="T57" s="4" t="str">
@@ -7312,7 +6704,7 @@
         <v>28</v>
       </c>
       <c r="W57" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0B</v>
       </c>
       <c r="X57" s="4" t="str">
@@ -7323,15 +6715,15 @@
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="Z57" s="32" t="s">
+      <c r="Z57" s="30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
-      <c r="A58" s="30" t="s">
+    <row r="58" spans="1:27">
+      <c r="A58" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -7356,11 +6748,11 @@
         <v>11</v>
       </c>
       <c r="J58" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="K58" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="L58" s="4" t="str">
@@ -7376,7 +6768,7 @@
         <v>03</v>
       </c>
       <c r="O58" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P58" s="4" t="str">
@@ -7392,7 +6784,7 @@
         <v>03</v>
       </c>
       <c r="S58" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>08</v>
       </c>
       <c r="T58" s="4" t="str">
@@ -7408,7 +6800,7 @@
         <v>03</v>
       </c>
       <c r="W58" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0A</v>
       </c>
       <c r="X58" s="4" t="str">
@@ -7420,11 +6812,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
-      <c r="A59" s="30" t="s">
+    <row r="59" spans="1:27">
+      <c r="A59" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -7449,11 +6841,11 @@
         <v>19</v>
       </c>
       <c r="J59" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0D</v>
       </c>
       <c r="K59" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="L59" s="4" t="str">
@@ -7469,7 +6861,7 @@
         <v>14</v>
       </c>
       <c r="O59" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P59" s="4" t="str">
@@ -7485,7 +6877,7 @@
         <v>14</v>
       </c>
       <c r="S59" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="T59" s="4" t="str">
@@ -7501,7 +6893,7 @@
         <v>14</v>
       </c>
       <c r="W59" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="X59" s="4" t="str">
@@ -7513,11 +6905,11 @@
         <v>03</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
-      <c r="A60" s="30" t="s">
+    <row r="60" spans="1:27">
+      <c r="A60" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -7542,11 +6934,11 @@
         <v>11</v>
       </c>
       <c r="J60" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0D</v>
       </c>
       <c r="K60" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="L60" s="4" t="str">
@@ -7562,7 +6954,7 @@
         <v>14</v>
       </c>
       <c r="O60" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P60" s="4" t="str">
@@ -7578,7 +6970,7 @@
         <v>14</v>
       </c>
       <c r="S60" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="T60" s="4" t="str">
@@ -7594,7 +6986,7 @@
         <v>14</v>
       </c>
       <c r="W60" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="X60" s="4" t="str">
@@ -7607,10 +6999,10 @@
       </c>
     </row>
     <row r="61" spans="1:27">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -7635,11 +7027,11 @@
         <v>12</v>
       </c>
       <c r="J61" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0D</v>
       </c>
       <c r="K61" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="L61" s="4" t="str">
@@ -7655,7 +7047,7 @@
         <v>14</v>
       </c>
       <c r="O61" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P61" s="4" t="str">
@@ -7671,7 +7063,7 @@
         <v>14</v>
       </c>
       <c r="S61" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="T61" s="4" t="str">
@@ -7687,7 +7079,7 @@
         <v>14</v>
       </c>
       <c r="W61" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="X61" s="4" t="str">
@@ -7705,11 +7097,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
-      <c r="A62" s="30" t="s">
+    <row r="62" spans="1:27">
+      <c r="A62" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -7734,11 +7126,11 @@
         <v>11</v>
       </c>
       <c r="J62" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0B</v>
       </c>
       <c r="K62" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>03</v>
       </c>
       <c r="L62" s="4" t="str">
@@ -7754,7 +7146,7 @@
         <v>10</v>
       </c>
       <c r="O62" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="P62" s="4" t="str">
@@ -7770,7 +7162,7 @@
         <v>10</v>
       </c>
       <c r="S62" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="T62" s="4" t="str">
@@ -7786,7 +7178,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="X62" s="4" t="str">
@@ -7799,10 +7191,10 @@
       </c>
     </row>
     <row r="63" spans="1:27">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -7827,11 +7219,11 @@
         <v>14</v>
       </c>
       <c r="J63" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0B</v>
       </c>
       <c r="K63" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="L63" s="4" t="str">
@@ -7847,7 +7239,7 @@
         <v>10</v>
       </c>
       <c r="O63" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P63" s="4" t="str">
@@ -7863,7 +7255,7 @@
         <v>10</v>
       </c>
       <c r="S63" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>08</v>
       </c>
       <c r="T63" s="4" t="str">
@@ -7879,7 +7271,7 @@
         <v>10</v>
       </c>
       <c r="W63" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0A</v>
       </c>
       <c r="X63" s="4" t="str">
@@ -7898,10 +7290,10 @@
       </c>
     </row>
     <row r="64" spans="1:27">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -7926,11 +7318,11 @@
         <v>12</v>
       </c>
       <c r="J64" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0C</v>
       </c>
       <c r="K64" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="L64" s="4" t="str">
@@ -7946,7 +7338,7 @@
         <v>12</v>
       </c>
       <c r="O64" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P64" s="4" t="str">
@@ -7962,7 +7354,7 @@
         <v>12</v>
       </c>
       <c r="S64" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>09</v>
       </c>
       <c r="T64" s="4" t="str">
@@ -7978,7 +7370,7 @@
         <v>12</v>
       </c>
       <c r="W64" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0B</v>
       </c>
       <c r="X64" s="4" t="str">
@@ -7997,10 +7389,10 @@
       </c>
     </row>
     <row r="65" spans="1:27">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -8025,11 +7417,11 @@
         <v>12</v>
       </c>
       <c r="J65" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0C</v>
       </c>
       <c r="K65" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="L65" s="4" t="str">
@@ -8045,7 +7437,7 @@
         <v>12</v>
       </c>
       <c r="O65" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P65" s="4" t="str">
@@ -8061,7 +7453,7 @@
         <v>12</v>
       </c>
       <c r="S65" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>08</v>
       </c>
       <c r="T65" s="4" t="str">
@@ -8077,7 +7469,7 @@
         <v>12</v>
       </c>
       <c r="W65" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0A</v>
       </c>
       <c r="X65" s="4" t="str">
@@ -8096,10 +7488,10 @@
       </c>
     </row>
     <row r="66" spans="1:27">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -8124,11 +7516,11 @@
         <v>19</v>
       </c>
       <c r="J66" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0A</v>
       </c>
       <c r="K66" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="L66" s="4" t="str">
@@ -8144,7 +7536,7 @@
         <v>0F</v>
       </c>
       <c r="O66" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>05</v>
       </c>
       <c r="P66" s="4" t="str">
@@ -8160,7 +7552,7 @@
         <v>0F</v>
       </c>
       <c r="S66" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>09</v>
       </c>
       <c r="T66" s="4" t="str">
@@ -8176,7 +7568,7 @@
         <v>0F</v>
       </c>
       <c r="W66" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0B</v>
       </c>
       <c r="X66" s="4" t="str">
@@ -8194,11 +7586,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
-      <c r="A67" s="30" t="s">
+    <row r="67" spans="1:27">
+      <c r="A67" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -8223,7 +7615,7 @@
         <v>14</v>
       </c>
       <c r="J67" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>08</v>
       </c>
       <c r="K67" s="4" t="str">
@@ -8259,7 +7651,7 @@
         <v>0C</v>
       </c>
       <c r="S67" s="4" t="str">
-        <f t="shared" ref="S67:S88" si="18">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*6/15+1,0),2),2))</f>
+        <f t="shared" ref="S67:S87" si="18">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*6/15+1,0),2),2))</f>
         <v>05</v>
       </c>
       <c r="T67" s="4" t="str">
@@ -8275,7 +7667,7 @@
         <v>0C</v>
       </c>
       <c r="W67" s="4" t="str">
-        <f t="shared" ref="W67:W88" si="19">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*6/15+3,0),2),2))</f>
+        <f t="shared" ref="W67:W87" si="19">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*6/15+3,0),2),2))</f>
         <v>07</v>
       </c>
       <c r="X67" s="4" t="str">
@@ -8287,11 +7679,11 @@
         <v>02</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:27">
+      <c r="A68" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="7" t="s">
@@ -8381,10 +7773,10 @@
       </c>
     </row>
     <row r="69" spans="1:27">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -8480,10 +7872,10 @@
       </c>
     </row>
     <row r="70" spans="1:27">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -8579,10 +7971,10 @@
       </c>
     </row>
     <row r="71" spans="1:27">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="7" t="s">
@@ -8678,10 +8070,10 @@
       </c>
     </row>
     <row r="72" spans="1:27">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -8777,10 +8169,10 @@
       </c>
     </row>
     <row r="73" spans="1:27">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -8875,11 +8267,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
-      <c r="A74" s="30" t="s">
+    <row r="74" spans="1:27">
+      <c r="A74" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C74" s="7" t="s">
@@ -8968,11 +8360,11 @@
         <v>03</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
-      <c r="A75" s="30" t="s">
+    <row r="75" spans="1:27">
+      <c r="A75" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C75" s="7" t="s">
@@ -9062,10 +8454,10 @@
       </c>
     </row>
     <row r="76" spans="1:27">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -9160,11 +8552,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
-      <c r="A77" s="30" t="s">
+    <row r="77" spans="1:27">
+      <c r="A77" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -9256,11 +8648,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
-      <c r="A78" s="30" t="s">
+    <row r="78" spans="1:27">
+      <c r="A78" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="7" t="s">
@@ -9350,10 +8742,10 @@
       </c>
     </row>
     <row r="79" spans="1:27">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C79" s="7" t="s">
@@ -9449,10 +8841,10 @@
       </c>
     </row>
     <row r="80" spans="1:27">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="7" t="s">
@@ -9548,10 +8940,10 @@
       </c>
     </row>
     <row r="81" spans="1:27">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C81" s="7" t="s">
@@ -9647,10 +9039,10 @@
       </c>
     </row>
     <row r="82" spans="1:27">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -9745,11 +9137,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
-      <c r="A83" s="30" t="s">
+    <row r="83" spans="1:27">
+      <c r="A83" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C83" s="7" t="s">
@@ -9842,10 +9234,10 @@
       </c>
     </row>
     <row r="84" spans="1:27">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C84" s="7" t="s">
@@ -9940,11 +9332,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
-      <c r="A85" s="30" t="s">
+    <row r="85" spans="1:27">
+      <c r="A85" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C85" s="7" t="s">
@@ -10033,11 +9425,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
-      <c r="A86" s="30" t="s">
+    <row r="86" spans="1:27">
+      <c r="A86" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -10126,11 +9518,11 @@
         <v>01</v>
       </c>
     </row>
-    <row r="87" s="19" customFormat="1" spans="1:27">
-      <c r="A87" s="33" t="s">
+    <row r="87" spans="1:27" s="19" customFormat="1">
+      <c r="A87" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C87" s="7" t="s">
@@ -10142,51 +9534,51 @@
       <c r="E87" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F87" s="34" t="s">
+      <c r="F87" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G87" s="35" t="s">
+      <c r="G87" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="H87" s="35" t="s">
+      <c r="H87" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I87" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J87" s="34" t="str">
+      <c r="I87" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="32" t="str">
         <f t="shared" si="20"/>
         <v>0D</v>
       </c>
-      <c r="K87" s="35" t="str">
+      <c r="K87" s="33" t="str">
         <f t="shared" si="16"/>
         <v>08</v>
       </c>
-      <c r="L87" s="35" t="str">
+      <c r="L87" s="33" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M87" s="35" t="str">
+      <c r="M87" s="33" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N87" s="34" t="str">
+      <c r="N87" s="32" t="str">
         <f t="shared" si="23"/>
         <v>14</v>
       </c>
-      <c r="O87" s="35" t="str">
+      <c r="O87" s="33" t="str">
         <f t="shared" si="17"/>
         <v>08</v>
       </c>
-      <c r="P87" s="35" t="str">
+      <c r="P87" s="33" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q87" s="35" t="str">
+      <c r="Q87" s="33" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R87" s="34" t="str">
+      <c r="R87" s="32" t="str">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
@@ -10194,15 +9586,15 @@
         <f t="shared" si="18"/>
         <v>0F</v>
       </c>
-      <c r="T87" s="35" t="str">
+      <c r="T87" s="33" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U87" s="35" t="str">
+      <c r="U87" s="33" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V87" s="34" t="str">
+      <c r="V87" s="32" t="str">
         <f t="shared" si="29"/>
         <v>14</v>
       </c>
@@ -10210,26 +9602,26 @@
         <f t="shared" si="19"/>
         <v>11</v>
       </c>
-      <c r="X87" s="35" t="str">
+      <c r="X87" s="33" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y87" s="35" t="str">
+      <c r="Y87" s="33" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z87" s="37" t="s">
+      <c r="Z87" s="35" t="s">
         <v>159</v>
       </c>
       <c r="AA87" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="88" s="19" customFormat="1" spans="1:27">
-      <c r="A88" s="33" t="s">
+    <row r="88" spans="1:27" s="19" customFormat="1">
+      <c r="A88" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -10241,51 +9633,51 @@
       <c r="E88" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="34" t="s">
+      <c r="F88" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G88" s="35" t="s">
+      <c r="G88" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H88" s="35" t="s">
+      <c r="H88" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I88" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J88" s="34" t="str">
+      <c r="I88" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" s="32" t="str">
         <f t="shared" si="20"/>
         <v>28</v>
       </c>
-      <c r="K88" s="35" t="str">
+      <c r="K88" s="33" t="str">
         <f t="shared" si="16"/>
         <v>08</v>
       </c>
-      <c r="L88" s="35" t="str">
+      <c r="L88" s="33" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M88" s="35" t="str">
+      <c r="M88" s="33" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N88" s="34" t="str">
+      <c r="N88" s="32" t="str">
         <f t="shared" si="23"/>
         <v>28</v>
       </c>
-      <c r="O88" s="35" t="str">
+      <c r="O88" s="33" t="str">
         <f t="shared" si="17"/>
         <v>08</v>
       </c>
-      <c r="P88" s="35" t="str">
+      <c r="P88" s="33" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q88" s="35" t="str">
+      <c r="Q88" s="33" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R88" s="34" t="str">
+      <c r="R88" s="32" t="str">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
@@ -10293,15 +9685,15 @@
         <f>IF($G88="00",$G88,DEC2HEX(MAX(ROUND(HEX2DEC($G88)*3/13+1,0),2),2))</f>
         <v>09</v>
       </c>
-      <c r="T88" s="35" t="str">
+      <c r="T88" s="33" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U88" s="35" t="str">
+      <c r="U88" s="33" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V88" s="34" t="str">
+      <c r="V88" s="32" t="str">
         <f t="shared" si="29"/>
         <v>28</v>
       </c>
@@ -10309,11 +9701,11 @@
         <f>IF($G88="00",$G88,DEC2HEX(MAX(ROUND(HEX2DEC($G88)*3/13+2,0),2),2))</f>
         <v>0A</v>
       </c>
-      <c r="X88" s="35" t="str">
+      <c r="X88" s="33" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y88" s="35" t="str">
+      <c r="Y88" s="33" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -10324,11 +9716,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" s="19" customFormat="1" spans="1:27">
-      <c r="A89" s="33" t="s">
+    <row r="89" spans="1:27" s="19" customFormat="1">
+      <c r="A89" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -10340,51 +9732,51 @@
       <c r="E89" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="34" t="s">
+      <c r="F89" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G89" s="35" t="s">
+      <c r="G89" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H89" s="35" t="s">
+      <c r="H89" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I89" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J89" s="34" t="str">
+      <c r="I89" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" s="32" t="str">
         <f t="shared" si="20"/>
         <v>07</v>
       </c>
-      <c r="K89" s="35" t="str">
+      <c r="K89" s="33" t="str">
         <f t="shared" si="16"/>
         <v>09</v>
       </c>
-      <c r="L89" s="35" t="str">
+      <c r="L89" s="33" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M89" s="35" t="str">
+      <c r="M89" s="33" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N89" s="34" t="str">
+      <c r="N89" s="32" t="str">
         <f t="shared" si="23"/>
         <v>0A</v>
       </c>
-      <c r="O89" s="35" t="str">
+      <c r="O89" s="33" t="str">
         <f t="shared" si="17"/>
         <v>09</v>
       </c>
-      <c r="P89" s="35" t="str">
+      <c r="P89" s="33" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q89" s="35" t="str">
+      <c r="Q89" s="33" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R89" s="34" t="str">
+      <c r="R89" s="32" t="str">
         <f t="shared" si="26"/>
         <v>0A</v>
       </c>
@@ -10392,15 +9784,15 @@
         <f t="shared" ref="S89:S91" si="32">IF($G89="00",$G89,DEC2HEX(MAX(ROUND(HEX2DEC($G89)*6/15+1,0),2),2))</f>
         <v>10</v>
       </c>
-      <c r="T89" s="35" t="str">
+      <c r="T89" s="33" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U89" s="35" t="str">
+      <c r="U89" s="33" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V89" s="34" t="str">
+      <c r="V89" s="32" t="str">
         <f t="shared" si="29"/>
         <v>0A</v>
       </c>
@@ -10408,26 +9800,26 @@
         <f t="shared" ref="W89:W91" si="33">IF($G89="00",$G89,DEC2HEX(MAX(ROUND(HEX2DEC($G89)*6/15+3,0),2),2))</f>
         <v>12</v>
       </c>
-      <c r="X89" s="35" t="str">
+      <c r="X89" s="33" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y89" s="35" t="str">
+      <c r="Y89" s="33" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z89" s="37" t="s">
+      <c r="Z89" s="35" t="s">
         <v>164</v>
       </c>
       <c r="AA89" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="90" s="19" customFormat="1" spans="1:27">
-      <c r="A90" s="33" t="s">
+    <row r="90" spans="1:27" s="19" customFormat="1">
+      <c r="A90" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -10439,51 +9831,51 @@
       <c r="E90" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="34" t="s">
+      <c r="F90" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G90" s="35" t="s">
+      <c r="G90" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H90" s="35" t="s">
+      <c r="H90" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I90" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J90" s="34" t="str">
+      <c r="I90" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="32" t="str">
         <f t="shared" si="20"/>
         <v>01</v>
       </c>
-      <c r="K90" s="35" t="str">
+      <c r="K90" s="33" t="str">
         <f t="shared" si="16"/>
         <v>08</v>
       </c>
-      <c r="L90" s="35" t="str">
+      <c r="L90" s="33" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M90" s="35" t="str">
+      <c r="M90" s="33" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N90" s="34" t="str">
+      <c r="N90" s="32" t="str">
         <f t="shared" si="23"/>
         <v>01</v>
       </c>
-      <c r="O90" s="35" t="str">
+      <c r="O90" s="33" t="str">
         <f t="shared" si="17"/>
         <v>08</v>
       </c>
-      <c r="P90" s="35" t="str">
+      <c r="P90" s="33" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q90" s="35" t="str">
+      <c r="Q90" s="33" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R90" s="34" t="str">
+      <c r="R90" s="32" t="str">
         <f t="shared" si="26"/>
         <v>01</v>
       </c>
@@ -10491,15 +9883,15 @@
         <f t="shared" si="32"/>
         <v>0F</v>
       </c>
-      <c r="T90" s="35" t="str">
+      <c r="T90" s="33" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U90" s="35" t="str">
+      <c r="U90" s="33" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V90" s="34" t="str">
+      <c r="V90" s="32" t="str">
         <f t="shared" si="29"/>
         <v>01</v>
       </c>
@@ -10507,26 +9899,26 @@
         <f t="shared" si="33"/>
         <v>11</v>
       </c>
-      <c r="X90" s="35" t="str">
+      <c r="X90" s="33" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y90" s="35" t="str">
+      <c r="Y90" s="33" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z90" s="37" t="s">
+      <c r="Z90" s="35" t="s">
         <v>166</v>
       </c>
       <c r="AA90" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" s="19" customFormat="1" spans="1:27">
-      <c r="A91" s="33" t="s">
+    <row r="91" spans="1:27" s="19" customFormat="1">
+      <c r="A91" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -10538,51 +9930,51 @@
       <c r="E91" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="34" t="s">
+      <c r="F91" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G91" s="35" t="s">
+      <c r="G91" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="H91" s="35" t="s">
+      <c r="H91" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I91" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J91" s="34" t="str">
+      <c r="I91" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="32" t="str">
         <f t="shared" si="20"/>
         <v>0D</v>
       </c>
-      <c r="K91" s="35" t="str">
+      <c r="K91" s="33" t="str">
         <f t="shared" si="16"/>
         <v>0A</v>
       </c>
-      <c r="L91" s="35" t="str">
+      <c r="L91" s="33" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M91" s="35" t="str">
+      <c r="M91" s="33" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N91" s="34" t="str">
+      <c r="N91" s="32" t="str">
         <f t="shared" si="23"/>
         <v>14</v>
       </c>
-      <c r="O91" s="35" t="str">
+      <c r="O91" s="33" t="str">
         <f t="shared" si="17"/>
         <v>0A</v>
       </c>
-      <c r="P91" s="35" t="str">
+      <c r="P91" s="33" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q91" s="35" t="str">
+      <c r="Q91" s="33" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R91" s="34" t="str">
+      <c r="R91" s="32" t="str">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
@@ -10590,15 +9982,15 @@
         <f t="shared" si="32"/>
         <v>12</v>
       </c>
-      <c r="T91" s="35" t="str">
+      <c r="T91" s="33" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U91" s="35" t="str">
+      <c r="U91" s="33" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V91" s="34" t="str">
+      <c r="V91" s="32" t="str">
         <f t="shared" si="29"/>
         <v>14</v>
       </c>
@@ -10606,26 +9998,26 @@
         <f t="shared" si="33"/>
         <v>14</v>
       </c>
-      <c r="X91" s="35" t="str">
+      <c r="X91" s="33" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y91" s="35" t="str">
+      <c r="Y91" s="33" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z91" s="37" t="s">
+      <c r="Z91" s="35" t="s">
         <v>168</v>
       </c>
       <c r="AA91" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
-      <c r="A92" s="30" t="s">
+    <row r="92" spans="1:27">
+      <c r="A92" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -10714,11 +10106,11 @@
         <v>02</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
-      <c r="A93" s="30" t="s">
+    <row r="93" spans="1:27">
+      <c r="A93" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -10807,11 +10199,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
-      <c r="A94" s="30" t="s">
+    <row r="94" spans="1:27">
+      <c r="A94" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C94" s="7" t="s">
@@ -10900,11 +10292,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
-      <c r="A95" s="30" t="s">
+    <row r="95" spans="1:27">
+      <c r="A95" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -10993,11 +10385,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
-      <c r="A96" s="30" t="s">
+    <row r="96" spans="1:27">
+      <c r="A96" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C96" s="7" t="s">
@@ -11086,11 +10478,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
-      <c r="A97" s="30" t="s">
+    <row r="97" spans="1:27">
+      <c r="A97" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C97" s="7" t="s">
@@ -11179,11 +10571,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
-      <c r="A98" s="30" t="s">
+    <row r="98" spans="1:27">
+      <c r="A98" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C98" s="7" t="s">
@@ -11272,11 +10664,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
-      <c r="A99" s="30" t="s">
+    <row r="99" spans="1:27">
+      <c r="A99" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C99" s="7" t="s">
@@ -11366,10 +10758,10 @@
       </c>
     </row>
     <row r="100" spans="1:27">
-      <c r="A100" s="30" t="s">
+      <c r="A100" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -11465,10 +10857,10 @@
       </c>
     </row>
     <row r="101" spans="1:27">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C101" s="7" t="s">
@@ -11564,10 +10956,10 @@
       </c>
     </row>
     <row r="102" spans="1:27">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -11662,11 +11054,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
-      <c r="A103" s="30" t="s">
+    <row r="103" spans="1:27">
+      <c r="A103" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C103" s="7" t="s">
@@ -11755,11 +11147,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="104" s="19" customFormat="1" spans="1:27">
-      <c r="A104" s="33" t="s">
+    <row r="104" spans="1:27" s="19" customFormat="1">
+      <c r="A104" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -11771,51 +11163,51 @@
       <c r="E104" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F104" s="34" t="s">
+      <c r="F104" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G104" s="35" t="s">
+      <c r="G104" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="H104" s="35" t="s">
+      <c r="H104" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I104" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J104" s="34" t="str">
+      <c r="I104" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J104" s="32" t="str">
         <f t="shared" si="20"/>
         <v>01</v>
       </c>
-      <c r="K104" s="35" t="str">
+      <c r="K104" s="33" t="str">
         <f t="shared" si="16"/>
         <v>07</v>
       </c>
-      <c r="L104" s="35" t="str">
+      <c r="L104" s="33" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M104" s="35" t="str">
+      <c r="M104" s="33" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N104" s="34" t="str">
+      <c r="N104" s="32" t="str">
         <f t="shared" si="23"/>
         <v>01</v>
       </c>
-      <c r="O104" s="35" t="str">
+      <c r="O104" s="33" t="str">
         <f t="shared" si="17"/>
         <v>07</v>
       </c>
-      <c r="P104" s="35" t="str">
+      <c r="P104" s="33" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q104" s="35" t="str">
+      <c r="Q104" s="33" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R104" s="34" t="str">
+      <c r="R104" s="32" t="str">
         <f t="shared" si="26"/>
         <v>01</v>
       </c>
@@ -11823,15 +11215,15 @@
         <f t="shared" ref="S104:S107" si="36">IF($G104="00",$G104,DEC2HEX(MAX(ROUND(HEX2DEC($G104)*3/13+1,0),2),2))</f>
         <v>08</v>
       </c>
-      <c r="T104" s="35" t="str">
+      <c r="T104" s="33" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U104" s="35" t="str">
+      <c r="U104" s="33" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V104" s="34" t="str">
+      <c r="V104" s="32" t="str">
         <f t="shared" si="29"/>
         <v>01</v>
       </c>
@@ -11839,26 +11231,26 @@
         <f t="shared" ref="W104:W107" si="37">IF($G104="00",$G104,DEC2HEX(MAX(ROUND(HEX2DEC($G104)*3/13+2,0),2),2))</f>
         <v>09</v>
       </c>
-      <c r="X104" s="35" t="str">
+      <c r="X104" s="33" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y104" s="35" t="str">
+      <c r="Y104" s="33" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z104" s="37" t="s">
+      <c r="Z104" s="35" t="s">
         <v>183</v>
       </c>
       <c r="AA104" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105" s="19" customFormat="1" spans="1:27">
-      <c r="A105" s="33" t="s">
+    <row r="105" spans="1:27" s="19" customFormat="1">
+      <c r="A105" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B105" s="31" t="s">
+      <c r="B105" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="7" t="s">
@@ -11870,51 +11262,51 @@
       <c r="E105" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F105" s="34" t="s">
+      <c r="F105" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G105" s="35" t="s">
+      <c r="G105" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H105" s="35" t="s">
+      <c r="H105" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I105" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J105" s="34" t="str">
+      <c r="I105" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J105" s="32" t="str">
         <f t="shared" si="20"/>
         <v>07</v>
       </c>
-      <c r="K105" s="35" t="str">
+      <c r="K105" s="33" t="str">
         <f t="shared" si="16"/>
         <v>09</v>
       </c>
-      <c r="L105" s="35" t="str">
+      <c r="L105" s="33" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M105" s="35" t="str">
+      <c r="M105" s="33" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N105" s="34" t="str">
+      <c r="N105" s="32" t="str">
         <f t="shared" si="23"/>
         <v>0A</v>
       </c>
-      <c r="O105" s="35" t="str">
+      <c r="O105" s="33" t="str">
         <f t="shared" si="17"/>
         <v>09</v>
       </c>
-      <c r="P105" s="35" t="str">
+      <c r="P105" s="33" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q105" s="35" t="str">
+      <c r="Q105" s="33" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R105" s="34" t="str">
+      <c r="R105" s="32" t="str">
         <f t="shared" si="26"/>
         <v>0A</v>
       </c>
@@ -11922,15 +11314,15 @@
         <f t="shared" si="36"/>
         <v>0A</v>
       </c>
-      <c r="T105" s="35" t="str">
+      <c r="T105" s="33" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U105" s="35" t="str">
+      <c r="U105" s="33" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V105" s="34" t="str">
+      <c r="V105" s="32" t="str">
         <f t="shared" si="29"/>
         <v>0A</v>
       </c>
@@ -11938,26 +11330,26 @@
         <f t="shared" si="37"/>
         <v>0B</v>
       </c>
-      <c r="X105" s="35" t="str">
+      <c r="X105" s="33" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y105" s="35" t="str">
+      <c r="Y105" s="33" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z105" s="37" t="s">
+      <c r="Z105" s="35" t="s">
         <v>185</v>
       </c>
       <c r="AA105" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="106" s="19" customFormat="1" spans="1:27">
-      <c r="A106" s="33" t="s">
+    <row r="106" spans="1:27" s="19" customFormat="1">
+      <c r="A106" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -11969,51 +11361,51 @@
       <c r="E106" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="34">
+      <c r="F106" s="32">
         <v>14</v>
       </c>
-      <c r="G106" s="35" t="s">
+      <c r="G106" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H106" s="36" t="s">
+      <c r="H106" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I106" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J106" s="34" t="str">
+      <c r="I106" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J106" s="32" t="str">
         <f t="shared" si="20"/>
         <v>0D</v>
       </c>
-      <c r="K106" s="35" t="str">
+      <c r="K106" s="33" t="str">
         <f t="shared" si="16"/>
         <v>08</v>
       </c>
-      <c r="L106" s="35" t="str">
+      <c r="L106" s="33" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M106" s="35" t="str">
+      <c r="M106" s="33" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N106" s="34">
+      <c r="N106" s="32">
         <f t="shared" si="23"/>
         <v>14</v>
       </c>
-      <c r="O106" s="35" t="str">
+      <c r="O106" s="33" t="str">
         <f t="shared" si="17"/>
         <v>08</v>
       </c>
-      <c r="P106" s="35" t="str">
+      <c r="P106" s="33" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q106" s="35" t="str">
+      <c r="Q106" s="33" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R106" s="34">
+      <c r="R106" s="32">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
@@ -12021,15 +11413,15 @@
         <f t="shared" si="36"/>
         <v>09</v>
       </c>
-      <c r="T106" s="35" t="str">
+      <c r="T106" s="33" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U106" s="35" t="str">
+      <c r="U106" s="33" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V106" s="34">
+      <c r="V106" s="32">
         <f t="shared" si="29"/>
         <v>14</v>
       </c>
@@ -12037,26 +11429,26 @@
         <f t="shared" si="37"/>
         <v>0A</v>
       </c>
-      <c r="X106" s="35" t="str">
+      <c r="X106" s="33" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y106" s="35" t="str">
+      <c r="Y106" s="33" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z106" s="37" t="s">
+      <c r="Z106" s="35" t="s">
         <v>187</v>
       </c>
       <c r="AA106" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107" s="19" customFormat="1" spans="1:27">
-      <c r="A107" s="33" t="s">
+    <row r="107" spans="1:27" s="19" customFormat="1">
+      <c r="A107" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="7" t="s">
@@ -12068,51 +11460,51 @@
       <c r="E107" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="34" t="s">
+      <c r="F107" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G107" s="35" t="s">
+      <c r="G107" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="H107" s="35" t="s">
+      <c r="H107" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I107" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J107" s="34" t="str">
+      <c r="I107" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107" s="32" t="str">
         <f t="shared" si="20"/>
         <v>28</v>
       </c>
-      <c r="K107" s="35" t="str">
+      <c r="K107" s="33" t="str">
         <f t="shared" si="16"/>
         <v>07</v>
       </c>
-      <c r="L107" s="35" t="str">
+      <c r="L107" s="33" t="str">
         <f t="shared" si="21"/>
         <v>7F</v>
       </c>
-      <c r="M107" s="35" t="str">
+      <c r="M107" s="33" t="str">
         <f t="shared" si="22"/>
         <v>00</v>
       </c>
-      <c r="N107" s="34" t="str">
+      <c r="N107" s="32" t="str">
         <f t="shared" si="23"/>
         <v>28</v>
       </c>
-      <c r="O107" s="35" t="str">
+      <c r="O107" s="33" t="str">
         <f t="shared" si="17"/>
         <v>07</v>
       </c>
-      <c r="P107" s="35" t="str">
+      <c r="P107" s="33" t="str">
         <f t="shared" si="24"/>
         <v>7F</v>
       </c>
-      <c r="Q107" s="35" t="str">
+      <c r="Q107" s="33" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R107" s="34" t="str">
+      <c r="R107" s="32" t="str">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
@@ -12120,15 +11512,15 @@
         <f t="shared" si="36"/>
         <v>08</v>
       </c>
-      <c r="T107" s="35" t="str">
+      <c r="T107" s="33" t="str">
         <f t="shared" si="27"/>
         <v>7F</v>
       </c>
-      <c r="U107" s="35" t="str">
+      <c r="U107" s="33" t="str">
         <f t="shared" si="28"/>
         <v>00</v>
       </c>
-      <c r="V107" s="34" t="str">
+      <c r="V107" s="32" t="str">
         <f t="shared" si="29"/>
         <v>28</v>
       </c>
@@ -12136,26 +11528,26 @@
         <f t="shared" si="37"/>
         <v>09</v>
       </c>
-      <c r="X107" s="35" t="str">
+      <c r="X107" s="33" t="str">
         <f t="shared" si="30"/>
         <v>7F</v>
       </c>
-      <c r="Y107" s="35" t="str">
+      <c r="Y107" s="33" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="Z107" s="37" t="s">
+      <c r="Z107" s="35" t="s">
         <v>189</v>
       </c>
       <c r="AA107" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
-      <c r="A108" s="30" t="s">
+    <row r="108" spans="1:27">
+      <c r="A108" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C108" s="7" t="s">
@@ -12244,11 +11636,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
-      <c r="A109" s="30" t="s">
+    <row r="109" spans="1:27">
+      <c r="A109" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B109" s="31" t="s">
+      <c r="B109" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -12337,11 +11729,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
-      <c r="A110" s="30" t="s">
+    <row r="110" spans="1:27">
+      <c r="A110" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="7" t="s">
@@ -12430,11 +11822,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
-      <c r="A111" s="30" t="s">
+    <row r="111" spans="1:27">
+      <c r="A111" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C111" s="7" t="s">
@@ -12523,11 +11915,11 @@
         <v>00</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
-      <c r="A112" s="30" t="s">
+    <row r="112" spans="1:27">
+      <c r="A112" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C112" s="7" t="s">
@@ -12618,58 +12010,55 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="V1:Y1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD112"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="U2" sqref="U2:V100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="4"/>
-    <col min="2" max="2" width="9.14285714285714" style="5"/>
-    <col min="3" max="3" width="9.14285714285714" style="6"/>
-    <col min="4" max="4" width="9.14285714285714" style="7"/>
-    <col min="5" max="5" width="9.14285714285714" style="4"/>
-    <col min="6" max="6" width="22.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="19.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="9.85714285714286" customWidth="1"/>
-    <col min="9" max="9" width="14.4285714285714" customWidth="1"/>
-    <col min="10" max="11" width="9.14285714285714" style="4"/>
-    <col min="12" max="12" width="9.14285714285714" style="7"/>
-    <col min="13" max="13" width="9.14285714285714" style="4"/>
-    <col min="14" max="14" width="22.5714285714286" customWidth="1"/>
-    <col min="15" max="15" width="19.5714285714286" customWidth="1"/>
-    <col min="16" max="16" width="9.14285714285714" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="9.140625" style="7"/>
+    <col min="13" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="22.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="4"/>
     <col min="17" max="18" width="9" style="4"/>
     <col min="19" max="19" width="9" style="7"/>
     <col min="20" max="20" width="9" style="4"/>
-    <col min="21" max="21" width="22.5714285714286" customWidth="1"/>
-    <col min="22" max="22" width="19.5714285714286" customWidth="1"/>
-    <col min="23" max="24" width="9.14285714285714" style="4"/>
-    <col min="26" max="26" width="19.5714285714286" style="1" customWidth="1"/>
-    <col min="27" max="28" width="9.14285714285714" style="8"/>
+    <col min="21" max="21" width="22.5703125" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="4"/>
+    <col min="26" max="26" width="19.5703125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:28">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -12725,14 +12114,14 @@
       </c>
       <c r="V1" s="13"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:28">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>199</v>
       </c>
       <c r="D2" s="7">
@@ -12750,7 +12139,7 @@
       <c r="J2" s="4">
         <v>18</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="38" t="s">
         <v>47</v>
       </c>
       <c r="L2" s="7">
@@ -12762,7 +12151,7 @@
       <c r="Q2" s="4">
         <v>1</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="38" t="s">
         <v>199</v>
       </c>
       <c r="S2" s="7">
@@ -12778,14 +12167,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:28">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>200</v>
       </c>
       <c r="D3" s="7">
@@ -12803,7 +12192,7 @@
       <c r="J3" s="4">
         <v>19</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="38" t="s">
         <v>48</v>
       </c>
       <c r="L3" s="7">
@@ -12815,7 +12204,7 @@
       <c r="Q3" s="4">
         <v>2</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="38" t="s">
         <v>200</v>
       </c>
       <c r="S3" s="7">
@@ -12831,14 +12220,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:28">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>201</v>
       </c>
       <c r="D4" s="7">
@@ -12856,7 +12245,7 @@
       <c r="J4" s="4">
         <v>21</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="38" t="s">
         <v>52</v>
       </c>
       <c r="L4" s="7">
@@ -12868,7 +12257,7 @@
       <c r="Q4" s="4">
         <v>3</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="38" t="s">
         <v>201</v>
       </c>
       <c r="S4" s="7">
@@ -12884,14 +12273,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:28">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="7">
@@ -12909,7 +12298,7 @@
       <c r="J5" s="4">
         <v>22</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="38" t="s">
         <v>53</v>
       </c>
       <c r="L5" s="7">
@@ -12921,7 +12310,7 @@
       <c r="Q5" s="4">
         <v>4</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="38" t="s">
         <v>202</v>
       </c>
       <c r="S5" s="7">
@@ -12937,14 +12326,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:28">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="37" t="s">
         <v>203</v>
       </c>
       <c r="D6" s="7">
@@ -12962,7 +12351,7 @@
       <c r="J6" s="4">
         <v>23</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="38" t="s">
         <v>54</v>
       </c>
       <c r="L6" s="7">
@@ -12974,7 +12363,7 @@
       <c r="Q6" s="4">
         <v>5</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="38" t="s">
         <v>203</v>
       </c>
       <c r="S6" s="7">
@@ -12990,14 +12379,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:28">
+    <row r="7" spans="1:28" s="1" customFormat="1">
       <c r="A7" s="4">
         <v>10</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="37" t="s">
         <v>204</v>
       </c>
       <c r="D7" s="7">
@@ -13015,7 +12404,7 @@
       <c r="J7" s="8">
         <v>35</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="39" t="s">
         <v>76</v>
       </c>
       <c r="L7" s="7">
@@ -13028,10 +12417,10 @@
       <c r="Q7" s="7">
         <v>6</v>
       </c>
-      <c r="R7" s="42" t="s">
+      <c r="R7" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="S7" s="42" t="s">
+      <c r="S7" s="40" t="s">
         <v>206</v>
       </c>
       <c r="T7" s="7">
@@ -13044,14 +12433,14 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:28">
       <c r="A8" s="4">
         <v>11</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="37" t="s">
         <v>207</v>
       </c>
       <c r="D8" s="7">
@@ -13069,7 +12458,7 @@
       <c r="J8" s="4">
         <v>36</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="38" t="s">
         <v>77</v>
       </c>
       <c r="L8" s="7">
@@ -13081,7 +12470,7 @@
       <c r="Q8" s="4">
         <v>7</v>
       </c>
-      <c r="R8" s="40" t="s">
+      <c r="R8" s="38" t="s">
         <v>208</v>
       </c>
       <c r="S8" s="7">
@@ -13091,14 +12480,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:28">
       <c r="A9" s="4">
         <v>12</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="37" t="s">
         <v>209</v>
       </c>
       <c r="D9" s="7">
@@ -13116,7 +12505,7 @@
       <c r="J9" s="4">
         <v>37</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="38" t="s">
         <v>78</v>
       </c>
       <c r="L9" s="7">
@@ -13128,7 +12517,7 @@
       <c r="Q9" s="4">
         <v>8</v>
       </c>
-      <c r="R9" s="40" t="s">
+      <c r="R9" s="38" t="s">
         <v>210</v>
       </c>
       <c r="S9" s="7">
@@ -13138,14 +12527,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:28">
       <c r="A10" s="4">
         <v>13</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="37" t="s">
         <v>211</v>
       </c>
       <c r="D10" s="7">
@@ -13163,7 +12552,7 @@
       <c r="J10" s="4">
         <v>38</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="38" t="s">
         <v>79</v>
       </c>
       <c r="L10" s="7">
@@ -13175,7 +12564,7 @@
       <c r="Q10" s="4">
         <v>9</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="38" t="s">
         <v>212</v>
       </c>
       <c r="S10" s="7">
@@ -13185,14 +12574,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:28">
       <c r="A11" s="4">
         <v>14</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>213</v>
       </c>
       <c r="D11" s="7">
@@ -13210,7 +12599,7 @@
       <c r="J11" s="4">
         <v>101</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="38" t="s">
         <v>182</v>
       </c>
       <c r="L11" s="7">
@@ -13222,7 +12611,7 @@
       <c r="Q11" s="4">
         <v>10</v>
       </c>
-      <c r="R11" s="40" t="s">
+      <c r="R11" s="38" t="s">
         <v>204</v>
       </c>
       <c r="S11" s="7">
@@ -13238,14 +12627,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:28">
       <c r="A12" s="4">
         <v>15</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="37" t="s">
         <v>214</v>
       </c>
       <c r="D12" s="7">
@@ -13263,7 +12652,7 @@
       <c r="J12" s="4">
         <v>102</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="38" t="s">
         <v>184</v>
       </c>
       <c r="L12" s="7">
@@ -13275,7 +12664,7 @@
       <c r="Q12" s="4">
         <v>11</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R12" s="38" t="s">
         <v>207</v>
       </c>
       <c r="S12" s="7">
@@ -13291,14 +12680,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:28">
       <c r="A13" s="4">
         <v>16</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="37" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="7">
@@ -13316,7 +12705,7 @@
       <c r="J13" s="4">
         <v>103</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="K13" s="38" t="s">
         <v>186</v>
       </c>
       <c r="L13" s="7">
@@ -13328,7 +12717,7 @@
       <c r="Q13" s="4">
         <v>12</v>
       </c>
-      <c r="R13" s="40" t="s">
+      <c r="R13" s="38" t="s">
         <v>209</v>
       </c>
       <c r="S13" s="7">
@@ -13344,14 +12733,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:28">
       <c r="A14" s="4">
         <v>24</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="37" t="s">
         <v>213</v>
       </c>
       <c r="D14" s="7">
@@ -13369,7 +12758,7 @@
       <c r="J14" s="4">
         <v>104</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="38" t="s">
         <v>188</v>
       </c>
       <c r="L14" s="7">
@@ -13381,7 +12770,7 @@
       <c r="Q14" s="4">
         <v>13</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="38" t="s">
         <v>211</v>
       </c>
       <c r="S14" s="7">
@@ -13397,14 +12786,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:28">
       <c r="A15" s="4">
         <v>25</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="37" t="s">
         <v>207</v>
       </c>
       <c r="D15" s="7">
@@ -13422,7 +12811,7 @@
       <c r="J15" s="4">
         <v>106</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="38" t="s">
         <v>191</v>
       </c>
       <c r="L15" s="7">
@@ -13434,7 +12823,7 @@
       <c r="Q15" s="4">
         <v>14</v>
       </c>
-      <c r="R15" s="40" t="s">
+      <c r="R15" s="38" t="s">
         <v>213</v>
       </c>
       <c r="S15" s="7">
@@ -13450,14 +12839,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:28">
       <c r="A16" s="4">
         <v>26</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="37" t="s">
         <v>213</v>
       </c>
       <c r="D16" s="7">
@@ -13475,7 +12864,7 @@
       <c r="J16" s="4">
         <v>107</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="38" t="s">
         <v>192</v>
       </c>
       <c r="L16" s="7">
@@ -13487,7 +12876,7 @@
       <c r="Q16" s="4">
         <v>15</v>
       </c>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="38" t="s">
         <v>214</v>
       </c>
       <c r="S16" s="7">
@@ -13503,14 +12892,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:30">
       <c r="A17" s="4">
         <v>27</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="37" t="s">
         <v>211</v>
       </c>
       <c r="D17" s="7">
@@ -13528,7 +12917,7 @@
       <c r="J17" s="4">
         <v>108</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="38" t="s">
         <v>193</v>
       </c>
       <c r="L17" s="7">
@@ -13540,7 +12929,7 @@
       <c r="Q17" s="4">
         <v>16</v>
       </c>
-      <c r="R17" s="40" t="s">
+      <c r="R17" s="38" t="s">
         <v>44</v>
       </c>
       <c r="S17" s="7">
@@ -13556,14 +12945,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:30">
       <c r="A18" s="4">
         <v>28</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="7">
@@ -13581,7 +12970,7 @@
       <c r="J18" s="4">
         <v>109</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="38" t="s">
         <v>194</v>
       </c>
       <c r="L18" s="7">
@@ -13593,7 +12982,7 @@
       <c r="Q18" s="4">
         <v>17</v>
       </c>
-      <c r="R18" s="40" t="s">
+      <c r="R18" s="38" t="s">
         <v>46</v>
       </c>
       <c r="S18" s="7">
@@ -13603,14 +12992,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:30">
       <c r="A19" s="4">
         <v>29</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="37" t="s">
         <v>211</v>
       </c>
       <c r="D19" s="7">
@@ -13628,7 +13017,7 @@
       <c r="J19" s="4">
         <v>5</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="38" t="s">
         <v>203</v>
       </c>
       <c r="L19" s="7">
@@ -13646,7 +13035,7 @@
       <c r="Q19" s="4">
         <v>18</v>
       </c>
-      <c r="R19" s="40" t="s">
+      <c r="R19" s="38" t="s">
         <v>47</v>
       </c>
       <c r="S19" s="7">
@@ -13656,14 +13045,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:30">
       <c r="A20" s="4">
         <v>30</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="7">
@@ -13681,7 +13070,7 @@
       <c r="J20" s="4">
         <v>2</v>
       </c>
-      <c r="K20" s="40" t="s">
+      <c r="K20" s="38" t="s">
         <v>200</v>
       </c>
       <c r="L20" s="7">
@@ -13699,7 +13088,7 @@
       <c r="Q20" s="4">
         <v>19</v>
       </c>
-      <c r="R20" s="40" t="s">
+      <c r="R20" s="38" t="s">
         <v>48</v>
       </c>
       <c r="S20" s="7">
@@ -13712,14 +13101,14 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:30">
       <c r="A21" s="4">
         <v>40</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="37" t="s">
         <v>181</v>
       </c>
       <c r="D21" s="7">
@@ -13737,7 +13126,7 @@
       <c r="J21" s="4">
         <v>31</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="38" t="s">
         <v>71</v>
       </c>
       <c r="L21" s="7">
@@ -13749,7 +13138,7 @@
       <c r="Q21" s="14">
         <v>20</v>
       </c>
-      <c r="R21" s="43" t="s">
+      <c r="R21" s="41" t="s">
         <v>49</v>
       </c>
       <c r="S21" s="14">
@@ -13763,14 +13152,14 @@
       </c>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:30">
       <c r="A22" s="4">
         <v>41</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="37" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="7">
@@ -13788,7 +13177,7 @@
       <c r="J22" s="4">
         <v>32</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="38" t="s">
         <v>72</v>
       </c>
       <c r="L22" s="7">
@@ -13800,7 +13189,7 @@
       <c r="Q22" s="4">
         <v>21</v>
       </c>
-      <c r="R22" s="40" t="s">
+      <c r="R22" s="38" t="s">
         <v>52</v>
       </c>
       <c r="S22" s="7">
@@ -13810,14 +13199,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:28">
+    <row r="23" spans="1:30" s="2" customFormat="1">
       <c r="A23" s="4">
         <v>42</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="37" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="7">
@@ -13835,10 +13224,10 @@
       <c r="J23" s="7">
         <v>6</v>
       </c>
-      <c r="K23" s="42" t="s">
+      <c r="K23" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="40" t="s">
         <v>206</v>
       </c>
       <c r="M23" s="7">
@@ -13848,7 +13237,7 @@
       <c r="Q23" s="4">
         <v>22</v>
       </c>
-      <c r="R23" s="40" t="s">
+      <c r="R23" s="38" t="s">
         <v>53</v>
       </c>
       <c r="S23" s="7">
@@ -13865,14 +13254,14 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:30">
       <c r="A24" s="4">
         <v>43</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="37" t="s">
         <v>181</v>
       </c>
       <c r="D24" s="7">
@@ -13890,7 +13279,7 @@
       <c r="J24" s="4">
         <v>4</v>
       </c>
-      <c r="K24" s="40" t="s">
+      <c r="K24" s="38" t="s">
         <v>202</v>
       </c>
       <c r="L24" s="7">
@@ -13908,7 +13297,7 @@
       <c r="Q24" s="4">
         <v>23</v>
       </c>
-      <c r="R24" s="40" t="s">
+      <c r="R24" s="38" t="s">
         <v>54</v>
       </c>
       <c r="S24" s="7">
@@ -13918,14 +13307,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:30">
       <c r="A25" s="4">
         <v>44</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="37" t="s">
         <v>113</v>
       </c>
       <c r="D25" s="7">
@@ -13943,7 +13332,7 @@
       <c r="J25" s="4">
         <v>8</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="38" t="s">
         <v>210</v>
       </c>
       <c r="L25" s="7">
@@ -13955,7 +13344,7 @@
       <c r="Q25" s="4">
         <v>24</v>
       </c>
-      <c r="R25" s="40" t="s">
+      <c r="R25" s="38" t="s">
         <v>55</v>
       </c>
       <c r="S25" s="7">
@@ -13971,14 +13360,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:30">
       <c r="A26" s="4">
         <v>45</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="37" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="7">
@@ -13996,7 +13385,7 @@
       <c r="J26" s="4">
         <v>1</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="38" t="s">
         <v>199</v>
       </c>
       <c r="L26" s="7">
@@ -14014,7 +13403,7 @@
       <c r="Q26" s="4">
         <v>25</v>
       </c>
-      <c r="R26" s="40" t="s">
+      <c r="R26" s="38" t="s">
         <v>58</v>
       </c>
       <c r="S26" s="7">
@@ -14030,14 +13419,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:30">
       <c r="A27" s="4">
         <v>46</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="37" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="7">
@@ -14055,7 +13444,7 @@
       <c r="J27" s="4">
         <v>9</v>
       </c>
-      <c r="K27" s="40" t="s">
+      <c r="K27" s="38" t="s">
         <v>212</v>
       </c>
       <c r="L27" s="7">
@@ -14067,7 +13456,7 @@
       <c r="Q27" s="4">
         <v>26</v>
       </c>
-      <c r="R27" s="40" t="s">
+      <c r="R27" s="38" t="s">
         <v>60</v>
       </c>
       <c r="S27" s="7">
@@ -14083,14 +13472,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:30">
       <c r="A28" s="4">
         <v>50</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="37" t="s">
         <v>181</v>
       </c>
       <c r="D28" s="7">
@@ -14108,7 +13497,7 @@
       <c r="J28" s="4">
         <v>10</v>
       </c>
-      <c r="K28" s="40" t="s">
+      <c r="K28" s="38" t="s">
         <v>204</v>
       </c>
       <c r="L28" s="7">
@@ -14126,7 +13515,7 @@
       <c r="Q28" s="4">
         <v>27</v>
       </c>
-      <c r="R28" s="40" t="s">
+      <c r="R28" s="38" t="s">
         <v>62</v>
       </c>
       <c r="S28" s="7">
@@ -14146,10 +13535,10 @@
       <c r="A29" s="4">
         <v>51</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="37" t="s">
         <v>113</v>
       </c>
       <c r="D29" s="7">
@@ -14167,7 +13556,7 @@
       <c r="J29" s="4">
         <v>7</v>
       </c>
-      <c r="K29" s="40" t="s">
+      <c r="K29" s="38" t="s">
         <v>208</v>
       </c>
       <c r="L29" s="7">
@@ -14179,7 +13568,7 @@
       <c r="Q29" s="4">
         <v>28</v>
       </c>
-      <c r="R29" s="40" t="s">
+      <c r="R29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="S29" s="7">
@@ -14211,10 +13600,10 @@
       <c r="A30" s="4">
         <v>52</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="37" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="7">
@@ -14232,7 +13621,7 @@
       <c r="J30" s="4">
         <v>12</v>
       </c>
-      <c r="K30" s="40" t="s">
+      <c r="K30" s="38" t="s">
         <v>209</v>
       </c>
       <c r="L30" s="7">
@@ -14250,7 +13639,7 @@
       <c r="Q30" s="4">
         <v>29</v>
       </c>
-      <c r="R30" s="40" t="s">
+      <c r="R30" s="38" t="s">
         <v>67</v>
       </c>
       <c r="S30" s="7">
@@ -14285,10 +13674,10 @@
       <c r="A31" s="4">
         <v>53</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="37" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="7">
@@ -14306,7 +13695,7 @@
       <c r="J31" s="4">
         <v>11</v>
       </c>
-      <c r="K31" s="40" t="s">
+      <c r="K31" s="38" t="s">
         <v>207</v>
       </c>
       <c r="L31" s="7">
@@ -14324,7 +13713,7 @@
       <c r="Q31" s="4">
         <v>30</v>
       </c>
-      <c r="R31" s="40" t="s">
+      <c r="R31" s="38" t="s">
         <v>69</v>
       </c>
       <c r="S31" s="7">
@@ -14359,10 +13748,10 @@
       <c r="A32" s="4">
         <v>58</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="37" t="s">
         <v>113</v>
       </c>
       <c r="D32" s="7">
@@ -14380,7 +13769,7 @@
       <c r="J32" s="4">
         <v>15</v>
       </c>
-      <c r="K32" s="40" t="s">
+      <c r="K32" s="38" t="s">
         <v>214</v>
       </c>
       <c r="L32" s="7">
@@ -14398,7 +13787,7 @@
       <c r="Q32" s="4">
         <v>31</v>
       </c>
-      <c r="R32" s="40" t="s">
+      <c r="R32" s="38" t="s">
         <v>71</v>
       </c>
       <c r="S32" s="7">
@@ -14427,10 +13816,10 @@
       <c r="A33" s="4">
         <v>60</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="37" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="7">
@@ -14448,7 +13837,7 @@
       <c r="J33" s="4">
         <v>14</v>
       </c>
-      <c r="K33" s="40" t="s">
+      <c r="K33" s="38" t="s">
         <v>213</v>
       </c>
       <c r="L33" s="7">
@@ -14466,7 +13855,7 @@
       <c r="Q33" s="4">
         <v>32</v>
       </c>
-      <c r="R33" s="40" t="s">
+      <c r="R33" s="38" t="s">
         <v>72</v>
       </c>
       <c r="S33" s="7">
@@ -14495,10 +13884,10 @@
       <c r="A34" s="4">
         <v>61</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="37" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="7">
@@ -14516,7 +13905,7 @@
       <c r="J34" s="4">
         <v>3</v>
       </c>
-      <c r="K34" s="40" t="s">
+      <c r="K34" s="38" t="s">
         <v>201</v>
       </c>
       <c r="L34" s="7">
@@ -14534,7 +13923,7 @@
       <c r="Q34" s="7">
         <v>33</v>
       </c>
-      <c r="R34" s="42" t="s">
+      <c r="R34" s="40" t="s">
         <v>73</v>
       </c>
       <c r="S34" s="7" t="s">
@@ -14565,10 +13954,10 @@
       <c r="A35" s="4">
         <v>62</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="37" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="7">
@@ -14586,7 +13975,7 @@
       <c r="J35" s="4">
         <v>16</v>
       </c>
-      <c r="K35" s="40" t="s">
+      <c r="K35" s="38" t="s">
         <v>44</v>
       </c>
       <c r="L35" s="7">
@@ -14604,7 +13993,7 @@
       <c r="Q35" s="7">
         <v>34</v>
       </c>
-      <c r="R35" s="42" t="s">
+      <c r="R35" s="40" t="s">
         <v>75</v>
       </c>
       <c r="S35" s="7" t="s">
@@ -14635,10 +14024,10 @@
       <c r="A36" s="4">
         <v>63</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="37" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="7">
@@ -14656,7 +14045,7 @@
       <c r="J36" s="4">
         <v>13</v>
       </c>
-      <c r="K36" s="40" t="s">
+      <c r="K36" s="38" t="s">
         <v>211</v>
       </c>
       <c r="L36" s="7">
@@ -14674,7 +14063,7 @@
       <c r="Q36" s="8">
         <v>35</v>
       </c>
-      <c r="R36" s="41" t="s">
+      <c r="R36" s="39" t="s">
         <v>76</v>
       </c>
       <c r="S36" s="7">
@@ -14705,10 +14094,10 @@
       <c r="A37" s="4">
         <v>66</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D37" s="7">
@@ -14726,7 +14115,7 @@
       <c r="J37" s="4">
         <v>17</v>
       </c>
-      <c r="K37" s="40" t="s">
+      <c r="K37" s="38" t="s">
         <v>46</v>
       </c>
       <c r="L37" s="7">
@@ -14738,7 +14127,7 @@
       <c r="Q37" s="4">
         <v>36</v>
       </c>
-      <c r="R37" s="40" t="s">
+      <c r="R37" s="38" t="s">
         <v>77</v>
       </c>
       <c r="S37" s="7">
@@ -14767,10 +14156,10 @@
       <c r="A38" s="4">
         <v>67</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="7">
@@ -14788,7 +14177,7 @@
       <c r="J38" s="4">
         <v>25</v>
       </c>
-      <c r="K38" s="40" t="s">
+      <c r="K38" s="38" t="s">
         <v>58</v>
       </c>
       <c r="L38" s="7">
@@ -14806,7 +14195,7 @@
       <c r="Q38" s="4">
         <v>37</v>
       </c>
-      <c r="R38" s="40" t="s">
+      <c r="R38" s="38" t="s">
         <v>78</v>
       </c>
       <c r="S38" s="7">
@@ -14835,10 +14224,10 @@
       <c r="A39" s="4">
         <v>68</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D39" s="7">
@@ -14856,7 +14245,7 @@
       <c r="J39" s="4">
         <v>100</v>
       </c>
-      <c r="K39" s="40" t="s">
+      <c r="K39" s="38" t="s">
         <v>181</v>
       </c>
       <c r="L39" s="7">
@@ -14868,7 +14257,7 @@
       <c r="Q39" s="4">
         <v>38</v>
       </c>
-      <c r="R39" s="40" t="s">
+      <c r="R39" s="38" t="s">
         <v>79</v>
       </c>
       <c r="S39" s="7">
@@ -14893,14 +14282,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" spans="1:30">
+    <row r="40" spans="1:30" s="3" customFormat="1">
       <c r="A40" s="4">
         <v>69</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="37" t="s">
         <v>84</v>
       </c>
       <c r="D40" s="7">
@@ -14918,7 +14307,7 @@
       <c r="J40" s="14">
         <v>20</v>
       </c>
-      <c r="K40" s="43" t="s">
+      <c r="K40" s="41" t="s">
         <v>49</v>
       </c>
       <c r="L40" s="14">
@@ -14934,7 +14323,7 @@
       <c r="Q40" s="14">
         <v>39</v>
       </c>
-      <c r="R40" s="43" t="s">
+      <c r="R40" s="41" t="s">
         <v>80</v>
       </c>
       <c r="S40" s="14">
@@ -14964,14 +14353,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:30">
       <c r="A41" s="4">
         <v>70</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="7">
@@ -14989,7 +14378,7 @@
       <c r="J41" s="4">
         <v>26</v>
       </c>
-      <c r="K41" s="40" t="s">
+      <c r="K41" s="38" t="s">
         <v>60</v>
       </c>
       <c r="L41" s="7">
@@ -15007,7 +14396,7 @@
       <c r="Q41" s="4">
         <v>40</v>
       </c>
-      <c r="R41" s="40" t="s">
+      <c r="R41" s="38" t="s">
         <v>50</v>
       </c>
       <c r="S41" s="7">
@@ -15023,14 +14412,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:30">
       <c r="A42" s="4">
         <v>73</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="37" t="s">
         <v>65</v>
       </c>
       <c r="D42" s="7">
@@ -15048,7 +14437,7 @@
       <c r="J42" s="4">
         <v>65</v>
       </c>
-      <c r="K42" s="40" t="s">
+      <c r="K42" s="38" t="s">
         <v>127</v>
       </c>
       <c r="L42" s="7">
@@ -15060,7 +14449,7 @@
       <c r="Q42" s="4">
         <v>41</v>
       </c>
-      <c r="R42" s="40" t="s">
+      <c r="R42" s="38" t="s">
         <v>84</v>
       </c>
       <c r="S42" s="7">
@@ -15076,14 +14465,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:30">
       <c r="A43" s="4">
         <v>76</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="37" t="s">
         <v>65</v>
       </c>
       <c r="D43" s="7">
@@ -15101,7 +14490,7 @@
       <c r="J43" s="4">
         <v>75</v>
       </c>
-      <c r="K43" s="40" t="s">
+      <c r="K43" s="38" t="s">
         <v>142</v>
       </c>
       <c r="L43" s="7">
@@ -15113,7 +14502,7 @@
       <c r="Q43" s="4">
         <v>42</v>
       </c>
-      <c r="R43" s="40" t="s">
+      <c r="R43" s="38" t="s">
         <v>86</v>
       </c>
       <c r="S43" s="7">
@@ -15129,14 +14518,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:30">
       <c r="A44" s="4">
         <v>78</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="37" t="s">
         <v>84</v>
       </c>
       <c r="D44" s="7">
@@ -15155,7 +14544,7 @@
       <c r="J44" s="4">
         <v>82</v>
       </c>
-      <c r="K44" s="40" t="s">
+      <c r="K44" s="38" t="s">
         <v>156</v>
       </c>
       <c r="L44" s="7">
@@ -15167,7 +14556,7 @@
       <c r="Q44" s="4">
         <v>43</v>
       </c>
-      <c r="R44" s="40" t="s">
+      <c r="R44" s="38" t="s">
         <v>88</v>
       </c>
       <c r="S44" s="7">
@@ -15183,14 +14572,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:30">
       <c r="A45" s="4">
         <v>79</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D45" s="7">
@@ -15209,7 +14598,7 @@
       <c r="J45" s="4">
         <v>83</v>
       </c>
-      <c r="K45" s="40" t="s">
+      <c r="K45" s="38" t="s">
         <v>157</v>
       </c>
       <c r="L45" s="7">
@@ -15221,7 +14610,7 @@
       <c r="Q45" s="4">
         <v>44</v>
       </c>
-      <c r="R45" s="40" t="s">
+      <c r="R45" s="38" t="s">
         <v>90</v>
       </c>
       <c r="S45" s="7">
@@ -15237,14 +14626,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:30">
       <c r="A46" s="4">
         <v>81</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D46" s="7">
@@ -15263,7 +14652,7 @@
       <c r="J46" s="4">
         <v>24</v>
       </c>
-      <c r="K46" s="40" t="s">
+      <c r="K46" s="38" t="s">
         <v>55</v>
       </c>
       <c r="L46" s="7">
@@ -15281,7 +14670,7 @@
       <c r="Q46" s="4">
         <v>45</v>
       </c>
-      <c r="R46" s="40" t="s">
+      <c r="R46" s="38" t="s">
         <v>93</v>
       </c>
       <c r="S46" s="7">
@@ -15297,14 +14686,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:30">
       <c r="A47" s="4">
         <v>97</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="37" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="7">
@@ -15323,7 +14712,7 @@
       <c r="J47" s="4">
         <v>56</v>
       </c>
-      <c r="K47" s="40" t="s">
+      <c r="K47" s="38" t="s">
         <v>111</v>
       </c>
       <c r="L47" s="7">
@@ -15335,7 +14724,7 @@
       <c r="Q47" s="4">
         <v>46</v>
       </c>
-      <c r="R47" s="40" t="s">
+      <c r="R47" s="38" t="s">
         <v>95</v>
       </c>
       <c r="S47" s="7">
@@ -15351,14 +14740,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:30">
       <c r="A48" s="4">
         <v>98</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="37" t="s">
         <v>117</v>
       </c>
       <c r="D48" s="7">
@@ -15377,7 +14766,7 @@
       <c r="J48" s="4">
         <v>57</v>
       </c>
-      <c r="K48" s="40" t="s">
+      <c r="K48" s="38" t="s">
         <v>112</v>
       </c>
       <c r="L48" s="7">
@@ -15389,7 +14778,7 @@
       <c r="Q48" s="14">
         <v>47</v>
       </c>
-      <c r="R48" s="43" t="s">
+      <c r="R48" s="41" t="s">
         <v>97</v>
       </c>
       <c r="S48" s="14">
@@ -15403,14 +14792,14 @@
       </c>
       <c r="V48" s="3"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:28">
       <c r="A49" s="4">
         <v>99</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="37" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="7">
@@ -15429,7 +14818,7 @@
       <c r="J49" s="4">
         <v>27</v>
       </c>
-      <c r="K49" s="40" t="s">
+      <c r="K49" s="38" t="s">
         <v>62</v>
       </c>
       <c r="L49" s="7">
@@ -15447,7 +14836,7 @@
       <c r="Q49" s="14">
         <v>48</v>
       </c>
-      <c r="R49" s="43" t="s">
+      <c r="R49" s="41" t="s">
         <v>31</v>
       </c>
       <c r="S49" s="14">
@@ -15459,11 +14848,11 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:28">
       <c r="A50" s="4">
         <v>18</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="36" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="7">
@@ -15475,7 +14864,7 @@
       <c r="J50" s="4">
         <v>64</v>
       </c>
-      <c r="K50" s="40" t="s">
+      <c r="K50" s="38" t="s">
         <v>126</v>
       </c>
       <c r="L50" s="7">
@@ -15487,7 +14876,7 @@
       <c r="Q50" s="7">
         <v>49</v>
       </c>
-      <c r="R50" s="42" t="s">
+      <c r="R50" s="40" t="s">
         <v>99</v>
       </c>
       <c r="S50" s="7" t="s">
@@ -15499,11 +14888,11 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:28">
       <c r="A51" s="4">
         <v>19</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="36" t="s">
         <v>48</v>
       </c>
       <c r="D51" s="7">
@@ -15515,7 +14904,7 @@
       <c r="J51" s="4">
         <v>29</v>
       </c>
-      <c r="K51" s="40" t="s">
+      <c r="K51" s="38" t="s">
         <v>67</v>
       </c>
       <c r="L51" s="7">
@@ -15533,7 +14922,7 @@
       <c r="Q51" s="4">
         <v>50</v>
       </c>
-      <c r="R51" s="40" t="s">
+      <c r="R51" s="38" t="s">
         <v>100</v>
       </c>
       <c r="S51" s="7">
@@ -15549,11 +14938,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:28">
       <c r="A52" s="4">
         <v>21</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="36" t="s">
         <v>52</v>
       </c>
       <c r="D52" s="7">
@@ -15565,7 +14954,7 @@
       <c r="J52" s="4">
         <v>58</v>
       </c>
-      <c r="K52" s="40" t="s">
+      <c r="K52" s="38" t="s">
         <v>113</v>
       </c>
       <c r="L52" s="7">
@@ -15583,7 +14972,7 @@
       <c r="Q52" s="4">
         <v>51</v>
       </c>
-      <c r="R52" s="40" t="s">
+      <c r="R52" s="38" t="s">
         <v>29</v>
       </c>
       <c r="S52" s="7">
@@ -15599,11 +14988,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:28">
+    <row r="53" spans="1:28" s="2" customFormat="1">
       <c r="A53" s="4">
         <v>22</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="6"/>
@@ -15618,7 +15007,7 @@
       <c r="J53" s="7">
         <v>33</v>
       </c>
-      <c r="K53" s="42" t="s">
+      <c r="K53" s="40" t="s">
         <v>73</v>
       </c>
       <c r="L53" s="7" t="s">
@@ -15631,7 +15020,7 @@
       <c r="Q53" s="4">
         <v>52</v>
       </c>
-      <c r="R53" s="40" t="s">
+      <c r="R53" s="38" t="s">
         <v>104</v>
       </c>
       <c r="S53" s="7">
@@ -15652,11 +15041,11 @@
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:28">
       <c r="A54" s="4">
         <v>23</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="36" t="s">
         <v>54</v>
       </c>
       <c r="D54" s="7">
@@ -15668,7 +15057,7 @@
       <c r="J54" s="4">
         <v>28</v>
       </c>
-      <c r="K54" s="40" t="s">
+      <c r="K54" s="38" t="s">
         <v>65</v>
       </c>
       <c r="L54" s="7">
@@ -15686,7 +15075,7 @@
       <c r="Q54" s="4">
         <v>53</v>
       </c>
-      <c r="R54" s="40" t="s">
+      <c r="R54" s="38" t="s">
         <v>106</v>
       </c>
       <c r="S54" s="7">
@@ -15702,11 +15091,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:28">
       <c r="A55" s="8">
         <v>35</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="36" t="s">
         <v>76</v>
       </c>
       <c r="D55" s="7">
@@ -15720,7 +15109,7 @@
       <c r="J55" s="4">
         <v>30</v>
       </c>
-      <c r="K55" s="40" t="s">
+      <c r="K55" s="38" t="s">
         <v>69</v>
       </c>
       <c r="L55" s="7">
@@ -15738,7 +15127,7 @@
       <c r="Q55" s="14">
         <v>54</v>
       </c>
-      <c r="R55" s="43" t="s">
+      <c r="R55" s="41" t="s">
         <v>108</v>
       </c>
       <c r="S55" s="14">
@@ -15752,11 +15141,11 @@
       </c>
       <c r="V55" s="3"/>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:28">
+    <row r="56" spans="1:28" s="2" customFormat="1">
       <c r="A56" s="4">
         <v>36</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C56" s="6"/>
@@ -15771,7 +15160,7 @@
       <c r="J56" s="7">
         <v>34</v>
       </c>
-      <c r="K56" s="42" t="s">
+      <c r="K56" s="40" t="s">
         <v>75</v>
       </c>
       <c r="L56" s="7" t="s">
@@ -15784,7 +15173,7 @@
       <c r="Q56" s="4">
         <v>55</v>
       </c>
-      <c r="R56" s="40" t="s">
+      <c r="R56" s="38" t="s">
         <v>110</v>
       </c>
       <c r="S56" s="7">
@@ -15801,11 +15190,11 @@
       <c r="AA56" s="8"/>
       <c r="AB56" s="8"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:28">
       <c r="A57" s="4">
         <v>37</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="36" t="s">
         <v>78</v>
       </c>
       <c r="D57" s="7">
@@ -15817,7 +15206,7 @@
       <c r="J57" s="4">
         <v>41</v>
       </c>
-      <c r="K57" s="40" t="s">
+      <c r="K57" s="38" t="s">
         <v>84</v>
       </c>
       <c r="L57" s="7">
@@ -15835,7 +15224,7 @@
       <c r="Q57" s="4">
         <v>56</v>
       </c>
-      <c r="R57" s="40" t="s">
+      <c r="R57" s="38" t="s">
         <v>111</v>
       </c>
       <c r="S57" s="7">
@@ -15845,11 +15234,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:28">
       <c r="A58" s="4">
         <v>38</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="36" t="s">
         <v>79</v>
       </c>
       <c r="D58" s="7">
@@ -15861,7 +15250,7 @@
       <c r="J58" s="4">
         <v>42</v>
       </c>
-      <c r="K58" s="40" t="s">
+      <c r="K58" s="38" t="s">
         <v>86</v>
       </c>
       <c r="L58" s="7">
@@ -15879,7 +15268,7 @@
       <c r="Q58" s="4">
         <v>57</v>
       </c>
-      <c r="R58" s="40" t="s">
+      <c r="R58" s="38" t="s">
         <v>112</v>
       </c>
       <c r="S58" s="7">
@@ -15889,11 +15278,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:28">
       <c r="A59" s="4">
         <v>101</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="36" t="s">
         <v>182</v>
       </c>
       <c r="D59" s="7">
@@ -15905,7 +15294,7 @@
       <c r="J59" s="4">
         <v>43</v>
       </c>
-      <c r="K59" s="40" t="s">
+      <c r="K59" s="38" t="s">
         <v>88</v>
       </c>
       <c r="L59" s="7">
@@ -15923,7 +15312,7 @@
       <c r="Q59" s="4">
         <v>58</v>
       </c>
-      <c r="R59" s="40" t="s">
+      <c r="R59" s="38" t="s">
         <v>113</v>
       </c>
       <c r="S59" s="7">
@@ -15939,11 +15328,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:28">
       <c r="A60" s="4">
         <v>102</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="36" t="s">
         <v>184</v>
       </c>
       <c r="D60" s="7">
@@ -15955,7 +15344,7 @@
       <c r="J60" s="4">
         <v>59</v>
       </c>
-      <c r="K60" s="40" t="s">
+      <c r="K60" s="38" t="s">
         <v>116</v>
       </c>
       <c r="L60" s="7">
@@ -15967,7 +15356,7 @@
       <c r="Q60" s="4">
         <v>59</v>
       </c>
-      <c r="R60" s="40" t="s">
+      <c r="R60" s="38" t="s">
         <v>116</v>
       </c>
       <c r="S60" s="7">
@@ -15977,11 +15366,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:28">
       <c r="A61" s="4">
         <v>103</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="36" t="s">
         <v>186</v>
       </c>
       <c r="D61" s="7">
@@ -15993,7 +15382,7 @@
       <c r="J61" s="4">
         <v>89</v>
       </c>
-      <c r="K61" s="40" t="s">
+      <c r="K61" s="38" t="s">
         <v>169</v>
       </c>
       <c r="L61" s="7">
@@ -16005,7 +15394,7 @@
       <c r="Q61" s="4">
         <v>60</v>
       </c>
-      <c r="R61" s="40" t="s">
+      <c r="R61" s="38" t="s">
         <v>117</v>
       </c>
       <c r="S61" s="7">
@@ -16021,11 +15410,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:28">
       <c r="A62" s="4">
         <v>104</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="36" t="s">
         <v>188</v>
       </c>
       <c r="D62" s="7">
@@ -16037,7 +15426,7 @@
       <c r="J62" s="4">
         <v>40</v>
       </c>
-      <c r="K62" s="40" t="s">
+      <c r="K62" s="38" t="s">
         <v>50</v>
       </c>
       <c r="L62" s="7">
@@ -16055,7 +15444,7 @@
       <c r="Q62" s="4">
         <v>61</v>
       </c>
-      <c r="R62" s="40" t="s">
+      <c r="R62" s="38" t="s">
         <v>120</v>
       </c>
       <c r="S62" s="7">
@@ -16071,11 +15460,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" s="3" customFormat="1" spans="1:28">
+    <row r="63" spans="1:28" s="3" customFormat="1">
       <c r="A63" s="4">
         <v>106</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="36" t="s">
         <v>191</v>
       </c>
       <c r="C63" s="6"/>
@@ -16090,7 +15479,7 @@
       <c r="J63" s="14">
         <v>47</v>
       </c>
-      <c r="K63" s="43" t="s">
+      <c r="K63" s="41" t="s">
         <v>97</v>
       </c>
       <c r="L63" s="14">
@@ -16106,7 +15495,7 @@
       <c r="Q63" s="4">
         <v>62</v>
       </c>
-      <c r="R63" s="40" t="s">
+      <c r="R63" s="38" t="s">
         <v>122</v>
       </c>
       <c r="S63" s="7">
@@ -16127,11 +15516,11 @@
       <c r="AA63" s="8"/>
       <c r="AB63" s="8"/>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:28">
       <c r="A64" s="4">
         <v>107</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="36" t="s">
         <v>192</v>
       </c>
       <c r="D64" s="7">
@@ -16143,7 +15532,7 @@
       <c r="J64" s="4">
         <v>45</v>
       </c>
-      <c r="K64" s="40" t="s">
+      <c r="K64" s="38" t="s">
         <v>93</v>
       </c>
       <c r="L64" s="7">
@@ -16161,7 +15550,7 @@
       <c r="Q64" s="4">
         <v>63</v>
       </c>
-      <c r="R64" s="40" t="s">
+      <c r="R64" s="38" t="s">
         <v>124</v>
       </c>
       <c r="S64" s="7">
@@ -16177,11 +15566,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:28">
       <c r="A65" s="4">
         <v>108</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="36" t="s">
         <v>193</v>
       </c>
       <c r="D65" s="7">
@@ -16193,7 +15582,7 @@
       <c r="J65" s="4">
         <v>50</v>
       </c>
-      <c r="K65" s="40" t="s">
+      <c r="K65" s="38" t="s">
         <v>100</v>
       </c>
       <c r="L65" s="7">
@@ -16211,7 +15600,7 @@
       <c r="Q65" s="4">
         <v>64</v>
       </c>
-      <c r="R65" s="40" t="s">
+      <c r="R65" s="38" t="s">
         <v>126</v>
       </c>
       <c r="S65" s="7">
@@ -16221,11 +15610,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" s="3" customFormat="1" spans="1:28">
+    <row r="66" spans="1:28" s="3" customFormat="1">
       <c r="A66" s="4">
         <v>109</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="36" t="s">
         <v>194</v>
       </c>
       <c r="C66" s="6"/>
@@ -16240,7 +15629,7 @@
       <c r="J66" s="14">
         <v>39</v>
       </c>
-      <c r="K66" s="43" t="s">
+      <c r="K66" s="41" t="s">
         <v>80</v>
       </c>
       <c r="L66" s="14">
@@ -16256,7 +15645,7 @@
       <c r="Q66" s="4">
         <v>65</v>
       </c>
-      <c r="R66" s="40" t="s">
+      <c r="R66" s="38" t="s">
         <v>127</v>
       </c>
       <c r="S66" s="7">
@@ -16273,11 +15662,11 @@
       <c r="AA66" s="8"/>
       <c r="AB66" s="8"/>
     </row>
-    <row r="67" s="3" customFormat="1" spans="1:28">
+    <row r="67" spans="1:28" s="3" customFormat="1">
       <c r="A67" s="4">
         <v>31</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="36" t="s">
         <v>71</v>
       </c>
       <c r="C67" s="6"/>
@@ -16292,7 +15681,7 @@
       <c r="J67" s="14">
         <v>48</v>
       </c>
-      <c r="K67" s="43" t="s">
+      <c r="K67" s="41" t="s">
         <v>31</v>
       </c>
       <c r="L67" s="14">
@@ -16305,7 +15694,7 @@
       <c r="Q67" s="4">
         <v>66</v>
       </c>
-      <c r="R67" s="40" t="s">
+      <c r="R67" s="38" t="s">
         <v>128</v>
       </c>
       <c r="S67" s="7">
@@ -16326,11 +15715,11 @@
       <c r="AA67" s="8"/>
       <c r="AB67" s="8"/>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:28">
       <c r="A68" s="4">
         <v>32</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="36" t="s">
         <v>72</v>
       </c>
       <c r="D68" s="7">
@@ -16342,7 +15731,7 @@
       <c r="J68" s="4">
         <v>53</v>
       </c>
-      <c r="K68" s="40" t="s">
+      <c r="K68" s="38" t="s">
         <v>106</v>
       </c>
       <c r="L68" s="7">
@@ -16360,7 +15749,7 @@
       <c r="Q68" s="4">
         <v>67</v>
       </c>
-      <c r="R68" s="40" t="s">
+      <c r="R68" s="38" t="s">
         <v>130</v>
       </c>
       <c r="S68" s="7">
@@ -16376,14 +15765,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:28">
       <c r="A69" s="7">
         <v>6</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D69" s="40" t="s">
         <v>206</v>
       </c>
       <c r="E69" s="7">
@@ -16394,7 +15783,7 @@
       <c r="J69" s="4">
         <v>55</v>
       </c>
-      <c r="K69" s="40" t="s">
+      <c r="K69" s="38" t="s">
         <v>110</v>
       </c>
       <c r="L69" s="7">
@@ -16406,7 +15795,7 @@
       <c r="Q69" s="4">
         <v>68</v>
       </c>
-      <c r="R69" s="40" t="s">
+      <c r="R69" s="38" t="s">
         <v>132</v>
       </c>
       <c r="S69" s="7">
@@ -16422,11 +15811,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:28">
       <c r="A70" s="4">
         <v>8</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="36" t="s">
         <v>210</v>
       </c>
       <c r="D70" s="7">
@@ -16438,7 +15827,7 @@
       <c r="J70" s="4">
         <v>46</v>
       </c>
-      <c r="K70" s="40" t="s">
+      <c r="K70" s="38" t="s">
         <v>95</v>
       </c>
       <c r="L70" s="7">
@@ -16456,7 +15845,7 @@
       <c r="Q70" s="4">
         <v>69</v>
       </c>
-      <c r="R70" s="40" t="s">
+      <c r="R70" s="38" t="s">
         <v>133</v>
       </c>
       <c r="S70" s="7">
@@ -16472,11 +15861,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:28">
       <c r="A71" s="4">
         <v>9</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="36" t="s">
         <v>212</v>
       </c>
       <c r="D71" s="7">
@@ -16488,7 +15877,7 @@
       <c r="J71" s="4">
         <v>60</v>
       </c>
-      <c r="K71" s="40" t="s">
+      <c r="K71" s="38" t="s">
         <v>117</v>
       </c>
       <c r="L71" s="7">
@@ -16506,7 +15895,7 @@
       <c r="Q71" s="4">
         <v>70</v>
       </c>
-      <c r="R71" s="40" t="s">
+      <c r="R71" s="38" t="s">
         <v>28</v>
       </c>
       <c r="S71" s="7">
@@ -16522,11 +15911,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:28">
       <c r="A72" s="4">
         <v>7</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="36" t="s">
         <v>208</v>
       </c>
       <c r="D72" s="7">
@@ -16538,7 +15927,7 @@
       <c r="J72" s="4">
         <v>62</v>
       </c>
-      <c r="K72" s="40" t="s">
+      <c r="K72" s="38" t="s">
         <v>122</v>
       </c>
       <c r="L72" s="7">
@@ -16556,7 +15945,7 @@
       <c r="Q72" s="4">
         <v>71</v>
       </c>
-      <c r="R72" s="40" t="s">
+      <c r="R72" s="38" t="s">
         <v>136</v>
       </c>
       <c r="S72" s="7">
@@ -16566,11 +15955,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:28">
       <c r="A73" s="4">
         <v>17</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D73" s="7">
@@ -16582,7 +15971,7 @@
       <c r="J73" s="4">
         <v>44</v>
       </c>
-      <c r="K73" s="40" t="s">
+      <c r="K73" s="38" t="s">
         <v>90</v>
       </c>
       <c r="L73" s="7">
@@ -16600,7 +15989,7 @@
       <c r="Q73" s="4">
         <v>72</v>
       </c>
-      <c r="R73" s="40" t="s">
+      <c r="R73" s="38" t="s">
         <v>137</v>
       </c>
       <c r="S73" s="7">
@@ -16610,11 +15999,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:28">
       <c r="A74" s="4">
         <v>100</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="36" t="s">
         <v>181</v>
       </c>
       <c r="D74" s="7">
@@ -16626,7 +16015,7 @@
       <c r="J74" s="4">
         <v>51</v>
       </c>
-      <c r="K74" s="40" t="s">
+      <c r="K74" s="38" t="s">
         <v>29</v>
       </c>
       <c r="L74" s="7">
@@ -16644,7 +16033,7 @@
       <c r="Q74" s="4">
         <v>73</v>
       </c>
-      <c r="R74" s="40" t="s">
+      <c r="R74" s="38" t="s">
         <v>138</v>
       </c>
       <c r="S74" s="7">
@@ -16660,11 +16049,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:28">
       <c r="A75" s="14">
         <v>20</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D75" s="14">
@@ -16680,7 +16069,7 @@
       <c r="J75" s="4">
         <v>61</v>
       </c>
-      <c r="K75" s="40" t="s">
+      <c r="K75" s="38" t="s">
         <v>120</v>
       </c>
       <c r="L75" s="7">
@@ -16698,7 +16087,7 @@
       <c r="Q75" s="4">
         <v>74</v>
       </c>
-      <c r="R75" s="40" t="s">
+      <c r="R75" s="38" t="s">
         <v>140</v>
       </c>
       <c r="S75" s="7">
@@ -16711,11 +16100,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:28">
       <c r="A76" s="4">
         <v>65</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="36" t="s">
         <v>127</v>
       </c>
       <c r="D76" s="7">
@@ -16727,7 +16116,7 @@
       <c r="J76" s="4">
         <v>52</v>
       </c>
-      <c r="K76" s="40" t="s">
+      <c r="K76" s="38" t="s">
         <v>104</v>
       </c>
       <c r="L76" s="7">
@@ -16745,7 +16134,7 @@
       <c r="Q76" s="4">
         <v>75</v>
       </c>
-      <c r="R76" s="40" t="s">
+      <c r="R76" s="38" t="s">
         <v>142</v>
       </c>
       <c r="S76" s="7">
@@ -16755,11 +16144,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:28">
       <c r="A77" s="4">
         <v>75</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="36" t="s">
         <v>142</v>
       </c>
       <c r="D77" s="7">
@@ -16771,7 +16160,7 @@
       <c r="J77" s="4">
         <v>63</v>
       </c>
-      <c r="K77" s="40" t="s">
+      <c r="K77" s="38" t="s">
         <v>124</v>
       </c>
       <c r="L77" s="7">
@@ -16789,7 +16178,7 @@
       <c r="Q77" s="4">
         <v>76</v>
       </c>
-      <c r="R77" s="40" t="s">
+      <c r="R77" s="38" t="s">
         <v>143</v>
       </c>
       <c r="S77" s="7">
@@ -16805,11 +16194,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:28">
       <c r="A78" s="4">
         <v>82</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="36" t="s">
         <v>156</v>
       </c>
       <c r="D78" s="7">
@@ -16821,7 +16210,7 @@
       <c r="J78" s="4">
         <v>81</v>
       </c>
-      <c r="K78" s="40" t="s">
+      <c r="K78" s="38" t="s">
         <v>154</v>
       </c>
       <c r="L78" s="7">
@@ -16839,7 +16228,7 @@
       <c r="Q78" s="4">
         <v>77</v>
       </c>
-      <c r="R78" s="40" t="s">
+      <c r="R78" s="38" t="s">
         <v>146</v>
       </c>
       <c r="S78" s="7">
@@ -16855,11 +16244,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" s="3" customFormat="1" spans="1:28">
+    <row r="79" spans="1:28" s="3" customFormat="1">
       <c r="A79" s="4">
         <v>83</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="36" t="s">
         <v>157</v>
       </c>
       <c r="C79" s="6"/>
@@ -16874,7 +16263,7 @@
       <c r="J79" s="14">
         <v>54</v>
       </c>
-      <c r="K79" s="43" t="s">
+      <c r="K79" s="41" t="s">
         <v>108</v>
       </c>
       <c r="L79" s="14">
@@ -16890,7 +16279,7 @@
       <c r="Q79" s="4">
         <v>78</v>
       </c>
-      <c r="R79" s="40" t="s">
+      <c r="R79" s="38" t="s">
         <v>148</v>
       </c>
       <c r="S79" s="7">
@@ -16911,11 +16300,11 @@
       <c r="AA79" s="8"/>
       <c r="AB79" s="8"/>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:28">
       <c r="A80" s="4">
         <v>56</v>
       </c>
-      <c r="B80" s="38" t="s">
+      <c r="B80" s="36" t="s">
         <v>111</v>
       </c>
       <c r="D80" s="7">
@@ -16927,7 +16316,7 @@
       <c r="J80" s="4">
         <v>74</v>
       </c>
-      <c r="K80" s="40" t="s">
+      <c r="K80" s="38" t="s">
         <v>140</v>
       </c>
       <c r="L80" s="7">
@@ -16942,7 +16331,7 @@
       <c r="Q80" s="4">
         <v>79</v>
       </c>
-      <c r="R80" s="40" t="s">
+      <c r="R80" s="38" t="s">
         <v>150</v>
       </c>
       <c r="S80" s="7">
@@ -16958,11 +16347,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:28">
       <c r="A81" s="4">
         <v>57</v>
       </c>
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D81" s="7">
@@ -16974,7 +16363,7 @@
       <c r="J81" s="4">
         <v>72</v>
       </c>
-      <c r="K81" s="40" t="s">
+      <c r="K81" s="38" t="s">
         <v>137</v>
       </c>
       <c r="L81" s="7">
@@ -16986,7 +16375,7 @@
       <c r="Q81" s="14">
         <v>80</v>
       </c>
-      <c r="R81" s="43" t="s">
+      <c r="R81" s="41" t="s">
         <v>152</v>
       </c>
       <c r="S81" s="14">
@@ -17000,11 +16389,11 @@
       </c>
       <c r="V81" s="3"/>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:28">
       <c r="A82" s="4">
         <v>64</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="36" t="s">
         <v>126</v>
       </c>
       <c r="D82" s="7">
@@ -17016,7 +16405,7 @@
       <c r="J82" s="4">
         <v>70</v>
       </c>
-      <c r="K82" s="40" t="s">
+      <c r="K82" s="38" t="s">
         <v>28</v>
       </c>
       <c r="L82" s="7">
@@ -17034,7 +16423,7 @@
       <c r="Q82" s="4">
         <v>81</v>
       </c>
-      <c r="R82" s="40" t="s">
+      <c r="R82" s="38" t="s">
         <v>154</v>
       </c>
       <c r="S82" s="7">
@@ -17050,11 +16439,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:28">
       <c r="A83" s="7">
         <v>33</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D83" s="7" t="s">
@@ -17068,7 +16457,7 @@
       <c r="J83" s="4">
         <v>66</v>
       </c>
-      <c r="K83" s="40" t="s">
+      <c r="K83" s="38" t="s">
         <v>128</v>
       </c>
       <c r="L83" s="7">
@@ -17086,7 +16475,7 @@
       <c r="Q83" s="4">
         <v>82</v>
       </c>
-      <c r="R83" s="40" t="s">
+      <c r="R83" s="38" t="s">
         <v>156</v>
       </c>
       <c r="S83" s="7">
@@ -17096,11 +16485,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:28">
       <c r="A84" s="7">
         <v>34</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="36" t="s">
         <v>75</v>
       </c>
       <c r="D84" s="7" t="s">
@@ -17114,7 +16503,7 @@
       <c r="J84" s="4">
         <v>68</v>
       </c>
-      <c r="K84" s="40" t="s">
+      <c r="K84" s="38" t="s">
         <v>132</v>
       </c>
       <c r="L84" s="7">
@@ -17132,7 +16521,7 @@
       <c r="Q84" s="4">
         <v>83</v>
       </c>
-      <c r="R84" s="40" t="s">
+      <c r="R84" s="38" t="s">
         <v>157</v>
       </c>
       <c r="S84" s="7">
@@ -17142,11 +16531,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" spans="1:28">
+    <row r="85" spans="1:28" s="2" customFormat="1">
       <c r="A85" s="4">
         <v>59</v>
       </c>
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C85" s="6"/>
@@ -17161,7 +16550,7 @@
       <c r="J85" s="7">
         <v>49</v>
       </c>
-      <c r="K85" s="42" t="s">
+      <c r="K85" s="40" t="s">
         <v>99</v>
       </c>
       <c r="L85" s="7" t="s">
@@ -17174,7 +16563,7 @@
       <c r="Q85" s="4">
         <v>84</v>
       </c>
-      <c r="R85" s="40" t="s">
+      <c r="R85" s="38" t="s">
         <v>158</v>
       </c>
       <c r="S85" s="7">
@@ -17193,11 +16582,11 @@
       <c r="AA85" s="8"/>
       <c r="AB85" s="8"/>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:28">
       <c r="A86" s="4">
         <v>89</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="36" t="s">
         <v>169</v>
       </c>
       <c r="D86" s="7">
@@ -17209,7 +16598,7 @@
       <c r="J86" s="4">
         <v>76</v>
       </c>
-      <c r="K86" s="40" t="s">
+      <c r="K86" s="38" t="s">
         <v>143</v>
       </c>
       <c r="L86" s="7">
@@ -17227,7 +16616,7 @@
       <c r="Q86" s="14">
         <v>85</v>
       </c>
-      <c r="R86" s="43" t="s">
+      <c r="R86" s="41" t="s">
         <v>161</v>
       </c>
       <c r="S86" s="14">
@@ -17239,11 +16628,11 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:28">
       <c r="A87" s="14">
         <v>47</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="36" t="s">
         <v>97</v>
       </c>
       <c r="D87" s="14">
@@ -17259,7 +16648,7 @@
       <c r="J87" s="4">
         <v>73</v>
       </c>
-      <c r="K87" s="40" t="s">
+      <c r="K87" s="38" t="s">
         <v>138</v>
       </c>
       <c r="L87" s="7">
@@ -17277,7 +16666,7 @@
       <c r="Q87" s="4">
         <v>86</v>
       </c>
-      <c r="R87" s="40" t="s">
+      <c r="R87" s="38" t="s">
         <v>163</v>
       </c>
       <c r="S87" s="7">
@@ -17287,11 +16676,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:28">
       <c r="A88" s="14">
         <v>39</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="36" t="s">
         <v>80</v>
       </c>
       <c r="D88" s="14">
@@ -17307,7 +16696,7 @@
       <c r="J88" s="4">
         <v>79</v>
       </c>
-      <c r="K88" s="40" t="s">
+      <c r="K88" s="38" t="s">
         <v>150</v>
       </c>
       <c r="L88" s="7">
@@ -17325,7 +16714,7 @@
       <c r="Q88" s="4">
         <v>87</v>
       </c>
-      <c r="R88" s="40" t="s">
+      <c r="R88" s="38" t="s">
         <v>165</v>
       </c>
       <c r="S88" s="7">
@@ -17335,11 +16724,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:28">
       <c r="A89" s="14">
         <v>48</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D89" s="14">
@@ -17353,7 +16742,7 @@
       <c r="J89" s="4">
         <v>71</v>
       </c>
-      <c r="K89" s="40" t="s">
+      <c r="K89" s="38" t="s">
         <v>136</v>
       </c>
       <c r="L89" s="7">
@@ -17365,7 +16754,7 @@
       <c r="Q89" s="7">
         <v>88</v>
       </c>
-      <c r="R89" s="42" t="s">
+      <c r="R89" s="40" t="s">
         <v>167</v>
       </c>
       <c r="S89" s="7">
@@ -17377,11 +16766,11 @@
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:28">
       <c r="A90" s="4">
         <v>55</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="36" t="s">
         <v>110</v>
       </c>
       <c r="D90" s="7">
@@ -17393,7 +16782,7 @@
       <c r="J90" s="4">
         <v>78</v>
       </c>
-      <c r="K90" s="40" t="s">
+      <c r="K90" s="38" t="s">
         <v>148</v>
       </c>
       <c r="L90" s="7">
@@ -17411,7 +16800,7 @@
       <c r="Q90" s="4">
         <v>89</v>
       </c>
-      <c r="R90" s="40" t="s">
+      <c r="R90" s="38" t="s">
         <v>169</v>
       </c>
       <c r="S90" s="7">
@@ -17421,11 +16810,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:28">
       <c r="A91" s="14">
         <v>54</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D91" s="14">
@@ -17441,7 +16830,7 @@
       <c r="J91" s="4">
         <v>69</v>
       </c>
-      <c r="K91" s="40" t="s">
+      <c r="K91" s="38" t="s">
         <v>133</v>
       </c>
       <c r="L91" s="7">
@@ -17459,7 +16848,7 @@
       <c r="Q91" s="14">
         <v>90</v>
       </c>
-      <c r="R91" s="43" t="s">
+      <c r="R91" s="41" t="s">
         <v>170</v>
       </c>
       <c r="S91" s="14">
@@ -17471,11 +16860,11 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:28">
       <c r="A92" s="4">
         <v>74</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="36" t="s">
         <v>140</v>
       </c>
       <c r="D92" s="7">
@@ -17487,7 +16876,7 @@
       <c r="J92" s="4">
         <v>67</v>
       </c>
-      <c r="K92" s="40" t="s">
+      <c r="K92" s="38" t="s">
         <v>130</v>
       </c>
       <c r="L92" s="7">
@@ -17505,7 +16894,7 @@
       <c r="Q92" s="4">
         <v>91</v>
       </c>
-      <c r="R92" s="40" t="s">
+      <c r="R92" s="38" t="s">
         <v>171</v>
       </c>
       <c r="S92" s="7">
@@ -17515,11 +16904,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:28">
       <c r="A93" s="4">
         <v>72</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B93" s="36" t="s">
         <v>137</v>
       </c>
       <c r="D93" s="7">
@@ -17531,7 +16920,7 @@
       <c r="J93" s="4">
         <v>77</v>
       </c>
-      <c r="K93" s="40" t="s">
+      <c r="K93" s="38" t="s">
         <v>146</v>
       </c>
       <c r="L93" s="7">
@@ -17549,7 +16938,7 @@
       <c r="Q93" s="4">
         <v>92</v>
       </c>
-      <c r="R93" s="40" t="s">
+      <c r="R93" s="38" t="s">
         <v>172</v>
       </c>
       <c r="S93" s="7">
@@ -17559,11 +16948,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" s="3" customFormat="1" spans="1:28">
+    <row r="94" spans="1:28" s="3" customFormat="1">
       <c r="A94" s="7">
         <v>49</v>
       </c>
-      <c r="B94" s="38" t="s">
+      <c r="B94" s="36" t="s">
         <v>99</v>
       </c>
       <c r="C94" s="6"/>
@@ -17578,7 +16967,7 @@
       <c r="J94" s="14">
         <v>80</v>
       </c>
-      <c r="K94" s="43" t="s">
+      <c r="K94" s="41" t="s">
         <v>152</v>
       </c>
       <c r="L94" s="14">
@@ -17594,7 +16983,7 @@
       <c r="Q94" s="4">
         <v>93</v>
       </c>
-      <c r="R94" s="40" t="s">
+      <c r="R94" s="38" t="s">
         <v>173</v>
       </c>
       <c r="S94" s="7">
@@ -17611,11 +17000,11 @@
       <c r="AA94" s="8"/>
       <c r="AB94" s="8"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:28">
       <c r="A95" s="4">
         <v>71</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B95" s="36" t="s">
         <v>136</v>
       </c>
       <c r="D95" s="7">
@@ -17627,7 +17016,7 @@
       <c r="J95" s="4">
         <v>87</v>
       </c>
-      <c r="K95" s="40" t="s">
+      <c r="K95" s="38" t="s">
         <v>165</v>
       </c>
       <c r="L95" s="7">
@@ -17639,7 +17028,7 @@
       <c r="Q95" s="4">
         <v>94</v>
       </c>
-      <c r="R95" s="40" t="s">
+      <c r="R95" s="38" t="s">
         <v>174</v>
       </c>
       <c r="S95" s="7">
@@ -17649,11 +17038,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" s="3" customFormat="1" spans="1:28">
+    <row r="96" spans="1:28" s="3" customFormat="1">
       <c r="A96" s="4">
         <v>77</v>
       </c>
-      <c r="B96" s="38" t="s">
+      <c r="B96" s="36" t="s">
         <v>146</v>
       </c>
       <c r="C96" s="6"/>
@@ -17668,7 +17057,7 @@
       <c r="J96" s="14">
         <v>85</v>
       </c>
-      <c r="K96" s="43" t="s">
+      <c r="K96" s="41" t="s">
         <v>161</v>
       </c>
       <c r="L96" s="14">
@@ -17681,7 +17070,7 @@
       <c r="Q96" s="4">
         <v>95</v>
       </c>
-      <c r="R96" s="40" t="s">
+      <c r="R96" s="38" t="s">
         <v>175</v>
       </c>
       <c r="S96" s="7">
@@ -17698,11 +17087,11 @@
       <c r="AA96" s="8"/>
       <c r="AB96" s="8"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:28">
       <c r="A97" s="14">
         <v>80</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="36" t="s">
         <v>152</v>
       </c>
       <c r="D97" s="14">
@@ -17718,7 +17107,7 @@
       <c r="J97" s="4">
         <v>98</v>
       </c>
-      <c r="K97" s="40" t="s">
+      <c r="K97" s="38" t="s">
         <v>179</v>
       </c>
       <c r="L97" s="7">
@@ -17736,7 +17125,7 @@
       <c r="Q97" s="4">
         <v>96</v>
       </c>
-      <c r="R97" s="40" t="s">
+      <c r="R97" s="38" t="s">
         <v>176</v>
       </c>
       <c r="S97" s="7">
@@ -17746,11 +17135,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:28">
       <c r="A98" s="4">
         <v>87</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="36" t="s">
         <v>165</v>
       </c>
       <c r="D98" s="7">
@@ -17762,7 +17151,7 @@
       <c r="J98" s="4">
         <v>97</v>
       </c>
-      <c r="K98" s="40" t="s">
+      <c r="K98" s="38" t="s">
         <v>177</v>
       </c>
       <c r="L98" s="7">
@@ -17780,7 +17169,7 @@
       <c r="Q98" s="4">
         <v>97</v>
       </c>
-      <c r="R98" s="40" t="s">
+      <c r="R98" s="38" t="s">
         <v>177</v>
       </c>
       <c r="S98" s="7">
@@ -17796,11 +17185,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:28">
       <c r="A99" s="14">
         <v>85</v>
       </c>
-      <c r="B99" s="38" t="s">
+      <c r="B99" s="36" t="s">
         <v>161</v>
       </c>
       <c r="D99" s="14">
@@ -17814,7 +17203,7 @@
       <c r="J99" s="4">
         <v>84</v>
       </c>
-      <c r="K99" s="40" t="s">
+      <c r="K99" s="38" t="s">
         <v>158</v>
       </c>
       <c r="L99" s="7">
@@ -17829,7 +17218,7 @@
       <c r="Q99" s="4">
         <v>98</v>
       </c>
-      <c r="R99" s="40" t="s">
+      <c r="R99" s="38" t="s">
         <v>179</v>
       </c>
       <c r="S99" s="7">
@@ -17845,11 +17234,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:28">
       <c r="A100" s="4">
         <v>84</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="36" t="s">
         <v>158</v>
       </c>
       <c r="D100" s="7">
@@ -17861,7 +17250,7 @@
       <c r="J100" s="4">
         <v>99</v>
       </c>
-      <c r="K100" s="40" t="s">
+      <c r="K100" s="38" t="s">
         <v>180</v>
       </c>
       <c r="L100" s="7">
@@ -17879,7 +17268,7 @@
       <c r="Q100" s="4">
         <v>99</v>
       </c>
-      <c r="R100" s="40" t="s">
+      <c r="R100" s="38" t="s">
         <v>180</v>
       </c>
       <c r="S100" s="7">
@@ -17895,11 +17284,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" s="3" customFormat="1" spans="1:28">
+    <row r="101" spans="1:28" s="3" customFormat="1">
       <c r="A101" s="14">
         <v>90</v>
       </c>
-      <c r="B101" s="38" t="s">
+      <c r="B101" s="36" t="s">
         <v>170</v>
       </c>
       <c r="C101" s="6"/>
@@ -17912,7 +17301,7 @@
       <c r="J101" s="14">
         <v>90</v>
       </c>
-      <c r="K101" s="43" t="s">
+      <c r="K101" s="41" t="s">
         <v>170</v>
       </c>
       <c r="L101" s="14">
@@ -17925,7 +17314,7 @@
       <c r="Q101" s="4">
         <v>100</v>
       </c>
-      <c r="R101" s="40" t="s">
+      <c r="R101" s="38" t="s">
         <v>181</v>
       </c>
       <c r="S101" s="7">
@@ -17942,11 +17331,11 @@
       <c r="AA101" s="8"/>
       <c r="AB101" s="8"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:28">
       <c r="A102" s="4">
         <v>91</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="36" t="s">
         <v>171</v>
       </c>
       <c r="D102" s="7">
@@ -17958,7 +17347,7 @@
       <c r="J102" s="4">
         <v>91</v>
       </c>
-      <c r="K102" s="40" t="s">
+      <c r="K102" s="38" t="s">
         <v>171</v>
       </c>
       <c r="L102" s="7">
@@ -17970,7 +17359,7 @@
       <c r="Q102" s="4">
         <v>101</v>
       </c>
-      <c r="R102" s="40" t="s">
+      <c r="R102" s="38" t="s">
         <v>182</v>
       </c>
       <c r="S102" s="7">
@@ -17980,11 +17369,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:28">
       <c r="A103" s="4">
         <v>92</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="36" t="s">
         <v>172</v>
       </c>
       <c r="D103" s="7">
@@ -17996,7 +17385,7 @@
       <c r="J103" s="4">
         <v>92</v>
       </c>
-      <c r="K103" s="40" t="s">
+      <c r="K103" s="38" t="s">
         <v>172</v>
       </c>
       <c r="L103" s="7">
@@ -18008,7 +17397,7 @@
       <c r="Q103" s="4">
         <v>102</v>
       </c>
-      <c r="R103" s="40" t="s">
+      <c r="R103" s="38" t="s">
         <v>184</v>
       </c>
       <c r="S103" s="7">
@@ -18018,11 +17407,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:28">
       <c r="A104" s="4">
         <v>93</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="36" t="s">
         <v>173</v>
       </c>
       <c r="D104" s="7">
@@ -18034,7 +17423,7 @@
       <c r="J104" s="4">
         <v>93</v>
       </c>
-      <c r="K104" s="40" t="s">
+      <c r="K104" s="38" t="s">
         <v>173</v>
       </c>
       <c r="L104" s="7">
@@ -18046,7 +17435,7 @@
       <c r="Q104" s="4">
         <v>103</v>
       </c>
-      <c r="R104" s="40" t="s">
+      <c r="R104" s="38" t="s">
         <v>186</v>
       </c>
       <c r="S104" s="7">
@@ -18056,11 +17445,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:28">
       <c r="A105" s="4">
         <v>94</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="36" t="s">
         <v>174</v>
       </c>
       <c r="D105" s="7">
@@ -18072,7 +17461,7 @@
       <c r="J105" s="4">
         <v>94</v>
       </c>
-      <c r="K105" s="40" t="s">
+      <c r="K105" s="38" t="s">
         <v>174</v>
       </c>
       <c r="L105" s="7">
@@ -18084,7 +17473,7 @@
       <c r="Q105" s="4">
         <v>104</v>
       </c>
-      <c r="R105" s="40" t="s">
+      <c r="R105" s="38" t="s">
         <v>188</v>
       </c>
       <c r="S105" s="7">
@@ -18094,11 +17483,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:28">
       <c r="A106" s="4">
         <v>95</v>
       </c>
-      <c r="B106" s="38" t="s">
+      <c r="B106" s="36" t="s">
         <v>175</v>
       </c>
       <c r="D106" s="7">
@@ -18110,7 +17499,7 @@
       <c r="J106" s="4">
         <v>95</v>
       </c>
-      <c r="K106" s="40" t="s">
+      <c r="K106" s="38" t="s">
         <v>175</v>
       </c>
       <c r="L106" s="7">
@@ -18122,7 +17511,7 @@
       <c r="Q106" s="7">
         <v>105</v>
       </c>
-      <c r="R106" s="42" t="s">
+      <c r="R106" s="40" t="s">
         <v>190</v>
       </c>
       <c r="S106" s="7">
@@ -18134,11 +17523,11 @@
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:28">
       <c r="A107" s="4">
         <v>96</v>
       </c>
-      <c r="B107" s="38" t="s">
+      <c r="B107" s="36" t="s">
         <v>176</v>
       </c>
       <c r="D107" s="7">
@@ -18150,7 +17539,7 @@
       <c r="J107" s="4">
         <v>96</v>
       </c>
-      <c r="K107" s="40" t="s">
+      <c r="K107" s="38" t="s">
         <v>176</v>
       </c>
       <c r="L107" s="7">
@@ -18162,7 +17551,7 @@
       <c r="Q107" s="4">
         <v>106</v>
       </c>
-      <c r="R107" s="40" t="s">
+      <c r="R107" s="38" t="s">
         <v>191</v>
       </c>
       <c r="S107" s="7">
@@ -18172,11 +17561,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:28">
       <c r="A108" s="4">
         <v>86</v>
       </c>
-      <c r="B108" s="38" t="s">
+      <c r="B108" s="36" t="s">
         <v>163</v>
       </c>
       <c r="D108" s="7">
@@ -18188,7 +17577,7 @@
       <c r="J108" s="4">
         <v>86</v>
       </c>
-      <c r="K108" s="40" t="s">
+      <c r="K108" s="38" t="s">
         <v>163</v>
       </c>
       <c r="L108" s="7">
@@ -18200,7 +17589,7 @@
       <c r="Q108" s="4">
         <v>107</v>
       </c>
-      <c r="R108" s="40" t="s">
+      <c r="R108" s="38" t="s">
         <v>192</v>
       </c>
       <c r="S108" s="7">
@@ -18210,11 +17599,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" spans="1:28">
+    <row r="109" spans="1:28" s="2" customFormat="1">
       <c r="A109" s="7">
         <v>88</v>
       </c>
-      <c r="B109" s="38" t="s">
+      <c r="B109" s="36" t="s">
         <v>167</v>
       </c>
       <c r="C109" s="6"/>
@@ -18227,7 +17616,7 @@
       <c r="J109" s="7">
         <v>88</v>
       </c>
-      <c r="K109" s="42" t="s">
+      <c r="K109" s="40" t="s">
         <v>167</v>
       </c>
       <c r="L109" s="7">
@@ -18240,7 +17629,7 @@
       <c r="Q109" s="4">
         <v>108</v>
       </c>
-      <c r="R109" s="40" t="s">
+      <c r="R109" s="38" t="s">
         <v>193</v>
       </c>
       <c r="S109" s="7">
@@ -18257,11 +17646,11 @@
       <c r="AA109" s="8"/>
       <c r="AB109" s="8"/>
     </row>
-    <row r="110" s="2" customFormat="1" spans="1:28">
+    <row r="110" spans="1:28" s="2" customFormat="1">
       <c r="A110" s="7">
         <v>105</v>
       </c>
-      <c r="B110" s="38" t="s">
+      <c r="B110" s="36" t="s">
         <v>190</v>
       </c>
       <c r="C110" s="6"/>
@@ -18274,7 +17663,7 @@
       <c r="J110" s="7">
         <v>105</v>
       </c>
-      <c r="K110" s="42" t="s">
+      <c r="K110" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L110" s="7">
@@ -18287,7 +17676,7 @@
       <c r="Q110" s="4">
         <v>109</v>
       </c>
-      <c r="R110" s="40" t="s">
+      <c r="R110" s="38" t="s">
         <v>194</v>
       </c>
       <c r="S110" s="7">
@@ -18304,11 +17693,11 @@
       <c r="AA110" s="8"/>
       <c r="AB110" s="8"/>
     </row>
-    <row r="111" s="2" customFormat="1" spans="1:28">
+    <row r="111" spans="1:28" s="2" customFormat="1">
       <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="38" t="s">
+      <c r="B111" s="36" t="s">
         <v>224</v>
       </c>
       <c r="C111" s="6"/>
@@ -18321,7 +17710,7 @@
       <c r="J111" s="7">
         <v>110</v>
       </c>
-      <c r="K111" s="42" t="s">
+      <c r="K111" s="40" t="s">
         <v>224</v>
       </c>
       <c r="L111" s="7" t="s">
@@ -18334,7 +17723,7 @@
       <c r="Q111" s="7">
         <v>110</v>
       </c>
-      <c r="R111" s="42" t="s">
+      <c r="R111" s="40" t="s">
         <v>224</v>
       </c>
       <c r="S111" s="7" t="s">
@@ -18349,11 +17738,11 @@
       <c r="AA111" s="8"/>
       <c r="AB111" s="8"/>
     </row>
-    <row r="112" s="2" customFormat="1" spans="1:28">
+    <row r="112" spans="1:28" s="2" customFormat="1">
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="38" t="s">
+      <c r="B112" s="36" t="s">
         <v>225</v>
       </c>
       <c r="C112" s="6"/>
@@ -18366,7 +17755,7 @@
       <c r="J112" s="7">
         <v>111</v>
       </c>
-      <c r="K112" s="42" t="s">
+      <c r="K112" s="40" t="s">
         <v>225</v>
       </c>
       <c r="L112" s="7" t="s">
@@ -18379,7 +17768,7 @@
       <c r="Q112" s="7">
         <v>111</v>
       </c>
-      <c r="R112" s="42" t="s">
+      <c r="R112" s="40" t="s">
         <v>225</v>
       </c>
       <c r="S112" s="7" t="s">
@@ -18395,27 +17784,22 @@
       <c r="AB112" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="Q2:V112">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q2:V112">
     <sortCondition ref="Q2:Q112"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/EnemyTemplates.xlsx
+++ b/data/EnemyTemplates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bravo Properties\Documents\Gaming\Illusion of Gaia Randomizer\IoGR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC8961D-AC40-4D31-B190-F388A8F4CD47}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFAC4E8-B4E8-4385-9EA0-6EA12A2CFFD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="2415" windowWidth="13635" windowHeight="10455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StatTable" sheetId="2" r:id="rId1"/>
@@ -12128,11 +12128,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35818607-11B3-41C6-B270-49FA9E0DEE59}">
   <dimension ref="A1:AA112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N95" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3:Y112"/>
+      <selection pane="bottomRight" activeCell="V104" sqref="V104:V107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -20405,8 +20405,8 @@
         <v>11</v>
       </c>
       <c r="J87" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v>03</v>
+        <f>$F87</f>
+        <v>14</v>
       </c>
       <c r="K87" s="33" t="str">
         <f t="shared" si="17"/>
@@ -20421,8 +20421,8 @@
         <v>00</v>
       </c>
       <c r="N87" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>06</v>
+        <f>$F87</f>
+        <v>14</v>
       </c>
       <c r="O87" s="33" t="str">
         <f t="shared" si="23"/>
@@ -20437,8 +20437,8 @@
         <v>00</v>
       </c>
       <c r="R87" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>0A</v>
+        <f>$F87</f>
+        <v>14</v>
       </c>
       <c r="S87" s="4" t="str">
         <f t="shared" si="27"/>
@@ -20453,7 +20453,7 @@
         <v>00</v>
       </c>
       <c r="V87" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f>$F87</f>
         <v>14</v>
       </c>
       <c r="W87" s="4" t="str">
@@ -20504,7 +20504,7 @@
         <v>11</v>
       </c>
       <c r="J88" s="32" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="J88:J91" si="33">$F88</f>
         <v>28</v>
       </c>
       <c r="K88" s="33" t="str">
@@ -20520,7 +20520,7 @@
         <v>00</v>
       </c>
       <c r="N88" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="N88:N91" si="34">$F88</f>
         <v>28</v>
       </c>
       <c r="O88" s="33" t="str">
@@ -20536,7 +20536,7 @@
         <v>00</v>
       </c>
       <c r="R88" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="R88:R91" si="35">$F88</f>
         <v>28</v>
       </c>
       <c r="S88" s="14" t="str">
@@ -20552,7 +20552,7 @@
         <v>00</v>
       </c>
       <c r="V88" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="V88:V91" si="36">$F88</f>
         <v>28</v>
       </c>
       <c r="W88" s="14" t="str">
@@ -20603,8 +20603,8 @@
         <v>11</v>
       </c>
       <c r="J89" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v>01</v>
+        <f t="shared" si="33"/>
+        <v>0A</v>
       </c>
       <c r="K89" s="33" t="str">
         <f t="shared" si="17"/>
@@ -20619,8 +20619,8 @@
         <v>00</v>
       </c>
       <c r="N89" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>03</v>
+        <f t="shared" si="34"/>
+        <v>0A</v>
       </c>
       <c r="O89" s="33" t="str">
         <f t="shared" si="23"/>
@@ -20635,8 +20635,8 @@
         <v>00</v>
       </c>
       <c r="R89" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>05</v>
+        <f t="shared" si="35"/>
+        <v>0A</v>
       </c>
       <c r="S89" s="4" t="str">
         <f t="shared" si="27"/>
@@ -20651,7 +20651,7 @@
         <v>00</v>
       </c>
       <c r="V89" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0A</v>
       </c>
       <c r="W89" s="4" t="str">
@@ -20702,7 +20702,7 @@
         <v>11</v>
       </c>
       <c r="J90" s="32" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>01</v>
       </c>
       <c r="K90" s="33" t="str">
@@ -20718,7 +20718,7 @@
         <v>00</v>
       </c>
       <c r="N90" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>01</v>
       </c>
       <c r="O90" s="33" t="str">
@@ -20734,8 +20734,8 @@
         <v>00</v>
       </c>
       <c r="R90" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>02</v>
+        <f t="shared" si="35"/>
+        <v>01</v>
       </c>
       <c r="S90" s="4" t="str">
         <f t="shared" si="27"/>
@@ -20750,7 +20750,7 @@
         <v>00</v>
       </c>
       <c r="V90" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>01</v>
       </c>
       <c r="W90" s="4" t="str">
@@ -20801,8 +20801,8 @@
         <v>11</v>
       </c>
       <c r="J91" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v>03</v>
+        <f t="shared" si="33"/>
+        <v>14</v>
       </c>
       <c r="K91" s="33" t="str">
         <f t="shared" si="17"/>
@@ -20817,8 +20817,8 @@
         <v>00</v>
       </c>
       <c r="N91" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>06</v>
+        <f t="shared" si="34"/>
+        <v>14</v>
       </c>
       <c r="O91" s="33" t="str">
         <f t="shared" si="23"/>
@@ -20833,8 +20833,8 @@
         <v>00</v>
       </c>
       <c r="R91" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>0A</v>
+        <f t="shared" si="35"/>
+        <v>14</v>
       </c>
       <c r="S91" s="4" t="str">
         <f t="shared" si="27"/>
@@ -20849,7 +20849,7 @@
         <v>00</v>
       </c>
       <c r="V91" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>14</v>
       </c>
       <c r="W91" s="4" t="str">
@@ -22034,7 +22034,7 @@
         <v>11</v>
       </c>
       <c r="J104" s="32" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="J104:J107" si="37">$F104</f>
         <v>01</v>
       </c>
       <c r="K104" s="33" t="str">
@@ -22050,7 +22050,7 @@
         <v>00</v>
       </c>
       <c r="N104" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="N104:N107" si="38">$F104</f>
         <v>01</v>
       </c>
       <c r="O104" s="33" t="str">
@@ -22066,8 +22066,8 @@
         <v>00</v>
       </c>
       <c r="R104" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>02</v>
+        <f t="shared" ref="R104:R107" si="39">$F104</f>
+        <v>01</v>
       </c>
       <c r="S104" s="14" t="str">
         <f t="shared" si="27"/>
@@ -22082,7 +22082,7 @@
         <v>00</v>
       </c>
       <c r="V104" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="V104:V107" si="40">$F104</f>
         <v>01</v>
       </c>
       <c r="W104" s="14" t="str">
@@ -22133,8 +22133,8 @@
         <v>11</v>
       </c>
       <c r="J105" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v>01</v>
+        <f t="shared" si="37"/>
+        <v>0A</v>
       </c>
       <c r="K105" s="33" t="str">
         <f t="shared" si="17"/>
@@ -22149,8 +22149,8 @@
         <v>00</v>
       </c>
       <c r="N105" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>03</v>
+        <f t="shared" si="38"/>
+        <v>0A</v>
       </c>
       <c r="O105" s="33" t="str">
         <f t="shared" si="23"/>
@@ -22165,8 +22165,8 @@
         <v>00</v>
       </c>
       <c r="R105" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>05</v>
+        <f t="shared" si="39"/>
+        <v>0A</v>
       </c>
       <c r="S105" s="14" t="str">
         <f t="shared" si="27"/>
@@ -22181,7 +22181,7 @@
         <v>00</v>
       </c>
       <c r="V105" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>0A</v>
       </c>
       <c r="W105" s="14" t="str">
@@ -22231,9 +22231,9 @@
       <c r="I106" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J106" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v>03</v>
+      <c r="J106" s="32">
+        <f t="shared" si="37"/>
+        <v>14</v>
       </c>
       <c r="K106" s="33" t="str">
         <f t="shared" si="17"/>
@@ -22247,9 +22247,9 @@
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="N106" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>06</v>
+      <c r="N106" s="32">
+        <f t="shared" si="38"/>
+        <v>14</v>
       </c>
       <c r="O106" s="33" t="str">
         <f t="shared" si="23"/>
@@ -22263,9 +22263,9 @@
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="R106" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>0A</v>
+      <c r="R106" s="32">
+        <f t="shared" si="39"/>
+        <v>14</v>
       </c>
       <c r="S106" s="14" t="str">
         <f t="shared" si="27"/>
@@ -22280,7 +22280,7 @@
         <v>00</v>
       </c>
       <c r="V106" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="W106" s="14" t="str">
@@ -22331,7 +22331,7 @@
         <v>11</v>
       </c>
       <c r="J107" s="32" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>28</v>
       </c>
       <c r="K107" s="33" t="str">
@@ -22347,7 +22347,7 @@
         <v>00</v>
       </c>
       <c r="N107" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>28</v>
       </c>
       <c r="O107" s="33" t="str">
@@ -22363,7 +22363,7 @@
         <v>00</v>
       </c>
       <c r="R107" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>28</v>
       </c>
       <c r="S107" s="14" t="str">
@@ -22379,7 +22379,7 @@
         <v>00</v>
       </c>
       <c r="V107" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>28</v>
       </c>
       <c r="W107" s="14" t="str">
@@ -28654,8 +28654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" activeCellId="1" sqref="B14:E14 B16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28849,16 +28849,16 @@
         <v>250</v>
       </c>
       <c r="B14" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E14" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -28883,16 +28883,16 @@
         <v>251</v>
       </c>
       <c r="B16" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -28917,13 +28917,13 @@
         <v>243</v>
       </c>
       <c r="B18" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D18" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4">
         <v>6</v>
@@ -28960,11 +28960,11 @@
       </c>
       <c r="D20" s="4">
         <f>D13+D14*D15+D16*D17+D18*D19</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4">
         <f>E13+E14*E15+E16*E17+E18*E19</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/EnemyTemplates.xlsx
+++ b/data/EnemyTemplates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bravo Properties\Documents\Gaming\Illusion of Gaia Randomizer\IoGR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE388A9-D421-41AA-B9AB-B569A878A9E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB544272-F39A-4B1B-8E0A-EB3523B00BCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1361,10 +1361,10 @@
   <dimension ref="A1:AE112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:M112"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3:K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1549,11 +1549,11 @@
         <v>11</v>
       </c>
       <c r="J3" s="22" t="str">
-        <f t="shared" ref="J3:J66" si="0">IF(OR($F3="28",$F3="00",$F3="7F",$F3="FF"),$F3,DEC2HEX(MAX(ROUND((3.25*LN(0.75*HEX2DEC($F3))-2),0),1),2))</f>
+        <f>IF(OR($F3="28",$F3="00",$F3="7F",$F3="FF"),$F3,DEC2HEX(MAX(ROUND((0.255*HEX2DEC($F3)+0.63),0),1),2))</f>
         <v>00</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f>IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*5/12+1,0),2),2))</f>
+        <f>IF($G3="00",$G3,DEC2HEX(MAX(ROUND(0.4145*HEX2DEC($G3)+1.669,0),2),2))</f>
         <v>00</v>
       </c>
       <c r="L3" s="4" t="str">
@@ -1565,11 +1565,11 @@
         <v>00</v>
       </c>
       <c r="N3" s="22" t="str">
-        <f t="shared" ref="N3:N67" si="1">IF(OR($F3="28",$F3="00"),$F3,DEC2HEX(MAX(ROUND(HEX2DEC($F3)*2/3,0),1),2))</f>
+        <f t="shared" ref="N3:N67" si="0">IF(OR($F3="28",$F3="00"),$F3,DEC2HEX(MAX(ROUND(HEX2DEC($F3)*2/3,0),1),2))</f>
         <v>00</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O66" si="2">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*7/30,0),1),2))</f>
+        <f t="shared" ref="O3:O66" si="1">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*7/30,0),1),2))</f>
         <v>00</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -1583,7 +1583,7 @@
         <v>00</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S66" si="3">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*7/30,0),1),2))</f>
+        <f t="shared" ref="S3:S66" si="2">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*7/30,0),1),2))</f>
         <v>00</v>
       </c>
       <c r="T3" s="4" t="str">
@@ -1599,7 +1599,7 @@
         <v>00</v>
       </c>
       <c r="W3" s="4" t="str">
-        <f t="shared" ref="W3:W66" si="4">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*6/15+1,0),2),2))</f>
+        <f t="shared" ref="W3:W66" si="3">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*6/15+1,0),2),2))</f>
         <v>00</v>
       </c>
       <c r="X3" s="4" t="str">
@@ -1615,7 +1615,7 @@
         <v>00</v>
       </c>
       <c r="AA3" s="4" t="str">
-        <f t="shared" ref="AA3:AA66" si="5">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*6/15+3,0),2),2))</f>
+        <f t="shared" ref="AA3:AA66" si="4">IF($G3="00",$G3,DEC2HEX(MAX(ROUND(HEX2DEC($G3)*6/15+3,0),2),2))</f>
         <v>00</v>
       </c>
       <c r="AB3" s="4" t="str">
@@ -1656,11 +1656,11 @@
         <v>14</v>
       </c>
       <c r="J4" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>03</v>
+        <f t="shared" ref="J4:J67" si="5">IF(OR($F4="28",$F4="00",$F4="7F",$F4="FF"),$F4,DEC2HEX(MAX(ROUND((0.255*HEX2DEC($F4)+0.63),0),1),2))</f>
+        <v>02</v>
       </c>
       <c r="K4" s="4" t="str">
-        <f t="shared" ref="K4:K67" si="6">IF($G4="00",$G4,DEC2HEX(MAX(ROUND(HEX2DEC($G4)*5/12+1,0),2),2))</f>
+        <f t="shared" ref="K4:K67" si="6">IF($G4="00",$G4,DEC2HEX(MAX(ROUND(0.4145*HEX2DEC($G4)+1.669,0),2),2))</f>
         <v>02</v>
       </c>
       <c r="L4" s="4" t="str">
@@ -1672,11 +1672,11 @@
         <v>02</v>
       </c>
       <c r="N4" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>04</v>
+      </c>
+      <c r="O4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-      <c r="O4" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P4" s="4" t="str">
@@ -1692,7 +1692,7 @@
         <v>06</v>
       </c>
       <c r="S4" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T4" s="4" t="str">
@@ -1708,7 +1708,7 @@
         <v>06</v>
       </c>
       <c r="W4" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X4" s="4" t="str">
@@ -1724,7 +1724,7 @@
         <v>06</v>
       </c>
       <c r="AA4" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="AB4" s="4" t="str">
@@ -1771,7 +1771,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>02</v>
       </c>
       <c r="K5" s="4" t="str">
@@ -1787,11 +1787,11 @@
         <v>01</v>
       </c>
       <c r="N5" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>03</v>
+      </c>
+      <c r="O5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-      <c r="O5" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P5" s="4" t="str">
@@ -1807,7 +1807,7 @@
         <v>05</v>
       </c>
       <c r="S5" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T5" s="4" t="str">
@@ -1823,7 +1823,7 @@
         <v>05</v>
       </c>
       <c r="W5" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X5" s="4" t="str">
@@ -1839,7 +1839,7 @@
         <v>05</v>
       </c>
       <c r="AA5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
       <c r="AB5" s="4" t="str">
@@ -1886,12 +1886,12 @@
         <v>19</v>
       </c>
       <c r="J6" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>05</v>
+        <f t="shared" si="5"/>
+        <v>03</v>
       </c>
       <c r="K6" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="L6" s="4" t="str">
         <f t="shared" si="7"/>
@@ -1902,11 +1902,11 @@
         <v>03</v>
       </c>
       <c r="N6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>07</v>
+      </c>
+      <c r="O6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>07</v>
-      </c>
-      <c r="O6" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P6" s="4" t="str">
@@ -1922,7 +1922,7 @@
         <v>0A</v>
       </c>
       <c r="S6" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T6" s="4" t="str">
@@ -1938,7 +1938,7 @@
         <v>0A</v>
       </c>
       <c r="W6" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X6" s="4" t="str">
@@ -1954,7 +1954,7 @@
         <v>0A</v>
       </c>
       <c r="AA6" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="AB6" s="4" t="str">
@@ -2001,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>01</v>
       </c>
       <c r="K7" s="4" t="str">
@@ -2017,11 +2017,11 @@
         <v>01</v>
       </c>
       <c r="N7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+      <c r="O7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-      <c r="O7" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P7" s="4" t="str">
@@ -2037,7 +2037,7 @@
         <v>03</v>
       </c>
       <c r="S7" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T7" s="4" t="str">
@@ -2053,7 +2053,7 @@
         <v>03</v>
       </c>
       <c r="W7" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X7" s="4" t="str">
@@ -2069,7 +2069,7 @@
         <v>03</v>
       </c>
       <c r="AA7" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="AB7" s="4" t="str">
@@ -2116,7 +2116,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>01</v>
       </c>
       <c r="K8" s="4" t="str">
@@ -2132,11 +2132,11 @@
         <v>01</v>
       </c>
       <c r="N8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+      <c r="O8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-      <c r="O8" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P8" s="4" t="str">
@@ -2152,7 +2152,7 @@
         <v>03</v>
       </c>
       <c r="S8" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T8" s="4" t="str">
@@ -2168,7 +2168,7 @@
         <v>03</v>
       </c>
       <c r="W8" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X8" s="4" t="str">
@@ -2184,7 +2184,7 @@
         <v>03</v>
       </c>
       <c r="AA8" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
       <c r="AB8" s="4" t="str">
@@ -2231,7 +2231,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>7F</v>
       </c>
       <c r="K9" s="4" t="str">
@@ -2247,11 +2247,11 @@
         <v>00</v>
       </c>
       <c r="N9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="O9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="O9" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P9" s="4" t="str">
@@ -2267,7 +2267,7 @@
         <v>7F</v>
       </c>
       <c r="S9" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="T9" s="4" t="str">
@@ -2283,7 +2283,7 @@
         <v>7F</v>
       </c>
       <c r="W9" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="X9" s="4" t="str">
@@ -2299,7 +2299,7 @@
         <v>7F</v>
       </c>
       <c r="AA9" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="AB9" s="4" t="str">
@@ -2340,8 +2340,8 @@
         <v>11</v>
       </c>
       <c r="J10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>04</v>
+        <f t="shared" si="5"/>
+        <v>03</v>
       </c>
       <c r="K10" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2356,11 +2356,11 @@
         <v>00</v>
       </c>
       <c r="N10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>05</v>
+      </c>
+      <c r="O10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
-      </c>
-      <c r="O10" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P10" s="4" t="str">
@@ -2376,7 +2376,7 @@
         <v>08</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T10" s="4" t="str">
@@ -2392,7 +2392,7 @@
         <v>08</v>
       </c>
       <c r="W10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X10" s="4" t="str">
@@ -2408,7 +2408,7 @@
         <v>08</v>
       </c>
       <c r="AA10" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="AB10" s="4" t="str">
@@ -2449,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="J11" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>01</v>
       </c>
       <c r="K11" s="4" t="str">
@@ -2465,11 +2465,11 @@
         <v>00</v>
       </c>
       <c r="N11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+      <c r="O11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-      <c r="O11" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P11" s="4" t="str">
@@ -2485,7 +2485,7 @@
         <v>03</v>
       </c>
       <c r="S11" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T11" s="4" t="str">
@@ -2501,7 +2501,7 @@
         <v>03</v>
       </c>
       <c r="W11" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X11" s="4" t="str">
@@ -2517,7 +2517,7 @@
         <v>03</v>
       </c>
       <c r="AA11" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="AB11" s="4" t="str">
@@ -2558,8 +2558,8 @@
         <v>11</v>
       </c>
       <c r="J12" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>03</v>
+        <f t="shared" si="5"/>
+        <v>02</v>
       </c>
       <c r="K12" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2574,11 +2574,11 @@
         <v>00</v>
       </c>
       <c r="N12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>04</v>
+      </c>
+      <c r="O12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-      <c r="O12" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P12" s="4" t="str">
@@ -2594,7 +2594,7 @@
         <v>06</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T12" s="4" t="str">
@@ -2610,7 +2610,7 @@
         <v>06</v>
       </c>
       <c r="W12" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X12" s="4" t="str">
@@ -2626,7 +2626,7 @@
         <v>06</v>
       </c>
       <c r="AA12" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="AB12" s="4" t="str">
@@ -2667,8 +2667,8 @@
         <v>14</v>
       </c>
       <c r="J13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>04</v>
+        <f t="shared" si="5"/>
+        <v>03</v>
       </c>
       <c r="K13" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2683,11 +2683,11 @@
         <v>02</v>
       </c>
       <c r="N13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>05</v>
+      </c>
+      <c r="O13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
-      </c>
-      <c r="O13" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P13" s="4" t="str">
@@ -2703,7 +2703,7 @@
         <v>08</v>
       </c>
       <c r="S13" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T13" s="4" t="str">
@@ -2719,7 +2719,7 @@
         <v>08</v>
       </c>
       <c r="W13" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X13" s="4" t="str">
@@ -2735,7 +2735,7 @@
         <v>08</v>
       </c>
       <c r="AA13" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="AB13" s="4" t="str">
@@ -2782,12 +2782,12 @@
         <v>12</v>
       </c>
       <c r="J14" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>03</v>
+        <f t="shared" si="5"/>
+        <v>02</v>
       </c>
       <c r="K14" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="L14" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2798,11 +2798,11 @@
         <v>01</v>
       </c>
       <c r="N14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>04</v>
+      </c>
+      <c r="O14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-      <c r="O14" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P14" s="4" t="str">
@@ -2818,7 +2818,7 @@
         <v>06</v>
       </c>
       <c r="S14" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T14" s="4" t="str">
@@ -2834,7 +2834,7 @@
         <v>06</v>
       </c>
       <c r="W14" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X14" s="4" t="str">
@@ -2850,7 +2850,7 @@
         <v>06</v>
       </c>
       <c r="AA14" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="AB14" s="4" t="str">
@@ -2897,8 +2897,8 @@
         <v>12</v>
       </c>
       <c r="J15" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>04</v>
+        <f t="shared" si="5"/>
+        <v>03</v>
       </c>
       <c r="K15" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2913,11 +2913,11 @@
         <v>01</v>
       </c>
       <c r="N15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>06</v>
+      </c>
+      <c r="O15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>06</v>
-      </c>
-      <c r="O15" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P15" s="4" t="str">
@@ -2933,7 +2933,7 @@
         <v>09</v>
       </c>
       <c r="S15" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T15" s="4" t="str">
@@ -2949,7 +2949,7 @@
         <v>09</v>
       </c>
       <c r="W15" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X15" s="4" t="str">
@@ -2965,7 +2965,7 @@
         <v>09</v>
       </c>
       <c r="AA15" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="AB15" s="4" t="str">
@@ -3012,8 +3012,8 @@
         <v>14</v>
       </c>
       <c r="J16" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>05</v>
+        <f t="shared" si="5"/>
+        <v>03</v>
       </c>
       <c r="K16" s="4" t="str">
         <f t="shared" si="6"/>
@@ -3028,11 +3028,11 @@
         <v>02</v>
       </c>
       <c r="N16" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>07</v>
+      </c>
+      <c r="O16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>07</v>
-      </c>
-      <c r="O16" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P16" s="4" t="str">
@@ -3048,7 +3048,7 @@
         <v>0B</v>
       </c>
       <c r="S16" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T16" s="4" t="str">
@@ -3064,7 +3064,7 @@
         <v>0B</v>
       </c>
       <c r="W16" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>03</v>
       </c>
       <c r="X16" s="4" t="str">
@@ -3080,7 +3080,7 @@
         <v>0B</v>
       </c>
       <c r="AA16" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>05</v>
       </c>
       <c r="AB16" s="4" t="str">
@@ -3127,12 +3127,12 @@
         <v>19</v>
       </c>
       <c r="J17" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>04</v>
+        <f t="shared" si="5"/>
+        <v>03</v>
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="L17" s="4" t="str">
         <f t="shared" si="7"/>
@@ -3143,11 +3143,11 @@
         <v>03</v>
       </c>
       <c r="N17" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>05</v>
+      </c>
+      <c r="O17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
-      </c>
-      <c r="O17" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P17" s="4" t="str">
@@ -3163,7 +3163,7 @@
         <v>08</v>
       </c>
       <c r="S17" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T17" s="4" t="str">
@@ -3179,7 +3179,7 @@
         <v>08</v>
       </c>
       <c r="W17" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X17" s="4" t="str">
@@ -3195,7 +3195,7 @@
         <v>08</v>
       </c>
       <c r="AA17" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="AB17" s="4" t="str">
@@ -3242,12 +3242,12 @@
         <v>12</v>
       </c>
       <c r="J18" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>03</v>
+        <f t="shared" si="5"/>
+        <v>02</v>
       </c>
       <c r="K18" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="L18" s="4" t="str">
         <f t="shared" si="7"/>
@@ -3258,11 +3258,11 @@
         <v>01</v>
       </c>
       <c r="N18" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>04</v>
+      </c>
+      <c r="O18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>04</v>
-      </c>
-      <c r="O18" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P18" s="4" t="str">
@@ -3278,7 +3278,7 @@
         <v>06</v>
       </c>
       <c r="S18" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T18" s="4" t="str">
@@ -3294,7 +3294,7 @@
         <v>06</v>
       </c>
       <c r="W18" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X18" s="4" t="str">
@@ -3310,7 +3310,7 @@
         <v>06</v>
       </c>
       <c r="AA18" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="AB18" s="4" t="str">
@@ -3357,12 +3357,12 @@
         <v>11</v>
       </c>
       <c r="J19" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>06</v>
+        <f t="shared" si="5"/>
+        <v>04</v>
       </c>
       <c r="K19" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" si="7"/>
@@ -3373,11 +3373,11 @@
         <v>00</v>
       </c>
       <c r="N19" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>09</v>
+      </c>
+      <c r="O19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>09</v>
-      </c>
-      <c r="O19" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P19" s="4" t="str">
@@ -3393,7 +3393,7 @@
         <v>0E</v>
       </c>
       <c r="S19" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T19" s="4" t="str">
@@ -3409,7 +3409,7 @@
         <v>0E</v>
       </c>
       <c r="W19" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X19" s="4" t="str">
@@ -3425,7 +3425,7 @@
         <v>0E</v>
       </c>
       <c r="AA19" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>04</v>
       </c>
       <c r="AB19" s="4" t="str">
@@ -3472,12 +3472,12 @@
         <v>19</v>
       </c>
       <c r="J20" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>05</v>
+        <f t="shared" si="5"/>
+        <v>03</v>
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" si="7"/>
@@ -3488,11 +3488,11 @@
         <v>03</v>
       </c>
       <c r="N20" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>07</v>
+      </c>
+      <c r="O20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>07</v>
-      </c>
-      <c r="O20" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P20" s="4" t="str">
@@ -3508,7 +3508,7 @@
         <v>0A</v>
       </c>
       <c r="S20" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T20" s="4" t="str">
@@ -3524,7 +3524,7 @@
         <v>0A</v>
       </c>
       <c r="W20" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>03</v>
       </c>
       <c r="X20" s="4" t="str">
@@ -3540,7 +3540,7 @@
         <v>0A</v>
       </c>
       <c r="AA20" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>05</v>
       </c>
       <c r="AB20" s="4" t="str">
@@ -3581,7 +3581,7 @@
         <v>11</v>
       </c>
       <c r="J21" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="K21" s="4" t="str">
@@ -3597,11 +3597,11 @@
         <v>00</v>
       </c>
       <c r="N21" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="O21" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P21" s="4" t="str">
@@ -3617,7 +3617,7 @@
         <v>00</v>
       </c>
       <c r="S21" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="T21" s="4" t="str">
@@ -3633,7 +3633,7 @@
         <v>00</v>
       </c>
       <c r="W21" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="X21" s="4" t="str">
@@ -3649,7 +3649,7 @@
         <v>00</v>
       </c>
       <c r="AA21" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="AB21" s="4" t="str">
@@ -3690,7 +3690,7 @@
         <v>11</v>
       </c>
       <c r="J22" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="K22" s="4" t="str">
@@ -3706,11 +3706,11 @@
         <v>00</v>
       </c>
       <c r="N22" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="O22" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P22" s="4" t="str">
@@ -3726,7 +3726,7 @@
         <v>00</v>
       </c>
       <c r="S22" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="T22" s="4" t="str">
@@ -3742,7 +3742,7 @@
         <v>00</v>
       </c>
       <c r="W22" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="X22" s="4" t="str">
@@ -3758,7 +3758,7 @@
         <v>00</v>
       </c>
       <c r="AA22" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="AB22" s="4" t="str">
@@ -3799,12 +3799,12 @@
         <v>11</v>
       </c>
       <c r="J23" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="K23" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>04</v>
+        <v>05</v>
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" si="7"/>
@@ -3815,11 +3815,11 @@
         <v>00</v>
       </c>
       <c r="N23" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="O23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="O23" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P23" s="4" t="str">
@@ -3835,7 +3835,7 @@
         <v>28</v>
       </c>
       <c r="S23" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="T23" s="4" t="str">
@@ -3851,7 +3851,7 @@
         <v>28</v>
       </c>
       <c r="W23" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>04</v>
       </c>
       <c r="X23" s="4" t="str">
@@ -3867,7 +3867,7 @@
         <v>28</v>
       </c>
       <c r="AA23" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="AB23" s="4" t="str">
@@ -3911,7 +3911,7 @@
         <v>11</v>
       </c>
       <c r="J24" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="K24" s="4" t="str">
@@ -3927,11 +3927,11 @@
         <v>00</v>
       </c>
       <c r="N24" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="O24" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P24" s="4" t="str">
@@ -3947,7 +3947,7 @@
         <v>00</v>
       </c>
       <c r="S24" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="T24" s="4" t="str">
@@ -3963,7 +3963,7 @@
         <v>00</v>
       </c>
       <c r="W24" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="X24" s="4" t="str">
@@ -3979,7 +3979,7 @@
         <v>00</v>
       </c>
       <c r="AA24" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="AB24" s="4" t="str">
@@ -4020,7 +4020,7 @@
         <v>11</v>
       </c>
       <c r="J25" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="K25" s="4" t="str">
@@ -4036,11 +4036,11 @@
         <v>00</v>
       </c>
       <c r="N25" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="O25" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P25" s="4" t="str">
@@ -4056,7 +4056,7 @@
         <v>00</v>
       </c>
       <c r="S25" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="T25" s="4" t="str">
@@ -4072,7 +4072,7 @@
         <v>00</v>
       </c>
       <c r="W25" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="X25" s="4" t="str">
@@ -4088,7 +4088,7 @@
         <v>00</v>
       </c>
       <c r="AA25" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="AB25" s="4" t="str">
@@ -4129,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="J26" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="K26" s="4" t="str">
@@ -4145,11 +4145,11 @@
         <v>00</v>
       </c>
       <c r="N26" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="O26" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P26" s="4" t="str">
@@ -4165,7 +4165,7 @@
         <v>00</v>
       </c>
       <c r="S26" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="T26" s="4" t="str">
@@ -4181,7 +4181,7 @@
         <v>00</v>
       </c>
       <c r="W26" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="X26" s="4" t="str">
@@ -4197,7 +4197,7 @@
         <v>00</v>
       </c>
       <c r="AA26" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="AB26" s="4" t="str">
@@ -4238,8 +4238,8 @@
         <v>14</v>
       </c>
       <c r="J27" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>05</v>
+        <f t="shared" si="5"/>
+        <v>03</v>
       </c>
       <c r="K27" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4254,11 +4254,11 @@
         <v>02</v>
       </c>
       <c r="N27" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>07</v>
+      </c>
+      <c r="O27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>07</v>
-      </c>
-      <c r="O27" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P27" s="4" t="str">
@@ -4274,7 +4274,7 @@
         <v>0A</v>
       </c>
       <c r="S27" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="T27" s="4" t="str">
@@ -4290,7 +4290,7 @@
         <v>0A</v>
       </c>
       <c r="W27" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="X27" s="4" t="str">
@@ -4306,7 +4306,7 @@
         <v>0A</v>
       </c>
       <c r="AA27" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="AB27" s="4" t="str">
@@ -4353,12 +4353,12 @@
         <v>12</v>
       </c>
       <c r="J28" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>02</v>
       </c>
       <c r="K28" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>04</v>
+        <v>05</v>
       </c>
       <c r="L28" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4369,11 +4369,11 @@
         <v>01</v>
       </c>
       <c r="N28" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>03</v>
+      </c>
+      <c r="O28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-      <c r="O28" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P28" s="4" t="str">
@@ -4389,7 +4389,7 @@
         <v>05</v>
       </c>
       <c r="S28" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="T28" s="4" t="str">
@@ -4405,7 +4405,7 @@
         <v>05</v>
       </c>
       <c r="W28" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>04</v>
       </c>
       <c r="X28" s="4" t="str">
@@ -4421,7 +4421,7 @@
         <v>05</v>
       </c>
       <c r="AA28" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="AB28" s="4" t="str">
@@ -4468,12 +4468,12 @@
         <v>19</v>
       </c>
       <c r="J29" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>02</v>
       </c>
       <c r="K29" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>04</v>
+        <v>05</v>
       </c>
       <c r="L29" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4484,11 +4484,11 @@
         <v>03</v>
       </c>
       <c r="N29" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>03</v>
+      </c>
+      <c r="O29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-      <c r="O29" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P29" s="4" t="str">
@@ -4504,7 +4504,7 @@
         <v>05</v>
       </c>
       <c r="S29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="T29" s="4" t="str">
@@ -4520,7 +4520,7 @@
         <v>05</v>
       </c>
       <c r="W29" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>04</v>
       </c>
       <c r="X29" s="4" t="str">
@@ -4536,7 +4536,7 @@
         <v>05</v>
       </c>
       <c r="AA29" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>06</v>
       </c>
       <c r="AB29" s="4" t="str">
@@ -4583,8 +4583,8 @@
         <v>12</v>
       </c>
       <c r="J30" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>05</v>
+        <f t="shared" si="5"/>
+        <v>04</v>
       </c>
       <c r="K30" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4599,11 +4599,11 @@
         <v>01</v>
       </c>
       <c r="N30" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="O30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>08</v>
-      </c>
-      <c r="O30" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P30" s="4" t="str">
@@ -4619,7 +4619,7 @@
         <v>0C</v>
       </c>
       <c r="S30" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="T30" s="4" t="str">
@@ -4635,7 +4635,7 @@
         <v>0C</v>
       </c>
       <c r="W30" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="X30" s="4" t="str">
@@ -4651,7 +4651,7 @@
         <v>0C</v>
       </c>
       <c r="AA30" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="AB30" s="4" t="str">
@@ -4698,12 +4698,12 @@
         <v>14</v>
       </c>
       <c r="J31" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>05</v>
+        <f t="shared" si="5"/>
+        <v>04</v>
       </c>
       <c r="K31" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>06</v>
       </c>
       <c r="L31" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4714,11 +4714,11 @@
         <v>02</v>
       </c>
       <c r="N31" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="O31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>08</v>
-      </c>
-      <c r="O31" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P31" s="4" t="str">
@@ -4734,7 +4734,7 @@
         <v>0C</v>
       </c>
       <c r="S31" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="T31" s="4" t="str">
@@ -4750,7 +4750,7 @@
         <v>0C</v>
       </c>
       <c r="W31" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="X31" s="4" t="str">
@@ -4766,7 +4766,7 @@
         <v>0C</v>
       </c>
       <c r="AA31" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="AB31" s="4" t="str">
@@ -4813,8 +4813,8 @@
         <v>12</v>
       </c>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>06</v>
+        <f t="shared" si="5"/>
+        <v>05</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4829,11 +4829,11 @@
         <v>01</v>
       </c>
       <c r="N32" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0B</v>
+      </c>
+      <c r="O32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0B</v>
-      </c>
-      <c r="O32" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P32" s="4" t="str">
@@ -4849,7 +4849,7 @@
         <v>10</v>
       </c>
       <c r="S32" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="T32" s="4" t="str">
@@ -4865,7 +4865,7 @@
         <v>10</v>
       </c>
       <c r="W32" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="X32" s="4" t="str">
@@ -4881,7 +4881,7 @@
         <v>10</v>
       </c>
       <c r="AA32" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="AB32" s="4" t="str">
@@ -4928,12 +4928,12 @@
         <v>19</v>
       </c>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>07</v>
+        <f t="shared" si="5"/>
+        <v>06</v>
       </c>
       <c r="K33" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>06</v>
       </c>
       <c r="L33" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4944,11 +4944,11 @@
         <v>03</v>
       </c>
       <c r="N33" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0D</v>
+      </c>
+      <c r="O33" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0D</v>
-      </c>
-      <c r="O33" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P33" s="4" t="str">
@@ -4964,7 +4964,7 @@
         <v>14</v>
       </c>
       <c r="S33" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="T33" s="4" t="str">
@@ -4980,7 +4980,7 @@
         <v>14</v>
       </c>
       <c r="W33" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="X33" s="4" t="str">
@@ -4996,7 +4996,7 @@
         <v>14</v>
       </c>
       <c r="AA33" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="AB33" s="4" t="str">
@@ -5043,7 +5043,7 @@
         <v>11</v>
       </c>
       <c r="J34" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>02</v>
       </c>
       <c r="K34" s="4" t="str">
@@ -5059,11 +5059,11 @@
         <v>00</v>
       </c>
       <c r="N34" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>03</v>
+      </c>
+      <c r="O34" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-      <c r="O34" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P34" s="4" t="str">
@@ -5079,7 +5079,7 @@
         <v>05</v>
       </c>
       <c r="S34" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T34" s="4" t="str">
@@ -5095,7 +5095,7 @@
         <v>05</v>
       </c>
       <c r="W34" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X34" s="4" t="str">
@@ -5111,7 +5111,7 @@
         <v>05</v>
       </c>
       <c r="AA34" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
       <c r="AB34" s="4" t="str">
@@ -5152,7 +5152,7 @@
         <v>11</v>
       </c>
       <c r="J35" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>02</v>
       </c>
       <c r="K35" s="4" t="str">
@@ -5168,11 +5168,11 @@
         <v>00</v>
       </c>
       <c r="N35" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>03</v>
+      </c>
+      <c r="O35" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-      <c r="O35" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="P35" s="4" t="str">
@@ -5188,7 +5188,7 @@
         <v>05</v>
       </c>
       <c r="S35" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="T35" s="4" t="str">
@@ -5204,7 +5204,7 @@
         <v>05</v>
       </c>
       <c r="W35" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>02</v>
       </c>
       <c r="X35" s="4" t="str">
@@ -5220,7 +5220,7 @@
         <v>05</v>
       </c>
       <c r="AA35" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
       <c r="AB35" s="4" t="str">
@@ -5261,7 +5261,7 @@
         <v>11</v>
       </c>
       <c r="J36" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>FF</v>
       </c>
       <c r="K36" s="4" t="str">
@@ -5277,11 +5277,11 @@
         <v>00</v>
       </c>
       <c r="N36" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>AA</v>
+      </c>
+      <c r="O36" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AA</v>
-      </c>
-      <c r="O36" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P36" s="4" t="str">
@@ -5297,7 +5297,7 @@
         <v>FF</v>
       </c>
       <c r="S36" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="T36" s="4" t="str">
@@ -5313,7 +5313,7 @@
         <v>FF</v>
       </c>
       <c r="W36" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="X36" s="4" t="str">
@@ -5329,7 +5329,7 @@
         <v>FF</v>
       </c>
       <c r="AA36" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="AB36" s="4" t="str">
@@ -5370,12 +5370,12 @@
         <v>11</v>
       </c>
       <c r="J37" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>FF</v>
       </c>
       <c r="K37" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>06</v>
       </c>
       <c r="L37" s="4" t="str">
         <f t="shared" si="7"/>
@@ -5386,11 +5386,11 @@
         <v>00</v>
       </c>
       <c r="N37" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>AA</v>
+      </c>
+      <c r="O37" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AA</v>
-      </c>
-      <c r="O37" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P37" s="4" t="str">
@@ -5406,7 +5406,7 @@
         <v>FF</v>
       </c>
       <c r="S37" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="T37" s="4" t="str">
@@ -5422,7 +5422,7 @@
         <v>FF</v>
       </c>
       <c r="W37" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="X37" s="4" t="str">
@@ -5438,7 +5438,7 @@
         <v>FF</v>
       </c>
       <c r="AA37" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="AB37" s="4" t="str">
@@ -5479,7 +5479,7 @@
         <v>11</v>
       </c>
       <c r="J38" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="K38" s="4" t="str">
@@ -5495,11 +5495,11 @@
         <v>00</v>
       </c>
       <c r="N38" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O38" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="O38" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P38" s="4" t="str">
@@ -5515,7 +5515,7 @@
         <v>00</v>
       </c>
       <c r="S38" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="T38" s="4" t="str">
@@ -5531,7 +5531,7 @@
         <v>00</v>
       </c>
       <c r="W38" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="X38" s="4" t="str">
@@ -5547,7 +5547,7 @@
         <v>00</v>
       </c>
       <c r="AA38" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="AB38" s="4" t="str">
@@ -5588,7 +5588,7 @@
         <v>11</v>
       </c>
       <c r="J39" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="K39" s="4" t="str">
@@ -5604,11 +5604,11 @@
         <v>00</v>
       </c>
       <c r="N39" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O39" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="O39" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P39" s="4" t="str">
@@ -5624,7 +5624,7 @@
         <v>00</v>
       </c>
       <c r="S39" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="T39" s="4" t="str">
@@ -5640,7 +5640,7 @@
         <v>00</v>
       </c>
       <c r="W39" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="X39" s="4" t="str">
@@ -5656,7 +5656,7 @@
         <v>00</v>
       </c>
       <c r="AA39" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="AB39" s="4" t="str">
@@ -5697,7 +5697,7 @@
         <v>11</v>
       </c>
       <c r="J40" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="K40" s="4" t="str">
@@ -5713,11 +5713,11 @@
         <v>00</v>
       </c>
       <c r="N40" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O40" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="O40" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P40" s="4" t="str">
@@ -5733,7 +5733,7 @@
         <v>00</v>
       </c>
       <c r="S40" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="T40" s="4" t="str">
@@ -5749,7 +5749,7 @@
         <v>00</v>
       </c>
       <c r="W40" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="X40" s="4" t="str">
@@ -5765,7 +5765,7 @@
         <v>00</v>
       </c>
       <c r="AA40" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="AB40" s="4" t="str">
@@ -5806,7 +5806,7 @@
         <v>11</v>
       </c>
       <c r="J41" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="K41" s="4" t="str">
@@ -5822,11 +5822,11 @@
         <v>00</v>
       </c>
       <c r="N41" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O41" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="O41" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="P41" s="4" t="str">
@@ -5842,7 +5842,7 @@
         <v>00</v>
       </c>
       <c r="S41" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="T41" s="4" t="str">
@@ -5858,7 +5858,7 @@
         <v>00</v>
       </c>
       <c r="W41" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="X41" s="4" t="str">
@@ -5874,7 +5874,7 @@
         <v>00</v>
       </c>
       <c r="AA41" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="AB41" s="4" t="str">
@@ -5915,12 +5915,12 @@
         <v>11</v>
       </c>
       <c r="J42" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="K42" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>07</v>
+        <v>08</v>
       </c>
       <c r="L42" s="4" t="str">
         <f t="shared" si="7"/>
@@ -5931,11 +5931,11 @@
         <v>00</v>
       </c>
       <c r="N42" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="O42" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="O42" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P42" s="4" t="str">
@@ -5951,7 +5951,7 @@
         <v>28</v>
       </c>
       <c r="S42" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="T42" s="4" t="str">
@@ -5967,7 +5967,7 @@
         <v>28</v>
       </c>
       <c r="W42" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="X42" s="4" t="str">
@@ -5983,7 +5983,7 @@
         <v>28</v>
       </c>
       <c r="AA42" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="AB42" s="4" t="str">
@@ -6027,8 +6027,8 @@
         <v>14</v>
       </c>
       <c r="J43" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>08</v>
+        <f t="shared" si="5"/>
+        <v>07</v>
       </c>
       <c r="K43" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6043,11 +6043,11 @@
         <v>02</v>
       </c>
       <c r="N43" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O43" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="O43" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="P43" s="4" t="str">
@@ -6063,7 +6063,7 @@
         <v>1A</v>
       </c>
       <c r="S43" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="T43" s="4" t="str">
@@ -6079,7 +6079,7 @@
         <v>1A</v>
       </c>
       <c r="W43" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="X43" s="4" t="str">
@@ -6095,7 +6095,7 @@
         <v>1A</v>
       </c>
       <c r="AA43" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="AB43" s="4" t="str">
@@ -6142,12 +6142,12 @@
         <v>19</v>
       </c>
       <c r="J44" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>07</v>
+        <f t="shared" si="5"/>
+        <v>06</v>
       </c>
       <c r="K44" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="L44" s="4" t="str">
         <f t="shared" si="7"/>
@@ -6158,11 +6158,11 @@
         <v>03</v>
       </c>
       <c r="N44" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0F</v>
+      </c>
+      <c r="O44" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0F</v>
-      </c>
-      <c r="O44" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="P44" s="4" t="str">
@@ -6178,7 +6178,7 @@
         <v>16</v>
       </c>
       <c r="S44" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="T44" s="4" t="str">
@@ -6194,7 +6194,7 @@
         <v>16</v>
       </c>
       <c r="W44" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>06</v>
       </c>
       <c r="X44" s="4" t="str">
@@ -6210,7 +6210,7 @@
         <v>16</v>
       </c>
       <c r="AA44" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>08</v>
       </c>
       <c r="AB44" s="4" t="str">
@@ -6257,8 +6257,8 @@
         <v>12</v>
       </c>
       <c r="J45" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>05</v>
+        <f t="shared" si="5"/>
+        <v>04</v>
       </c>
       <c r="K45" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6273,11 +6273,11 @@
         <v>01</v>
       </c>
       <c r="N45" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="O45" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>08</v>
-      </c>
-      <c r="O45" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="P45" s="4" t="str">
@@ -6293,7 +6293,7 @@
         <v>0C</v>
       </c>
       <c r="S45" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="T45" s="4" t="str">
@@ -6309,7 +6309,7 @@
         <v>0C</v>
       </c>
       <c r="W45" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="X45" s="4" t="str">
@@ -6325,7 +6325,7 @@
         <v>0C</v>
       </c>
       <c r="AA45" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="AB45" s="4" t="str">
@@ -6372,8 +6372,8 @@
         <v>12</v>
       </c>
       <c r="J46" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>04</v>
+        <f t="shared" si="5"/>
+        <v>03</v>
       </c>
       <c r="K46" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6388,11 +6388,11 @@
         <v>01</v>
       </c>
       <c r="N46" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>05</v>
+      </c>
+      <c r="O46" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>05</v>
-      </c>
-      <c r="O46" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="P46" s="4" t="str">
@@ -6408,7 +6408,7 @@
         <v>08</v>
       </c>
       <c r="S46" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="T46" s="4" t="str">
@@ -6424,7 +6424,7 @@
         <v>08</v>
       </c>
       <c r="W46" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="X46" s="4" t="str">
@@ -6440,7 +6440,7 @@
         <v>08</v>
       </c>
       <c r="AA46" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="AB46" s="4" t="str">
@@ -6487,8 +6487,8 @@
         <v>14</v>
       </c>
       <c r="J47" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>07</v>
+        <f t="shared" si="5"/>
+        <v>06</v>
       </c>
       <c r="K47" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6503,11 +6503,11 @@
         <v>02</v>
       </c>
       <c r="N47" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0D</v>
+      </c>
+      <c r="O47" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0D</v>
-      </c>
-      <c r="O47" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P47" s="4" t="str">
@@ -6523,7 +6523,7 @@
         <v>14</v>
       </c>
       <c r="S47" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="T47" s="4" t="str">
@@ -6539,7 +6539,7 @@
         <v>14</v>
       </c>
       <c r="W47" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>08</v>
       </c>
       <c r="X47" s="4" t="str">
@@ -6555,7 +6555,7 @@
         <v>14</v>
       </c>
       <c r="AA47" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0A</v>
       </c>
       <c r="AB47" s="4" t="str">
@@ -6602,12 +6602,12 @@
         <v>12</v>
       </c>
       <c r="J48" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>02</v>
       </c>
       <c r="K48" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>07</v>
+        <v>08</v>
       </c>
       <c r="L48" s="4" t="str">
         <f t="shared" si="7"/>
@@ -6618,11 +6618,11 @@
         <v>01</v>
       </c>
       <c r="N48" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>03</v>
+      </c>
+      <c r="O48" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>03</v>
-      </c>
-      <c r="O48" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P48" s="4" t="str">
@@ -6638,7 +6638,7 @@
         <v>05</v>
       </c>
       <c r="S48" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="T48" s="4" t="str">
@@ -6654,7 +6654,7 @@
         <v>05</v>
       </c>
       <c r="W48" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="X48" s="4" t="str">
@@ -6670,7 +6670,7 @@
         <v>05</v>
       </c>
       <c r="AA48" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="AB48" s="4" t="str">
@@ -6717,8 +6717,8 @@
         <v>19</v>
       </c>
       <c r="J49" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>05</v>
+        <f t="shared" si="5"/>
+        <v>03</v>
       </c>
       <c r="K49" s="4" t="str">
         <f t="shared" si="6"/>
@@ -6733,11 +6733,11 @@
         <v>03</v>
       </c>
       <c r="N49" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>07</v>
+      </c>
+      <c r="O49" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>07</v>
-      </c>
-      <c r="O49" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P49" s="4" t="str">
@@ -6753,7 +6753,7 @@
         <v>0A</v>
       </c>
       <c r="S49" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="T49" s="4" t="str">
@@ -6769,7 +6769,7 @@
         <v>0A</v>
       </c>
       <c r="W49" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>08</v>
       </c>
       <c r="X49" s="4" t="str">
@@ -6785,7 +6785,7 @@
         <v>0A</v>
       </c>
       <c r="AA49" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0A</v>
       </c>
       <c r="AB49" s="4" t="str">
@@ -6832,7 +6832,7 @@
         <v>11</v>
       </c>
       <c r="J50" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="K50" s="4" t="str">
@@ -6848,11 +6848,11 @@
         <v>00</v>
       </c>
       <c r="N50" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="O50" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="O50" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="P50" s="4" t="str">
@@ -6868,7 +6868,7 @@
         <v>28</v>
       </c>
       <c r="S50" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="T50" s="4" t="str">
@@ -6884,7 +6884,7 @@
         <v>28</v>
       </c>
       <c r="W50" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="X50" s="4" t="str">
@@ -6900,7 +6900,7 @@
         <v>28</v>
       </c>
       <c r="AA50" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="AB50" s="4" t="str">
@@ -6941,12 +6941,12 @@
         <v>11</v>
       </c>
       <c r="J51" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="K51" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>07</v>
+        <v>08</v>
       </c>
       <c r="L51" s="4" t="str">
         <f t="shared" si="7"/>
@@ -6957,11 +6957,11 @@
         <v>00</v>
       </c>
       <c r="N51" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="O51" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="O51" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P51" s="4" t="str">
@@ -6977,7 +6977,7 @@
         <v>28</v>
       </c>
       <c r="S51" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="T51" s="4" t="str">
@@ -6993,7 +6993,7 @@
         <v>28</v>
       </c>
       <c r="W51" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="X51" s="4" t="str">
@@ -7009,7 +7009,7 @@
         <v>28</v>
       </c>
       <c r="AA51" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="AB51" s="4" t="str">
@@ -7053,12 +7053,12 @@
         <v>11</v>
       </c>
       <c r="J52" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>0A</v>
+        <f t="shared" si="5"/>
+        <v>0D</v>
       </c>
       <c r="K52" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>0A</v>
+        <v>0B</v>
       </c>
       <c r="L52" s="4" t="str">
         <f t="shared" si="7"/>
@@ -7069,11 +7069,11 @@
         <v>00</v>
       </c>
       <c r="N52" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="O52" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="O52" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>05</v>
       </c>
       <c r="P52" s="4" t="str">
@@ -7089,7 +7089,7 @@
         <v>32</v>
       </c>
       <c r="S52" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>05</v>
       </c>
       <c r="T52" s="4" t="str">
@@ -7105,7 +7105,7 @@
         <v>32</v>
       </c>
       <c r="W52" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0A</v>
       </c>
       <c r="X52" s="4" t="str">
@@ -7121,7 +7121,7 @@
         <v>32</v>
       </c>
       <c r="AA52" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0C</v>
       </c>
       <c r="AB52" s="4" t="str">
@@ -7165,12 +7165,12 @@
         <v>12</v>
       </c>
       <c r="J53" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>06</v>
+        <f t="shared" si="5"/>
+        <v>04</v>
       </c>
       <c r="K53" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>07</v>
+        <v>08</v>
       </c>
       <c r="L53" s="4" t="str">
         <f t="shared" si="7"/>
@@ -7181,11 +7181,11 @@
         <v>01</v>
       </c>
       <c r="N53" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0A</v>
+      </c>
+      <c r="O53" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0A</v>
-      </c>
-      <c r="O53" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P53" s="4" t="str">
@@ -7201,7 +7201,7 @@
         <v>0F</v>
       </c>
       <c r="S53" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="T53" s="4" t="str">
@@ -7217,7 +7217,7 @@
         <v>0F</v>
       </c>
       <c r="W53" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="X53" s="4" t="str">
@@ -7233,7 +7233,7 @@
         <v>0F</v>
       </c>
       <c r="AA53" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="AB53" s="4" t="str">
@@ -7280,8 +7280,8 @@
         <v>14</v>
       </c>
       <c r="J54" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>08</v>
+        <f t="shared" si="5"/>
+        <v>07</v>
       </c>
       <c r="K54" s="4" t="str">
         <f t="shared" si="6"/>
@@ -7296,11 +7296,11 @@
         <v>02</v>
       </c>
       <c r="N54" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O54" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="O54" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P54" s="4" t="str">
@@ -7316,7 +7316,7 @@
         <v>19</v>
       </c>
       <c r="S54" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="T54" s="4" t="str">
@@ -7332,7 +7332,7 @@
         <v>19</v>
       </c>
       <c r="W54" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>08</v>
       </c>
       <c r="X54" s="4" t="str">
@@ -7348,7 +7348,7 @@
         <v>19</v>
       </c>
       <c r="AA54" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0A</v>
       </c>
       <c r="AB54" s="4" t="str">
@@ -7395,12 +7395,12 @@
         <v>19</v>
       </c>
       <c r="J55" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>07</v>
+        <f t="shared" si="5"/>
+        <v>06</v>
       </c>
       <c r="K55" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>09</v>
+        <v>0A</v>
       </c>
       <c r="L55" s="4" t="str">
         <f t="shared" si="7"/>
@@ -7411,11 +7411,11 @@
         <v>03</v>
       </c>
       <c r="N55" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0F</v>
+      </c>
+      <c r="O55" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0F</v>
-      </c>
-      <c r="O55" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P55" s="4" t="str">
@@ -7431,7 +7431,7 @@
         <v>16</v>
       </c>
       <c r="S55" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="T55" s="4" t="str">
@@ -7447,7 +7447,7 @@
         <v>16</v>
       </c>
       <c r="W55" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>09</v>
       </c>
       <c r="X55" s="4" t="str">
@@ -7463,7 +7463,7 @@
         <v>16</v>
       </c>
       <c r="AA55" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0B</v>
       </c>
       <c r="AB55" s="4" t="str">
@@ -7510,8 +7510,8 @@
         <v>14</v>
       </c>
       <c r="J56" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>07</v>
+        <f t="shared" si="5"/>
+        <v>06</v>
       </c>
       <c r="K56" s="4" t="str">
         <f t="shared" si="6"/>
@@ -7526,11 +7526,11 @@
         <v>02</v>
       </c>
       <c r="N56" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0F</v>
+      </c>
+      <c r="O56" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0F</v>
-      </c>
-      <c r="O56" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P56" s="4" t="str">
@@ -7546,7 +7546,7 @@
         <v>16</v>
       </c>
       <c r="S56" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="T56" s="4" t="str">
@@ -7562,7 +7562,7 @@
         <v>16</v>
       </c>
       <c r="W56" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="X56" s="4" t="str">
@@ -7578,7 +7578,7 @@
         <v>16</v>
       </c>
       <c r="AA56" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="AB56" s="4" t="str">
@@ -7625,7 +7625,7 @@
         <v>11</v>
       </c>
       <c r="J57" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="K57" s="4" t="str">
@@ -7641,11 +7641,11 @@
         <v>00</v>
       </c>
       <c r="N57" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="O57" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="O57" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>05</v>
       </c>
       <c r="P57" s="4" t="str">
@@ -7661,7 +7661,7 @@
         <v>28</v>
       </c>
       <c r="S57" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>05</v>
       </c>
       <c r="T57" s="4" t="str">
@@ -7677,7 +7677,7 @@
         <v>28</v>
       </c>
       <c r="W57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>09</v>
       </c>
       <c r="X57" s="4" t="str">
@@ -7693,7 +7693,7 @@
         <v>28</v>
       </c>
       <c r="AA57" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0B</v>
       </c>
       <c r="AB57" s="4" t="str">
@@ -7737,12 +7737,12 @@
         <v>11</v>
       </c>
       <c r="J58" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>01</v>
       </c>
       <c r="K58" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>08</v>
+        <v>09</v>
       </c>
       <c r="L58" s="4" t="str">
         <f t="shared" si="7"/>
@@ -7753,11 +7753,11 @@
         <v>00</v>
       </c>
       <c r="N58" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+      <c r="O58" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-      <c r="O58" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P58" s="4" t="str">
@@ -7773,7 +7773,7 @@
         <v>03</v>
       </c>
       <c r="S58" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="T58" s="4" t="str">
@@ -7789,7 +7789,7 @@
         <v>03</v>
       </c>
       <c r="W58" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>08</v>
       </c>
       <c r="X58" s="4" t="str">
@@ -7805,7 +7805,7 @@
         <v>03</v>
       </c>
       <c r="AA58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0A</v>
       </c>
       <c r="AB58" s="4" t="str">
@@ -7846,8 +7846,8 @@
         <v>19</v>
       </c>
       <c r="J59" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>07</v>
+        <f t="shared" si="5"/>
+        <v>06</v>
       </c>
       <c r="K59" s="4" t="str">
         <f t="shared" si="6"/>
@@ -7862,11 +7862,11 @@
         <v>03</v>
       </c>
       <c r="N59" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0D</v>
+      </c>
+      <c r="O59" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0D</v>
-      </c>
-      <c r="O59" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P59" s="4" t="str">
@@ -7882,7 +7882,7 @@
         <v>14</v>
       </c>
       <c r="S59" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="T59" s="4" t="str">
@@ -7898,7 +7898,7 @@
         <v>14</v>
       </c>
       <c r="W59" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="X59" s="4" t="str">
@@ -7914,7 +7914,7 @@
         <v>14</v>
       </c>
       <c r="AA59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="AB59" s="4" t="str">
@@ -7955,8 +7955,8 @@
         <v>11</v>
       </c>
       <c r="J60" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>07</v>
+        <f t="shared" si="5"/>
+        <v>06</v>
       </c>
       <c r="K60" s="4" t="str">
         <f t="shared" si="6"/>
@@ -7971,11 +7971,11 @@
         <v>00</v>
       </c>
       <c r="N60" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0D</v>
+      </c>
+      <c r="O60" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0D</v>
-      </c>
-      <c r="O60" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P60" s="4" t="str">
@@ -7991,7 +7991,7 @@
         <v>14</v>
       </c>
       <c r="S60" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="T60" s="4" t="str">
@@ -8007,7 +8007,7 @@
         <v>14</v>
       </c>
       <c r="W60" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="X60" s="4" t="str">
@@ -8023,7 +8023,7 @@
         <v>14</v>
       </c>
       <c r="AA60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="AB60" s="4" t="str">
@@ -8064,8 +8064,8 @@
         <v>12</v>
       </c>
       <c r="J61" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>07</v>
+        <f t="shared" si="5"/>
+        <v>06</v>
       </c>
       <c r="K61" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8080,11 +8080,11 @@
         <v>01</v>
       </c>
       <c r="N61" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0D</v>
+      </c>
+      <c r="O61" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0D</v>
-      </c>
-      <c r="O61" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="P61" s="4" t="str">
@@ -8100,7 +8100,7 @@
         <v>14</v>
       </c>
       <c r="S61" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="T61" s="4" t="str">
@@ -8116,7 +8116,7 @@
         <v>14</v>
       </c>
       <c r="W61" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>05</v>
       </c>
       <c r="X61" s="4" t="str">
@@ -8132,7 +8132,7 @@
         <v>14</v>
       </c>
       <c r="AA61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>07</v>
       </c>
       <c r="AB61" s="4" t="str">
@@ -8179,8 +8179,8 @@
         <v>11</v>
       </c>
       <c r="J62" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>06</v>
+        <f t="shared" si="5"/>
+        <v>05</v>
       </c>
       <c r="K62" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8195,11 +8195,11 @@
         <v>00</v>
       </c>
       <c r="N62" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0B</v>
+      </c>
+      <c r="O62" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0B</v>
-      </c>
-      <c r="O62" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="P62" s="4" t="str">
@@ -8215,7 +8215,7 @@
         <v>10</v>
       </c>
       <c r="S62" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>03</v>
       </c>
       <c r="T62" s="4" t="str">
@@ -8231,7 +8231,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>07</v>
       </c>
       <c r="X62" s="4" t="str">
@@ -8247,7 +8247,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>09</v>
       </c>
       <c r="AB62" s="4" t="str">
@@ -8288,8 +8288,8 @@
         <v>14</v>
       </c>
       <c r="J63" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>06</v>
+        <f t="shared" si="5"/>
+        <v>05</v>
       </c>
       <c r="K63" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8304,11 +8304,11 @@
         <v>02</v>
       </c>
       <c r="N63" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0B</v>
+      </c>
+      <c r="O63" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0B</v>
-      </c>
-      <c r="O63" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P63" s="4" t="str">
@@ -8324,7 +8324,7 @@
         <v>10</v>
       </c>
       <c r="S63" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="T63" s="4" t="str">
@@ -8340,7 +8340,7 @@
         <v>10</v>
       </c>
       <c r="W63" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>08</v>
       </c>
       <c r="X63" s="4" t="str">
@@ -8356,7 +8356,7 @@
         <v>10</v>
       </c>
       <c r="AA63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0A</v>
       </c>
       <c r="AB63" s="4" t="str">
@@ -8403,12 +8403,12 @@
         <v>12</v>
       </c>
       <c r="J64" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>06</v>
+        <f t="shared" si="5"/>
+        <v>05</v>
       </c>
       <c r="K64" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>09</v>
+        <v>0A</v>
       </c>
       <c r="L64" s="4" t="str">
         <f t="shared" si="7"/>
@@ -8419,11 +8419,11 @@
         <v>01</v>
       </c>
       <c r="N64" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0C</v>
+      </c>
+      <c r="O64" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0C</v>
-      </c>
-      <c r="O64" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P64" s="4" t="str">
@@ -8439,7 +8439,7 @@
         <v>12</v>
       </c>
       <c r="S64" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="T64" s="4" t="str">
@@ -8455,7 +8455,7 @@
         <v>12</v>
       </c>
       <c r="W64" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>09</v>
       </c>
       <c r="X64" s="4" t="str">
@@ -8471,7 +8471,7 @@
         <v>12</v>
       </c>
       <c r="AA64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0B</v>
       </c>
       <c r="AB64" s="4" t="str">
@@ -8518,8 +8518,8 @@
         <v>12</v>
       </c>
       <c r="J65" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>06</v>
+        <f t="shared" si="5"/>
+        <v>05</v>
       </c>
       <c r="K65" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8534,11 +8534,11 @@
         <v>01</v>
       </c>
       <c r="N65" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0C</v>
+      </c>
+      <c r="O65" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0C</v>
-      </c>
-      <c r="O65" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="P65" s="4" t="str">
@@ -8554,7 +8554,7 @@
         <v>12</v>
       </c>
       <c r="S65" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
       <c r="T65" s="4" t="str">
@@ -8570,7 +8570,7 @@
         <v>12</v>
       </c>
       <c r="W65" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>08</v>
       </c>
       <c r="X65" s="4" t="str">
@@ -8586,7 +8586,7 @@
         <v>12</v>
       </c>
       <c r="AA65" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0A</v>
       </c>
       <c r="AB65" s="4" t="str">
@@ -8633,12 +8633,12 @@
         <v>19</v>
       </c>
       <c r="J66" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>06</v>
+        <f t="shared" si="5"/>
+        <v>04</v>
       </c>
       <c r="K66" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>09</v>
+        <v>0A</v>
       </c>
       <c r="L66" s="4" t="str">
         <f t="shared" si="7"/>
@@ -8649,11 +8649,11 @@
         <v>03</v>
       </c>
       <c r="N66" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>0A</v>
+      </c>
+      <c r="O66" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0A</v>
-      </c>
-      <c r="O66" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>05</v>
       </c>
       <c r="P66" s="4" t="str">
@@ -8669,7 +8669,7 @@
         <v>0F</v>
       </c>
       <c r="S66" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>05</v>
       </c>
       <c r="T66" s="4" t="str">
@@ -8685,7 +8685,7 @@
         <v>0F</v>
       </c>
       <c r="W66" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>09</v>
       </c>
       <c r="X66" s="4" t="str">
@@ -8701,7 +8701,7 @@
         <v>0F</v>
       </c>
       <c r="AA66" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0B</v>
       </c>
       <c r="AB66" s="4" t="str">
@@ -8748,8 +8748,8 @@
         <v>14</v>
       </c>
       <c r="J67" s="22" t="str">
-        <f t="shared" ref="J67:J101" si="20">IF(OR($F67="28",$F67="00",$F67="7F",$F67="FF"),$F67,DEC2HEX(MAX(ROUND((3.25*LN(0.75*HEX2DEC($F67))-2),0),1),2))</f>
-        <v>05</v>
+        <f t="shared" si="5"/>
+        <v>04</v>
       </c>
       <c r="K67" s="4" t="str">
         <f t="shared" si="6"/>
@@ -8764,11 +8764,11 @@
         <v>02</v>
       </c>
       <c r="N67" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>08</v>
       </c>
       <c r="O67" s="4" t="str">
-        <f t="shared" ref="O67:O112" si="21">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*7/30,0),1),2))</f>
+        <f t="shared" ref="O67:O112" si="20">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*7/30,0),1),2))</f>
         <v>02</v>
       </c>
       <c r="P67" s="4" t="str">
@@ -8784,7 +8784,7 @@
         <v>0C</v>
       </c>
       <c r="S67" s="4" t="str">
-        <f t="shared" ref="S67:S112" si="22">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*7/30,0),1),2))</f>
+        <f t="shared" ref="S67:S112" si="21">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*7/30,0),1),2))</f>
         <v>02</v>
       </c>
       <c r="T67" s="4" t="str">
@@ -8800,7 +8800,7 @@
         <v>0C</v>
       </c>
       <c r="W67" s="4" t="str">
-        <f t="shared" ref="W67:W87" si="23">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*6/15+1,0),2),2))</f>
+        <f t="shared" ref="W67:W87" si="22">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*6/15+1,0),2),2))</f>
         <v>05</v>
       </c>
       <c r="X67" s="4" t="str">
@@ -8816,7 +8816,7 @@
         <v>0C</v>
       </c>
       <c r="AA67" s="4" t="str">
-        <f t="shared" ref="AA67:AA87" si="24">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*6/15+3,0),2),2))</f>
+        <f t="shared" ref="AA67:AA87" si="23">IF($G67="00",$G67,DEC2HEX(MAX(ROUND(HEX2DEC($G67)*6/15+3,0),2),2))</f>
         <v>07</v>
       </c>
       <c r="AB67" s="4" t="str">
@@ -8857,11 +8857,11 @@
         <v>12</v>
       </c>
       <c r="J68" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>03</v>
+        <f t="shared" ref="J68:J112" si="24">IF(OR($F68="28",$F68="00",$F68="7F",$F68="FF"),$F68,DEC2HEX(MAX(ROUND((0.255*HEX2DEC($F68)+0.63),0),1),2))</f>
+        <v>02</v>
       </c>
       <c r="K68" s="4" t="str">
-        <f t="shared" ref="K68:K112" si="25">IF($G68="00",$G68,DEC2HEX(MAX(ROUND(HEX2DEC($G68)*5/12+1,0),2),2))</f>
+        <f t="shared" ref="K68:K112" si="25">IF($G68="00",$G68,DEC2HEX(MAX(ROUND(0.4145*HEX2DEC($G68)+1.669,0),2),2))</f>
         <v>05</v>
       </c>
       <c r="L68" s="4" t="str">
@@ -8877,7 +8877,7 @@
         <v>04</v>
       </c>
       <c r="O68" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>02</v>
       </c>
       <c r="P68" s="4" t="str">
@@ -8893,7 +8893,7 @@
         <v>06</v>
       </c>
       <c r="S68" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>02</v>
       </c>
       <c r="T68" s="4" t="str">
@@ -8909,7 +8909,7 @@
         <v>06</v>
       </c>
       <c r="W68" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>05</v>
       </c>
       <c r="X68" s="4" t="str">
@@ -8925,7 +8925,7 @@
         <v>06</v>
       </c>
       <c r="AA68" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>07</v>
       </c>
       <c r="AB68" s="4" t="str">
@@ -8966,12 +8966,12 @@
         <v>14</v>
       </c>
       <c r="J69" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>08</v>
+        <f t="shared" si="24"/>
+        <v>07</v>
       </c>
       <c r="K69" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0A</v>
+        <v>0B</v>
       </c>
       <c r="L69" s="4" t="str">
         <f t="shared" si="26"/>
@@ -8986,7 +8986,7 @@
         <v>11</v>
       </c>
       <c r="O69" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>05</v>
       </c>
       <c r="P69" s="4" t="str">
@@ -9002,7 +9002,7 @@
         <v>19</v>
       </c>
       <c r="S69" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>05</v>
       </c>
       <c r="T69" s="4" t="str">
@@ -9018,7 +9018,7 @@
         <v>19</v>
       </c>
       <c r="W69" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0A</v>
       </c>
       <c r="X69" s="4" t="str">
@@ -9034,7 +9034,7 @@
         <v>19</v>
       </c>
       <c r="AA69" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0C</v>
       </c>
       <c r="AB69" s="4" t="str">
@@ -9081,8 +9081,8 @@
         <v>12</v>
       </c>
       <c r="J70" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>07</v>
+        <f t="shared" si="24"/>
+        <v>06</v>
       </c>
       <c r="K70" s="4" t="str">
         <f t="shared" si="25"/>
@@ -9101,7 +9101,7 @@
         <v>0D</v>
       </c>
       <c r="O70" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>06</v>
       </c>
       <c r="P70" s="4" t="str">
@@ -9117,7 +9117,7 @@
         <v>14</v>
       </c>
       <c r="S70" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>06</v>
       </c>
       <c r="T70" s="4" t="str">
@@ -9133,7 +9133,7 @@
         <v>14</v>
       </c>
       <c r="W70" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0B</v>
       </c>
       <c r="X70" s="4" t="str">
@@ -9149,7 +9149,7 @@
         <v>14</v>
       </c>
       <c r="AA70" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0D</v>
       </c>
       <c r="AB70" s="4" t="str">
@@ -9196,12 +9196,12 @@
         <v>19</v>
       </c>
       <c r="J71" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>08</v>
       </c>
       <c r="K71" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0A</v>
+        <v>0B</v>
       </c>
       <c r="L71" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9216,7 +9216,7 @@
         <v>14</v>
       </c>
       <c r="O71" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>05</v>
       </c>
       <c r="P71" s="4" t="str">
@@ -9232,7 +9232,7 @@
         <v>1E</v>
       </c>
       <c r="S71" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>05</v>
       </c>
       <c r="T71" s="4" t="str">
@@ -9248,7 +9248,7 @@
         <v>1E</v>
       </c>
       <c r="W71" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0A</v>
       </c>
       <c r="X71" s="4" t="str">
@@ -9264,7 +9264,7 @@
         <v>1E</v>
       </c>
       <c r="AA71" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0C</v>
       </c>
       <c r="AB71" s="4" t="str">
@@ -9311,12 +9311,12 @@
         <v>14</v>
       </c>
       <c r="J72" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>08</v>
       </c>
       <c r="K72" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0B</v>
+        <v>0C</v>
       </c>
       <c r="L72" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9331,7 +9331,7 @@
         <v>13</v>
       </c>
       <c r="O72" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>06</v>
       </c>
       <c r="P72" s="4" t="str">
@@ -9347,7 +9347,7 @@
         <v>1C</v>
       </c>
       <c r="S72" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>06</v>
       </c>
       <c r="T72" s="4" t="str">
@@ -9363,7 +9363,7 @@
         <v>1C</v>
       </c>
       <c r="W72" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0B</v>
       </c>
       <c r="X72" s="4" t="str">
@@ -9379,7 +9379,7 @@
         <v>1C</v>
       </c>
       <c r="AA72" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0D</v>
       </c>
       <c r="AB72" s="4" t="str">
@@ -9426,12 +9426,12 @@
         <v>11</v>
       </c>
       <c r="J73" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>07</v>
+        <f t="shared" si="24"/>
+        <v>06</v>
       </c>
       <c r="K73" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0A</v>
+        <v>0B</v>
       </c>
       <c r="L73" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9446,7 +9446,7 @@
         <v>0D</v>
       </c>
       <c r="O73" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>05</v>
       </c>
       <c r="P73" s="4" t="str">
@@ -9462,7 +9462,7 @@
         <v>14</v>
       </c>
       <c r="S73" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>05</v>
       </c>
       <c r="T73" s="4" t="str">
@@ -9478,7 +9478,7 @@
         <v>14</v>
       </c>
       <c r="W73" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0A</v>
       </c>
       <c r="X73" s="4" t="str">
@@ -9494,7 +9494,7 @@
         <v>14</v>
       </c>
       <c r="AA73" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0C</v>
       </c>
       <c r="AB73" s="4" t="str">
@@ -9541,8 +9541,8 @@
         <v>19</v>
       </c>
       <c r="J74" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>07</v>
+        <f t="shared" si="24"/>
+        <v>06</v>
       </c>
       <c r="K74" s="4" t="str">
         <f t="shared" si="25"/>
@@ -9561,7 +9561,7 @@
         <v>0D</v>
       </c>
       <c r="O74" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>05</v>
       </c>
       <c r="P74" s="4" t="str">
@@ -9577,7 +9577,7 @@
         <v>14</v>
       </c>
       <c r="S74" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>05</v>
       </c>
       <c r="T74" s="4" t="str">
@@ -9593,7 +9593,7 @@
         <v>14</v>
       </c>
       <c r="W74" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0A</v>
       </c>
       <c r="X74" s="4" t="str">
@@ -9609,7 +9609,7 @@
         <v>14</v>
       </c>
       <c r="AA74" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0C</v>
       </c>
       <c r="AB74" s="4" t="str">
@@ -9650,12 +9650,12 @@
         <v>11</v>
       </c>
       <c r="J75" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>05</v>
+        <f t="shared" si="24"/>
+        <v>03</v>
       </c>
       <c r="K75" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0A</v>
+        <v>0B</v>
       </c>
       <c r="L75" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9670,7 +9670,7 @@
         <v>07</v>
       </c>
       <c r="O75" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>05</v>
       </c>
       <c r="P75" s="4" t="str">
@@ -9686,7 +9686,7 @@
         <v>0A</v>
       </c>
       <c r="S75" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>05</v>
       </c>
       <c r="T75" s="4" t="str">
@@ -9702,7 +9702,7 @@
         <v>0A</v>
       </c>
       <c r="W75" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0A</v>
       </c>
       <c r="X75" s="4" t="str">
@@ -9718,7 +9718,7 @@
         <v>0A</v>
       </c>
       <c r="AA75" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0C</v>
       </c>
       <c r="AB75" s="4" t="str">
@@ -9759,8 +9759,8 @@
         <v>14</v>
       </c>
       <c r="J76" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>06</v>
+        <f t="shared" si="24"/>
+        <v>04</v>
       </c>
       <c r="K76" s="4" t="str">
         <f t="shared" si="25"/>
@@ -9779,7 +9779,7 @@
         <v>0A</v>
       </c>
       <c r="O76" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>05</v>
       </c>
       <c r="P76" s="4" t="str">
@@ -9795,7 +9795,7 @@
         <v>0F</v>
       </c>
       <c r="S76" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>05</v>
       </c>
       <c r="T76" s="4" t="str">
@@ -9811,7 +9811,7 @@
         <v>0F</v>
       </c>
       <c r="W76" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0A</v>
       </c>
       <c r="X76" s="4" t="str">
@@ -9827,7 +9827,7 @@
         <v>0F</v>
       </c>
       <c r="AA76" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0C</v>
       </c>
       <c r="AB76" s="4" t="str">
@@ -9874,12 +9874,12 @@
         <v>12</v>
       </c>
       <c r="J77" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
+        <f t="shared" si="24"/>
+        <v>03</v>
       </c>
       <c r="K77" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0A</v>
+        <v>0B</v>
       </c>
       <c r="L77" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9894,7 +9894,7 @@
         <v>05</v>
       </c>
       <c r="O77" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>05</v>
       </c>
       <c r="P77" s="4" t="str">
@@ -9910,7 +9910,7 @@
         <v>08</v>
       </c>
       <c r="S77" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>05</v>
       </c>
       <c r="T77" s="4" t="str">
@@ -9926,7 +9926,7 @@
         <v>08</v>
       </c>
       <c r="W77" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0A</v>
       </c>
       <c r="X77" s="4" t="str">
@@ -9942,7 +9942,7 @@
         <v>08</v>
       </c>
       <c r="AA77" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0C</v>
       </c>
       <c r="AB77" s="4" t="str">
@@ -9986,8 +9986,8 @@
         <v>12</v>
       </c>
       <c r="J78" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>03</v>
+        <f t="shared" si="24"/>
+        <v>02</v>
       </c>
       <c r="K78" s="4" t="str">
         <f t="shared" si="25"/>
@@ -10006,7 +10006,7 @@
         <v>04</v>
       </c>
       <c r="O78" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>02</v>
       </c>
       <c r="P78" s="4" t="str">
@@ -10022,7 +10022,7 @@
         <v>06</v>
       </c>
       <c r="S78" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>02</v>
       </c>
       <c r="T78" s="4" t="str">
@@ -10038,7 +10038,7 @@
         <v>06</v>
       </c>
       <c r="W78" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>05</v>
       </c>
       <c r="X78" s="4" t="str">
@@ -10054,7 +10054,7 @@
         <v>06</v>
       </c>
       <c r="AA78" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>07</v>
       </c>
       <c r="AB78" s="4" t="str">
@@ -10095,8 +10095,8 @@
         <v>14</v>
       </c>
       <c r="J79" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>05</v>
+        <f t="shared" si="24"/>
+        <v>04</v>
       </c>
       <c r="K79" s="4" t="str">
         <f t="shared" si="25"/>
@@ -10115,7 +10115,7 @@
         <v>08</v>
       </c>
       <c r="O79" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>05</v>
       </c>
       <c r="P79" s="4" t="str">
@@ -10131,7 +10131,7 @@
         <v>0C</v>
       </c>
       <c r="S79" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>05</v>
       </c>
       <c r="T79" s="4" t="str">
@@ -10147,7 +10147,7 @@
         <v>0C</v>
       </c>
       <c r="W79" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0A</v>
       </c>
       <c r="X79" s="4" t="str">
@@ -10163,7 +10163,7 @@
         <v>0C</v>
       </c>
       <c r="AA79" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0C</v>
       </c>
       <c r="AB79" s="4" t="str">
@@ -10210,7 +10210,7 @@
         <v>11</v>
       </c>
       <c r="J80" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>08</v>
       </c>
       <c r="K80" s="4" t="str">
@@ -10230,7 +10230,7 @@
         <v>13</v>
       </c>
       <c r="O80" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>06</v>
       </c>
       <c r="P80" s="4" t="str">
@@ -10246,7 +10246,7 @@
         <v>1C</v>
       </c>
       <c r="S80" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>06</v>
       </c>
       <c r="T80" s="4" t="str">
@@ -10262,7 +10262,7 @@
         <v>1C</v>
       </c>
       <c r="W80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0B</v>
       </c>
       <c r="X80" s="4" t="str">
@@ -10278,7 +10278,7 @@
         <v>1C</v>
       </c>
       <c r="AA80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0D</v>
       </c>
       <c r="AB80" s="4" t="str">
@@ -10325,12 +10325,12 @@
         <v>19</v>
       </c>
       <c r="J81" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>08</v>
       </c>
       <c r="K81" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0B</v>
+        <v>0C</v>
       </c>
       <c r="L81" s="4" t="str">
         <f t="shared" si="26"/>
@@ -10345,7 +10345,7 @@
         <v>14</v>
       </c>
       <c r="O81" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>06</v>
       </c>
       <c r="P81" s="4" t="str">
@@ -10361,7 +10361,7 @@
         <v>1E</v>
       </c>
       <c r="S81" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>06</v>
       </c>
       <c r="T81" s="4" t="str">
@@ -10377,7 +10377,7 @@
         <v>1E</v>
       </c>
       <c r="W81" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0B</v>
       </c>
       <c r="X81" s="4" t="str">
@@ -10393,7 +10393,7 @@
         <v>1E</v>
       </c>
       <c r="AA81" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0D</v>
       </c>
       <c r="AB81" s="4" t="str">
@@ -10440,8 +10440,8 @@
         <v>14</v>
       </c>
       <c r="J82" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>07</v>
+        <f t="shared" si="24"/>
+        <v>06</v>
       </c>
       <c r="K82" s="4" t="str">
         <f t="shared" si="25"/>
@@ -10460,7 +10460,7 @@
         <v>0D</v>
       </c>
       <c r="O82" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>05</v>
       </c>
       <c r="P82" s="4" t="str">
@@ -10476,7 +10476,7 @@
         <v>14</v>
       </c>
       <c r="S82" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>05</v>
       </c>
       <c r="T82" s="4" t="str">
@@ -10492,7 +10492,7 @@
         <v>14</v>
       </c>
       <c r="W82" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0A</v>
       </c>
       <c r="X82" s="4" t="str">
@@ -10508,7 +10508,7 @@
         <v>14</v>
       </c>
       <c r="AA82" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0C</v>
       </c>
       <c r="AB82" s="4" t="str">
@@ -10555,12 +10555,12 @@
         <v>11</v>
       </c>
       <c r="J83" s="22" t="str">
-        <f>IF(OR($F83="28",$F83="00",$F83="7F",$F83="FF"),$F83,DEC2HEX(MAX(ROUND((3.25*LN(0.75*HEX2DEC($F83))-2),0),1),2))</f>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="K83" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0F</v>
+        <v>10</v>
       </c>
       <c r="L83" s="4" t="str">
         <f t="shared" si="26"/>
@@ -10575,7 +10575,7 @@
         <v>28</v>
       </c>
       <c r="O83" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P83" s="4" t="str">
@@ -10591,7 +10591,7 @@
         <v>28</v>
       </c>
       <c r="S83" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T83" s="4" t="str">
@@ -10607,7 +10607,7 @@
         <v>28</v>
       </c>
       <c r="W83" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0F</v>
       </c>
       <c r="X83" s="4" t="str">
@@ -10623,7 +10623,7 @@
         <v>28</v>
       </c>
       <c r="AA83" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="AB83" s="4" t="str">
@@ -10667,8 +10667,8 @@
         <v>14</v>
       </c>
       <c r="J84" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>08</v>
+        <f t="shared" si="24"/>
+        <v>07</v>
       </c>
       <c r="K84" s="4" t="str">
         <f t="shared" si="25"/>
@@ -10687,7 +10687,7 @@
         <v>11</v>
       </c>
       <c r="O84" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>05</v>
       </c>
       <c r="P84" s="4" t="str">
@@ -10703,7 +10703,7 @@
         <v>19</v>
       </c>
       <c r="S84" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>05</v>
       </c>
       <c r="T84" s="4" t="str">
@@ -10719,7 +10719,7 @@
         <v>19</v>
       </c>
       <c r="W84" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>09</v>
       </c>
       <c r="X84" s="4" t="str">
@@ -10735,7 +10735,7 @@
         <v>19</v>
       </c>
       <c r="AA84" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0B</v>
       </c>
       <c r="AB84" s="4" t="str">
@@ -10782,8 +10782,8 @@
         <v>11</v>
       </c>
       <c r="J85" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
+        <f t="shared" si="24"/>
+        <v>03</v>
       </c>
       <c r="K85" s="4" t="str">
         <f t="shared" si="25"/>
@@ -10802,7 +10802,7 @@
         <v>05</v>
       </c>
       <c r="O85" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>02</v>
       </c>
       <c r="P85" s="4" t="str">
@@ -10818,7 +10818,7 @@
         <v>08</v>
       </c>
       <c r="S85" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>02</v>
       </c>
       <c r="T85" s="4" t="str">
@@ -10834,7 +10834,7 @@
         <v>08</v>
       </c>
       <c r="W85" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>05</v>
       </c>
       <c r="X85" s="4" t="str">
@@ -10850,7 +10850,7 @@
         <v>08</v>
       </c>
       <c r="AA85" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>07</v>
       </c>
       <c r="AB85" s="4" t="str">
@@ -10891,7 +10891,7 @@
         <v>12</v>
       </c>
       <c r="J86" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>02</v>
       </c>
       <c r="K86" s="4" t="str">
@@ -10911,7 +10911,7 @@
         <v>03</v>
       </c>
       <c r="O86" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>02</v>
       </c>
       <c r="P86" s="4" t="str">
@@ -10927,7 +10927,7 @@
         <v>05</v>
       </c>
       <c r="S86" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>02</v>
       </c>
       <c r="T86" s="4" t="str">
@@ -10943,7 +10943,7 @@
         <v>05</v>
       </c>
       <c r="W86" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>05</v>
       </c>
       <c r="X86" s="4" t="str">
@@ -10959,7 +10959,7 @@
         <v>05</v>
       </c>
       <c r="AA86" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>07</v>
       </c>
       <c r="AB86" s="4" t="str">
@@ -11002,9 +11002,9 @@
       <c r="J87" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K87" s="33" t="str">
+      <c r="K87" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L87" s="33" t="str">
         <f t="shared" si="26"/>
@@ -11019,7 +11019,7 @@
         <v>0D</v>
       </c>
       <c r="O87" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P87" s="33" t="str">
@@ -11035,7 +11035,7 @@
         <v>14</v>
       </c>
       <c r="S87" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T87" s="33" t="str">
@@ -11051,7 +11051,7 @@
         <v>14</v>
       </c>
       <c r="W87" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0F</v>
       </c>
       <c r="X87" s="33" t="str">
@@ -11067,7 +11067,7 @@
         <v>14</v>
       </c>
       <c r="AA87" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="AB87" s="33" t="str">
@@ -11116,7 +11116,7 @@
       <c r="J88" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="K88" s="33" t="str">
+      <c r="K88" s="4" t="str">
         <f t="shared" si="25"/>
         <v>10</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>28</v>
       </c>
       <c r="O88" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P88" s="33" t="str">
@@ -11149,7 +11149,7 @@
         <v>28</v>
       </c>
       <c r="S88" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T88" s="33" t="str">
@@ -11230,7 +11230,7 @@
       <c r="J89" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K89" s="33" t="str">
+      <c r="K89" s="4" t="str">
         <f t="shared" si="25"/>
         <v>11</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>07</v>
       </c>
       <c r="O89" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>09</v>
       </c>
       <c r="P89" s="33" t="str">
@@ -11263,7 +11263,7 @@
         <v>0A</v>
       </c>
       <c r="S89" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>09</v>
       </c>
       <c r="T89" s="33" t="str">
@@ -11344,7 +11344,7 @@
       <c r="J90" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K90" s="33" t="str">
+      <c r="K90" s="4" t="str">
         <f t="shared" si="25"/>
         <v>10</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>01</v>
       </c>
       <c r="O90" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P90" s="33" t="str">
@@ -11377,7 +11377,7 @@
         <v>01</v>
       </c>
       <c r="S90" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T90" s="33" t="str">
@@ -11458,7 +11458,7 @@
       <c r="J91" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K91" s="33" t="str">
+      <c r="K91" s="4" t="str">
         <f t="shared" si="25"/>
         <v>13</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>0D</v>
       </c>
       <c r="O91" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0A</v>
       </c>
       <c r="P91" s="33" t="str">
@@ -11491,7 +11491,7 @@
         <v>14</v>
       </c>
       <c r="S91" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0A</v>
       </c>
       <c r="T91" s="33" t="str">
@@ -11570,8 +11570,8 @@
         <v>14</v>
       </c>
       <c r="J92" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>06</v>
+        <f t="shared" si="24"/>
+        <v>05</v>
       </c>
       <c r="K92" s="4" t="str">
         <f t="shared" si="25"/>
@@ -11590,7 +11590,7 @@
         <v>0B</v>
       </c>
       <c r="O92" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>03</v>
       </c>
       <c r="P92" s="4" t="str">
@@ -11606,7 +11606,7 @@
         <v>10</v>
       </c>
       <c r="S92" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>03</v>
       </c>
       <c r="T92" s="4" t="str">
@@ -11679,12 +11679,12 @@
         <v>11</v>
       </c>
       <c r="J93" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="K93" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L93" s="4" t="str">
         <f t="shared" si="26"/>
@@ -11699,7 +11699,7 @@
         <v>28</v>
       </c>
       <c r="O93" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P93" s="4" t="str">
@@ -11715,7 +11715,7 @@
         <v>28</v>
       </c>
       <c r="S93" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T93" s="4" t="str">
@@ -11788,12 +11788,12 @@
         <v>11</v>
       </c>
       <c r="J94" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="K94" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L94" s="4" t="str">
         <f t="shared" si="26"/>
@@ -11808,7 +11808,7 @@
         <v>28</v>
       </c>
       <c r="O94" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P94" s="4" t="str">
@@ -11824,7 +11824,7 @@
         <v>28</v>
       </c>
       <c r="S94" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T94" s="4" t="str">
@@ -11897,12 +11897,12 @@
         <v>11</v>
       </c>
       <c r="J95" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="K95" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L95" s="4" t="str">
         <f t="shared" si="26"/>
@@ -11917,7 +11917,7 @@
         <v>28</v>
       </c>
       <c r="O95" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P95" s="4" t="str">
@@ -11933,7 +11933,7 @@
         <v>28</v>
       </c>
       <c r="S95" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T95" s="4" t="str">
@@ -12006,12 +12006,12 @@
         <v>11</v>
       </c>
       <c r="J96" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="K96" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L96" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12026,7 +12026,7 @@
         <v>28</v>
       </c>
       <c r="O96" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P96" s="4" t="str">
@@ -12042,7 +12042,7 @@
         <v>28</v>
       </c>
       <c r="S96" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T96" s="4" t="str">
@@ -12115,12 +12115,12 @@
         <v>11</v>
       </c>
       <c r="J97" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="K97" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L97" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12135,7 +12135,7 @@
         <v>28</v>
       </c>
       <c r="O97" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P97" s="4" t="str">
@@ -12151,7 +12151,7 @@
         <v>28</v>
       </c>
       <c r="S97" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T97" s="4" t="str">
@@ -12224,12 +12224,12 @@
         <v>11</v>
       </c>
       <c r="J98" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="K98" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L98" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12244,7 +12244,7 @@
         <v>28</v>
       </c>
       <c r="O98" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P98" s="4" t="str">
@@ -12260,7 +12260,7 @@
         <v>28</v>
       </c>
       <c r="S98" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T98" s="4" t="str">
@@ -12333,12 +12333,12 @@
         <v>11</v>
       </c>
       <c r="J99" s="22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="K99" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L99" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12353,7 +12353,7 @@
         <v>28</v>
       </c>
       <c r="O99" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P99" s="4" t="str">
@@ -12369,7 +12369,7 @@
         <v>28</v>
       </c>
       <c r="S99" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T99" s="4" t="str">
@@ -12442,12 +12442,12 @@
         <v>14</v>
       </c>
       <c r="J100" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>07</v>
+        <f t="shared" si="24"/>
+        <v>06</v>
       </c>
       <c r="K100" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L100" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12462,7 +12462,7 @@
         <v>0D</v>
       </c>
       <c r="O100" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P100" s="4" t="str">
@@ -12478,7 +12478,7 @@
         <v>14</v>
       </c>
       <c r="S100" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T100" s="4" t="str">
@@ -12557,12 +12557,12 @@
         <v>14</v>
       </c>
       <c r="J101" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v>06</v>
+        <f t="shared" si="24"/>
+        <v>05</v>
       </c>
       <c r="K101" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L101" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12577,7 +12577,7 @@
         <v>0B</v>
       </c>
       <c r="O101" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P101" s="4" t="str">
@@ -12593,7 +12593,7 @@
         <v>10</v>
       </c>
       <c r="S101" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T101" s="4" t="str">
@@ -12672,12 +12672,12 @@
         <v>14</v>
       </c>
       <c r="J102" s="22" t="str">
-        <f>IF(OR($F102="28",$F102="00",$F102="7F",$F102="FF"),$F102,DEC2HEX(MAX(ROUND((3.25*LN(0.75*HEX2DEC($F102))-2),0),1),2))</f>
+        <f t="shared" si="24"/>
         <v>08</v>
       </c>
       <c r="K102" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L102" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12692,7 +12692,7 @@
         <v>14</v>
       </c>
       <c r="O102" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P102" s="4" t="str">
@@ -12708,7 +12708,7 @@
         <v>1E</v>
       </c>
       <c r="S102" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T102" s="4" t="str">
@@ -12787,12 +12787,12 @@
         <v>11</v>
       </c>
       <c r="J103" s="22" t="str">
-        <f t="shared" ref="J103:J112" si="44">IF(OR($F103="28",$F103="00",$F103="7F",$F103="FF"),$F103,DEC2HEX(MAX(ROUND((3.25*LN(0.75*HEX2DEC($F103))-2),0),1),2))</f>
-        <v>05</v>
+        <f t="shared" si="24"/>
+        <v>03</v>
       </c>
       <c r="K103" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>04</v>
+        <v>05</v>
       </c>
       <c r="L103" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12807,7 +12807,7 @@
         <v>07</v>
       </c>
       <c r="O103" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>02</v>
       </c>
       <c r="P103" s="4" t="str">
@@ -12823,7 +12823,7 @@
         <v>0A</v>
       </c>
       <c r="S103" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>02</v>
       </c>
       <c r="T103" s="4" t="str">
@@ -12898,7 +12898,7 @@
       <c r="J104" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K104" s="33" t="str">
+      <c r="K104" s="4" t="str">
         <f t="shared" si="25"/>
         <v>0E</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>01</v>
       </c>
       <c r="O104" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>07</v>
       </c>
       <c r="P104" s="33" t="str">
@@ -12931,7 +12931,7 @@
         <v>01</v>
       </c>
       <c r="S104" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>07</v>
       </c>
       <c r="T104" s="33" t="str">
@@ -12947,7 +12947,7 @@
         <v>01</v>
       </c>
       <c r="W104" s="14" t="str">
-        <f t="shared" ref="W104:W107" si="45">IF($G104="00",$G104,DEC2HEX(MAX(ROUND(HEX2DEC($G104)*3/13+1,0),2),2))</f>
+        <f t="shared" ref="W104:W107" si="44">IF($G104="00",$G104,DEC2HEX(MAX(ROUND(HEX2DEC($G104)*3/13+1,0),2),2))</f>
         <v>08</v>
       </c>
       <c r="X104" s="33" t="str">
@@ -12963,7 +12963,7 @@
         <v>01</v>
       </c>
       <c r="AA104" s="14" t="str">
-        <f t="shared" ref="AA104:AA107" si="46">IF($G104="00",$G104,DEC2HEX(MAX(ROUND(HEX2DEC($G104)*3/13+2,0),2),2))</f>
+        <f t="shared" ref="AA104:AA107" si="45">IF($G104="00",$G104,DEC2HEX(MAX(ROUND(HEX2DEC($G104)*3/13+2,0),2),2))</f>
         <v>09</v>
       </c>
       <c r="AB104" s="33" t="str">
@@ -13012,7 +13012,7 @@
       <c r="J105" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K105" s="33" t="str">
+      <c r="K105" s="4" t="str">
         <f t="shared" si="25"/>
         <v>11</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>07</v>
       </c>
       <c r="O105" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>09</v>
       </c>
       <c r="P105" s="33" t="str">
@@ -13045,7 +13045,7 @@
         <v>0A</v>
       </c>
       <c r="S105" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>09</v>
       </c>
       <c r="T105" s="33" t="str">
@@ -13061,7 +13061,7 @@
         <v>0A</v>
       </c>
       <c r="W105" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0A</v>
       </c>
       <c r="X105" s="33" t="str">
@@ -13077,7 +13077,7 @@
         <v>0A</v>
       </c>
       <c r="AA105" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0B</v>
       </c>
       <c r="AB105" s="33" t="str">
@@ -13126,7 +13126,7 @@
       <c r="J106" s="32">
         <v>14</v>
       </c>
-      <c r="K106" s="33" t="str">
+      <c r="K106" s="4" t="str">
         <f t="shared" si="25"/>
         <v>10</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>0D</v>
       </c>
       <c r="O106" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>08</v>
       </c>
       <c r="P106" s="33" t="str">
@@ -13159,7 +13159,7 @@
         <v>14</v>
       </c>
       <c r="S106" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>08</v>
       </c>
       <c r="T106" s="33" t="str">
@@ -13175,7 +13175,7 @@
         <v>14</v>
       </c>
       <c r="W106" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>09</v>
       </c>
       <c r="X106" s="33" t="str">
@@ -13191,7 +13191,7 @@
         <v>14</v>
       </c>
       <c r="AA106" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0A</v>
       </c>
       <c r="AB106" s="33" t="str">
@@ -13240,7 +13240,7 @@
       <c r="J107" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="K107" s="33" t="str">
+      <c r="K107" s="4" t="str">
         <f t="shared" si="25"/>
         <v>0E</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>28</v>
       </c>
       <c r="O107" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>07</v>
       </c>
       <c r="P107" s="33" t="str">
@@ -13273,7 +13273,7 @@
         <v>28</v>
       </c>
       <c r="S107" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>07</v>
       </c>
       <c r="T107" s="33" t="str">
@@ -13289,7 +13289,7 @@
         <v>28</v>
       </c>
       <c r="W107" s="14" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>08</v>
       </c>
       <c r="X107" s="33" t="str">
@@ -13305,7 +13305,7 @@
         <v>28</v>
       </c>
       <c r="AA107" s="14" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>09</v>
       </c>
       <c r="AB107" s="33" t="str">
@@ -13352,7 +13352,7 @@
         <v>11</v>
       </c>
       <c r="J108" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="K108" s="4" t="str">
@@ -13372,7 +13372,7 @@
         <v>28</v>
       </c>
       <c r="O108" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>09</v>
       </c>
       <c r="P108" s="4" t="str">
@@ -13388,7 +13388,7 @@
         <v>28</v>
       </c>
       <c r="S108" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>09</v>
       </c>
       <c r="T108" s="4" t="str">
@@ -13404,7 +13404,7 @@
         <v>28</v>
       </c>
       <c r="W108" s="4" t="str">
-        <f t="shared" ref="W108:W112" si="47">IF($G108="00",$G108,DEC2HEX(MAX(ROUND(HEX2DEC($G108)*6/15+1,0),2),2))</f>
+        <f t="shared" ref="W108:W112" si="46">IF($G108="00",$G108,DEC2HEX(MAX(ROUND(HEX2DEC($G108)*6/15+1,0),2),2))</f>
         <v>11</v>
       </c>
       <c r="X108" s="4" t="str">
@@ -13420,7 +13420,7 @@
         <v>28</v>
       </c>
       <c r="AA108" s="4" t="str">
-        <f t="shared" ref="AA108:AA112" si="48">IF($G108="00",$G108,DEC2HEX(MAX(ROUND(HEX2DEC($G108)*6/15+3,0),2),2))</f>
+        <f t="shared" ref="AA108:AA112" si="47">IF($G108="00",$G108,DEC2HEX(MAX(ROUND(HEX2DEC($G108)*6/15+3,0),2),2))</f>
         <v>13</v>
       </c>
       <c r="AB108" s="4" t="str">
@@ -13461,7 +13461,7 @@
         <v>11</v>
       </c>
       <c r="J109" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="24"/>
         <v>00</v>
       </c>
       <c r="K109" s="4" t="str">
@@ -13481,7 +13481,7 @@
         <v>00</v>
       </c>
       <c r="O109" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>00</v>
       </c>
       <c r="P109" s="4" t="str">
@@ -13497,7 +13497,7 @@
         <v>00</v>
       </c>
       <c r="S109" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>00</v>
       </c>
       <c r="T109" s="4" t="str">
@@ -13513,7 +13513,7 @@
         <v>00</v>
       </c>
       <c r="W109" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>00</v>
       </c>
       <c r="X109" s="4" t="str">
@@ -13529,7 +13529,7 @@
         <v>00</v>
       </c>
       <c r="AA109" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>00</v>
       </c>
       <c r="AB109" s="4" t="str">
@@ -13570,7 +13570,7 @@
         <v>11</v>
       </c>
       <c r="J110" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="24"/>
         <v>00</v>
       </c>
       <c r="K110" s="4" t="str">
@@ -13590,7 +13590,7 @@
         <v>00</v>
       </c>
       <c r="O110" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>00</v>
       </c>
       <c r="P110" s="4" t="str">
@@ -13606,7 +13606,7 @@
         <v>00</v>
       </c>
       <c r="S110" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>00</v>
       </c>
       <c r="T110" s="4" t="str">
@@ -13622,7 +13622,7 @@
         <v>00</v>
       </c>
       <c r="W110" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>00</v>
       </c>
       <c r="X110" s="4" t="str">
@@ -13638,7 +13638,7 @@
         <v>00</v>
       </c>
       <c r="AA110" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>00</v>
       </c>
       <c r="AB110" s="4" t="str">
@@ -13679,7 +13679,7 @@
         <v>11</v>
       </c>
       <c r="J111" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="24"/>
         <v>00</v>
       </c>
       <c r="K111" s="4" t="str">
@@ -13699,7 +13699,7 @@
         <v>00</v>
       </c>
       <c r="O111" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>00</v>
       </c>
       <c r="P111" s="4" t="str">
@@ -13715,7 +13715,7 @@
         <v>00</v>
       </c>
       <c r="S111" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>00</v>
       </c>
       <c r="T111" s="4" t="str">
@@ -13731,7 +13731,7 @@
         <v>00</v>
       </c>
       <c r="W111" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>00</v>
       </c>
       <c r="X111" s="4" t="str">
@@ -13747,7 +13747,7 @@
         <v>00</v>
       </c>
       <c r="AA111" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>00</v>
       </c>
       <c r="AB111" s="4" t="str">
@@ -13788,7 +13788,7 @@
         <v>11</v>
       </c>
       <c r="J112" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="24"/>
         <v>00</v>
       </c>
       <c r="K112" s="4" t="str">
@@ -13808,7 +13808,7 @@
         <v>00</v>
       </c>
       <c r="O112" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>00</v>
       </c>
       <c r="P112" s="4" t="str">
@@ -13824,7 +13824,7 @@
         <v>00</v>
       </c>
       <c r="S112" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>00</v>
       </c>
       <c r="T112" s="4" t="str">
@@ -13840,7 +13840,7 @@
         <v>00</v>
       </c>
       <c r="W112" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>00</v>
       </c>
       <c r="X112" s="4" t="str">
@@ -13856,7 +13856,7 @@
         <v>00</v>
       </c>
       <c r="AA112" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>00</v>
       </c>
       <c r="AB112" s="4" t="str">

--- a/data/EnemyTemplates.xlsx
+++ b/data/EnemyTemplates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bravo Properties\Documents\Gaming\Illusion of Gaia Randomizer\IoGR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB544272-F39A-4B1B-8E0A-EB3523B00BCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A749B-E47E-493E-84DD-30581EBBDD79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="3855" windowWidth="28575" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StatTable" sheetId="2" r:id="rId1"/>
@@ -1361,10 +1361,10 @@
   <dimension ref="A1:AE112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3:K112"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3:M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1553,7 +1553,7 @@
         <v>00</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f>IF($G3="00",$G3,DEC2HEX(MAX(ROUND(0.4145*HEX2DEC($G3)+1.669,0),2),2))</f>
+        <f>IF($G3="00",$G3,DEC2HEX(MAX(ROUND(0.4145*HEX2DEC($G3)+0.669,0),1),2))</f>
         <v>00</v>
       </c>
       <c r="L3" s="4" t="str">
@@ -1660,8 +1660,8 @@
         <v>02</v>
       </c>
       <c r="K4" s="4" t="str">
-        <f t="shared" ref="K4:K67" si="6">IF($G4="00",$G4,DEC2HEX(MAX(ROUND(0.4145*HEX2DEC($G4)+1.669,0),2),2))</f>
-        <v>02</v>
+        <f t="shared" ref="K4:K67" si="6">IF($G4="00",$G4,DEC2HEX(MAX(ROUND(0.4145*HEX2DEC($G4)+0.669,0),1),2))</f>
+        <v>01</v>
       </c>
       <c r="L4" s="4" t="str">
         <f t="shared" ref="L4:L67" si="7">IF(OR($H4="7F",$H4="FF"),$H4,"00")</f>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="K5" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" si="7"/>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="K6" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="L6" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="K7" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="L7" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="K8" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="L8" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="K10" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="L10" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="K11" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="L11" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="K12" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="L12" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="K13" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="L13" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="K14" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="L14" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="K15" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="L15" s="4" t="str">
         <f t="shared" si="7"/>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="K16" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="L16" s="4" t="str">
         <f t="shared" si="7"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="L17" s="4" t="str">
         <f t="shared" si="7"/>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="K18" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="L18" s="4" t="str">
         <f t="shared" si="7"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="K19" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" si="7"/>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>04</v>
+        <v>03</v>
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" si="7"/>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="K23" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="K27" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L27" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="K28" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L28" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="K29" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L29" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="K30" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L30" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="K31" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>06</v>
+        <v>05</v>
       </c>
       <c r="L31" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L32" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="K33" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>06</v>
+        <v>05</v>
       </c>
       <c r="L33" s="4" t="str">
         <f t="shared" si="7"/>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="K34" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="L34" s="4" t="str">
         <f t="shared" si="7"/>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="K35" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="L35" s="4" t="str">
         <f t="shared" si="7"/>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="K36" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L36" s="4" t="str">
         <f t="shared" si="7"/>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="K37" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>06</v>
+        <v>05</v>
       </c>
       <c r="L37" s="4" t="str">
         <f t="shared" si="7"/>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="K42" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>08</v>
+        <v>07</v>
       </c>
       <c r="L42" s="4" t="str">
         <f t="shared" si="7"/>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="K43" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="L43" s="4" t="str">
         <f t="shared" si="7"/>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="K44" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="L44" s="4" t="str">
         <f t="shared" si="7"/>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="K45" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="L45" s="4" t="str">
         <f t="shared" si="7"/>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="K46" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="L46" s="4" t="str">
         <f t="shared" si="7"/>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="K47" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="L47" s="4" t="str">
         <f t="shared" si="7"/>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="K48" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>08</v>
+        <v>07</v>
       </c>
       <c r="L48" s="4" t="str">
         <f t="shared" si="7"/>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="K49" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="L49" s="4" t="str">
         <f t="shared" si="7"/>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="K50" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="L50" s="4" t="str">
         <f t="shared" si="7"/>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="K51" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>08</v>
+        <v>07</v>
       </c>
       <c r="L51" s="4" t="str">
         <f t="shared" si="7"/>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="K52" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>0B</v>
+        <v>0A</v>
       </c>
       <c r="L52" s="4" t="str">
         <f t="shared" si="7"/>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="K53" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>08</v>
+        <v>07</v>
       </c>
       <c r="L53" s="4" t="str">
         <f t="shared" si="7"/>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="K54" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="L54" s="4" t="str">
         <f t="shared" si="7"/>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="K55" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>0A</v>
+        <v>09</v>
       </c>
       <c r="L55" s="4" t="str">
         <f t="shared" si="7"/>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="K56" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>08</v>
+        <v>07</v>
       </c>
       <c r="L56" s="4" t="str">
         <f t="shared" si="7"/>
@@ -7630,7 +7630,7 @@
       </c>
       <c r="K57" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>0A</v>
+        <v>09</v>
       </c>
       <c r="L57" s="4" t="str">
         <f t="shared" si="7"/>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="K58" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="L58" s="4" t="str">
         <f t="shared" si="7"/>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="K59" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L59" s="4" t="str">
         <f t="shared" si="7"/>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="K60" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L60" s="4" t="str">
         <f t="shared" si="7"/>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="K61" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L61" s="4" t="str">
         <f t="shared" si="7"/>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="K62" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="L62" s="4" t="str">
         <f t="shared" si="7"/>
@@ -8293,7 +8293,7 @@
       </c>
       <c r="K63" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="L63" s="4" t="str">
         <f t="shared" si="7"/>
@@ -8408,7 +8408,7 @@
       </c>
       <c r="K64" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>0A</v>
+        <v>09</v>
       </c>
       <c r="L64" s="4" t="str">
         <f t="shared" si="7"/>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="K65" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="L65" s="4" t="str">
         <f t="shared" si="7"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="K66" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>0A</v>
+        <v>09</v>
       </c>
       <c r="L66" s="4" t="str">
         <f t="shared" si="7"/>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="K67" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L67" s="4" t="str">
         <f t="shared" si="7"/>
@@ -8861,8 +8861,8 @@
         <v>02</v>
       </c>
       <c r="K68" s="4" t="str">
-        <f t="shared" ref="K68:K112" si="25">IF($G68="00",$G68,DEC2HEX(MAX(ROUND(0.4145*HEX2DEC($G68)+1.669,0),2),2))</f>
-        <v>05</v>
+        <f t="shared" ref="K68:K112" si="25">IF($G68="00",$G68,DEC2HEX(MAX(ROUND(0.4145*HEX2DEC($G68)+0.669,0),1),2))</f>
+        <v>04</v>
       </c>
       <c r="L68" s="4" t="str">
         <f t="shared" ref="L68:L112" si="26">IF(OR($H68="7F",$H68="FF"),$H68,"00")</f>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="K69" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0B</v>
+        <v>0A</v>
       </c>
       <c r="L69" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="K70" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0C</v>
+        <v>0B</v>
       </c>
       <c r="L70" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="K71" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0B</v>
+        <v>0A</v>
       </c>
       <c r="L71" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="K72" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0C</v>
+        <v>0B</v>
       </c>
       <c r="L72" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="K73" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0B</v>
+        <v>0A</v>
       </c>
       <c r="L73" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="K74" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0B</v>
+        <v>0A</v>
       </c>
       <c r="L74" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="K75" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0B</v>
+        <v>0A</v>
       </c>
       <c r="L75" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="K76" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0B</v>
+        <v>0A</v>
       </c>
       <c r="L76" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="K77" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0B</v>
+        <v>0A</v>
       </c>
       <c r="L77" s="4" t="str">
         <f t="shared" si="26"/>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="K78" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L78" s="4" t="str">
         <f t="shared" si="26"/>
@@ -10100,7 +10100,7 @@
       </c>
       <c r="K79" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0B</v>
+        <v>0A</v>
       </c>
       <c r="L79" s="4" t="str">
         <f t="shared" si="26"/>
@@ -10215,7 +10215,7 @@
       </c>
       <c r="K80" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0C</v>
+        <v>0B</v>
       </c>
       <c r="L80" s="4" t="str">
         <f t="shared" si="26"/>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="K81" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0C</v>
+        <v>0B</v>
       </c>
       <c r="L81" s="4" t="str">
         <f t="shared" si="26"/>
@@ -10445,7 +10445,7 @@
       </c>
       <c r="K82" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0B</v>
+        <v>0A</v>
       </c>
       <c r="L82" s="4" t="str">
         <f t="shared" si="26"/>
@@ -10560,7 +10560,7 @@
       </c>
       <c r="K83" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>0F</v>
       </c>
       <c r="L83" s="4" t="str">
         <f t="shared" si="26"/>
@@ -10672,7 +10672,7 @@
       </c>
       <c r="K84" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0A</v>
+        <v>09</v>
       </c>
       <c r="L84" s="4" t="str">
         <f t="shared" si="26"/>
@@ -10787,7 +10787,7 @@
       </c>
       <c r="K85" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L85" s="4" t="str">
         <f t="shared" si="26"/>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="K86" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L86" s="4" t="str">
         <f t="shared" si="26"/>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="K87" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L87" s="33" t="str">
         <f t="shared" si="26"/>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="K88" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>0F</v>
       </c>
       <c r="L88" s="33" t="str">
         <f t="shared" si="26"/>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="K89" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L89" s="33" t="str">
         <f t="shared" si="26"/>
@@ -11346,7 +11346,7 @@
       </c>
       <c r="K90" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>0F</v>
       </c>
       <c r="L90" s="33" t="str">
         <f t="shared" si="26"/>
@@ -11460,7 +11460,7 @@
       </c>
       <c r="K91" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L91" s="33" t="str">
         <f t="shared" si="26"/>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="K92" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="L92" s="4" t="str">
         <f t="shared" si="26"/>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="K93" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L93" s="4" t="str">
         <f t="shared" si="26"/>
@@ -11793,7 +11793,7 @@
       </c>
       <c r="K94" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L94" s="4" t="str">
         <f t="shared" si="26"/>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="K95" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L95" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="K96" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L96" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12120,7 +12120,7 @@
       </c>
       <c r="K97" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L97" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="K98" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L98" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12338,7 +12338,7 @@
       </c>
       <c r="K99" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L99" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12447,7 +12447,7 @@
       </c>
       <c r="K100" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L100" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12562,7 +12562,7 @@
       </c>
       <c r="K101" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L101" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12677,7 +12677,7 @@
       </c>
       <c r="K102" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L102" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12792,7 +12792,7 @@
       </c>
       <c r="K103" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="L103" s="4" t="str">
         <f t="shared" si="26"/>
@@ -12900,7 +12900,7 @@
       </c>
       <c r="K104" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0E</v>
+        <v>0D</v>
       </c>
       <c r="L104" s="33" t="str">
         <f t="shared" si="26"/>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="K105" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L105" s="33" t="str">
         <f t="shared" si="26"/>
@@ -13128,7 +13128,7 @@
       </c>
       <c r="K106" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>0F</v>
       </c>
       <c r="L106" s="33" t="str">
         <f t="shared" si="26"/>
@@ -13242,7 +13242,7 @@
       </c>
       <c r="K107" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>0E</v>
+        <v>0D</v>
       </c>
       <c r="L107" s="33" t="str">
         <f t="shared" si="26"/>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="K108" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L108" s="4" t="str">
         <f t="shared" si="26"/>

--- a/data/EnemyTemplates.xlsx
+++ b/data/EnemyTemplates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bravo Properties\Documents\Gaming\Illusion of Gaia Randomizer\IoGR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61A38B2-6711-4F5F-B5F5-E9C577E7E625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AB6310-8C48-4342-8FB9-85E81F52CE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2085" windowWidth="25230" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6585" yWindow="15" windowWidth="22215" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StatTable" sheetId="2" r:id="rId1"/>
@@ -2326,10 +2326,10 @@
   <dimension ref="A1:AE112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
+      <selection pane="bottomRight" activeCell="V98" sqref="V98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12234,7 +12234,7 @@
         <v>0A</v>
       </c>
       <c r="W89" s="4" t="str">
-        <f t="shared" ref="W89:W91" si="41">IF($G89="00",$G89,DEC2HEX(MAX(ROUND(HEX2DEC($G89)*6/15+1,0),2),2))</f>
+        <f t="shared" ref="W88:W91" si="41">IF($G89="00",$G89,DEC2HEX(MAX(ROUND(HEX2DEC($G89)*6/15+1,0),2),2))</f>
         <v>10</v>
       </c>
       <c r="X89" s="33" t="str">
@@ -12577,7 +12577,7 @@
         <v>10</v>
       </c>
       <c r="W92" s="4" t="str">
-        <f t="shared" ref="W92:W103" si="44">IF($G92="00",$G92,DEC2HEX(MAX(ROUND(HEX2DEC($G92)*6/15+1,0),2),2))</f>
+        <f t="shared" ref="W92:W107" si="44">IF($G92="00",$G92,DEC2HEX(MAX(ROUND(HEX2DEC($G92)*6/15+1,0),2),2))</f>
         <v>07</v>
       </c>
       <c r="X92" s="4" t="str">
